--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="All_TC_Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TC Change" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15349,4 +15350,7663 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E596"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>404</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>TC-DD-1.1</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>405</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>TC-DD-1.2</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>406</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>TC-DD-1.3</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>407</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>TC-DD-1.4</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>408</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>TC-DD-1.5</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>409</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>TC-DD-1.6</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>410</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>TC-DD-1.7</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>411</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>TC-DD-1.8</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>412</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>TC-DD-1.9</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>413</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>TC-DD-1.10</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>414</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>TC-DD-1.11</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>415</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>TC-DD-1.12</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>416</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>TC-DD-1.13</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>417</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>TC-DD-1.14</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>418</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>TC-DD-1.15</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>419</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>TC-DD-2.1</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>420</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>TC-DD-2.2</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>421</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>TC-DD-3.1</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>422</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>TC-DD-3.2</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>423</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>TC-DD-3.3</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>424</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>TC-DD-3.4</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>425</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>TC-DD-3.5</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>426</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>TC-DD-3.6</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>427</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>TC-DD-3.7</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>428</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>TC-DD-3.8</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>429</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>TC-DD-3.9</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>430</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>TC-DD-3.10</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>431</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>TC-DD-3.11</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>432</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>TC-DD-3.12</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>433</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>TC-DD-3.13</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>434</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>TC-DD-3.14</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>435</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>TC-DD-3.15</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>436</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>TC-DD-3.16</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>437</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>TC-DD-3.17</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>438</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>TC-DD-3.18</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>439</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>TC-DD-3.19</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>440</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>TC-DD-3.20</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>441</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>TC-DD-3.21</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>442</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Basic Information Test Plan</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>TC-BINFO-1.1</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>443</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Basic Information Test Plan</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>TC-BINFO-2.1</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>444</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Basic Information Test Plan</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>TC-BINFO-2.2</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>445</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Basic Information Test Plan</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>TC-BINFO-3.1</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>446</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-1.2</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>447</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.1</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>448</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.2</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>449</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.4</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>450</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.5</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>451</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.6</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>452</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.7</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>453</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.3</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>454</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>TC-CNET-1.3</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>455</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.2</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>456</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.3</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>457</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.4</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>458</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.5</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>459</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.6</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>460</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.9</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>461</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.10</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>462</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.11</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>463</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.12</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>464</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.13</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>465</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.14</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>466</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.15</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>467</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.16</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>468</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.22</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>469</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.20</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>470</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.21</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>471</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>TC-SC-1.1</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>472</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>TC-SC-1.2</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>473</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>TC-SC-1.3</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>474</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>TC-SC-1.4</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>475</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>TC-SC-2.1</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>476</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>TC-SC-2.2</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>477</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>TC-SC-2.3</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>478</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>TC-SC-2.4</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>479</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>TC-SC-3.1</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>480</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>TC-SC-3.2</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>481</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>TC-SC-3.3</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>482</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>TC-SC-3.4</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>483</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>TC-SC-3.5</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>484</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>[TC-SC-3.6] CASE Resource validation</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>TC-SC-3.6</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>485</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>TC-SC-4.1</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>486</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>TC-SC-4.2</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>487</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>TC-SC-4.3</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>488</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>TC-SC-4.4</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>489</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>TC-SC-4.5</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>490</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>TC-SC-4.6</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>491</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>TC-SC-4.7</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>492</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>TC-SC-4.8</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>493</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>TC-SC-4.9</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>494</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>TC-SC-4.10</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>495</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>TC-GRPKEY-1.1</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>496</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>TC-GRPKEY-2.1</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>497</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>TC-GRPKEY-2.2</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>498</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>TC-SC-5.1</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>499</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>TC-SC-5.2</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>500</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>TC-SC-5.3</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>501</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>TC-GRPKEY-5.4</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>502</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>TC-SC-6.1</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>503</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>TC-DA-1.1</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>504</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>TC-DA-1.2</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>505</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>TC-DA-1.3</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>506</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>TC-DA-1.4</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>507</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>TC-DA-1.5</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>508</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>TC-DA-1.6</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>509</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>TC-DA-1.7</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>510</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>TC-DA-1.8</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>511</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>TC-IDM-1.1</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>512</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>TC-IDM-1.2</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>513</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>TC-IDM-2.1</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>514</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>TC-IDM-2.2</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>515</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>TC-IDM-3.1</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>516</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>TC-IDM-3.2</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>517</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>TC-IDM-4.1</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>518</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>TC-IDM-4.2</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>519</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>TC-IDM-4.3</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>520</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>TC-IDM-4.4</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>521</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>TC-IDM-5.1</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>522</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>TC-IDM-5.2</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>523</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>TC-IDM-6.1</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>524</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>TC-IDM-6.2</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>525</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>TC-IDM-6.3</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>526</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>TC-IDM-6.4</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>527</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>TC-IDM-7.1</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>528</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>TC-IDM-8.1</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>529</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>TC-IDM-9.1</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>530</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>TC-IDM-10.1</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>531</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>TC-IDM-11.1</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>532</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.1</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>533</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.2</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>534</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.3</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>535</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.4</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>536</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.5</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>537</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.6</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>538</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.7</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>539</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.8</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>540</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.9</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>541</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.10</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>542</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.11</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>543</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.12</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>544</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.13</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>545</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.14</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>546</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.15</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>547</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.16</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>548</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.17</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>549</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.18</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>550</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.19</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>551</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.20</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>552</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.21</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>553</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.22</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>554</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.23</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>555</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.24</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>556</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.25</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>557</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.26</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>558</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Bridge Test Plan</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>TC-BR-1</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>559</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Bridge Test Plan</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>TC-BR-2</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>560</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Bridge Test Plan</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>TC-BR-3</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>561</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Bridge Test Plan</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>TC-BR-4</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>562</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>TC-BDX-1.1</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>563</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>TC-BDX-1.2</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>564</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>TC-BDX-1.3</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>565</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>TC-BDX-1.4</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>566</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>TC-BDX-1.5</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>567</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>TC-BDX-1.6</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>568</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.1] Synchronous File Sending</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.1</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>569</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.2</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>570</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.3</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>571</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.4</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>572</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.5</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>573</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>TC-SU-1.1</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>574</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>TC-SU-2.1</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>575</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>TC-SU-2.2</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>576</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>TC-SU-2.3</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>577</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>TC-SU-2.4</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>578</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>TC-SU-2.5</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>579</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>TC-SU-2.6</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>580</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>TC-SU-2.7</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>581</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>TC-SU-2.8</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>582</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>TC-SU-3.1</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>583</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>TC-SU-3.2</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>584</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>TC-SU-3.3</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>585</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>TC-SU-3.4</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>586</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>TC-SU-4.1</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>587</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>TC-SU-4.2</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>588</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.1] Privileges</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.1</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>589</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.2] Subscriptions</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.2</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>590</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.3] Subjects</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.3</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>591</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.4] Targets</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.4</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>592</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.5] Multi-fabric</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.5</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>593</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.6] Group auth mode</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.6</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>594</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Minimal Resource Requirements Test Plan</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>TC-RR-1.1</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>595</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>System Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>TC-SM-1.1</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>596</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>System Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>TC-SM-1.2</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="All_TC_Details" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TC Change" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15350,7663 +15349,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E596"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>404</v>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>TC-DD-1.1</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>405</v>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>TC-DD-1.2</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>406</v>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>TC-DD-1.3</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>407</v>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>TC-DD-1.4</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>408</v>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>TC-DD-1.5</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>409</v>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>TC-DD-1.6</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>410</v>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>TC-DD-1.7</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>411</v>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>TC-DD-1.8</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>412</v>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>TC-DD-1.9</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>413</v>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>TC-DD-1.10</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>414</v>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>TC-DD-1.11</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>415</v>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>TC-DD-1.12</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>416</v>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>TC-DD-1.13</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>417</v>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>TC-DD-1.14</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="n">
-        <v>418</v>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>TC-DD-1.15</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="n">
-        <v>419</v>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>TC-DD-2.1</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>420</v>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>TC-DD-2.2</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="n">
-        <v>421</v>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>TC-DD-3.1</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="n">
-        <v>422</v>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>TC-DD-3.2</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="n">
-        <v>423</v>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>TC-DD-3.3</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="n">
-        <v>424</v>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>TC-DD-3.4</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="n">
-        <v>425</v>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>TC-DD-3.5</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
-        <v>426</v>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>TC-DD-3.6</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>427</v>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>TC-DD-3.7</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="n">
-        <v>428</v>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>TC-DD-3.8</t>
-        </is>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="n">
-        <v>429</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>TC-DD-3.9</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="n">
-        <v>430</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>TC-DD-3.10</t>
-        </is>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="n">
-        <v>431</v>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>TC-DD-3.11</t>
-        </is>
-      </c>
-      <c r="E431" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="n">
-        <v>432</v>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>TC-DD-3.12</t>
-        </is>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="n">
-        <v>433</v>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>TC-DD-3.13</t>
-        </is>
-      </c>
-      <c r="E433" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="n">
-        <v>434</v>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>TC-DD-3.14</t>
-        </is>
-      </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="n">
-        <v>435</v>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>TC-DD-3.15</t>
-        </is>
-      </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="n">
-        <v>436</v>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>TC-DD-3.16</t>
-        </is>
-      </c>
-      <c r="E436" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="n">
-        <v>437</v>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>TC-DD-3.17</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="n">
-        <v>438</v>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>TC-DD-3.18</t>
-        </is>
-      </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="n">
-        <v>439</v>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>TC-DD-3.19</t>
-        </is>
-      </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="n">
-        <v>440</v>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>TC-DD-3.20</t>
-        </is>
-      </c>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="n">
-        <v>441</v>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>TC-DD-3.21</t>
-        </is>
-      </c>
-      <c r="E441" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="n">
-        <v>442</v>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>TC-BINFO-1.1</t>
-        </is>
-      </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="n">
-        <v>443</v>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>TC-BINFO-2.1</t>
-        </is>
-      </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="n">
-        <v>444</v>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>TC-BINFO-2.2</t>
-        </is>
-      </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="n">
-        <v>445</v>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>TC-BINFO-3.1</t>
-        </is>
-      </c>
-      <c r="E445" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="n">
-        <v>446</v>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-1.2</t>
-        </is>
-      </c>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>447</v>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.1</t>
-        </is>
-      </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>448</v>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.2</t>
-        </is>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>449</v>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.4</t>
-        </is>
-      </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="n">
-        <v>450</v>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.5</t>
-        </is>
-      </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
-        <v>451</v>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.6</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
-        <v>452</v>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.7</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>453</v>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.3</t>
-        </is>
-      </c>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>454</v>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>TC-CNET-1.3</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="n">
-        <v>455</v>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.2</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="n">
-        <v>456</v>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.3</t>
-        </is>
-      </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="n">
-        <v>457</v>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.4</t>
-        </is>
-      </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>458</v>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.5</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>459</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.6</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>460</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.9</t>
-        </is>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>461</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.10</t>
-        </is>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>462</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.11</t>
-        </is>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="n">
-        <v>463</v>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.12</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="n">
-        <v>464</v>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.13</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="n">
-        <v>465</v>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.14</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="n">
-        <v>466</v>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.15</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>467</v>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D467" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.16</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="n">
-        <v>468</v>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.22</t>
-        </is>
-      </c>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="n">
-        <v>469</v>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.20</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="n">
-        <v>470</v>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.21</t>
-        </is>
-      </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="n">
-        <v>471</v>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
-        </is>
-      </c>
-      <c r="D471" t="inlineStr">
-        <is>
-          <t>TC-SC-1.1</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>472</v>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>TC-SC-1.2</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>473</v>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>TC-SC-1.3</t>
-        </is>
-      </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>474</v>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr">
-        <is>
-          <t>TC-SC-1.4</t>
-        </is>
-      </c>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>475</v>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>TC-SC-2.1</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="n">
-        <v>476</v>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>TC-SC-2.2</t>
-        </is>
-      </c>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="n">
-        <v>477</v>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>TC-SC-2.3</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n">
-        <v>478</v>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>TC-SC-2.4</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="n">
-        <v>479</v>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>TC-SC-3.1</t>
-        </is>
-      </c>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="n">
-        <v>480</v>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>TC-SC-3.2</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>481</v>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>TC-SC-3.3</t>
-        </is>
-      </c>
-      <c r="E481" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>482</v>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>TC-SC-3.4</t>
-        </is>
-      </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>483</v>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>TC-SC-3.5</t>
-        </is>
-      </c>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>484</v>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.6] CASE Resource validation</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>TC-SC-3.6</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>485</v>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>TC-SC-4.1</t>
-        </is>
-      </c>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>486</v>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>TC-SC-4.2</t>
-        </is>
-      </c>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>487</v>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>TC-SC-4.3</t>
-        </is>
-      </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>488</v>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>TC-SC-4.4</t>
-        </is>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>489</v>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>TC-SC-4.5</t>
-        </is>
-      </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="n">
-        <v>490</v>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>TC-SC-4.6</t>
-        </is>
-      </c>
-      <c r="E490" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="n">
-        <v>491</v>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>TC-SC-4.7</t>
-        </is>
-      </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="n">
-        <v>492</v>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr">
-        <is>
-          <t>TC-SC-4.8</t>
-        </is>
-      </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="n">
-        <v>493</v>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>TC-SC-4.9</t>
-        </is>
-      </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="n">
-        <v>494</v>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>TC-SC-4.10</t>
-        </is>
-      </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="n">
-        <v>495</v>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-1.1</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="n">
-        <v>496</v>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-2.1</t>
-        </is>
-      </c>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="n">
-        <v>497</v>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-2.2</t>
-        </is>
-      </c>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n">
-        <v>498</v>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>TC-SC-5.1</t>
-        </is>
-      </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="n">
-        <v>499</v>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>TC-SC-5.2</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="n">
-        <v>500</v>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>TC-SC-5.3</t>
-        </is>
-      </c>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="n">
-        <v>501</v>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-5.4</t>
-        </is>
-      </c>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="n">
-        <v>502</v>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>TC-SC-6.1</t>
-        </is>
-      </c>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="n">
-        <v>503</v>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D503" t="inlineStr">
-        <is>
-          <t>TC-DA-1.1</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="n">
-        <v>504</v>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>TC-DA-1.2</t>
-        </is>
-      </c>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="n">
-        <v>505</v>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>TC-DA-1.3</t>
-        </is>
-      </c>
-      <c r="E505" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="n">
-        <v>506</v>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>TC-DA-1.4</t>
-        </is>
-      </c>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="n">
-        <v>507</v>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>TC-DA-1.5</t>
-        </is>
-      </c>
-      <c r="E507" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="n">
-        <v>508</v>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>TC-DA-1.6</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="n">
-        <v>509</v>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
-        </is>
-      </c>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>TC-DA-1.7</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="n">
-        <v>510</v>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>TC-DA-1.8</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="n">
-        <v>511</v>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>TC-IDM-1.1</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="n">
-        <v>512</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>TC-IDM-1.2</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="n">
-        <v>513</v>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>TC-IDM-2.1</t>
-        </is>
-      </c>
-      <c r="E513" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="n">
-        <v>514</v>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>TC-IDM-2.2</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="n">
-        <v>515</v>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>TC-IDM-3.1</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="n">
-        <v>516</v>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>TC-IDM-3.2</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="n">
-        <v>517</v>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.1</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="n">
-        <v>518</v>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.2</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="n">
-        <v>519</v>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.3</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="n">
-        <v>520</v>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.4</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="n">
-        <v>521</v>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>TC-IDM-5.1</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="n">
-        <v>522</v>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>TC-IDM-5.2</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="n">
-        <v>523</v>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.1</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="n">
-        <v>524</v>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.2</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="n">
-        <v>525</v>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.3</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="n">
-        <v>526</v>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.4</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="n">
-        <v>527</v>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>TC-IDM-7.1</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="n">
-        <v>528</v>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>TC-IDM-8.1</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="n">
-        <v>529</v>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>TC-IDM-9.1</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="n">
-        <v>530</v>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>TC-IDM-10.1</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="n">
-        <v>531</v>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>TC-IDM-11.1</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="n">
-        <v>532</v>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.1</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="n">
-        <v>533</v>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.2</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="n">
-        <v>534</v>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.3</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="n">
-        <v>535</v>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.4</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="n">
-        <v>536</v>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.5</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="n">
-        <v>537</v>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.6</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="n">
-        <v>538</v>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.7</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="n">
-        <v>539</v>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.8</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="n">
-        <v>540</v>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.9</t>
-        </is>
-      </c>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="n">
-        <v>541</v>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.10</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="n">
-        <v>542</v>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.11</t>
-        </is>
-      </c>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="n">
-        <v>543</v>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.12</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="n">
-        <v>544</v>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.13</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="n">
-        <v>545</v>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.14</t>
-        </is>
-      </c>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="n">
-        <v>546</v>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.15</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="n">
-        <v>547</v>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.16</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="n">
-        <v>548</v>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.17</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="n">
-        <v>549</v>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.18</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="n">
-        <v>550</v>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.19</t>
-        </is>
-      </c>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="n">
-        <v>551</v>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.20</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="n">
-        <v>552</v>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.21</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="n">
-        <v>553</v>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.22</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="n">
-        <v>554</v>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.23</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="n">
-        <v>555</v>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.24</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="n">
-        <v>556</v>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.25</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="n">
-        <v>557</v>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.26</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="n">
-        <v>558</v>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Bridge Test Plan</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>TC-BR-1</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="n">
-        <v>559</v>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Bridge Test Plan</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>TC-BR-2</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="n">
-        <v>560</v>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Bridge Test Plan</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>TC-BR-3</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="n">
-        <v>561</v>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Bridge Test Plan</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>TC-BR-4</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="n">
-        <v>562</v>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.1</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="n">
-        <v>563</v>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.2</t>
-        </is>
-      </c>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="n">
-        <v>564</v>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.3</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="n">
-        <v>565</v>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.4</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="n">
-        <v>566</v>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.5</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="n">
-        <v>567</v>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.6</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="n">
-        <v>568</v>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.1] Synchronous File Sending</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.1</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="n">
-        <v>569</v>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.2</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="n">
-        <v>570</v>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.3</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="n">
-        <v>571</v>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.4</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="n">
-        <v>572</v>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.5</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="n">
-        <v>573</v>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>TC-SU-1.1</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="n">
-        <v>574</v>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>TC-SU-2.1</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="n">
-        <v>575</v>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
-        </is>
-      </c>
-      <c r="D575" t="inlineStr">
-        <is>
-          <t>TC-SU-2.2</t>
-        </is>
-      </c>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="n">
-        <v>576</v>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>TC-SU-2.3</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="n">
-        <v>577</v>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>TC-SU-2.4</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="n">
-        <v>578</v>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>TC-SU-2.5</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="n">
-        <v>579</v>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>TC-SU-2.6</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="n">
-        <v>580</v>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>TC-SU-2.7</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="n">
-        <v>581</v>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>TC-SU-2.8</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="n">
-        <v>582</v>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>TC-SU-3.1</t>
-        </is>
-      </c>
-      <c r="E582" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="n">
-        <v>583</v>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>TC-SU-3.2</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="n">
-        <v>584</v>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>TC-SU-3.3</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="n">
-        <v>585</v>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>TC-SU-3.4</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="n">
-        <v>586</v>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>TC-SU-4.1</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="n">
-        <v>587</v>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>TC-SU-4.2</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="n">
-        <v>588</v>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.1] Privileges</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.1</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="n">
-        <v>589</v>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.2] Subscriptions</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.2</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="n">
-        <v>590</v>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.3] Subjects</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.3</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="n">
-        <v>591</v>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.4] Targets</t>
-        </is>
-      </c>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.4</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="n">
-        <v>592</v>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.5] Multi-fabric</t>
-        </is>
-      </c>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.5</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="n">
-        <v>593</v>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
-        </is>
-      </c>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.6</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="n">
-        <v>594</v>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Minimal Resource Requirements Test Plan</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>TC-RR-1.1</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="n">
-        <v>595</v>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>System Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>TC-SM-1.1</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="n">
-        <v>596</v>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>System Model Test Plan</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>TC-SM-1.2</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E596"/>
+  <dimension ref="A1:E604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10523,176 +10523,176 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-SMOKECO-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D404" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.1</t>
+          <t>TC-SMOKECO-1.1</t>
         </is>
       </c>
       <c r="E404" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-SMOKECO-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D405" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.2</t>
+          <t>TC-SMOKECO-2.1</t>
         </is>
       </c>
       <c r="E405" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-SMOKECO-2.2] Primary Functionality - Smoke Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D406" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.3</t>
+          <t>TC-SMOKECO-2.2</t>
         </is>
       </c>
       <c r="E406" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-SMOKECO-2.3] Primary Functionality - CO Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D407" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.4</t>
+          <t>TC-SMOKECO-2.3</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-SMOKECO-2.4] Secondary Functionality - Mandatory with DUT as Server</t>
         </is>
       </c>
       <c r="D408" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.5</t>
+          <t>TC-SMOKECO-2.4</t>
         </is>
       </c>
       <c r="E408" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-SMOKECO-2.5] Secondary Functionality - Optional with DUT as Server</t>
         </is>
       </c>
       <c r="D409" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.6</t>
+          <t>TC-SMOKECO-2.5</t>
         </is>
       </c>
       <c r="E409" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t xml:space="preserve">Smoke CO Alarm </t>
         </is>
       </c>
       <c r="C410" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
         </is>
       </c>
       <c r="D410" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.7</t>
+          <t>TC-SMOKECO-2.6</t>
         </is>
       </c>
       <c r="E410" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
@@ -10707,12 +10707,12 @@
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D411" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.8</t>
+          <t>TC-DD-1.1</t>
         </is>
       </c>
       <c r="E411" s="2" t="inlineStr">
@@ -10732,12 +10732,12 @@
       </c>
       <c r="C412" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D412" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.9</t>
+          <t>TC-DD-1.2</t>
         </is>
       </c>
       <c r="E412" s="2" t="inlineStr">
@@ -10757,12 +10757,12 @@
       </c>
       <c r="C413" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D413" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.10</t>
+          <t>TC-DD-1.3</t>
         </is>
       </c>
       <c r="E413" s="2" t="inlineStr">
@@ -10782,12 +10782,12 @@
       </c>
       <c r="C414" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D414" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.11</t>
+          <t>TC-DD-1.4</t>
         </is>
       </c>
       <c r="E414" s="2" t="inlineStr">
@@ -10807,12 +10807,12 @@
       </c>
       <c r="C415" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D415" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.12</t>
+          <t>TC-DD-1.5</t>
         </is>
       </c>
       <c r="E415" s="2" t="inlineStr">
@@ -10832,12 +10832,12 @@
       </c>
       <c r="C416" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D416" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.13</t>
+          <t>TC-DD-1.6</t>
         </is>
       </c>
       <c r="E416" s="2" t="inlineStr">
@@ -10857,12 +10857,12 @@
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D417" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.14</t>
+          <t>TC-DD-1.7</t>
         </is>
       </c>
       <c r="E417" s="2" t="inlineStr">
@@ -10882,12 +10882,12 @@
       </c>
       <c r="C418" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
+          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D418" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.15</t>
+          <t>TC-DD-1.8</t>
         </is>
       </c>
       <c r="E418" s="2" t="inlineStr">
@@ -10907,12 +10907,12 @@
       </c>
       <c r="C419" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D419" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-2.1</t>
+          <t>TC-DD-1.9</t>
         </is>
       </c>
       <c r="E419" s="2" t="inlineStr">
@@ -10932,12 +10932,12 @@
       </c>
       <c r="C420" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D420" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-2.2</t>
+          <t>TC-DD-1.10</t>
         </is>
       </c>
       <c r="E420" s="2" t="inlineStr">
@@ -10957,12 +10957,12 @@
       </c>
       <c r="C421" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
+          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D421" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.1</t>
+          <t>TC-DD-1.11</t>
         </is>
       </c>
       <c r="E421" s="2" t="inlineStr">
@@ -10982,12 +10982,12 @@
       </c>
       <c r="C422" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D422" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.2</t>
+          <t>TC-DD-1.12</t>
         </is>
       </c>
       <c r="E422" s="2" t="inlineStr">
@@ -11007,12 +11007,12 @@
       </c>
       <c r="C423" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
+          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D423" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.3</t>
+          <t>TC-DD-1.13</t>
         </is>
       </c>
       <c r="E423" s="2" t="inlineStr">
@@ -11032,12 +11032,12 @@
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
+          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D424" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.4</t>
+          <t>TC-DD-1.14</t>
         </is>
       </c>
       <c r="E424" s="2" t="inlineStr">
@@ -11057,12 +11057,12 @@
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
+          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D425" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.5</t>
+          <t>TC-DD-1.15</t>
         </is>
       </c>
       <c r="E425" s="2" t="inlineStr">
@@ -11082,12 +11082,12 @@
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D426" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.6</t>
+          <t>TC-DD-2.1</t>
         </is>
       </c>
       <c r="E426" s="2" t="inlineStr">
@@ -11107,12 +11107,12 @@
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D427" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.7</t>
+          <t>TC-DD-2.2</t>
         </is>
       </c>
       <c r="E427" s="2" t="inlineStr">
@@ -11132,12 +11132,12 @@
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D428" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.8</t>
+          <t>TC-DD-3.1</t>
         </is>
       </c>
       <c r="E428" s="2" t="inlineStr">
@@ -11157,12 +11157,12 @@
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D429" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.9</t>
+          <t>TC-DD-3.2</t>
         </is>
       </c>
       <c r="E429" s="2" t="inlineStr">
@@ -11182,12 +11182,12 @@
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
+          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D430" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.10</t>
+          <t>TC-DD-3.3</t>
         </is>
       </c>
       <c r="E430" s="2" t="inlineStr">
@@ -11207,12 +11207,12 @@
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D431" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.11</t>
+          <t>TC-DD-3.4</t>
         </is>
       </c>
       <c r="E431" s="2" t="inlineStr">
@@ -11232,12 +11232,12 @@
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D432" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.12</t>
+          <t>TC-DD-3.5</t>
         </is>
       </c>
       <c r="E432" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D433" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.13</t>
+          <t>TC-DD-3.6</t>
         </is>
       </c>
       <c r="E433" s="2" t="inlineStr">
@@ -11282,12 +11282,12 @@
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D434" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.14</t>
+          <t>TC-DD-3.7</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr">
@@ -11307,12 +11307,12 @@
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D435" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.15</t>
+          <t>TC-DD-3.8</t>
         </is>
       </c>
       <c r="E435" s="2" t="inlineStr">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D436" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.16</t>
+          <t>TC-DD-3.9</t>
         </is>
       </c>
       <c r="E436" s="2" t="inlineStr">
@@ -11357,12 +11357,12 @@
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D437" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.17</t>
+          <t>TC-DD-3.10</t>
         </is>
       </c>
       <c r="E437" s="2" t="inlineStr">
@@ -11382,12 +11382,12 @@
       </c>
       <c r="C438" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
+          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D438" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.18</t>
+          <t>TC-DD-3.11</t>
         </is>
       </c>
       <c r="E438" s="2" t="inlineStr">
@@ -11407,12 +11407,12 @@
       </c>
       <c r="C439" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
+          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D439" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.19</t>
+          <t>TC-DD-3.12</t>
         </is>
       </c>
       <c r="E439" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="C440" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D440" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.20</t>
+          <t>TC-DD-3.13</t>
         </is>
       </c>
       <c r="E440" s="2" t="inlineStr">
@@ -11457,12 +11457,12 @@
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D441" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.21</t>
+          <t>TC-DD-3.14</t>
         </is>
       </c>
       <c r="E441" s="2" t="inlineStr">
@@ -11477,17 +11477,17 @@
       </c>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D442" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-1.1</t>
+          <t>TC-DD-3.15</t>
         </is>
       </c>
       <c r="E442" s="2" t="inlineStr">
@@ -11502,17 +11502,17 @@
       </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D443" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-2.1</t>
+          <t>TC-DD-3.16</t>
         </is>
       </c>
       <c r="E443" s="2" t="inlineStr">
@@ -11527,17 +11527,17 @@
       </c>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
+          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D444" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-2.2</t>
+          <t>TC-DD-3.17</t>
         </is>
       </c>
       <c r="E444" s="2" t="inlineStr">
@@ -11552,17 +11552,17 @@
       </c>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D445" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-3.1</t>
+          <t>TC-DD-3.18</t>
         </is>
       </c>
       <c r="E445" s="2" t="inlineStr">
@@ -11577,17 +11577,17 @@
       </c>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
+          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D446" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-1.2</t>
+          <t>TC-DD-3.19</t>
         </is>
       </c>
       <c r="E446" s="2" t="inlineStr">
@@ -11602,17 +11602,17 @@
       </c>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
+          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D447" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.1</t>
+          <t>TC-DD-3.20</t>
         </is>
       </c>
       <c r="E447" s="2" t="inlineStr">
@@ -11627,17 +11627,17 @@
       </c>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D448" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.2</t>
+          <t>TC-DD-3.21</t>
         </is>
       </c>
       <c r="E448" s="2" t="inlineStr">
@@ -11652,17 +11652,17 @@
       </c>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Basic Information Test Plan</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
+          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D449" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.4</t>
+          <t>TC-BINFO-1.1</t>
         </is>
       </c>
       <c r="E449" s="2" t="inlineStr">
@@ -11677,17 +11677,17 @@
       </c>
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Basic Information Test Plan</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
+          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D450" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.5</t>
+          <t>TC-BINFO-2.1</t>
         </is>
       </c>
       <c r="E450" s="2" t="inlineStr">
@@ -11702,17 +11702,17 @@
       </c>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Basic Information Test Plan</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
+          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D451" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.6</t>
+          <t>TC-BINFO-2.2</t>
         </is>
       </c>
       <c r="E451" s="2" t="inlineStr">
@@ -11727,17 +11727,17 @@
       </c>
       <c r="B452" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Basic Information Test Plan</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="D452" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.7</t>
+          <t>TC-BINFO-3.1</t>
         </is>
       </c>
       <c r="E452" s="2" t="inlineStr">
@@ -11757,12 +11757,12 @@
       </c>
       <c r="C453" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D453" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.3</t>
+          <t>TC-OPCREDS-1.2</t>
         </is>
       </c>
       <c r="E453" s="2" t="inlineStr">
@@ -11777,17 +11777,17 @@
       </c>
       <c r="B454" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
+          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D454" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-1.3</t>
+          <t>TC-OPCREDS-3.1</t>
         </is>
       </c>
       <c r="E454" s="2" t="inlineStr">
@@ -11802,17 +11802,17 @@
       </c>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D455" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.2</t>
+          <t>TC-OPCREDS-3.2</t>
         </is>
       </c>
       <c r="E455" s="2" t="inlineStr">
@@ -11827,17 +11827,17 @@
       </c>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
         </is>
       </c>
       <c r="D456" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.3</t>
+          <t>TC-OPCREDS-3.4</t>
         </is>
       </c>
       <c r="E456" s="2" t="inlineStr">
@@ -11852,17 +11852,17 @@
       </c>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
         </is>
       </c>
       <c r="D457" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.4</t>
+          <t>TC-OPCREDS-3.5</t>
         </is>
       </c>
       <c r="E457" s="2" t="inlineStr">
@@ -11877,17 +11877,17 @@
       </c>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D458" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.5</t>
+          <t>TC-OPCREDS-3.6</t>
         </is>
       </c>
       <c r="E458" s="2" t="inlineStr">
@@ -11902,17 +11902,17 @@
       </c>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
         </is>
       </c>
       <c r="D459" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.6</t>
+          <t>TC-OPCREDS-3.7</t>
         </is>
       </c>
       <c r="E459" s="2" t="inlineStr">
@@ -11927,17 +11927,17 @@
       </c>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D460" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.9</t>
+          <t>TC-OPCREDS-3.3</t>
         </is>
       </c>
       <c r="E460" s="2" t="inlineStr">
@@ -11957,12 +11957,12 @@
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D461" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.10</t>
+          <t>TC-CNET-1.3</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr">
@@ -11982,12 +11982,12 @@
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D462" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.11</t>
+          <t>TC-CNET-4.2</t>
         </is>
       </c>
       <c r="E462" s="2" t="inlineStr">
@@ -12007,12 +12007,12 @@
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D463" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.12</t>
+          <t>TC-CNET-4.3</t>
         </is>
       </c>
       <c r="E463" s="2" t="inlineStr">
@@ -12032,12 +12032,12 @@
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D464" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.13</t>
+          <t>TC-CNET-4.4</t>
         </is>
       </c>
       <c r="E464" s="2" t="inlineStr">
@@ -12057,12 +12057,12 @@
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D465" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.14</t>
+          <t>TC-CNET-4.5</t>
         </is>
       </c>
       <c r="E465" s="2" t="inlineStr">
@@ -12082,12 +12082,12 @@
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D466" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.15</t>
+          <t>TC-CNET-4.6</t>
         </is>
       </c>
       <c r="E466" s="2" t="inlineStr">
@@ -12107,12 +12107,12 @@
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D467" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.16</t>
+          <t>TC-CNET-4.9</t>
         </is>
       </c>
       <c r="E467" s="2" t="inlineStr">
@@ -12132,12 +12132,12 @@
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D468" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.22</t>
+          <t>TC-CNET-4.10</t>
         </is>
       </c>
       <c r="E468" s="2" t="inlineStr">
@@ -12157,12 +12157,12 @@
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D469" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.20</t>
+          <t>TC-CNET-4.11</t>
         </is>
       </c>
       <c r="E469" s="2" t="inlineStr">
@@ -12182,12 +12182,12 @@
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D470" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.21</t>
+          <t>TC-CNET-4.12</t>
         </is>
       </c>
       <c r="E470" s="2" t="inlineStr">
@@ -12202,17 +12202,17 @@
       </c>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
+          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D471" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.1</t>
+          <t>TC-CNET-4.13</t>
         </is>
       </c>
       <c r="E471" s="2" t="inlineStr">
@@ -12227,17 +12227,17 @@
       </c>
       <c r="B472" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
+          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D472" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.2</t>
+          <t>TC-CNET-4.14</t>
         </is>
       </c>
       <c r="E472" s="2" t="inlineStr">
@@ -12252,17 +12252,17 @@
       </c>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
+          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D473" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.3</t>
+          <t>TC-CNET-4.15</t>
         </is>
       </c>
       <c r="E473" s="2" t="inlineStr">
@@ -12277,17 +12277,17 @@
       </c>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
+          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D474" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.4</t>
+          <t>TC-CNET-4.16</t>
         </is>
       </c>
       <c r="E474" s="2" t="inlineStr">
@@ -12302,17 +12302,17 @@
       </c>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D475" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.1</t>
+          <t>TC-CNET-4.22</t>
         </is>
       </c>
       <c r="E475" s="2" t="inlineStr">
@@ -12327,17 +12327,17 @@
       </c>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D476" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.2</t>
+          <t>TC-CNET-4.20</t>
         </is>
       </c>
       <c r="E476" s="2" t="inlineStr">
@@ -12352,17 +12352,17 @@
       </c>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D477" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.3</t>
+          <t>TC-CNET-4.21</t>
         </is>
       </c>
       <c r="E477" s="2" t="inlineStr">
@@ -12382,12 +12382,12 @@
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
+          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
         </is>
       </c>
       <c r="D478" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.4</t>
+          <t>TC-SC-1.1</t>
         </is>
       </c>
       <c r="E478" s="2" t="inlineStr">
@@ -12407,12 +12407,12 @@
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
+          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
         </is>
       </c>
       <c r="D479" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.1</t>
+          <t>TC-SC-1.2</t>
         </is>
       </c>
       <c r="E479" s="2" t="inlineStr">
@@ -12432,12 +12432,12 @@
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
+          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
         </is>
       </c>
       <c r="D480" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.2</t>
+          <t>TC-SC-1.3</t>
         </is>
       </c>
       <c r="E480" s="2" t="inlineStr">
@@ -12457,12 +12457,12 @@
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
         </is>
       </c>
       <c r="D481" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.3</t>
+          <t>TC-SC-1.4</t>
         </is>
       </c>
       <c r="E481" s="2" t="inlineStr">
@@ -12482,12 +12482,12 @@
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
+          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D482" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.4</t>
+          <t>TC-SC-2.1</t>
         </is>
       </c>
       <c r="E482" s="2" t="inlineStr">
@@ -12507,12 +12507,12 @@
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D483" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.5</t>
+          <t>TC-SC-2.2</t>
         </is>
       </c>
       <c r="E483" s="2" t="inlineStr">
@@ -12532,12 +12532,12 @@
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.6] CASE Resource validation</t>
+          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D484" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.6</t>
+          <t>TC-SC-2.3</t>
         </is>
       </c>
       <c r="E484" s="2" t="inlineStr">
@@ -12557,12 +12557,12 @@
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D485" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.1</t>
+          <t>TC-SC-2.4</t>
         </is>
       </c>
       <c r="E485" s="2" t="inlineStr">
@@ -12582,12 +12582,12 @@
       </c>
       <c r="C486" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
         </is>
       </c>
       <c r="D486" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.2</t>
+          <t>TC-SC-3.1</t>
         </is>
       </c>
       <c r="E486" s="2" t="inlineStr">
@@ -12607,12 +12607,12 @@
       </c>
       <c r="C487" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
         </is>
       </c>
       <c r="D487" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.3</t>
+          <t>TC-SC-3.2</t>
         </is>
       </c>
       <c r="E487" s="2" t="inlineStr">
@@ -12632,12 +12632,12 @@
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
+          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D488" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.4</t>
+          <t>TC-SC-3.3</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr">
@@ -12657,12 +12657,12 @@
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
+          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
         </is>
       </c>
       <c r="D489" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.5</t>
+          <t>TC-SC-3.4</t>
         </is>
       </c>
       <c r="E489" s="2" t="inlineStr">
@@ -12682,12 +12682,12 @@
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D490" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.6</t>
+          <t>TC-SC-3.5</t>
         </is>
       </c>
       <c r="E490" s="2" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-3.6] CASE Resource validation</t>
         </is>
       </c>
       <c r="D491" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.7</t>
+          <t>TC-SC-3.6</t>
         </is>
       </c>
       <c r="E491" s="2" t="inlineStr">
@@ -12732,12 +12732,12 @@
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
+          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D492" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.8</t>
+          <t>TC-SC-4.1</t>
         </is>
       </c>
       <c r="E492" s="2" t="inlineStr">
@@ -12757,12 +12757,12 @@
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
+          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D493" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.9</t>
+          <t>TC-SC-4.2</t>
         </is>
       </c>
       <c r="E493" s="2" t="inlineStr">
@@ -12782,12 +12782,12 @@
       </c>
       <c r="C494" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D494" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.10</t>
+          <t>TC-SC-4.3</t>
         </is>
       </c>
       <c r="E494" s="2" t="inlineStr">
@@ -12802,17 +12802,17 @@
       </c>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
         </is>
       </c>
       <c r="D495" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-1.1</t>
+          <t>TC-SC-4.4</t>
         </is>
       </c>
       <c r="E495" s="2" t="inlineStr">
@@ -12827,17 +12827,17 @@
       </c>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
         </is>
       </c>
       <c r="D496" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-2.1</t>
+          <t>TC-SC-4.5</t>
         </is>
       </c>
       <c r="E496" s="2" t="inlineStr">
@@ -12852,17 +12852,17 @@
       </c>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D497" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-2.2</t>
+          <t>TC-SC-4.6</t>
         </is>
       </c>
       <c r="E497" s="2" t="inlineStr">
@@ -12877,17 +12877,17 @@
       </c>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
+          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D498" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-5.1</t>
+          <t>TC-SC-4.7</t>
         </is>
       </c>
       <c r="E498" s="2" t="inlineStr">
@@ -12902,17 +12902,17 @@
       </c>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
+          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D499" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-5.2</t>
+          <t>TC-SC-4.8</t>
         </is>
       </c>
       <c r="E499" s="2" t="inlineStr">
@@ -12927,17 +12927,17 @@
       </c>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
+          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D500" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-5.3</t>
+          <t>TC-SC-4.9</t>
         </is>
       </c>
       <c r="E500" s="2" t="inlineStr">
@@ -12952,17 +12952,17 @@
       </c>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D501" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-5.4</t>
+          <t>TC-SC-4.10</t>
         </is>
       </c>
       <c r="E501" s="2" t="inlineStr">
@@ -12982,12 +12982,12 @@
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D502" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-6.1</t>
+          <t>TC-GRPKEY-1.1</t>
         </is>
       </c>
       <c r="E502" s="2" t="inlineStr">
@@ -13002,17 +13002,17 @@
       </c>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
+          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D503" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.1</t>
+          <t>TC-GRPKEY-2.1</t>
         </is>
       </c>
       <c r="E503" s="2" t="inlineStr">
@@ -13027,17 +13027,17 @@
       </c>
       <c r="B504" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C504" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
+          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D504" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.2</t>
+          <t>TC-GRPKEY-2.2</t>
         </is>
       </c>
       <c r="E504" s="2" t="inlineStr">
@@ -13052,17 +13052,17 @@
       </c>
       <c r="B505" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C505" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
+          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
         </is>
       </c>
       <c r="D505" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.3</t>
+          <t>TC-SC-5.1</t>
         </is>
       </c>
       <c r="E505" s="2" t="inlineStr">
@@ -13077,17 +13077,17 @@
       </c>
       <c r="B506" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C506" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
+          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
         </is>
       </c>
       <c r="D506" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.4</t>
+          <t>TC-SC-5.2</t>
         </is>
       </c>
       <c r="E506" s="2" t="inlineStr">
@@ -13102,17 +13102,17 @@
       </c>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
+          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
         </is>
       </c>
       <c r="D507" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.5</t>
+          <t>TC-SC-5.3</t>
         </is>
       </c>
       <c r="E507" s="2" t="inlineStr">
@@ -13127,17 +13127,17 @@
       </c>
       <c r="B508" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
+          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
         </is>
       </c>
       <c r="D508" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.6</t>
+          <t>TC-GRPKEY-5.4</t>
         </is>
       </c>
       <c r="E508" s="2" t="inlineStr">
@@ -13152,17 +13152,17 @@
       </c>
       <c r="B509" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
+          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
         </is>
       </c>
       <c r="D509" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.7</t>
+          <t>TC-SC-6.1</t>
         </is>
       </c>
       <c r="E509" s="2" t="inlineStr">
@@ -13182,12 +13182,12 @@
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D510" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.8</t>
+          <t>TC-DA-1.1</t>
         </is>
       </c>
       <c r="E510" s="2" t="inlineStr">
@@ -13202,17 +13202,17 @@
       </c>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
+          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D511" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-1.1</t>
+          <t>TC-DA-1.2</t>
         </is>
       </c>
       <c r="E511" s="2" t="inlineStr">
@@ -13227,17 +13227,17 @@
       </c>
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
+          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D512" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-1.2</t>
+          <t>TC-DA-1.3</t>
         </is>
       </c>
       <c r="E512" s="2" t="inlineStr">
@@ -13252,17 +13252,17 @@
       </c>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D513" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-2.1</t>
+          <t>TC-DA-1.4</t>
         </is>
       </c>
       <c r="E513" s="2" t="inlineStr">
@@ -13277,17 +13277,17 @@
       </c>
       <c r="B514" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D514" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-2.2</t>
+          <t>TC-DA-1.5</t>
         </is>
       </c>
       <c r="E514" s="2" t="inlineStr">
@@ -13302,17 +13302,17 @@
       </c>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D515" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-3.1</t>
+          <t>TC-DA-1.6</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr">
@@ -13327,17 +13327,17 @@
       </c>
       <c r="B516" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
         </is>
       </c>
       <c r="D516" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-3.2</t>
+          <t>TC-DA-1.7</t>
         </is>
       </c>
       <c r="E516" s="2" t="inlineStr">
@@ -13352,17 +13352,17 @@
       </c>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D517" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.1</t>
+          <t>TC-DA-1.8</t>
         </is>
       </c>
       <c r="E517" s="2" t="inlineStr">
@@ -13382,12 +13382,12 @@
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
         </is>
       </c>
       <c r="D518" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.2</t>
+          <t>TC-IDM-1.1</t>
         </is>
       </c>
       <c r="E518" s="2" t="inlineStr">
@@ -13407,12 +13407,12 @@
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
         </is>
       </c>
       <c r="D519" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.3</t>
+          <t>TC-IDM-1.2</t>
         </is>
       </c>
       <c r="E519" s="2" t="inlineStr">
@@ -13432,12 +13432,12 @@
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D520" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.4</t>
+          <t>TC-IDM-2.1</t>
         </is>
       </c>
       <c r="E520" s="2" t="inlineStr">
@@ -13457,12 +13457,12 @@
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D521" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-5.1</t>
+          <t>TC-IDM-2.2</t>
         </is>
       </c>
       <c r="E521" s="2" t="inlineStr">
@@ -13482,12 +13482,12 @@
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
+          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D522" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-5.2</t>
+          <t>TC-IDM-3.1</t>
         </is>
       </c>
       <c r="E522" s="2" t="inlineStr">
@@ -13507,12 +13507,12 @@
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D523" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.1</t>
+          <t>TC-IDM-3.2</t>
         </is>
       </c>
       <c r="E523" s="2" t="inlineStr">
@@ -13532,12 +13532,12 @@
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
         </is>
       </c>
       <c r="D524" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.2</t>
+          <t>TC-IDM-4.1</t>
         </is>
       </c>
       <c r="E524" s="2" t="inlineStr">
@@ -13557,12 +13557,12 @@
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D525" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.3</t>
+          <t>TC-IDM-4.2</t>
         </is>
       </c>
       <c r="E525" s="2" t="inlineStr">
@@ -13582,12 +13582,12 @@
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D526" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.4</t>
+          <t>TC-IDM-4.3</t>
         </is>
       </c>
       <c r="E526" s="2" t="inlineStr">
@@ -13607,12 +13607,12 @@
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D527" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-7.1</t>
+          <t>TC-IDM-4.4</t>
         </is>
       </c>
       <c r="E527" s="2" t="inlineStr">
@@ -13632,12 +13632,12 @@
       </c>
       <c r="C528" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D528" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-8.1</t>
+          <t>TC-IDM-5.1</t>
         </is>
       </c>
       <c r="E528" s="2" t="inlineStr">
@@ -13657,12 +13657,12 @@
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
+          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
         </is>
       </c>
       <c r="D529" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-9.1</t>
+          <t>TC-IDM-5.2</t>
         </is>
       </c>
       <c r="E529" s="2" t="inlineStr">
@@ -13682,12 +13682,12 @@
       </c>
       <c r="C530" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
+          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D530" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-10.1</t>
+          <t>TC-IDM-6.1</t>
         </is>
       </c>
       <c r="E530" s="2" t="inlineStr">
@@ -13707,12 +13707,12 @@
       </c>
       <c r="C531" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D531" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-11.1</t>
+          <t>TC-IDM-6.2</t>
         </is>
       </c>
       <c r="E531" s="2" t="inlineStr">
@@ -13727,17 +13727,17 @@
       </c>
       <c r="B532" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C532" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
+          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D532" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.1</t>
+          <t>TC-IDM-6.3</t>
         </is>
       </c>
       <c r="E532" s="2" t="inlineStr">
@@ -13752,17 +13752,17 @@
       </c>
       <c r="B533" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C533" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
+          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D533" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.2</t>
+          <t>TC-IDM-6.4</t>
         </is>
       </c>
       <c r="E533" s="2" t="inlineStr">
@@ -13777,17 +13777,17 @@
       </c>
       <c r="B534" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C534" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
+          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D534" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.3</t>
+          <t>TC-IDM-7.1</t>
         </is>
       </c>
       <c r="E534" s="2" t="inlineStr">
@@ -13802,17 +13802,17 @@
       </c>
       <c r="B535" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C535" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
+          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D535" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.4</t>
+          <t>TC-IDM-8.1</t>
         </is>
       </c>
       <c r="E535" s="2" t="inlineStr">
@@ -13827,17 +13827,17 @@
       </c>
       <c r="B536" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C536" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
+          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D536" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.5</t>
+          <t>TC-IDM-9.1</t>
         </is>
       </c>
       <c r="E536" s="2" t="inlineStr">
@@ -13852,17 +13852,17 @@
       </c>
       <c r="B537" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C537" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
+          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D537" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.6</t>
+          <t>TC-IDM-10.1</t>
         </is>
       </c>
       <c r="E537" s="2" t="inlineStr">
@@ -13877,17 +13877,17 @@
       </c>
       <c r="B538" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="C538" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
         </is>
       </c>
       <c r="D538" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.7</t>
+          <t>TC-IDM-11.1</t>
         </is>
       </c>
       <c r="E538" s="2" t="inlineStr">
@@ -13907,12 +13907,12 @@
       </c>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D539" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.8</t>
+          <t>TC-CADMIN-1.1</t>
         </is>
       </c>
       <c r="E539" s="2" t="inlineStr">
@@ -13932,12 +13932,12 @@
       </c>
       <c r="C540" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D540" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.9</t>
+          <t>TC-CADMIN-1.2</t>
         </is>
       </c>
       <c r="E540" s="2" t="inlineStr">
@@ -13957,12 +13957,12 @@
       </c>
       <c r="C541" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D541" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.10</t>
+          <t>TC-CADMIN-1.3</t>
         </is>
       </c>
       <c r="E541" s="2" t="inlineStr">
@@ -13982,12 +13982,12 @@
       </c>
       <c r="C542" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D542" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.11</t>
+          <t>TC-CADMIN-1.4</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr">
@@ -14007,12 +14007,12 @@
       </c>
       <c r="C543" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D543" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.12</t>
+          <t>TC-CADMIN-1.5</t>
         </is>
       </c>
       <c r="E543" s="2" t="inlineStr">
@@ -14032,12 +14032,12 @@
       </c>
       <c r="C544" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D544" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.13</t>
+          <t>TC-CADMIN-1.6</t>
         </is>
       </c>
       <c r="E544" s="2" t="inlineStr">
@@ -14057,12 +14057,12 @@
       </c>
       <c r="C545" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D545" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.14</t>
+          <t>TC-CADMIN-1.7</t>
         </is>
       </c>
       <c r="E545" s="2" t="inlineStr">
@@ -14082,12 +14082,12 @@
       </c>
       <c r="C546" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D546" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.15</t>
+          <t>TC-CADMIN-1.8</t>
         </is>
       </c>
       <c r="E546" s="2" t="inlineStr">
@@ -14107,12 +14107,12 @@
       </c>
       <c r="C547" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D547" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.16</t>
+          <t>TC-CADMIN-1.9</t>
         </is>
       </c>
       <c r="E547" s="2" t="inlineStr">
@@ -14132,12 +14132,12 @@
       </c>
       <c r="C548" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D548" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.17</t>
+          <t>TC-CADMIN-1.10</t>
         </is>
       </c>
       <c r="E548" s="2" t="inlineStr">
@@ -14157,12 +14157,12 @@
       </c>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D549" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.18</t>
+          <t>TC-CADMIN-1.11</t>
         </is>
       </c>
       <c r="E549" s="2" t="inlineStr">
@@ -14182,12 +14182,12 @@
       </c>
       <c r="C550" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D550" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.19</t>
+          <t>TC-CADMIN-1.12</t>
         </is>
       </c>
       <c r="E550" s="2" t="inlineStr">
@@ -14207,12 +14207,12 @@
       </c>
       <c r="C551" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D551" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.20</t>
+          <t>TC-CADMIN-1.13</t>
         </is>
       </c>
       <c r="E551" s="2" t="inlineStr">
@@ -14232,12 +14232,12 @@
       </c>
       <c r="C552" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D552" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.21</t>
+          <t>TC-CADMIN-1.14</t>
         </is>
       </c>
       <c r="E552" s="2" t="inlineStr">
@@ -14257,12 +14257,12 @@
       </c>
       <c r="C553" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D553" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.22</t>
+          <t>TC-CADMIN-1.15</t>
         </is>
       </c>
       <c r="E553" s="2" t="inlineStr">
@@ -14282,12 +14282,12 @@
       </c>
       <c r="C554" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D554" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.23</t>
+          <t>TC-CADMIN-1.16</t>
         </is>
       </c>
       <c r="E554" s="2" t="inlineStr">
@@ -14307,12 +14307,12 @@
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D555" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.24</t>
+          <t>TC-CADMIN-1.17</t>
         </is>
       </c>
       <c r="E555" s="2" t="inlineStr">
@@ -14332,12 +14332,12 @@
       </c>
       <c r="C556" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D556" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.25</t>
+          <t>TC-CADMIN-1.18</t>
         </is>
       </c>
       <c r="E556" s="2" t="inlineStr">
@@ -14357,12 +14357,12 @@
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D557" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.26</t>
+          <t>TC-CADMIN-1.19</t>
         </is>
       </c>
       <c r="E557" s="2" t="inlineStr">
@@ -14377,17 +14377,17 @@
       </c>
       <c r="B558" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C558" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
+          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D558" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-1</t>
+          <t>TC-CADMIN-1.20</t>
         </is>
       </c>
       <c r="E558" s="2" t="inlineStr">
@@ -14402,17 +14402,17 @@
       </c>
       <c r="B559" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
+          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D559" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-2</t>
+          <t>TC-CADMIN-1.21</t>
         </is>
       </c>
       <c r="E559" s="2" t="inlineStr">
@@ -14427,17 +14427,17 @@
       </c>
       <c r="B560" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C560" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
+          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D560" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-3</t>
+          <t>TC-CADMIN-1.22</t>
         </is>
       </c>
       <c r="E560" s="2" t="inlineStr">
@@ -14452,17 +14452,17 @@
       </c>
       <c r="B561" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C561" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D561" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-4</t>
+          <t>TC-CADMIN-1.23</t>
         </is>
       </c>
       <c r="E561" s="2" t="inlineStr">
@@ -14477,17 +14477,17 @@
       </c>
       <c r="B562" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C562" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D562" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.1</t>
+          <t>TC-CADMIN-1.24</t>
         </is>
       </c>
       <c r="E562" s="2" t="inlineStr">
@@ -14502,17 +14502,17 @@
       </c>
       <c r="B563" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C563" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D563" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.2</t>
+          <t>TC-CADMIN-1.25</t>
         </is>
       </c>
       <c r="E563" s="2" t="inlineStr">
@@ -14527,17 +14527,17 @@
       </c>
       <c r="B564" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t xml:space="preserve">Administrator Commissioning </t>
         </is>
       </c>
       <c r="C564" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D564" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.3</t>
+          <t>TC-CADMIN-1.26</t>
         </is>
       </c>
       <c r="E564" s="2" t="inlineStr">
@@ -14552,17 +14552,17 @@
       </c>
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bridge Test Plan</t>
         </is>
       </c>
       <c r="C565" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
         </is>
       </c>
       <c r="D565" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.4</t>
+          <t>TC-BR-1</t>
         </is>
       </c>
       <c r="E565" s="2" t="inlineStr">
@@ -14577,17 +14577,17 @@
       </c>
       <c r="B566" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bridge Test Plan</t>
         </is>
       </c>
       <c r="C566" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
         </is>
       </c>
       <c r="D566" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.5</t>
+          <t>TC-BR-2</t>
         </is>
       </c>
       <c r="E566" s="2" t="inlineStr">
@@ -14602,17 +14602,17 @@
       </c>
       <c r="B567" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bridge Test Plan</t>
         </is>
       </c>
       <c r="C567" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
         </is>
       </c>
       <c r="D567" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.6</t>
+          <t>TC-BR-3</t>
         </is>
       </c>
       <c r="E567" s="2" t="inlineStr">
@@ -14627,17 +14627,17 @@
       </c>
       <c r="B568" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bridge Test Plan</t>
         </is>
       </c>
       <c r="C568" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.1] Synchronous File Sending</t>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
         </is>
       </c>
       <c r="D568" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.1</t>
+          <t>TC-BR-4</t>
         </is>
       </c>
       <c r="E568" s="2" t="inlineStr">
@@ -14657,12 +14657,12 @@
       </c>
       <c r="C569" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
+          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D569" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.2</t>
+          <t>TC-BDX-1.1</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="C570" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D570" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.3</t>
+          <t>TC-BDX-1.2</t>
         </is>
       </c>
       <c r="E570" s="2" t="inlineStr">
@@ -14707,12 +14707,12 @@
       </c>
       <c r="C571" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
+          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D571" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.4</t>
+          <t>TC-BDX-1.3</t>
         </is>
       </c>
       <c r="E571" s="2" t="inlineStr">
@@ -14732,12 +14732,12 @@
       </c>
       <c r="C572" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D572" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.5</t>
+          <t>TC-BDX-1.4</t>
         </is>
       </c>
       <c r="E572" s="2" t="inlineStr">
@@ -14752,17 +14752,17 @@
       </c>
       <c r="B573" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C573" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
+          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D573" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-1.1</t>
+          <t>TC-BDX-1.5</t>
         </is>
       </c>
       <c r="E573" s="2" t="inlineStr">
@@ -14777,17 +14777,17 @@
       </c>
       <c r="B574" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C574" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
+          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D574" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.1</t>
+          <t>TC-BDX-1.6</t>
         </is>
       </c>
       <c r="E574" s="2" t="inlineStr">
@@ -14802,17 +14802,17 @@
       </c>
       <c r="B575" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C575" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
+          <t>[TC-BDX-2.1] Synchronous File Sending</t>
         </is>
       </c>
       <c r="D575" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.2</t>
+          <t>TC-BDX-2.1</t>
         </is>
       </c>
       <c r="E575" s="2" t="inlineStr">
@@ -14827,17 +14827,17 @@
       </c>
       <c r="B576" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C576" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
+          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
         </is>
       </c>
       <c r="D576" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.3</t>
+          <t>TC-BDX-2.2</t>
         </is>
       </c>
       <c r="E576" s="2" t="inlineStr">
@@ -14852,17 +14852,17 @@
       </c>
       <c r="B577" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C577" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
+          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D577" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.4</t>
+          <t>TC-BDX-2.3</t>
         </is>
       </c>
       <c r="E577" s="2" t="inlineStr">
@@ -14877,17 +14877,17 @@
       </c>
       <c r="B578" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C578" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
+          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
         </is>
       </c>
       <c r="D578" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.5</t>
+          <t>TC-BDX-2.4</t>
         </is>
       </c>
       <c r="E578" s="2" t="inlineStr">
@@ -14902,17 +14902,17 @@
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
         </is>
       </c>
       <c r="C579" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D579" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.6</t>
+          <t>TC-BDX-2.5</t>
         </is>
       </c>
       <c r="E579" s="2" t="inlineStr">
@@ -14932,12 +14932,12 @@
       </c>
       <c r="C580" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
+          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
         </is>
       </c>
       <c r="D580" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.7</t>
+          <t>TC-SU-1.1</t>
         </is>
       </c>
       <c r="E580" s="2" t="inlineStr">
@@ -14957,12 +14957,12 @@
       </c>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
+          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D581" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.8</t>
+          <t>TC-SU-2.1</t>
         </is>
       </c>
       <c r="E581" s="2" t="inlineStr">
@@ -14982,12 +14982,12 @@
       </c>
       <c r="C582" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
+          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D582" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.1</t>
+          <t>TC-SU-2.2</t>
         </is>
       </c>
       <c r="E582" s="2" t="inlineStr">
@@ -15007,12 +15007,12 @@
       </c>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
+          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
         </is>
       </c>
       <c r="D583" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.2</t>
+          <t>TC-SU-2.3</t>
         </is>
       </c>
       <c r="E583" s="2" t="inlineStr">
@@ -15032,12 +15032,12 @@
       </c>
       <c r="C584" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
+          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D584" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.3</t>
+          <t>TC-SU-2.4</t>
         </is>
       </c>
       <c r="E584" s="2" t="inlineStr">
@@ -15057,12 +15057,12 @@
       </c>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
+          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D585" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.4</t>
+          <t>TC-SU-2.5</t>
         </is>
       </c>
       <c r="E585" s="2" t="inlineStr">
@@ -15082,12 +15082,12 @@
       </c>
       <c r="C586" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
+          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D586" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-4.1</t>
+          <t>TC-SU-2.6</t>
         </is>
       </c>
       <c r="E586" s="2" t="inlineStr">
@@ -15107,12 +15107,12 @@
       </c>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D587" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-4.2</t>
+          <t>TC-SU-2.7</t>
         </is>
       </c>
       <c r="E587" s="2" t="inlineStr">
@@ -15127,17 +15127,17 @@
       </c>
       <c r="B588" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C588" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.1] Privileges</t>
+          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
         </is>
       </c>
       <c r="D588" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.1</t>
+          <t>TC-SU-2.8</t>
         </is>
       </c>
       <c r="E588" s="2" t="inlineStr">
@@ -15152,17 +15152,17 @@
       </c>
       <c r="B589" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.2] Subscriptions</t>
+          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
         </is>
       </c>
       <c r="D589" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.2</t>
+          <t>TC-SU-3.1</t>
         </is>
       </c>
       <c r="E589" s="2" t="inlineStr">
@@ -15177,17 +15177,17 @@
       </c>
       <c r="B590" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C590" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.3] Subjects</t>
+          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D590" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.3</t>
+          <t>TC-SU-3.2</t>
         </is>
       </c>
       <c r="E590" s="2" t="inlineStr">
@@ -15202,17 +15202,17 @@
       </c>
       <c r="B591" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.4] Targets</t>
+          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
         </is>
       </c>
       <c r="D591" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.4</t>
+          <t>TC-SU-3.3</t>
         </is>
       </c>
       <c r="E591" s="2" t="inlineStr">
@@ -15227,17 +15227,17 @@
       </c>
       <c r="B592" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C592" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.5] Multi-fabric</t>
+          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D592" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.5</t>
+          <t>TC-SU-3.4</t>
         </is>
       </c>
       <c r="E592" s="2" t="inlineStr">
@@ -15252,17 +15252,17 @@
       </c>
       <c r="B593" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
+          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D593" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.6</t>
+          <t>TC-SU-4.1</t>
         </is>
       </c>
       <c r="E593" s="2" t="inlineStr">
@@ -15277,17 +15277,17 @@
       </c>
       <c r="B594" s="3" t="inlineStr">
         <is>
-          <t>Minimal Resource Requirements Test Plan</t>
+          <t>OTA Software Update Test Plan</t>
         </is>
       </c>
       <c r="C594" s="3" t="inlineStr">
         <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
         </is>
       </c>
       <c r="D594" s="3" t="inlineStr">
         <is>
-          <t>TC-RR-1.1</t>
+          <t>TC-SU-4.2</t>
         </is>
       </c>
       <c r="E594" s="2" t="inlineStr">
@@ -15302,17 +15302,17 @@
       </c>
       <c r="B595" s="3" t="inlineStr">
         <is>
-          <t>System Model Test Plan</t>
+          <t>Access Control Enforcement Test Plan</t>
         </is>
       </c>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
+          <t>[TC-ACE-1.1] Privileges</t>
         </is>
       </c>
       <c r="D595" s="3" t="inlineStr">
         <is>
-          <t>TC-SM-1.1</t>
+          <t>TC-ACE-1.1</t>
         </is>
       </c>
       <c r="E595" s="2" t="inlineStr">
@@ -15327,20 +15327,220 @@
       </c>
       <c r="B596" s="3" t="inlineStr">
         <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C596" s="3" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.2] Subscriptions</t>
+        </is>
+      </c>
+      <c r="D596" s="3" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.2</t>
+        </is>
+      </c>
+      <c r="E596" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>597</v>
+      </c>
+      <c r="B597" s="3" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C597" s="3" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.3] Subjects</t>
+        </is>
+      </c>
+      <c r="D597" s="3" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.3</t>
+        </is>
+      </c>
+      <c r="E597" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>598</v>
+      </c>
+      <c r="B598" s="3" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C598" s="3" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.4] Targets</t>
+        </is>
+      </c>
+      <c r="D598" s="3" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.4</t>
+        </is>
+      </c>
+      <c r="E598" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>599</v>
+      </c>
+      <c r="B599" s="3" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C599" s="3" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.5] Multi-fabric</t>
+        </is>
+      </c>
+      <c r="D599" s="3" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.5</t>
+        </is>
+      </c>
+      <c r="E599" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="B600" s="3" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="C600" s="3" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.6] Group auth mode</t>
+        </is>
+      </c>
+      <c r="D600" s="3" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.6</t>
+        </is>
+      </c>
+      <c r="E600" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>601</v>
+      </c>
+      <c r="B601" s="3" t="inlineStr">
+        <is>
+          <t>Minimal Resource Requirements Test Plan</t>
+        </is>
+      </c>
+      <c r="C601" s="3" t="inlineStr">
+        <is>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+        </is>
+      </c>
+      <c r="D601" s="3" t="inlineStr">
+        <is>
+          <t>TC-RR-1.1</t>
+        </is>
+      </c>
+      <c r="E601" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>602</v>
+      </c>
+      <c r="B602" s="3" t="inlineStr">
+        <is>
           <t>System Model Test Plan</t>
         </is>
       </c>
-      <c r="C596" s="3" t="inlineStr">
+      <c r="C602" s="3" t="inlineStr">
+        <is>
+          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D602" s="3" t="inlineStr">
+        <is>
+          <t>TC-SM-1.1</t>
+        </is>
+      </c>
+      <c r="E602" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>603</v>
+      </c>
+      <c r="B603" s="3" t="inlineStr">
+        <is>
+          <t>System Model Test Plan</t>
+        </is>
+      </c>
+      <c r="C603" s="3" t="inlineStr">
         <is>
           <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
         </is>
       </c>
-      <c r="D596" s="3" t="inlineStr">
+      <c r="D603" s="3" t="inlineStr">
         <is>
           <t>TC-SM-1.2</t>
         </is>
       </c>
-      <c r="E596" s="2" t="inlineStr">
+      <c r="E603" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>604</v>
+      </c>
+      <c r="B604" s="3" t="inlineStr">
+        <is>
+          <t>Device Types Test Plan</t>
+        </is>
+      </c>
+      <c r="C604" s="3" t="inlineStr">
+        <is>
+          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D604" s="3" t="inlineStr">
+        <is>
+          <t>TC-DT-1.1</t>
+        </is>
+      </c>
+      <c r="E604" s="2" t="inlineStr">
         <is>
           <t>Core Test Case</t>
         </is>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15596,2270 +15596,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[TC-OO-3.2] Functionality with client as DUT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TC-OO-3.2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Temperature Measurement </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[TC-TMP-2.2] Primary functionality with server as DUT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TC-TMP-2.2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relative Humidity Measurement </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[TC-RH-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TC-RH-2.2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thermostat User Configuration </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[TC-TSUIC-2.2] Primary functionality with server as DUT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TC-TSUIC-2.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[TC-PCC-2.4] Life Time Counters with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TC-PCC-2.4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Media </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[TC-ALOGIN-12.2] Account Login Verification (DUT as Client)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TC-ALOGIN-12.2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Level Control </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[TC-LVL-7.1] Verification of MoveToClosestFrequency command (DUT as Server)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TC-LVL-7.1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Color Control </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[TC-CC-9.4] ColorLoopSet Validation with client as DUT</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TC-CC-9.4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[TC-OCC-3.1] Primary functionality with server as DUT</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TC-OCC-3.1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flow Measurement </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[TC-FLW-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TC-FLW-2.2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pressure Measurement </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[TC-PRS-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TC-PRS-2.2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Window Covering </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[TC-WNCV-7.1] GoToPercentage Commands Verification [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TC-WNCV-7.1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thermostat </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[TC-TSTAT-3.2] Functionality with client as DUT</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TC-TSTAT-3.2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Software Diagnostics </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[TC-DGSW-3.2] Commands Generated [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TC-DGSW-3.2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ethernet Network Diagnostics </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[TC-DGETH-3.2] Command Generated DUT as Client]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TC-DGETH-3.2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[TC-DGTHREAD-3.4] ResetCounts Command[DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TC-DGTHREAD-3.4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[TC-DGWIFI-3.2] Command Generated [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>TC-DGWIFI-3.2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diagnostics Logs </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[TC-DLOG-3.1] Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TC-DLOG-3.1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Identify </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[TC-I-3.2] Functionality with Client as DUT</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>TC-I-3.2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Power Source </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[TC-PS-3.1] Endpoint composition and EndpointList</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>TC-PS-3.1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Power Source Configuration </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[TC-PSCFG-2.2] Primary functionality with server as DUT</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TC-PSCFG-2.2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boolean State </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[TC-BOOL-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TC-BOOL-2.2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Illuminance Measurement </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[TC-ILL-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TC-ILL-2.2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Switch </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[TC-SWTCH-3.2] Primary functionality with client as DUT</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>TC-SWTCH-3.2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actions </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[TC-ACT-3.2] Functionality with client as DUT</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>TC-ACT-3.2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mode Select </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[TC-MOD-3.4] OnMode Overwriting StartUpMode (DUT as Server)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>TC-MOD-3.4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RVC Run Mode </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>TC-RVCRUNM-3.3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>TC-RVCCLEANM-3.3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Descriptor Cluster TestPlan</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>TC-DESC-2.2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">General Diagnostics </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>TC-DGGEN-2.3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">General Commissioning </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>TC-CGEN-2.4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">User Label </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>TC-ULABEL-2.4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fixed Label </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>TC-FLABEL-2.1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Localization Configuration </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TC-LCFG-2.1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unit Localization </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>TC-LUNIT-3.1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Time Format Localization </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>TC-LTIME-3.1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Door lock Test Plan</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>TC-DRLK-3.2</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binding </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>TC-BIND-2.3</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Groups </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>[TC-G-3.2] Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>TC-G-3.2</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scenes </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>TC-S-2.6</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Access Control cluster</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>[TC-ACL-2.10] Persistence</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>TC-ACL-2.10</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Bridged Device Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>TC-BRBINFO-3.1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Time Synchronization </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>TC-TIMESYNC-3.1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbon Monoxide Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TC-CMOCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbon Dioxide Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>TC-CDOCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nitrogen Dioxide Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>TC-NDOCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ozone Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>TC-OZCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM2.5 Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>TC-PMICONC-2.1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formaldehyde Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>TC-FLDCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM1 Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>TC-PMHCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM10 Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>TC-PMKCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total Volatile Organic Compounds Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>TC-TVOCCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Radon Concentration Measurement </t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>TC-RNCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Temperature Control </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>TC-TCTL-3.3</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>TC-LWM-3.3</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Washer Controls </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>TC-WASHERCTRL-2.2</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fan Control </t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>TC-FAN-3.6</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>TC-DISHM-3.3</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>TC-DISHALM-3.6</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Operational State </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>TC-OPSTATE-2.4</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Air Quality </t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>TC-AIRQUAL-2.1</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HEPA Filter Monitoring </t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>TC-HEPAFREMON-2.1</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Activated Carbon Filter Monitoring </t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>TC-ACFREMON-2.1</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD Management </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>TC-ICDM-2.3</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>TC-TCCM-3.3</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Refrigerator Alarm </t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>TC-REFALM-2.3</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RVC Operational State </t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>TC-RVCOPSTATE-2.3</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>TC-SMOKECO-2.6</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>TC-DD-3.21</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>TC-BINFO-3.1</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.3</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.21</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>TC-SC-4.10</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>TC-SC-6.1</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>TC-DA-1.8</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>TC-IDM-11.1</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.26</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Bridge Test Plan</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>TC-BR-4</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.5</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>TC-SU-4.2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.6</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Minimal Resource Requirements Test Plan</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>TC-RR-1.1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>System Model Test Plan</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>TC-SM-1.2</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Device Types Test Plan</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>TC-DT-1.1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
+          <t>No change found</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-OO-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.1] Attributes with server as DUT</t>
+          <t>[TC-OO-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-OO-2.2]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.3] Secondary functionality with server as DUT</t>
+          <t>[TC-OO-2.3]Secondary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.4] Startup functionality with server as DUT</t>
+          <t>[TC-OO-2.4]Startup functionality with server as DUT</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-3.2] Functionality with client as DUT</t>
+          <t>[TC-OO-3.2]Functionality with client as DUT</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>[TC-TMP-1.1] Global attributes with server as DUT</t>
+          <t>[TC-TMP-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>[TC-TMP-2.1] Attributes with server as DUT</t>
+          <t>[TC-TMP-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>[TC-TMP-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-TMP-2.2]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>[TC-RH-1.1] Global Attributes with Server as DUT</t>
+          <t>[TC-RH-1.1]Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>[TC-RH-2.1] Attributes with Server as DUT</t>
+          <t>[TC-RH-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>[TC-RH-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-RH-2.2]Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TSUIC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-2.1] Attributes with server as DUT</t>
+          <t>[TC-TSUIC-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-TSUIC-2.2]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-PCC-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.1] Attributes with Server as DUT</t>
+          <t>[TC-PCC-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.2] Operation Mode with Server as DUT</t>
+          <t>[TC-PCC-2.2]Operation Mode with Server as DUT</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.3] Control Mode with Server as DUT</t>
+          <t>[TC-PCC-2.3]Control Mode with Server as DUT</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.4] Life Time Counters with Server as DUT</t>
+          <t>[TC-PCC-2.4]Life Time Counters with Server as DUT</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>[TC-LOWPOWER-1.1] Global attributes - Low Power Cluster (DUT as Server)</t>
+          <t>[TC-LOWPOWER-1.1]Global attributes - Low Power Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-1.2] Global attributes - Keypad Input Cluster (DUT as Server)</t>
+          <t>[TC-KEYPADINPUT-1.2]Global attributes - Keypad Input Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-1.3] Global attributes - Application Launcher Cluster (DUT as Server)</t>
+          <t>[TC-APPLAUNCHER-1.3]Global attributes - Application Launcher Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-1.4] Global attributes - Media Input Cluster (DUT as Server)</t>
+          <t>[TC-MEDIAINPUT-1.4]Global attributes - Media Input Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>[TC-WAKEONLAN-1.5] Global attributes - Wake on LAN Cluster (DUT as Server)</t>
+          <t>[TC-WAKEONLAN-1.5]Global attributes - Wake on LAN Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-1.6] Global attributes - Channel Cluster (DUT as Server)</t>
+          <t>[TC-CHANNEL-1.6]Global attributes - Channel Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-1.7] Global attributes - Media Playback Cluster (DUT as Server)</t>
+          <t>[TC-MEDIAPLAYBACK-1.7]Global attributes - Media Playback Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-1.8] Global attributes - Audio Output Cluster (DUT as Server)</t>
+          <t>[TC-AUDIOOUTPUT-1.8]Global attributes - Audio Output Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>[TC-TGTNAV-1.9] Global attributes - Target Navigator Cluster (DUT as Server)</t>
+          <t>[TC-TGTNAV-1.9]Global attributes - Target Navigator Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>[TC-APBSC-1.10] Global attributes - Application Basic Cluster (DUT as Server)</t>
+          <t>[TC-APBSC-1.10]Global attributes - Application Basic Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-1.11] Global attributes - Content Launcher Cluster (DUT as Server)</t>
+          <t>[TC-CONTENTLAUNCHER-1.11]Global attributes - Content Launcher Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-1.12] Global attributes - Account Login Cluster (DUT as Server)</t>
+          <t>[TC-ALOGIN-1.12]Global attributes - Account Login Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>[TC-LOWPOWER-2.1] Low Power Mode Verification (DUT as Server)</t>
+          <t>[TC-LOWPOWER-2.1]Low Power Mode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>[TC-LOWPOWER-2.2] Low Power Mode Verification (DUT as Client)</t>
+          <t>[TC-LOWPOWER-2.2]Low Power Mode Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-3.1] Send Key Command Verification (DUT as Client)</t>
+          <t>[TC-KEYPADINPUT-3.1]Send Key Command Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-3.2] Location Keys Verification</t>
+          <t>[TC-KEYPADINPUT-3.2]Location Keys Verification</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-3.3] Number Keys Verification</t>
+          <t>[TC-KEYPADINPUT-3.3]Number Keys Verification</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.5] Catalog List Verification</t>
+          <t>[TC-APPLAUNCHER-3.5]Catalog List Verification</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.6] Current App Verification</t>
+          <t>[TC-APPLAUNCHER-3.6]Current App Verification</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.7] Launch Application Verification</t>
+          <t>[TC-APPLAUNCHER-3.7]Launch Application Verification</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.7.1] Launch Application Verification (DUT as Client)</t>
+          <t>[TC-APPLAUNCHER-3.7.1]Launch Application Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.8] Stop Application Verification</t>
+          <t>[TC-APPLAUNCHER-3.8]Stop Application Verification</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.8.1] Stop Application Verification (DUT as Client)</t>
+          <t>[TC-APPLAUNCHER-3.8.1]Stop Application Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.9] Hide Application Verification</t>
+          <t>[TC-APPLAUNCHER-3.9]Hide Application Verification</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.9.1] Hide Application Verification (DUT as Client)</t>
+          <t>[TC-APPLAUNCHER-3.9.1]Hide Application Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.10] Input List Verification</t>
+          <t>[TC-MEDIAINPUT-3.10]Input List Verification</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.11] Select Input  Verification</t>
+          <t>[TC-MEDIAINPUT-3.11]Select Input  Verification</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.12] Show and Hide Input Status Verification</t>
+          <t>[TC-MEDIAINPUT-3.12]Show and Hide Input Status Verification</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.13] Rename Input Verification</t>
+          <t>[TC-MEDIAINPUT-3.13]Rename Input Verification</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.14] Select Input Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.14]Select Input Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.15] Show Input Status Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.15]Show Input Status Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.16] Hide Input Status Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.16]Hide Input Status Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.17] Rename Input Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.17]Rename Input Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>[TC-WAKEONLAN-4.1] Wake-On LAN Verification</t>
+          <t>[TC-WAKEONLAN-4.1]Wake-On LAN Verification</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.1] List TV Channels Verification</t>
+          <t>[TC-CHANNEL-5.1]List TV Channels Verification</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.2] Change Channel by Number Verification</t>
+          <t>[TC-CHANNEL-5.2]Change Channel by Number Verification</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.3] Skip Channel Verification</t>
+          <t>[TC-CHANNEL-5.3]Skip Channel Verification</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.4] Change Channel Verification (DUT as Client)</t>
+          <t>[TC-CHANNEL-5.4]Change Channel Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.5] Change Channel By Number Verification (DUT as Client)</t>
+          <t>[TC-CHANNEL-5.5]Change Channel By Number Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.6] Skip Channel Verification (DUT as Client)</t>
+          <t>[TC-CHANNEL-5.6]Skip Channel Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.1] Mandatory Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.1]Mandatory Media Playback Verification</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.2] Optional Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.2]Optional Media Playback Verification</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.3] Advanced Seek Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.3]Advanced Seek Media Playback Verification</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.4] Variable Speed Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.4]Variable Speed Media Playback Verification</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.5] Mandatory Media Playback Verification (DUT as Client)</t>
+          <t>[TC-MEDIAPLAYBACK-6.5]Mandatory Media Playback Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.7] Optional Media Playback Verification (DUT as Client)</t>
+          <t>[TC-MEDIAPLAYBACK-6.7]Optional Media Playback Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.1] Select Output Verification</t>
+          <t>[TC-AUDIOOUTPUT-7.1]Select Output Verification</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.2] Rename Output Verification</t>
+          <t>[TC-AUDIOOUTPUT-7.2]Rename Output Verification</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.3] Select Output Verification (DUT as Client)</t>
+          <t>[TC-AUDIOOUTPUT-7.3]Select Output Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.4] Rename Output Verification (DUT as Client)</t>
+          <t>[TC-AUDIOOUTPUT-7.4]Rename Output Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>[TC-TGTNAV-8.1] Navigate Target Verification</t>
+          <t>[TC-TGTNAV-8.1]Navigate Target Verification</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>[TC-TGTNAV-8.2] Navigate Target Verification (DUT as Client)</t>
+          <t>[TC-TGTNAV-8.2]Navigate Target Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>[TC-APBSC-9.1] Application Basic Attribute Verification</t>
+          <t>[TC-APBSC-9.1]Application Basic Attribute Verification</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.1] Read Content Launcher Attributes</t>
+          <t>[TC-CONTENTLAUNCHER-10.1]Read Content Launcher Attributes</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.3] Launch Content Verification</t>
+          <t>[TC-CONTENTLAUNCHER-10.3]Launch Content Verification</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.4] Launch Content Verification (DUT as Client)</t>
+          <t>[TC-CONTENTLAUNCHER-10.4]Launch Content Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.5] Launch URL Verification</t>
+          <t>[TC-CONTENTLAUNCHER-10.5]Launch URL Verification</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.6] Launch URL Verification (DUT as Client)</t>
+          <t>[TC-CONTENTLAUNCHER-10.6]Launch URL Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.7] Content Search Verification</t>
+          <t>[TC-CONTENTLAUNCHER-10.7]Content Search Verification</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>[TC-MC-11.1] Casting Video Player via User-Directed Commissioning Verification (DUT as Server)</t>
+          <t>[TC-MC-11.1]Casting Video Player via User-Directed Commissioning Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>[TC-MC-11.2] Casting Video Player via UX Screen with PIN Verification (DUT as Server)</t>
+          <t>[TC-MC-11.2]Casting Video Player via UX Screen with PIN Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-12.1] Account Login Verification</t>
+          <t>[TC-ALOGIN-12.1]Account Login Verification</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-12.2] Account Login Verification (DUT as Client)</t>
+          <t>[TC-ALOGIN-12.2]Account Login Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-1.1] Global attributes with server as DUT</t>
+          <t>[TC-LVL-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-2.1] Read cluster attributes (DUT as Server)</t>
+          <t>[TC-LVL-2.1]Read cluster attributes (DUT as Server)</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-2.2] Write cluster attributes (DUT as Server)</t>
+          <t>[TC-LVL-2.2]Write cluster attributes (DUT as Server)</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-3.1] MoveToLevel Verification (DUT as Server)</t>
+          <t>[TC-LVL-3.1]MoveToLevel Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-4.1] Move Verification (DUT as Server)</t>
+          <t>[TC-LVL-4.1]Move Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-5.1] Step Verification (DUT as Server)</t>
+          <t>[TC-LVL-5.1]Step Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-6.1] Stop Verification (DUT as Server)</t>
+          <t>[TC-LVL-6.1]Stop Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-7.1] Verification of MoveToClosestFrequency command (DUT as Server)</t>
+          <t>[TC-LVL-7.1]Verification of MoveToClosestFrequency command (DUT as Server)</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-1.1] Global attributes with server as DUT</t>
+          <t>[TC-CC-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-2.1] Attributes with server as DUT</t>
+          <t>[TC-CC-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.1] Hue MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-3.1]Hue MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.2] Hue Move functionality with server as DUT</t>
+          <t>[TC-CC-3.2]Hue Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.3] Hue Step functionality with server as DUT</t>
+          <t>[TC-CC-3.3]Hue Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.4] Hue functionality with client as DUT</t>
+          <t>[TC-CC-3.4]Hue functionality with client as DUT</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.1] Saturation MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-4.1]Saturation MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.2] Saturation Move functionality with server as DUT</t>
+          <t>[TC-CC-4.2]Saturation Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.3] Saturation Step functionality with server as DUT</t>
+          <t>[TC-CC-4.3]Saturation Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.4] MoveToHueAndSaturation functionality with server as DUT</t>
+          <t>[TC-CC-4.4]MoveToHueAndSaturation functionality with server as DUT</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.5] Saturation functionality with client as DUT</t>
+          <t>[TC-CC-4.5]Saturation functionality with client as DUT</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.1] Color MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-5.1]Color MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.2] Color Move functionality with server as DUT</t>
+          <t>[TC-CC-5.2]Color Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.3] Color Step functionality with server as DUT</t>
+          <t>[TC-CC-5.3]Color Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.4] Color functionality with client as DUT</t>
+          <t>[TC-CC-5.4]Color functionality with client as DUT</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.1] Color Temperature MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-6.1]Color Temperature MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.2] Color Temperature Move functionality with server as DUT</t>
+          <t>[TC-CC-6.2]Color Temperature Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.3] Color Temperature Step functionality with server as DUT</t>
+          <t>[TC-CC-6.3]Color Temperature Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.4] Color Temperature functionality with client as DUT</t>
+          <t>[TC-CC-6.4]Color Temperature functionality with client as DUT</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.5] Color Temperature StartUpColorTemperatureMireds functionality with server as DUT</t>
+          <t>[TC-CC-6.5]Color Temperature StartUpColorTemperatureMireds functionality with server as DUT</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.1] Enhanced MoveToHue functionality with server as DUT</t>
+          <t>[TC-CC-7.1]Enhanced MoveToHue functionality with server as DUT</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.2] Enhanced MoveHue functionality with server as DUT</t>
+          <t>[TC-CC-7.2]Enhanced MoveHue functionality with server as DUT</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.3] Enhanced Step functionality with server as DUT</t>
+          <t>[TC-CC-7.3]Enhanced Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.4] MoveToEnhancedHueAndSaturation functionality with server as DUT</t>
+          <t>[TC-CC-7.4]MoveToEnhancedHueAndSaturation functionality with server as DUT</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.5] Enhanced Hue functionality with client as DUT</t>
+          <t>[TC-CC-7.5]Enhanced Hue functionality with client as DUT</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-8.1] StopMoveStep functionality with server as DUT</t>
+          <t>[TC-CC-8.1]StopMoveStep functionality with server as DUT</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.1] ColorLoopSet Validation</t>
+          <t>[TC-CC-9.1]ColorLoopSet Validation</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.2] ColorLoopSet Validation - change Direction without Stop</t>
+          <t>[TC-CC-9.2]ColorLoopSet Validation - change Direction without Stop</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.3] ColorLoopSet Validation - change Time without Stop</t>
+          <t>[TC-CC-9.3]ColorLoopSet Validation - change Time without Stop</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.4] ColorLoopSet Validation with client as DUT</t>
+          <t>[TC-CC-9.4]ColorLoopSet Validation with client as DUT</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-1.1] Global attributes with server as DUT</t>
+          <t>[TC-OCC-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-2.1] Attributes with server as DUT</t>
+          <t>[TC-OCC-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-2.3] OccupancySensorTypeBitmap and OccupancySensorType interdependency with server as DUT</t>
+          <t>[TC-OCC-2.3]OccupancySensorTypeBitmap and OccupancySensorType interdependency with server as DUT</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-2.4] OccupancySensorTypeBitmap and OccupancySensorType interdependency with client as DUT</t>
+          <t>[TC-OCC-2.4]OccupancySensorTypeBitmap and OccupancySensorType interdependency with client as DUT</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-3.1] Primary functionality with server as DUT</t>
+          <t>[TC-OCC-3.1]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLW-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-FLW-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLW-2.1] Attributes with Server as DUT</t>
+          <t>[TC-FLW-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLW-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-FLW-2.2]Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>[TC-PRS-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-PRS-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>[TC-PRS-2.1] Attributes with Server as DUT</t>
+          <t>[TC-PRS-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>[TC-PRS-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-PRS-2.2]Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-1.1] Global attributes [DUT as Server]</t>
+          <t>[TC-WNCV-1.1]Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.1] Attributes [DUT as Server]</t>
+          <t>[TC-WNCV-2.1]Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.2] ConfigStatus attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.2]ConfigStatus attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.3] Mode attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.3]Mode attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.4] Type attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.4]Type attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.5] EndProductType attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.5]EndProductType attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.1] UpOrOpen command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.1]UpOrOpen command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.2] DownOrClose command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.2]DownOrClose command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.3] StopMotion command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.3]StopMotion command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.4] UpOrOpen command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.4]UpOrOpen command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.5] DownOrClose command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.5]DownOrClose command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.1] GoToLiftPercentage command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.1]GoToLiftPercentage command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.2] GoToTiltPercentage command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.2]GoToTiltPercentage command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.3] GoToLiftPercentage command Limits Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.3]GoToLiftPercentage command Limits Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.4] GoToTiltPercentage command Limits Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.4]GoToTiltPercentage command Limits Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.5] Positions Storage Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.5]Positions Storage Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-5.1] Mandatory Attributes Verification [DUT as Client]</t>
+          <t>[TC-WNCV-5.1]Mandatory Attributes Verification [DUT as Client]</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-6.1] Basic Commands Verification [DUT as Client]</t>
+          <t>[TC-WNCV-6.1]Basic Commands Verification [DUT as Client]</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-7.1] GoToPercentage Commands Verification [DUT as Client]</t>
+          <t>[TC-WNCV-7.1]GoToPercentage Commands Verification [DUT as Client]</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-1.1] Global attributes with server as DUT</t>
+          <t>[TC-TSTAT-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-2.1] Attributes with server as DUT</t>
+          <t>[TC-TSTAT-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-2.2] Setpoint Test Cases with server as DUT</t>
+          <t>[TC-TSTAT-2.2]Setpoint Test Cases with server as DUT</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-3.2] Functionality with client as DUT</t>
+          <t>[TC-TSTAT-3.2]Functionality with client as DUT</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DGSW-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-2.1] Attributes [{DUT_Sever}]</t>
+          <t>[TC-DGSW-2.1]Attributes [{DUT_Sever}]</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-2.2] Event Functionality [{DUT_Sever}]</t>
+          <t>[TC-DGSW-2.2]Event Functionality [{DUT_Sever}]</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-2.3] Command Received [{DUT_Sever}]</t>
+          <t>[TC-DGSW-2.3]Command Received [{DUT_Sever}]</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-3.2] Commands Generated [DUT as Client]</t>
+          <t>[TC-DGSW-3.2]Commands Generated [DUT as Client]</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DGETH-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-2.1] Attributes [DUT as Server]</t>
+          <t>[TC-DGETH-2.1]Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-2.2] Command Received [DUT as Server]</t>
+          <t>[TC-DGETH-2.2]Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-3.2] Command Generated DUT as Client]</t>
+          <t>[TC-DGETH-3.2]Command Generated DUT as Client]</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DGTHREAD-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.1] Attributes [DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.1]Attributes [DUT- Server]</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.2] Attributes-Tx [DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.2]Attributes-Tx [DUT- Server]</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.3] Attributes-Rx [DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.3]Attributes-Rx [DUT- Server]</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.4] ResetCounts Command[DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.4]ResetCounts Command[DUT- Server]</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.5] Thread Network Diagnostics Cluster Events[DUT-Server] - REMOVED</t>
+          <t>[TC-DGTHREAD-2.5]Thread Network Diagnostics Cluster Events[DUT-Server] - REMOVED</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-3.4] ResetCounts Command[DUT-Client]</t>
+          <t>[TC-DGTHREAD-3.4]ResetCounts Command[DUT-Client]</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DGWIFI-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-2.1] Attributes [DUT as Server]</t>
+          <t>[TC-DGWIFI-2.1]Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-2.2] Event Functionality [DUT as Server]</t>
+          <t>[TC-DGWIFI-2.2]Event Functionality [DUT as Server]</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-2.3] Command Received [DUT as Server]</t>
+          <t>[TC-DGWIFI-2.3]Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-3.2] Command Generated [DUT as Client]</t>
+          <t>[TC-DGWIFI-3.2]Command Generated [DUT as Client]</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-1.1] Global Attributes with DUT as Server - REMOVED</t>
+          <t>[TC-DLOG-1.1]Global Attributes with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-2.1] Diagnostic Logs Cluster Commands Checks with BDX [DUT-Server] - REMOVED</t>
+          <t>[TC-DLOG-2.1]Diagnostic Logs Cluster Commands Checks with BDX [DUT-Server] - REMOVED</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-2.2] Diagnostic Logs Cluster Commands Checks without BDX [DUT-Server] - REMOVED</t>
+          <t>[TC-DLOG-2.2]Diagnostic Logs Cluster Commands Checks without BDX [DUT-Server] - REMOVED</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-3.1] Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
+          <t>[TC-DLOG-3.1]Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-1.1] Global Attributes with Server as DUT</t>
+          <t>[TC-I-1.1]Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-2.1] Attributes with Server as DUT</t>
+          <t>[TC-I-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-I-2.2]Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-2.3] Secondary Functionality with Server as DUT</t>
+          <t>[TC-I-2.3]Secondary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-3.2] Functionality with Client as DUT</t>
+          <t>[TC-I-3.2]Functionality with Client as DUT</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-1.1] Global attributes with server as DUT</t>
+          <t>[TC-PS-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-2.1] Attributes with server as DUT</t>
+          <t>[TC-PS-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-2.2] Event reporting with server as DUT - REMOVED</t>
+          <t>[TC-PS-2.2]Event reporting with server as DUT - REMOVED</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-3.1] Endpoint composition and EndpointList</t>
+          <t>[TC-PS-3.1]Endpoint composition and EndpointList</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>[TC-PSCFG-1.1] Global attributes with server as DUT</t>
+          <t>[TC-PSCFG-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>[TC-PSCFG-2.1] Attributes with server as DUT</t>
+          <t>[TC-PSCFG-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>[TC-PSCFG-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-PSCFG-2.2]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>[TC-BOOL-1.1] Global Attributes with Server as DUT</t>
+          <t>[TC-BOOL-1.1]Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>[TC-BOOL-2.1] Attributes with Server as DUT</t>
+          <t>[TC-BOOL-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>[TC-BOOL-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-BOOL-2.2]Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>[TC-ILL-1.1] Global Attributes with Server as DUT</t>
+          <t>[TC-ILL-1.1]Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>[TC-ILL-2.1] Attributes with Server as DUT</t>
+          <t>[TC-ILL-2.1]Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>[TC-ILL-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-ILL-2.2]Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-1.1] Global attributes with server as DUT</t>
+          <t>[TC-SWTCH-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-2.1] Attributes with server as DUT</t>
+          <t>[TC-SWTCH-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-SWTCH-2.2]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-3.2] Primary functionality with client as DUT</t>
+          <t>[TC-SWTCH-3.2]Primary functionality with client as DUT</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-1.1] Global attributes with server as DUT</t>
+          <t>[TC-ACT-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-2.1] Attributes with server as DUT</t>
+          <t>[TC-ACT-2.1]Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-ACT-2.2]Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-3.2] Functionality with client as DUT</t>
+          <t>[TC-ACT-3.2]Functionality with client as DUT</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-1.1] Global attributes with server as DUT</t>
+          <t>[TC-MOD-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-1.2] Cluster attributes with server as DUT</t>
+          <t>[TC-MOD-1.2]Cluster attributes with server as DUT</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-1.3] Attributes with client as DUT</t>
+          <t>[TC-MOD-1.3]Attributes with client as DUT</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-2.1] ChangeToMode Verification (DUT as Server)</t>
+          <t>[TC-MOD-2.1]ChangeToMode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-2.2] ChangeToMode Verification (DUT as Client)</t>
+          <t>[TC-MOD-2.2]ChangeToMode Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.1] OnMode Verification (DUT as Server)</t>
+          <t>[TC-MOD-3.1]OnMode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.2] StartUpMode Verification (DUT as Server)</t>
+          <t>[TC-MOD-3.2]StartUpMode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.3] OTA Mode Verification (DUT as Server)</t>
+          <t>[TC-MOD-3.3]OTA Mode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.4] OnMode Overwriting StartUpMode (DUT as Server)</t>
+          <t>[TC-MOD-3.4]OnMode Overwriting StartUpMode (DUT as Server)</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCRUNM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-RVCRUNM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCRUNM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-RVCRUNM-1.2]Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCRUNM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-RVCRUNM-2.1]Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.1] On Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.1]On Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.2] Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.2]Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.3]On Mode and Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCCLEANM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-RVCCLEANM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCCLEANM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-RVCCLEANM-1.2]Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCCLEANM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-RVCCLEANM-2.1]Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.1] On Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.1]On Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.2] Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.2]Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.3]On Mode and Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>[TC-DESC-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DESC-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>[TC-DESC-2.1] Descriptor Cluster Attributes with DUT as Server</t>
+          <t>[TC-DESC-2.1]Descriptor Cluster Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
+          <t>[TC-DESC-2.2]Descriptor Cluster Duplicate Condition with DUT as Server</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DGGEN-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.1] Attributes [DUT as Server]</t>
+          <t>[TC-DGGEN-2.1]Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.2] Event Functionality [DUT as Server]</t>
+          <t>[TC-DGGEN-2.2]Event Functionality [DUT as Server]</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
+          <t>[TC-DGGEN-2.3]Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-CGEN-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.1] Breadcrumb, BasicCommissioningInfo, RegulatoryConfig, LocationCapability and SupportsConcurrentConnection attributes [DUT as Server]</t>
+          <t>[TC-CGEN-2.1]Breadcrumb, BasicCommissioningInfo, RegulatoryConfig, LocationCapability and SupportsConcurrentConnection attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.2] ArmFailSafe command verification [DUT as Server]</t>
+          <t>[TC-CGEN-2.2]ArmFailSafe command verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
+          <t>[TC-CGEN-2.4]Verification For CommissioningError on response message [DUT as Server]</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-ULABEL-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.1] User label cluster read verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.1]User label cluster read verification [DUT-server]</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.2] User Label cluster write verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.2]User Label cluster write verification [DUT-server]</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.3] User Label cluster constraint_error verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.3]User Label cluster constraint_error verification [DUT-server]</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.4]User Label cluster empty entry verification [DUT-server]</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-FLABEL-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
+          <t>[TC-FLABEL-2.1]Fixed Label cluster [DUT-server]</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>[TC-LCFG-1.1] Global Attributes [DUT-Server]</t>
+          <t>[TC-LCFG-1.1]Global Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
+          <t>[TC-LCFG-2.1]Localization Configuration Cluster Attributes[DUT-Server]</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C249" s="3" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-1.2] Global Attributes [DUT as Server]</t>
+          <t>[TC-LUNIT-1.2]Global Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LUNIT-3.1]Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>[TC-LTIME-1.2] Global Attributes [DUT as Server]</t>
+          <t>[TC-LTIME-1.2]Global Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LTIME-3.1]Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DRLK-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.1] Attributes check [DUT - Server]</t>
+          <t>[TC-DRLK-2.1]Attributes check [DUT - Server]</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.2] Verification for Door lock command[DUT-Server]</t>
+          <t>[TC-DRLK-2.2]Verification for Door lock command[DUT-Server]</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.3] Verification for Unlock Door command [DUT-Server]</t>
+          <t>[TC-DRLK-2.3]Verification for Unlock Door command [DUT-Server]</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.4] Verification for Unlock with Timeout command [DUT-Server]</t>
+          <t>[TC-DRLK-2.4]Verification for Unlock with Timeout command [DUT-Server]</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.5] Verification for the following Commands - Set Week Day Schedule, Get Week Day Schedule , Get Week Day Schedule Response, Clear Week Day Schedule [DUT-Server]</t>
+          <t>[TC-DRLK-2.5]Verification for the following Commands - Set Week Day Schedule, Get Week Day Schedule , Get Week Day Schedule Response, Clear Week Day Schedule [DUT-Server]</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.6] Verification for the following Commands - Set Holiday Schedule, Get Holiday Schedule, Get Holiday Schedule Response , Clear Holiday Schedule [DUT-Server]</t>
+          <t>[TC-DRLK-2.6]Verification for the following Commands - Set Holiday Schedule, Get Holiday Schedule, Get Holiday Schedule Response , Clear Holiday Schedule [DUT-Server]</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.7] Verification for the following Commands - Set Year Schedule, Get Year Schedule, Get Year Day Schedule Response and  Clear Year Day Schedule[DUT-Server]</t>
+          <t>[TC-DRLK-2.7]Verification for the following Commands - Set Year Schedule, Get Year Schedule, Get Year Day Schedule Response and  Clear Year Day Schedule[DUT-Server]</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.8] Verification for the following Commands - Set User, Get User, Get User Response,  Clear User [DUT-Server]</t>
+          <t>[TC-DRLK-2.8]Verification for the following Commands - Set User, Get User, Get User Response,  Clear User [DUT-Server]</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.9] Verification for the following Commands - Set Credential , Set Credential Response, Get Credential Status,  Get Credential Status Response, Clear Credential [DUT-Server]</t>
+          <t>[TC-DRLK-2.9]Verification for the following Commands - Set Credential , Set Credential Response, Get Credential Status,  Get Credential Status Response, Clear Credential [DUT-Server]</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.10] Verification for the Door Lock Events [DUT-Server]</t>
+          <t>[TC-DRLK-2.10]Verification for the Door Lock Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.11] Verification for multiple credential types [DUT-Server]</t>
+          <t>[TC-DRLK-2.11]Verification for multiple credential types [DUT-Server]</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.12] Verification for Unbolt Door command [DUT-Server]</t>
+          <t>[TC-DRLK-2.12]Verification for Unbolt Door command [DUT-Server]</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
+          <t>[TC-DRLK-3.2]Commands [DUT - Client]</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-BIND-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.1] Binding Cluster Attributes-Node [DUT-Controller]</t>
+          <t>[TC-BIND-2.1]Binding Cluster Attributes-Node [DUT-Controller]</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.2] Binding Cluster Attributes-DUT handles its Groups settings [DUT-Controller]</t>
+          <t>[TC-BIND-2.2]Binding Cluster Attributes-DUT handles its Groups settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
+          <t>[TC-BIND-2.3]Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="C271" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-G-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-G-2.1]Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.2] Commands - AddGroup, ViewGroup, RemoveGroup, RemoveAllGroups [DUT-Server]</t>
+          <t>[TC-G-2.2]Commands - AddGroup, ViewGroup, RemoveGroup, RemoveAllGroups [DUT-Server]</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.3] Commands - GetGroupMembership, AddGroupIfIdentifying [DUT-Server]</t>
+          <t>[TC-G-2.3]Commands - GetGroupMembership, AddGroupIfIdentifying [DUT-Server]</t>
         </is>
       </c>
       <c r="D274" s="3" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.4] Commands - AddGroup Command with same GroupID on Multiple Endpoint [DUT-Server]</t>
+          <t>[TC-G-2.4]Commands - AddGroup Command with same GroupID on Multiple Endpoint [DUT-Server]</t>
         </is>
       </c>
       <c r="D275" s="3" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-3.2] Commands [DUT-Client]</t>
+          <t>[TC-G-3.2]Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D276" s="3" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-S-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D277" s="3" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="C278" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.1] Attributes with DUT as Server</t>
+          <t>[TC-S-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D278" s="3" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-S-2.2]Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.3] Secondary functionality with DUT as Server</t>
+          <t>[TC-S-2.3]Secondary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D280" s="3" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.4] Recall scene with transition time functionality with DUT as Server</t>
+          <t>[TC-S-2.4]Recall scene with transition time functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D281" s="3" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.5] RemainingCapacity functionality with DUT as Server</t>
+          <t>[TC-S-2.5]RemainingCapacity functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D282" s="3" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
+          <t>[TC-S-2.6]RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
         </is>
       </c>
       <c r="D283" s="3" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="C284" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-ACL-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D284" s="3" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="C285" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.1] Simple attributes</t>
+          <t>[TC-ACL-2.1]Simple attributes</t>
         </is>
       </c>
       <c r="D285" s="3" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.2] Cluster endpoint</t>
+          <t>[TC-ACL-2.2]Cluster endpoint</t>
         </is>
       </c>
       <c r="D286" s="3" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="C287" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.3] Extension attribute</t>
+          <t>[TC-ACL-2.3]Extension attribute</t>
         </is>
       </c>
       <c r="D287" s="3" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="C288" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.4] ACL attribute</t>
+          <t>[TC-ACL-2.4]ACL attribute</t>
         </is>
       </c>
       <c r="D288" s="3" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="C289" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.5] AccessControlExtensionChanged event</t>
+          <t>[TC-ACL-2.5]AccessControlExtensionChanged event</t>
         </is>
       </c>
       <c r="D289" s="3" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="C290" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.6] AccessControlEntryChanged event</t>
+          <t>[TC-ACL-2.6]AccessControlEntryChanged event</t>
         </is>
       </c>
       <c r="D290" s="3" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="C291" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.7] Extension multi-fabric</t>
+          <t>[TC-ACL-2.7]Extension multi-fabric</t>
         </is>
       </c>
       <c r="D291" s="3" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C292" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.8] ACL multi-fabric</t>
+          <t>[TC-ACL-2.8]ACL multi-fabric</t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.9] Cluster access</t>
+          <t>[TC-ACL-2.9]Cluster access</t>
         </is>
       </c>
       <c r="D293" s="3" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.10] Persistence</t>
+          <t>[TC-ACL-2.10]Persistence</t>
         </is>
       </c>
       <c r="D294" s="3" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-BRBINFO-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D295" s="3" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-BRBINFO-2.1]Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D296" s="3" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C297" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-2.2] Events [DUT-Server]</t>
+          <t>[TC-BRBINFO-2.2]Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D297" s="3" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-BRBINFO-3.1]Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="D298" s="3" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TIMESYNC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D299" s="3" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C300" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D300" s="3" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="C301" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.2] SetUTCTime command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.2]SetUTCTime command with DUT as Server</t>
         </is>
       </c>
       <c r="D301" s="3" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C302" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.3] SetTrustedTimeSource command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.3]SetTrustedTimeSource command with DUT as Server</t>
         </is>
       </c>
       <c r="D302" s="3" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.4] SetTimeZone command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.4]SetTimeZone command with DUT as Server</t>
         </is>
       </c>
       <c r="D303" s="3" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C304" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.5] SetDSTOffset command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.5]SetDSTOffset command with DUT as Server</t>
         </is>
       </c>
       <c r="D304" s="3" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.6] SetDefaultNTP command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.6]SetDefaultNTP command with DUT as Server</t>
         </is>
       </c>
       <c r="D305" s="3" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.7] LocalTime calculation for time zone with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.7]LocalTime calculation for time zone with DUT as Server</t>
         </is>
       </c>
       <c r="D306" s="3" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.8] LocalTime calculation for DST offset with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.8]LocalTime calculation for DST offset with DUT as Server</t>
         </is>
       </c>
       <c r="D307" s="3" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.9] LocalTime calculation for time zone with DST offset with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.9]LocalTime calculation for time zone with DST offset with DUT as Server</t>
         </is>
       </c>
       <c r="D308" s="3" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="C309" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.10] DSTTableEmpty event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.10]DSTTableEmpty event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D309" s="3" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.11] DSTStatus event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.11]DSTStatus event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D310" s="3" t="inlineStr">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="C311" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.12] TimeZoneStatus event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.12]TimeZoneStatus event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D311" s="3" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="C312" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.13] MissingTrustedTimeSource event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.13]MissingTrustedTimeSource event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D312" s="3" t="inlineStr">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
+          <t>[TC-TIMESYNC-3.1]Endpoint composition with DUT as Server</t>
         </is>
       </c>
       <c r="D313" s="3" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-CMOCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D314" s="3" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-CMOCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-CDOCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-CDOCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-NDOCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D318" s="3" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-NDOCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D319" s="3" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-OZCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D320" s="3" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="C321" s="3" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-OZCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D321" s="3" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-PMICONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D322" s="3" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMICONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D323" s="3" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D324" s="3" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D325" s="3" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C326" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D326" s="3" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D327" s="3" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D328" s="3" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="C329" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D329" s="3" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D330" s="3" t="inlineStr">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D331" s="3" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-RNCONC-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D332" s="3" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-RNCONC-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D333" s="3" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C334" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TCTL-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D334" s="3" t="inlineStr">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D335" s="3" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="C336" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.2] Optional Temperature number attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.2]Optional Temperature number attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D336" s="3" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C337" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.3] Optional temperature level attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.3]Optional temperature level attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D337" s="3" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C338" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.2] Optional temperature number functionality with DUT as Server</t>
+          <t>[TC-TCTL-3.2]Optional temperature number functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D338" s="3" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="C339" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
+          <t>[TC-TCTL-3.3]Optional temperature level functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D339" s="3" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="C340" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-LWM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D340" s="3" t="inlineStr">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="C341" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-LWM-1.2]Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D341" s="3" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="C342" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-LWM-2.1]Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D342" s="3" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="C343" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.1]On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D343" s="3" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="C344" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.2]Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D344" s="3" t="inlineStr">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="C345" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.3]On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D345" s="3" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="C346" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-1.1] Global attributes with server as DUT</t>
+          <t>[TC-WASHERCTRL-1.1]Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D346" s="3" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="C347" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.1] Optional Spin attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.1]Optional Spin attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D347" s="3" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="C348" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.2]Optional rinse attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D348" s="3" t="inlineStr">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="C349" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-FAN-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D349" s="3" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="C350" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.1] Mandatory Attributes with DUT as Server</t>
+          <t>[TC-FAN-2.1]Mandatory Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D350" s="3" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C351" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.2] Optional speed attributes with DUT as Server</t>
+          <t>[TC-FAN-2.2]Optional speed attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D351" s="3" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="C352" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.3] Optional rock attributes with DUT as Server</t>
+          <t>[TC-FAN-2.3]Optional rock attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D352" s="3" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="C353" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.4] Optional wind attributes with DUT as Server</t>
+          <t>[TC-FAN-2.4]Optional wind attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D353" s="3" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="C354" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.5] Optional direction attributes with DUT as Server</t>
+          <t>[TC-FAN-2.5]Optional direction attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D354" s="3" t="inlineStr">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.1] Mandatory functionality with DUT as Server</t>
+          <t>[TC-FAN-3.1]Mandatory functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D355" s="3" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.2] Optional speed functionality with DUT as Server</t>
+          <t>[TC-FAN-3.2]Optional speed functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D356" s="3" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="C357" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.3] Optional rock functionality with DUT as Server</t>
+          <t>[TC-FAN-3.3]Optional rock functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D357" s="3" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C358" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.4] Optional wind functionality with DUT as Server</t>
+          <t>[TC-FAN-3.4]Optional wind functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D358" s="3" t="inlineStr">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.5] Optional step functionality with DUT as Server</t>
+          <t>[TC-FAN-3.5]Optional step functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D359" s="3" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="C360" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
+          <t>[TC-FAN-3.6]Optional direction functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D360" s="3" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="C361" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-DISHM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D361" s="3" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="C362" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-DISHM-1.2]Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D362" s="3" t="inlineStr">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="C363" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-DISHM-2.1]Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D363" s="3" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="C364" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.1]On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D364" s="3" t="inlineStr">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="C365" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.2]Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D365" s="3" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="C366" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.3]On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D366" s="3" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="C367" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-DISHALM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D367" s="3" t="inlineStr">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-2.1] Attributes with DUT as Server</t>
+          <t>[TC-DISHALM-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D368" s="3" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.1] Inflow alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.1]Inflow alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.2] Drain alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.2]Drain alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C371" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.3] Door alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.3]Door alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D371" s="3" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.4] Temperature Low alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.4]Temperature Low alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D372" s="3" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.5] Temperature High alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.5]Temperature High alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D373" s="3" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="C374" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.6]Water Level alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D374" s="3" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D375" s="3" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.1] Attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D376" s="3" t="inlineStr">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.2] Start and Stop commands with DUT as Server</t>
+          <t>[TC-OPSTATE-2.2]Start and Stop commands with DUT as Server</t>
         </is>
       </c>
       <c r="D377" s="3" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.3] Pause and Resume commands with DUT as Server</t>
+          <t>[TC-OPSTATE-2.3]Pause and Resume commands with DUT as Server</t>
         </is>
       </c>
       <c r="D378" s="3" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
+          <t>[TC-OPSTATE-2.4]Mandatory Events with DUT as Server</t>
         </is>
       </c>
       <c r="D379" s="3" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-AIRQUAL-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D380" s="3" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
+          <t>[TC-AIRQUAL-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D381" s="3" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-HEPAFREMON-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D382" s="3" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
+          <t>[TC-HEPAFREMON-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D383" s="3" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-ACFREMON-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D384" s="3" t="inlineStr">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
+          <t>[TC-ACFREMON-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D385" s="3" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-ICDM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D386" s="3" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.1] Attributes with DUT as Server</t>
+          <t>[TC-ICDM-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D387" s="3" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.2] Primary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-ICDM-2.2]Primary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D388" s="3" t="inlineStr">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="C389" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-ICDM-2.3]Secondary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D389" s="3" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="C390" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TCCM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D390" s="3" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="C391" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-TCCM-1.2]Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D391" s="3" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C392" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-TCCM-2.1]Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D392" s="3" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.1]On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D393" s="3" t="inlineStr">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.2]Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D394" s="3" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.3]On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D395" s="3" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-REFALM-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D396" s="3" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.1] Attributes with DUT as Server</t>
+          <t>[TC-REFALM-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D397" s="3" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-REFALM-2.2]Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D398" s="3" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
+          <t>[TC-REFALM-2.3]Local suppression of the door alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D399" s="3" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-1.1] Global attributes [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-1.1]Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D400" s="3" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.1] Attribute verification [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-2.1]Attribute verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D401" s="3" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.2] Start and Stop commands [DUT as Server] - REMOVED</t>
+          <t>[TC-RVCOPSTATE-2.2]Start and Stop commands [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D402" s="3" t="inlineStr">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-2.3]Pause and Resume commands [DUT as Server]</t>
         </is>
       </c>
       <c r="D403" s="3" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-SMOKECO-1.1]Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D404" s="3" t="inlineStr">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.1] Attributes with DUT as Server</t>
+          <t>[TC-SMOKECO-2.1]Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D405" s="3" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="C406" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.2] Primary Functionality - Smoke Alarm with DUT as Server</t>
+          <t>[TC-SMOKECO-2.2]Primary Functionality - Smoke Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D406" s="3" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="C407" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.3] Primary Functionality - CO Alarm with DUT as Server</t>
+          <t>[TC-SMOKECO-2.3]Primary Functionality - CO Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D407" s="3" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C408" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.4] Secondary Functionality - Mandatory with DUT as Server</t>
+          <t>[TC-SMOKECO-2.4]Secondary Functionality - Mandatory with DUT as Server</t>
         </is>
       </c>
       <c r="D408" s="3" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="C409" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.5] Secondary Functionality - Optional with DUT as Server</t>
+          <t>[TC-SMOKECO-2.5]Secondary Functionality - Optional with DUT as Server</t>
         </is>
       </c>
       <c r="D409" s="3" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="C410" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
+          <t>[TC-SMOKECO-2.6]ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
         </is>
       </c>
       <c r="D410" s="3" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.1]QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D411" s="3" t="inlineStr">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="C412" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.2]Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D412" s="3" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="C413" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.3]NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D413" s="3" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="C414" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.4]Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D414" s="3" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="C415" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.5]NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D415" s="3" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="C416" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-DD-1.6]QR Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D416" s="3" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-DD-1.7]Setup Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D417" s="3" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="C418" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.8]QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D418" s="3" t="inlineStr">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C419" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.9]Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D419" s="3" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="C420" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.10]NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D420" s="3" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C421" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.11]Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D421" s="3" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="C422" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.12]Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D422" s="3" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="C423" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.13]Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D423" s="3" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.14]Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D424" s="3" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
+          <t>[TC-DD-1.15]Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D425" s="3" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-2.1]Announcement by Device Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D426" s="3" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-2.2]Discovery by Commissioner Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D427" s="3" t="inlineStr">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
+          <t>[TC-DD-3.1]Commissioning Flow - Concurrent [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D428" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-3.2]Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D429" s="3" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
+          <t>[TC-DD-3.3]User Directed Commissioning [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D430" s="3" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
+          <t>[TC-DD-3.4]User Directed Commissioning [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D431" s="3" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
+          <t>[TC-DD-3.5]Commissioning Flow - Concurrent [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D432" s="3" t="inlineStr">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.6]Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D433" s="3" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.7]Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D434" s="3" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.8]Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D435" s="3" t="inlineStr">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-3.9]Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D436" s="3" t="inlineStr">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
+          <t>[TC-DD-3.10]Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D437" s="3" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="C438" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.11]Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D438" s="3" t="inlineStr">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="C439" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.12]Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D439" s="3" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="C440" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.13]Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D440" s="3" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.14]Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D441" s="3" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.15]Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D442" s="3" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.16]Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D443" s="3" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.17]Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D444" s="3" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="C445" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
+          <t>[TC-DD-3.18]Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D445" s="3" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="C446" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
+          <t>[TC-DD-3.19]Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D446" s="3" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.20]Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D447" s="3" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="C448" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.21]Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D448" s="3" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="C449" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-BINFO-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D449" s="3" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-BINFO-2.1]Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D450" s="3" t="inlineStr">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
+          <t>[TC-BINFO-2.2]Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D451" s="3" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-BINFO-3.1]Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="D452" s="3" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C453" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
+          <t>[TC-OPCREDS-1.2]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D453" s="3" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="C454" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.1]Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D454" s="3" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="C455" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.2]Attribute-CurrentFabricIndex validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D455" s="3" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.4]UpdateNOC-Error Condition [DUT-Server]</t>
         </is>
       </c>
       <c r="D456" s="3" t="inlineStr">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.5]NOC Check for UpdateNOC [DUT-Server]</t>
         </is>
       </c>
       <c r="D457" s="3" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.6]Last Fabric removal validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D458" s="3" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.7]Add Second Fabric over CASE [DUT-Server]</t>
         </is>
       </c>
       <c r="D459" s="3" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+          <t>[TC-OPCREDS-3.3]Attribute-NOCs, Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D460" s="3" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
+          <t>[TC-CNET-1.3]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D461" s="3" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-CNET-4.2][Thread] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D462" s="3" t="inlineStr">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-CNET-4.3][Ethernet] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D463" s="3" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.4][Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D464" s="3" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-CNET-4.5][Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D465" s="3" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-CNET-4.6][Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D466" s="3" t="inlineStr">
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.9][Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D467" s="3" t="inlineStr">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.10][Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D468" s="3" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.11][Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D469" s="3" t="inlineStr">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.12][Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D470" s="3" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.13][Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D471" s="3" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.14][Thread] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D472" s="3" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.15][Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D473" s="3" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.16][Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D474" s="3" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="C475" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.22][Thread] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D475" s="3" t="inlineStr">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.20][Wi-Fi] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D476" s="3" t="inlineStr">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.21][Thread] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D477" s="3" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
+          <t>[TC-SC-1.1]MRP Max Message Size - REMOVED</t>
         </is>
       </c>
       <c r="D478" s="3" t="inlineStr">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
+          <t>[TC-SC-1.2]MRP Message Flows - REMOVED</t>
         </is>
       </c>
       <c r="D479" s="3" t="inlineStr">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
+          <t>[TC-SC-1.3]MRP Retransmissions - REMOVED</t>
         </is>
       </c>
       <c r="D480" s="3" t="inlineStr">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
+          <t>[TC-SC-1.4]MRP message counter and duplicate messaging - REMOVED</t>
         </is>
       </c>
       <c r="D481" s="3" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-SC-2.1]Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D482" s="3" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-SC-2.2]Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D483" s="3" t="inlineStr">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
+          <t>[TC-SC-2.3]PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D484" s="3" t="inlineStr">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
+          <t>[TC-SC-2.4]PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D485" s="3" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="C486" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
+          <t>[TC-SC-3.1]Session Establishment - REMOVED</t>
         </is>
       </c>
       <c r="D486" s="3" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C487" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
+          <t>[TC-SC-3.2]CASE Session Resumption [DUT_Responder]</t>
         </is>
       </c>
       <c r="D487" s="3" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-3.3]CASE Session Resumption [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D488" s="3" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
+          <t>[TC-SC-3.4]CASE Error Handling [DUT_Responder] - REMOVED</t>
         </is>
       </c>
       <c r="D489" s="3" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-3.5]CASE Error Handling [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D490" s="3" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.6] CASE Resource validation</t>
+          <t>[TC-SC-3.6]CASE Resource validation</t>
         </is>
       </c>
       <c r="D491" s="3" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.1]Commissionable Node Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D492" s="3" t="inlineStr">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-4.2]Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D493" s="3" t="inlineStr">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="C494" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.3]Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D494" s="3" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="C495" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
+          <t>[TC-SC-4.4]Discovery [DUT as Controller]</t>
         </is>
       </c>
       <c r="D495" s="3" t="inlineStr">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="C496" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
+          <t>[TC-SC-4.5]Discovery [DUT as Commissionee][Thread] - REMOVED</t>
         </is>
       </c>
       <c r="D496" s="3" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-4.6]Commissioner Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D497" s="3" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="C498" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.7]Commissioner Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D498" s="3" t="inlineStr">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
+          <t>[TC-SC-4.8]Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D499" s="3" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="C500" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
+          <t>[TC-SC-4.9]Operational Discovery - RIO support [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D500" s="3" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="C501" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+          <t>[TC-SC-4.10]Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D501" s="3" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-GRPKEY-1.1]Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D502" s="3" t="inlineStr">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-GRPKEY-2.1]Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D503" s="3" t="inlineStr">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C504" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-GRPKEY-2.2]Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D504" s="3" t="inlineStr">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="C505" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
+          <t>[TC-SC-5.1]Adding member to a group - TH as Admin and DUT as Group Member</t>
         </is>
       </c>
       <c r="D505" s="3" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="C506" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
+          <t>[TC-SC-5.2]Receiving a group message - TH to DUT</t>
         </is>
       </c>
       <c r="D506" s="3" t="inlineStr">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
+          <t>[TC-SC-5.3]Sending a group message - DUT to TH</t>
         </is>
       </c>
       <c r="D507" s="3" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
+          <t>[TC-GRPKEY-5.4]Verification for KeySetReadResponse Command for CacheAndSync</t>
         </is>
       </c>
       <c r="D508" s="3" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+          <t>[TC-SC-6.1]Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
         </is>
       </c>
       <c r="D509" s="3" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
+          <t>[TC-DA-1.1]The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D510" s="3" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
+          <t>[TC-DA-1.2]Device Attestation Request Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D511" s="3" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
+          <t>[TC-DA-1.3]Device Attestation Request Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D512" s="3" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.4]Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D513" s="3" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
+          <t>[TC-DA-1.5]NOCSR Procedure Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D514" s="3" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
+          <t>[TC-DA-1.6]NOCSR Procedure Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D515" s="3" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
+          <t>[TC-DA-1.7]Validate CertificateChainRequest [DUT-Commissionee]</t>
         </is>
       </c>
       <c r="D516" s="3" t="inlineStr">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.8]Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D517" s="3" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
+          <t>[TC-IDM-1.1]Invoke Request Action from DUT to TH - [DUT as Client]</t>
         </is>
       </c>
       <c r="D518" s="3" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
+          <t>[TC-IDM-1.2]Invoke Response Action from DUT to TH - [DUT as Server]</t>
         </is>
       </c>
       <c r="D519" s="3" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-2.1]Read Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D520" s="3" t="inlineStr">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-IDM-2.2]Report Data Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D521" s="3" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-3.1]Write Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D522" s="3" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-IDM-3.2]Write Response Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D523" s="3" t="inlineStr">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
+          <t>[TC-IDM-4.1]SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
         </is>
       </c>
       <c r="D524" s="3" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.2]Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D525" s="3" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.3]Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D526" s="3" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.4]Persistent Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D527" s="3" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="C528" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-5.1]Timed Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D528" s="3" t="inlineStr">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
+          <t>[TC-IDM-5.2]Status Response from DUT in response to a Timed Request Action from TH.</t>
         </is>
       </c>
       <c r="D529" s="3" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="C530" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-6.1]Events Read Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D530" s="3" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="C531" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-6.2]Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D531" s="3" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="C532" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-6.3]Events Read Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D532" s="3" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="C533" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-6.4]Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D533" s="3" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="C534" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-7.1]Multi Fabric Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D534" s="3" t="inlineStr">
@@ -13808,7 +13808,7 @@
       </c>
       <c r="C535" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-8.1]Fabric scoped Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D535" s="3" t="inlineStr">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="C536" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
+          <t>[TC-IDM-9.1]CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D536" s="3" t="inlineStr">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="C537" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
+          <t>[TC-IDM-10.1]Cluster requirements - Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D537" s="3" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C538" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+          <t>[TC-IDM-11.1]Data types - attribute strings [DUT as Server] - data model</t>
         </is>
       </c>
       <c r="D538" s="3" t="inlineStr">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.1]Administrator Behavior using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D539" s="3" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="C540" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.2]Administrator Behavior using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D540" s="3" t="inlineStr">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="C541" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.3]Node Behavior using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D541" s="3" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="C542" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.4]Node Behavior using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D542" s="3" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="C543" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.5]Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D543" s="3" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="C544" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.6]Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D544" s="3" t="inlineStr">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="C545" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.7]Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D545" s="3" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="C546" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.8]Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D546" s="3" t="inlineStr">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="C547" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.9]Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D547" s="3" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="C548" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.10]Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D548" s="3" t="inlineStr">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.11]Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D549" s="3" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="C550" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.12]Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D550" s="3" t="inlineStr">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="C551" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.13]Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D551" s="3" t="inlineStr">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="C552" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.14]Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D552" s="3" t="inlineStr">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="C553" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.15]Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D553" s="3" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="C554" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.16]Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D554" s="3" t="inlineStr">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.17]Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D555" s="3" t="inlineStr">
@@ -14333,7 +14333,7 @@
       </c>
       <c r="C556" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.18]Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D556" s="3" t="inlineStr">
@@ -14358,7 +14358,7 @@
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.19]max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D557" s="3" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="C558" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.20]max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D558" s="3" t="inlineStr">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.21]Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D559" s="3" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="C560" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.22]Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D560" s="3" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="C561" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.23]Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D561" s="3" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="C562" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.24]Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D562" s="3" t="inlineStr">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="C563" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.25]Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D563" s="3" t="inlineStr">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="C564" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.26]Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D564" s="3" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="C565" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
+          <t>[TC-BR-1]Basics of bridging (DUT server)</t>
         </is>
       </c>
       <c r="D565" s="3" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="C566" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
+          <t>[TC-BR-2]Changing the set of bridged devices (DUT server)</t>
         </is>
       </c>
       <c r="D566" s="3" t="inlineStr">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="C567" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
+          <t>[TC-BR-3]Changing name and state of a bridged device (DUT server)</t>
         </is>
       </c>
       <c r="D567" s="3" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="C568" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+          <t>[TC-BR-4]DUT client handling of bridges (DUT client)</t>
         </is>
       </c>
       <c r="D568" s="3" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="C569" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-BDX-1.1]Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D569" s="3" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="C570" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BDX-1.2]Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D570" s="3" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="C571" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-BDX-1.3]Response to Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D571" s="3" t="inlineStr">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C572" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BDX-1.4]Response to Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D572" s="3" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="C573" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BDX-1.5]Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D573" s="3" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="C574" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BDX-1.6]Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D574" s="3" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="C575" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.1] Synchronous File Sending</t>
+          <t>[TC-BDX-2.1]Synchronous File Sending</t>
         </is>
       </c>
       <c r="D575" s="3" t="inlineStr">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="C576" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
+          <t>[TC-BDX-2.2]Synchronous File Receiving</t>
         </is>
       </c>
       <c r="D576" s="3" t="inlineStr">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="C577" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.3]Restart Synchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D577" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="C578" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
+          <t>[TC-BDX-2.4]Asynchronous File Sending - REMOVED</t>
         </is>
       </c>
       <c r="D578" s="3" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C579" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.5]Asynchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D579" s="3" t="inlineStr">
@@ -14933,7 +14933,7 @@
       </c>
       <c r="C580" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
+          <t>[TC-SU-1.1]Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
         </is>
       </c>
       <c r="D580" s="3" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.1]QueryImage Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D581" s="3" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="C582" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
+          <t>[TC-SU-2.2]Handling Different QueryImageResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D582" s="3" t="inlineStr">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
+          <t>[TC-SU-2.3]Transfer of Software Update Images between DUT and TH/OTA-P</t>
         </is>
       </c>
       <c r="D583" s="3" t="inlineStr">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="C584" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.4]ApplyUpdateRequest Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D584" s="3" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
+          <t>[TC-SU-2.5]Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D585" s="3" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="C586" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.6]NotifyUpdateApplied Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D586" s="3" t="inlineStr">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
+          <t>[TC-SU-2.7]Verifying Events on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D587" s="3" t="inlineStr">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="C588" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
+          <t>[TC-SU-2.8]OTA Functionality in Multi Fabric Scenario</t>
         </is>
       </c>
       <c r="D588" s="3" t="inlineStr">
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
+          <t>[TC-SU-3.1]QueryImageResponse from DUT to OTA-R</t>
         </is>
       </c>
       <c r="D589" s="3" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="C590" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
+          <t>[TC-SU-3.2]Handling Different QueryImageResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D590" s="3" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
+          <t>[TC-SU-3.3]Transfer of Software Update Images between DUT and OTA-R</t>
         </is>
       </c>
       <c r="D591" s="3" t="inlineStr">
@@ -15233,7 +15233,7 @@
       </c>
       <c r="C592" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
+          <t>[TC-SU-3.4]Handling Different ApplyUpdateResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D592" s="3" t="inlineStr">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
+          <t>[TC-SU-4.1]Verifying Cluster Attributes on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D593" s="3" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="C594" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+          <t>[TC-SU-4.2]Verifying Cluster Attributes from Admin(DUT)</t>
         </is>
       </c>
       <c r="D594" s="3" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.1] Privileges</t>
+          <t>[TC-ACE-1.1]Privileges</t>
         </is>
       </c>
       <c r="D595" s="3" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="C596" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.2] Subscriptions</t>
+          <t>[TC-ACE-1.2]Subscriptions</t>
         </is>
       </c>
       <c r="D596" s="3" t="inlineStr">
@@ -15358,7 +15358,7 @@
       </c>
       <c r="C597" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.3] Subjects</t>
+          <t>[TC-ACE-1.3]Subjects</t>
         </is>
       </c>
       <c r="D597" s="3" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="C598" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.4] Targets</t>
+          <t>[TC-ACE-1.4]Targets</t>
         </is>
       </c>
       <c r="D598" s="3" t="inlineStr">
@@ -15408,7 +15408,7 @@
       </c>
       <c r="C599" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.5] Multi-fabric</t>
+          <t>[TC-ACE-1.5]Multi-fabric</t>
         </is>
       </c>
       <c r="D599" s="3" t="inlineStr">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="C600" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
+          <t>[TC-ACE-1.6]Group auth mode</t>
         </is>
       </c>
       <c r="D600" s="3" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="C601" s="3" t="inlineStr">
         <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+          <t>[TC-RR-1.1]Minimal Resource Requirements for Matter Node</t>
         </is>
       </c>
       <c r="D601" s="3" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="C602" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
+          <t>[TC-SM-1.1]Device composition - Root Node [DUT as Server]</t>
         </is>
       </c>
       <c r="D602" s="3" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="C603" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+          <t>[TC-SM-1.2]Device composition - Topology [DUT as Server]</t>
         </is>
       </c>
       <c r="D603" s="3" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="C604" s="3" t="inlineStr">
         <is>
-          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
+          <t>[TC-DT-1.1]Base Device Type [DUT as Server]</t>
         </is>
       </c>
       <c r="D604" s="3" t="inlineStr">
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15596,13 +15596,2270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No change found</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t xml:space="preserve">On/Off </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[TC-OO-3.2] Functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TC-OO-3.2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temperature Measurement </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[TC-TMP-2.2] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TC-TMP-2.2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relative Humidity Measurement </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[TC-RH-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TC-RH-2.2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermostat User Configuration </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[TC-TSUIC-2.2] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TC-TSUIC-2.2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pump Configuration and Control </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[TC-PCC-2.4] Life Time Counters with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TC-PCC-2.4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Media </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[TC-ALOGIN-12.2] Account Login Verification (DUT as Client)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TC-ALOGIN-12.2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Level Control </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[TC-LVL-7.1] Verification of MoveToClosestFrequency command (DUT as Server)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TC-LVL-7.1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Color Control </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[TC-CC-9.4] ColorLoopSet Validation with client as DUT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TC-CC-9.4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Occupancy Sensing </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[TC-OCC-3.1] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TC-OCC-3.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flow Measurement </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[TC-FLW-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TC-FLW-2.2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pressure Measurement </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[TC-PRS-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TC-PRS-2.2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Window Covering </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[TC-WNCV-7.1] GoToPercentage Commands Verification [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TC-WNCV-7.1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thermostat </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[TC-TSTAT-3.2] Functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TC-TSTAT-3.2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Software Diagnostics </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[TC-DGSW-3.2] Commands Generated [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TC-DGSW-3.2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ethernet Network Diagnostics </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[TC-DGETH-3.2] Command Generated DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TC-DGETH-3.2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thread Network Diagnostics </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[TC-DGTHREAD-3.4] ResetCounts Command[DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TC-DGTHREAD-3.4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[TC-DGWIFI-3.2] Command Generated [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TC-DGWIFI-3.2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnostics Logs </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[TC-DLOG-3.1] Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TC-DLOG-3.1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Identify </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[TC-I-3.2] Functionality with Client as DUT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TC-I-3.2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Power Source </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[TC-PS-3.1] Endpoint composition and EndpointList</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TC-PS-3.1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Power Source Configuration </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[TC-PSCFG-2.2] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TC-PSCFG-2.2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boolean State </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[TC-BOOL-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TC-BOOL-2.2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Illuminance Measurement </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[TC-ILL-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TC-ILL-2.2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[TC-SWTCH-3.2] Primary functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TC-SWTCH-3.2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actions </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[TC-ACT-3.2] Functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TC-ACT-3.2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mode Select </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[TC-MOD-3.4] OnMode Overwriting StartUpMode (DUT as Server)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TC-MOD-3.4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RVC Run Mode </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TC-RVCRUNM-3.3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RVC Clean Mode </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>TC-RVCCLEANM-3.3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Descriptor Cluster TestPlan</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TC-DESC-2.2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">General Diagnostics </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TC-DGGEN-2.3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">General Commissioning </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>TC-CGEN-2.4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">User Label </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TC-ULABEL-2.4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fixed Label </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TC-FLABEL-2.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Localization Configuration </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TC-LCFG-2.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit Localization </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>TC-LUNIT-3.1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Time Format Localization </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TC-LTIME-3.1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Door lock Test Plan</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TC-DRLK-3.2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binding </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TC-BIND-2.3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groups </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[TC-G-3.2] Commands [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TC-G-3.2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scenes </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TC-S-2.6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Access Control cluster</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[TC-ACL-2.10] Persistence</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>TC-ACL-2.10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bridged Device Basic Information Test Plan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TC-BRBINFO-3.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Time Synchronization </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>TC-TIMESYNC-3.1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbon Monoxide Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TC-CMOCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbon Dioxide Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>TC-CDOCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nitrogen Dioxide Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>TC-NDOCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ozone Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TC-OZCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM2.5 Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TC-PMICONC-2.1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formaldehyde Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TC-FLDCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM1 Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TC-PMHCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM10 Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TC-PMKCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total Volatile Organic Compounds Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TC-TVOCCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Radon Concentration Measurement </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TC-RNCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temperature Control </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TC-TCTL-3.3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laundry Washer Mode </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TC-LWM-3.3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Washer Controls </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TC-WASHERCTRL-2.2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fan Control </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TC-FAN-3.6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dishwasher Mode </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TC-DISHM-3.3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dishwasher Alarm </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>TC-DISHALM-3.6</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Operational State </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TC-OPSTATE-2.4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Air Quality </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TC-AIRQUAL-2.1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HEPA Filter Monitoring </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TC-HEPAFREMON-2.1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activated Carbon Filter Monitoring </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TC-ACFREMON-2.1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD Management </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TC-ICDM-2.3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TC-TCCM-3.3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refrigerator Alarm </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TC-REFALM-2.3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RVC Operational State </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TC-RVCOPSTATE-2.3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smoke CO Alarm </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TC-SMOKECO-2.6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Device Discovery Test Plan</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>TC-DD-3.21</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Basic Information Test Plan</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TC-BINFO-3.1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials Test Plan</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Network Commissioning Test Plan</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Secure Channel Test Plan</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TC-SC-4.10</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TC-SC-6.1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Device Attestation Test Plan</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>TC-DA-1.8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Interaction Data Model Test Plan</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TC-IDM-11.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Administrator Commissioning </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.26</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Bridge Test Plan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TC-BR-4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol Test Plan</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>OTA Software Update Test Plan</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>TC-SU-4.2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement Test Plan</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.6] Group auth mode</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.6</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Minimal Resource Requirements Test Plan</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TC-RR-1.1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>System Model Test Plan</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TC-SM-1.2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Device Types Test Plan</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TC-DT-1.1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-OO-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -503,12 +503,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.1]Attributes with server as DUT</t>
+          <t>[TC-OO-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.2]Primary functionality with server as DUT</t>
+          <t>[TC-OO-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -553,12 +553,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.3]Secondary functionality with server as DUT</t>
+          <t>[TC-OO-2.3] Secondary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-2.4]Startup functionality with server as DUT</t>
+          <t>[TC-OO-2.4] Startup functionality with server as DUT</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>[TC-OO-3.2]Functionality with client as DUT</t>
+          <t>[TC-OO-3.2] Functionality with client as DUT</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -628,12 +628,12 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Measurement </t>
+          <t>Temperature Measurement</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>[TC-TMP-1.1]Global attributes with server as DUT</t>
+          <t>[TC-TMP-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Measurement </t>
+          <t>Temperature Measurement</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>[TC-TMP-2.1]Attributes with server as DUT</t>
+          <t>[TC-TMP-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Measurement </t>
+          <t>Temperature Measurement</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>[TC-TMP-2.2]Primary functionality with server as DUT</t>
+          <t>[TC-TMP-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relative Humidity Measurement </t>
+          <t>Relative Humidity Measurement</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>[TC-RH-1.1]Global Attributes with Server as DUT</t>
+          <t>[TC-RH-1.1] Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -728,12 +728,12 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relative Humidity Measurement </t>
+          <t>Relative Humidity Measurement</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>[TC-RH-2.1]Attributes with Server as DUT</t>
+          <t>[TC-RH-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relative Humidity Measurement </t>
+          <t>Relative Humidity Measurement</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>[TC-RH-2.2]Primary Functionality with Server as DUT</t>
+          <t>[TC-RH-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat User Configuration </t>
+          <t>Thermostat User Configuration</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-TSUIC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat User Configuration </t>
+          <t>Thermostat User Configuration</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-2.1]Attributes with server as DUT</t>
+          <t>[TC-TSUIC-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -828,12 +828,12 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat User Configuration </t>
+          <t>Thermostat User Configuration</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-2.2]Primary functionality with server as DUT</t>
+          <t>[TC-TSUIC-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
+          <t>Pump Configuration and Control</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-PCC-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
+          <t>Pump Configuration and Control</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.1]Attributes with Server as DUT</t>
+          <t>[TC-PCC-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
+          <t>Pump Configuration and Control</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.2]Operation Mode with Server as DUT</t>
+          <t>[TC-PCC-2.2] Operation Mode with Server as DUT</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
+          <t>Pump Configuration and Control</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.3]Control Mode with Server as DUT</t>
+          <t>[TC-PCC-2.3] Control Mode with Server as DUT</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
+          <t>Pump Configuration and Control</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.4]Life Time Counters with Server as DUT</t>
+          <t>[TC-PCC-2.4] Life Time Counters with Server as DUT</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -978,12 +978,12 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>[TC-LOWPOWER-1.1]Global attributes - Low Power Cluster (DUT as Server)</t>
+          <t>[TC-LOWPOWER-1.1] Global attributes - Low Power Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1003,12 +1003,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-1.2]Global attributes - Keypad Input Cluster (DUT as Server)</t>
+          <t>[TC-KEYPADINPUT-1.2] Global attributes - Keypad Input Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-1.3]Global attributes - Application Launcher Cluster (DUT as Server)</t>
+          <t>[TC-APPLAUNCHER-1.3] Global attributes - Application Launcher Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-1.4]Global attributes - Media Input Cluster (DUT as Server)</t>
+          <t>[TC-MEDIAINPUT-1.4] Global attributes - Media Input Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>[TC-WAKEONLAN-1.5]Global attributes - Wake on LAN Cluster (DUT as Server)</t>
+          <t>[TC-WAKEONLAN-1.5] Global attributes - Wake on LAN Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-1.6]Global attributes - Channel Cluster (DUT as Server)</t>
+          <t>[TC-CHANNEL-1.6] Global attributes - Channel Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-1.7]Global attributes - Media Playback Cluster (DUT as Server)</t>
+          <t>[TC-MEDIAPLAYBACK-1.7] Global attributes - Media Playback Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-1.8]Global attributes - Audio Output Cluster (DUT as Server)</t>
+          <t>[TC-AUDIOOUTPUT-1.8] Global attributes - Audio Output Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>[TC-TGTNAV-1.9]Global attributes - Target Navigator Cluster (DUT as Server)</t>
+          <t>[TC-TGTNAV-1.9] Global attributes - Target Navigator Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>[TC-APBSC-1.10]Global attributes - Application Basic Cluster (DUT as Server)</t>
+          <t>[TC-APBSC-1.10] Global attributes - Application Basic Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-1.11]Global attributes - Content Launcher Cluster (DUT as Server)</t>
+          <t>[TC-CONTENTLAUNCHER-1.11] Global attributes - Content Launcher Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-1.12]Global attributes - Account Login Cluster (DUT as Server)</t>
+          <t>[TC-ALOGIN-1.12] Global attributes - Account Login Cluster (DUT as Server)</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>[TC-LOWPOWER-2.1]Low Power Mode Verification (DUT as Server)</t>
+          <t>[TC-LOWPOWER-2.1] Low Power Mode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>[TC-LOWPOWER-2.2]Low Power Mode Verification (DUT as Client)</t>
+          <t>[TC-LOWPOWER-2.2] Low Power Mode Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1328,12 +1328,12 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-3.1]Send Key Command Verification (DUT as Client)</t>
+          <t>[TC-KEYPADINPUT-3.1] Send Key Command Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-3.2]Location Keys Verification</t>
+          <t>[TC-KEYPADINPUT-3.2] Location Keys Verification</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>[TC-KEYPADINPUT-3.3]Number Keys Verification</t>
+          <t>[TC-KEYPADINPUT-3.3] Number Keys Verification</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.5]Catalog List Verification</t>
+          <t>[TC-APPLAUNCHER-3.5] Catalog List Verification</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.6]Current App Verification</t>
+          <t>[TC-APPLAUNCHER-3.6] Current App Verification</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.7]Launch Application Verification</t>
+          <t>[TC-APPLAUNCHER-3.7] Launch Application Verification</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.7.1]Launch Application Verification (DUT as Client)</t>
+          <t>[TC-APPLAUNCHER-3.7.1] Launch Application Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.8]Stop Application Verification</t>
+          <t>[TC-APPLAUNCHER-3.8] Stop Application Verification</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.8.1]Stop Application Verification (DUT as Client)</t>
+          <t>[TC-APPLAUNCHER-3.8.1] Stop Application Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1553,12 +1553,12 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.9]Hide Application Verification</t>
+          <t>[TC-APPLAUNCHER-3.9] Hide Application Verification</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>[TC-APPLAUNCHER-3.9.1]Hide Application Verification (DUT as Client)</t>
+          <t>[TC-APPLAUNCHER-3.9.1] Hide Application Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.10]Input List Verification</t>
+          <t>[TC-MEDIAINPUT-3.10] Input List Verification</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.11]Select Input  Verification</t>
+          <t>[TC-MEDIAINPUT-3.11] Select Input  Verification</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.12]Show and Hide Input Status Verification</t>
+          <t>[TC-MEDIAINPUT-3.12] Show and Hide Input Status Verification</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.13]Rename Input Verification</t>
+          <t>[TC-MEDIAINPUT-3.13] Rename Input Verification</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.14]Select Input Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.14] Select Input Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.15]Show Input Status Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.15] Show Input Status Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -1753,12 +1753,12 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.16]Hide Input Status Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.16] Hide Input Status Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAINPUT-3.17]Rename Input Verification (DUT as Client)</t>
+          <t>[TC-MEDIAINPUT-3.17] Rename Input Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>[TC-WAKEONLAN-4.1]Wake-On LAN Verification</t>
+          <t>[TC-WAKEONLAN-4.1] Wake-On LAN Verification</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.1]List TV Channels Verification</t>
+          <t>[TC-CHANNEL-5.1] List TV Channels Verification</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.2]Change Channel by Number Verification</t>
+          <t>[TC-CHANNEL-5.2] Change Channel by Number Verification</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.3]Skip Channel Verification</t>
+          <t>[TC-CHANNEL-5.3] Skip Channel Verification</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.4]Change Channel Verification (DUT as Client)</t>
+          <t>[TC-CHANNEL-5.4] Change Channel Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.5]Change Channel By Number Verification (DUT as Client)</t>
+          <t>[TC-CHANNEL-5.5] Change Channel By Number Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>[TC-CHANNEL-5.6]Skip Channel Verification (DUT as Client)</t>
+          <t>[TC-CHANNEL-5.6] Skip Channel Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.1]Mandatory Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.1] Mandatory Media Playback Verification</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.2]Optional Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.2] Optional Media Playback Verification</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.3]Advanced Seek Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.3] Advanced Seek Media Playback Verification</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.4]Variable Speed Media Playback Verification</t>
+          <t>[TC-MEDIAPLAYBACK-6.4] Variable Speed Media Playback Verification</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.5]Mandatory Media Playback Verification (DUT as Client)</t>
+          <t>[TC-MEDIAPLAYBACK-6.5] Mandatory Media Playback Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>[TC-MEDIAPLAYBACK-6.7]Optional Media Playback Verification (DUT as Client)</t>
+          <t>[TC-MEDIAPLAYBACK-6.7] Optional Media Playback Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.1]Select Output Verification</t>
+          <t>[TC-AUDIOOUTPUT-7.1] Select Output Verification</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.2]Rename Output Verification</t>
+          <t>[TC-AUDIOOUTPUT-7.2] Rename Output Verification</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.3]Select Output Verification (DUT as Client)</t>
+          <t>[TC-AUDIOOUTPUT-7.3] Select Output Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>[TC-AUDIOOUTPUT-7.4]Rename Output Verification (DUT as Client)</t>
+          <t>[TC-AUDIOOUTPUT-7.4] Rename Output Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>[TC-TGTNAV-8.1]Navigate Target Verification</t>
+          <t>[TC-TGTNAV-8.1] Navigate Target Verification</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -2253,12 +2253,12 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>[TC-TGTNAV-8.2]Navigate Target Verification (DUT as Client)</t>
+          <t>[TC-TGTNAV-8.2] Navigate Target Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>[TC-APBSC-9.1]Application Basic Attribute Verification</t>
+          <t>[TC-APBSC-9.1] Application Basic Attribute Verification</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.1]Read Content Launcher Attributes</t>
+          <t>[TC-CONTENTLAUNCHER-10.1] Read Content Launcher Attributes</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.3]Launch Content Verification</t>
+          <t>[TC-CONTENTLAUNCHER-10.3] Launch Content Verification</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.4]Launch Content Verification (DUT as Client)</t>
+          <t>[TC-CONTENTLAUNCHER-10.4] Launch Content Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.5]Launch URL Verification</t>
+          <t>[TC-CONTENTLAUNCHER-10.5] Launch URL Verification</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.6]Launch URL Verification (DUT as Client)</t>
+          <t>[TC-CONTENTLAUNCHER-10.6] Launch URL Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>[TC-CONTENTLAUNCHER-10.7]Content Search Verification</t>
+          <t>[TC-CONTENTLAUNCHER-10.7] Content Search Verification</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>[TC-MC-11.1]Casting Video Player via User-Directed Commissioning Verification (DUT as Server)</t>
+          <t>[TC-MC-11.1] Casting Video Player via User-Directed Commissioning Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -2478,12 +2478,12 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>[TC-MC-11.2]Casting Video Player via UX Screen with PIN Verification (DUT as Server)</t>
+          <t>[TC-MC-11.2] Casting Video Player via UX Screen with PIN Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-12.1]Account Login Verification</t>
+          <t>[TC-ALOGIN-12.1] Account Login Verification</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-12.2]Account Login Verification (DUT as Client)</t>
+          <t>[TC-ALOGIN-12.2] Account Login Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-1.1]Global attributes with server as DUT</t>
+          <t>[TC-LVL-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-2.1]Read cluster attributes (DUT as Server)</t>
+          <t>[TC-LVL-2.1] Read cluster attributes (DUT as Server)</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-2.2]Write cluster attributes (DUT as Server)</t>
+          <t>[TC-LVL-2.2] Write cluster attributes (DUT as Server)</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-3.1]MoveToLevel Verification (DUT as Server)</t>
+          <t>[TC-LVL-3.1] MoveToLevel Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -2653,12 +2653,12 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-4.1]Move Verification (DUT as Server)</t>
+          <t>[TC-LVL-4.1] Move Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -2678,12 +2678,12 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-5.1]Step Verification (DUT as Server)</t>
+          <t>[TC-LVL-5.1] Step Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-6.1]Stop Verification (DUT as Server)</t>
+          <t>[TC-LVL-6.1] Stop Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>[TC-LVL-7.1]Verification of MoveToClosestFrequency command (DUT as Server)</t>
+          <t>[TC-LVL-7.1] Verification of MoveToClosestFrequency command (DUT as Server)</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-1.1]Global attributes with server as DUT</t>
+          <t>[TC-CC-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-2.1]Attributes with server as DUT</t>
+          <t>[TC-CC-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.1]Hue MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-3.1] Hue MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.2]Hue Move functionality with server as DUT</t>
+          <t>[TC-CC-3.2] Hue Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.3]Hue Step functionality with server as DUT</t>
+          <t>[TC-CC-3.3] Hue Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-3.4]Hue functionality with client as DUT</t>
+          <t>[TC-CC-3.4] Hue functionality with client as DUT</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -2903,12 +2903,12 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.1]Saturation MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-4.1] Saturation MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.2]Saturation Move functionality with server as DUT</t>
+          <t>[TC-CC-4.2] Saturation Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.3]Saturation Step functionality with server as DUT</t>
+          <t>[TC-CC-4.3] Saturation Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.4]MoveToHueAndSaturation functionality with server as DUT</t>
+          <t>[TC-CC-4.4] MoveToHueAndSaturation functionality with server as DUT</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-4.5]Saturation functionality with client as DUT</t>
+          <t>[TC-CC-4.5] Saturation functionality with client as DUT</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3028,12 +3028,12 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.1]Color MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-5.1] Color MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.2]Color Move functionality with server as DUT</t>
+          <t>[TC-CC-5.2] Color Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.3]Color Step functionality with server as DUT</t>
+          <t>[TC-CC-5.3] Color Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-5.4]Color functionality with client as DUT</t>
+          <t>[TC-CC-5.4] Color functionality with client as DUT</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.1]Color Temperature MoveTo functionality with server as DUT</t>
+          <t>[TC-CC-6.1] Color Temperature MoveTo functionality with server as DUT</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.2]Color Temperature Move functionality with server as DUT</t>
+          <t>[TC-CC-6.2] Color Temperature Move functionality with server as DUT</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.3]Color Temperature Step functionality with server as DUT</t>
+          <t>[TC-CC-6.3] Color Temperature Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.4]Color Temperature functionality with client as DUT</t>
+          <t>[TC-CC-6.4] Color Temperature functionality with client as DUT</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-6.5]Color Temperature StartUpColorTemperatureMireds functionality with server as DUT</t>
+          <t>[TC-CC-6.5] Color Temperature StartUpColorTemperatureMireds functionality with server as DUT</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -3253,12 +3253,12 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.1]Enhanced MoveToHue functionality with server as DUT</t>
+          <t>[TC-CC-7.1] Enhanced MoveToHue functionality with server as DUT</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.2]Enhanced MoveHue functionality with server as DUT</t>
+          <t>[TC-CC-7.2] Enhanced MoveHue functionality with server as DUT</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.3]Enhanced Step functionality with server as DUT</t>
+          <t>[TC-CC-7.3] Enhanced Step functionality with server as DUT</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.4]MoveToEnhancedHueAndSaturation functionality with server as DUT</t>
+          <t>[TC-CC-7.4] MoveToEnhancedHueAndSaturation functionality with server as DUT</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-7.5]Enhanced Hue functionality with client as DUT</t>
+          <t>[TC-CC-7.5] Enhanced Hue functionality with client as DUT</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-8.1]StopMoveStep functionality with server as DUT</t>
+          <t>[TC-CC-8.1] StopMoveStep functionality with server as DUT</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.1]ColorLoopSet Validation</t>
+          <t>[TC-CC-9.1] ColorLoopSet Validation</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.2]ColorLoopSet Validation - change Direction without Stop</t>
+          <t>[TC-CC-9.2] ColorLoopSet Validation - change Direction without Stop</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.3]ColorLoopSet Validation - change Time without Stop</t>
+          <t>[TC-CC-9.3] ColorLoopSet Validation - change Time without Stop</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -3478,12 +3478,12 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>[TC-CC-9.4]ColorLoopSet Validation with client as DUT</t>
+          <t>[TC-CC-9.4] ColorLoopSet Validation with client as DUT</t>
         </is>
       </c>
       <c r="D122" s="3" t="inlineStr">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
+          <t>Occupancy Sensing</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-1.1]Global attributes with server as DUT</t>
+          <t>[TC-OCC-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
+          <t>Occupancy Sensing</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-2.1]Attributes with server as DUT</t>
+          <t>[TC-OCC-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
+          <t>Occupancy Sensing</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-2.3]OccupancySensorTypeBitmap and OccupancySensorType interdependency with server as DUT</t>
+          <t>[TC-OCC-2.3] OccupancySensorTypeBitmap and OccupancySensorType interdependency with server as DUT</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
+          <t>Occupancy Sensing</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-2.4]OccupancySensorTypeBitmap and OccupancySensorType interdependency with client as DUT</t>
+          <t>[TC-OCC-2.4] OccupancySensorTypeBitmap and OccupancySensorType interdependency with client as DUT</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
+          <t>Occupancy Sensing</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>[TC-OCC-3.1]Primary functionality with server as DUT</t>
+          <t>[TC-OCC-3.1] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -3628,12 +3628,12 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flow Measurement </t>
+          <t>Flow Measurement</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLW-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-FLW-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flow Measurement </t>
+          <t>Flow Measurement</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLW-2.1]Attributes with Server as DUT</t>
+          <t>[TC-FLW-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flow Measurement </t>
+          <t>Flow Measurement</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLW-2.2]Primary Functionality with Server as DUT</t>
+          <t>[TC-FLW-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D130" s="3" t="inlineStr">
@@ -3703,12 +3703,12 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure Measurement </t>
+          <t>Pressure Measurement</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>[TC-PRS-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-PRS-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure Measurement </t>
+          <t>Pressure Measurement</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>[TC-PRS-2.1]Attributes with Server as DUT</t>
+          <t>[TC-PRS-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure Measurement </t>
+          <t>Pressure Measurement</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>[TC-PRS-2.2]Primary Functionality with Server as DUT</t>
+          <t>[TC-PRS-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-1.1]Global attributes [DUT as Server]</t>
+          <t>[TC-WNCV-1.1] Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.1]Attributes [DUT as Server]</t>
+          <t>[TC-WNCV-2.1] Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.2]ConfigStatus attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.2] ConfigStatus attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.3]Mode attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.3] Mode attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.4]Type attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.4] Type attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-2.5]EndProductType attribute [DUT as Server]</t>
+          <t>[TC-WNCV-2.5] EndProductType attribute [DUT as Server]</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.1]UpOrOpen command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.1] UpOrOpen command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.2]DownOrClose command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.2] DownOrClose command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.3]StopMotion command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.3] StopMotion command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.4]UpOrOpen command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.4] UpOrOpen command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-3.5]DownOrClose command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-3.5] DownOrClose command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.1]GoToLiftPercentage command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.1] GoToLiftPercentage command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.2]GoToTiltPercentage command Long-Run Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.2] GoToTiltPercentage command Long-Run Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.3]GoToLiftPercentage command Limits Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.3] GoToLiftPercentage command Limits Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.4]GoToTiltPercentage command Limits Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.4] GoToTiltPercentage command Limits Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-4.5]Positions Storage Verification [DUT as Server]</t>
+          <t>[TC-WNCV-4.5] Positions Storage Verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-5.1]Mandatory Attributes Verification [DUT as Client]</t>
+          <t>[TC-WNCV-5.1] Mandatory Attributes Verification [DUT as Client]</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-6.1]Basic Commands Verification [DUT as Client]</t>
+          <t>[TC-WNCV-6.1] Basic Commands Verification [DUT as Client]</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>[TC-WNCV-7.1]GoToPercentage Commands Verification [DUT as Client]</t>
+          <t>[TC-WNCV-7.1] GoToPercentage Commands Verification [DUT as Client]</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat </t>
+          <t>Thermostat</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-1.1]Global attributes with server as DUT</t>
+          <t>[TC-TSTAT-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat </t>
+          <t>Thermostat</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-2.1]Attributes with server as DUT</t>
+          <t>[TC-TSTAT-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat </t>
+          <t>Thermostat</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-2.2]Setpoint Test Cases with server as DUT</t>
+          <t>[TC-TSTAT-2.2] Setpoint Test Cases with server as DUT</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat </t>
+          <t>Thermostat</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-3.2]Functionality with client as DUT</t>
+          <t>[TC-TSTAT-3.2] Functionality with client as DUT</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Software Diagnostics </t>
+          <t>Software Diagnostics</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DGSW-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Software Diagnostics </t>
+          <t>Software Diagnostics</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-2.1]Attributes [{DUT_Sever}]</t>
+          <t>[TC-DGSW-2.1] Attributes [{DUT_Sever}]</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Software Diagnostics </t>
+          <t>Software Diagnostics</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-2.2]Event Functionality [{DUT_Sever}]</t>
+          <t>[TC-DGSW-2.2] Event Functionality [{DUT_Sever}]</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Software Diagnostics </t>
+          <t>Software Diagnostics</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-2.3]Command Received [{DUT_Sever}]</t>
+          <t>[TC-DGSW-2.3] Command Received [{DUT_Sever}]</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Software Diagnostics </t>
+          <t>Software Diagnostics</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGSW-3.2]Commands Generated [DUT as Client]</t>
+          <t>[TC-DGSW-3.2] Commands Generated [DUT as Client]</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethernet Network Diagnostics </t>
+          <t>Ethernet Network Diagnostics</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DGETH-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethernet Network Diagnostics </t>
+          <t>Ethernet Network Diagnostics</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-2.1]Attributes [DUT as Server]</t>
+          <t>[TC-DGETH-2.1] Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -4528,12 +4528,12 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethernet Network Diagnostics </t>
+          <t>Ethernet Network Diagnostics</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-2.2]Command Received [DUT as Server]</t>
+          <t>[TC-DGETH-2.2] Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethernet Network Diagnostics </t>
+          <t>Ethernet Network Diagnostics</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGETH-3.2]Command Generated DUT as Client]</t>
+          <t>[TC-DGETH-3.2] Command Generated DUT as Client]</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -4578,12 +4578,12 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DGTHREAD-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.1]Attributes [DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.1] Attributes [DUT- Server]</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.2]Attributes-Tx [DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.2] Attributes-Tx [DUT- Server]</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.3]Attributes-Rx [DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.3] Attributes-Rx [DUT- Server]</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -4678,12 +4678,12 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.4]ResetCounts Command[DUT- Server]</t>
+          <t>[TC-DGTHREAD-2.4] ResetCounts Command[DUT- Server]</t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-2.5]Thread Network Diagnostics Cluster Events[DUT-Server] - REMOVED</t>
+          <t>[TC-DGTHREAD-2.5] Thread Network Diagnostics Cluster Events[DUT-Server] - REMOVED</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-3.4]ResetCounts Command[DUT-Client]</t>
+          <t>[TC-DGTHREAD-3.4] ResetCounts Command[DUT-Client]</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -4753,12 +4753,12 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+          <t>Wi-Fi Network Diagnostics</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DGWIFI-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+          <t>Wi-Fi Network Diagnostics</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-2.1]Attributes [DUT as Server]</t>
+          <t>[TC-DGWIFI-2.1] Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+          <t>Wi-Fi Network Diagnostics</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-2.2]Event Functionality [DUT as Server]</t>
+          <t>[TC-DGWIFI-2.2] Event Functionality [DUT as Server]</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+          <t>Wi-Fi Network Diagnostics</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-2.3]Command Received [DUT as Server]</t>
+          <t>[TC-DGWIFI-2.3] Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+          <t>Wi-Fi Network Diagnostics</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-3.2]Command Generated [DUT as Client]</t>
+          <t>[TC-DGWIFI-3.2] Command Generated [DUT as Client]</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics Logs </t>
+          <t>Diagnostics Logs</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-1.1]Global Attributes with DUT as Server - REMOVED</t>
+          <t>[TC-DLOG-1.1] Global Attributes with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics Logs </t>
+          <t>Diagnostics Logs</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-2.1]Diagnostic Logs Cluster Commands Checks with BDX [DUT-Server] - REMOVED</t>
+          <t>[TC-DLOG-2.1] Diagnostic Logs Cluster Commands Checks with BDX [DUT-Server] - REMOVED</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics Logs </t>
+          <t>Diagnostics Logs</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-2.2]Diagnostic Logs Cluster Commands Checks without BDX [DUT-Server] - REMOVED</t>
+          <t>[TC-DLOG-2.2] Diagnostic Logs Cluster Commands Checks without BDX [DUT-Server] - REMOVED</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics Logs </t>
+          <t>Diagnostics Logs</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
         <is>
-          <t>[TC-DLOG-3.1]Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
+          <t>[TC-DLOG-3.1] Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
         </is>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify </t>
+          <t>Identify</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-1.1]Global Attributes with Server as DUT</t>
+          <t>[TC-I-1.1] Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -5003,12 +5003,12 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify </t>
+          <t>Identify</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-2.1]Attributes with Server as DUT</t>
+          <t>[TC-I-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify </t>
+          <t>Identify</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-2.2]Primary Functionality with Server as DUT</t>
+          <t>[TC-I-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -5053,12 +5053,12 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify </t>
+          <t>Identify</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-2.3]Secondary Functionality with Server as DUT</t>
+          <t>[TC-I-2.3] Secondary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -5078,12 +5078,12 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify </t>
+          <t>Identify</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-3.2]Functionality with Client as DUT</t>
+          <t>[TC-I-3.2] Functionality with Client as DUT</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source </t>
+          <t>Power Source</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-1.1]Global attributes with server as DUT</t>
+          <t>[TC-PS-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source </t>
+          <t>Power Source</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-2.1]Attributes with server as DUT</t>
+          <t>[TC-PS-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source </t>
+          <t>Power Source</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-2.2]Event reporting with server as DUT - REMOVED</t>
+          <t>[TC-PS-2.2] Event reporting with server as DUT - REMOVED</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
@@ -5178,12 +5178,12 @@
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source </t>
+          <t>Power Source</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>[TC-PS-3.1]Endpoint composition and EndpointList</t>
+          <t>[TC-PS-3.1] Endpoint composition and EndpointList</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source Configuration </t>
+          <t>Power Source Configuration</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>[TC-PSCFG-1.1]Global attributes with server as DUT</t>
+          <t>[TC-PSCFG-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source Configuration </t>
+          <t>Power Source Configuration</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>[TC-PSCFG-2.1]Attributes with server as DUT</t>
+          <t>[TC-PSCFG-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -5253,12 +5253,12 @@
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source Configuration </t>
+          <t>Power Source Configuration</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>[TC-PSCFG-2.2]Primary functionality with server as DUT</t>
+          <t>[TC-PSCFG-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boolean State </t>
+          <t>Boolean State</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>[TC-BOOL-1.1]Global Attributes with Server as DUT</t>
+          <t>[TC-BOOL-1.1] Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -5303,12 +5303,12 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boolean State </t>
+          <t>Boolean State</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>[TC-BOOL-2.1]Attributes with Server as DUT</t>
+          <t>[TC-BOOL-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boolean State </t>
+          <t>Boolean State</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>[TC-BOOL-2.2]Primary Functionality with Server as DUT</t>
+          <t>[TC-BOOL-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -5353,12 +5353,12 @@
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Illuminance Measurement </t>
+          <t>Illuminance Measurement</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>[TC-ILL-1.1]Global Attributes with Server as DUT</t>
+          <t>[TC-ILL-1.1] Global Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Illuminance Measurement </t>
+          <t>Illuminance Measurement</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>[TC-ILL-2.1]Attributes with Server as DUT</t>
+          <t>[TC-ILL-2.1] Attributes with Server as DUT</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Illuminance Measurement </t>
+          <t>Illuminance Measurement</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>[TC-ILL-2.2]Primary Functionality with Server as DUT</t>
+          <t>[TC-ILL-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -5428,12 +5428,12 @@
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switch </t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-1.1]Global attributes with server as DUT</t>
+          <t>[TC-SWTCH-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -5453,12 +5453,12 @@
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switch </t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-2.1]Attributes with server as DUT</t>
+          <t>[TC-SWTCH-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switch </t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-2.2]Primary functionality with server as DUT</t>
+          <t>[TC-SWTCH-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switch </t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>[TC-SWTCH-3.2]Primary functionality with client as DUT</t>
+          <t>[TC-SWTCH-3.2] Primary functionality with client as DUT</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actions </t>
+          <t>Actions</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-1.1]Global attributes with server as DUT</t>
+          <t>[TC-ACT-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -5553,12 +5553,12 @@
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actions </t>
+          <t>Actions</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-2.1]Attributes with server as DUT</t>
+          <t>[TC-ACT-2.1] Attributes with server as DUT</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actions </t>
+          <t>Actions</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-2.2]Primary functionality with server as DUT</t>
+          <t>[TC-ACT-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actions </t>
+          <t>Actions</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACT-3.2]Functionality with client as DUT</t>
+          <t>[TC-ACT-3.2] Functionality with client as DUT</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-1.1]Global attributes with server as DUT</t>
+          <t>[TC-MOD-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-1.2]Cluster attributes with server as DUT</t>
+          <t>[TC-MOD-1.2] Cluster attributes with server as DUT</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
@@ -5678,12 +5678,12 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-1.3]Attributes with client as DUT</t>
+          <t>[TC-MOD-1.3] Attributes with client as DUT</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-2.1]ChangeToMode Verification (DUT as Server)</t>
+          <t>[TC-MOD-2.1] ChangeToMode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -5728,12 +5728,12 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-2.2]ChangeToMode Verification (DUT as Client)</t>
+          <t>[TC-MOD-2.2] ChangeToMode Verification (DUT as Client)</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.1]OnMode Verification (DUT as Server)</t>
+          <t>[TC-MOD-3.1] OnMode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.2]StartUpMode Verification (DUT as Server)</t>
+          <t>[TC-MOD-3.2] StartUpMode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -5803,12 +5803,12 @@
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.3]OTA Mode Verification (DUT as Server)</t>
+          <t>[TC-MOD-3.3] OTA Mode Verification (DUT as Server)</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -5828,12 +5828,12 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>[TC-MOD-3.4]OnMode Overwriting StartUpMode (DUT as Server)</t>
+          <t>[TC-MOD-3.4] OnMode Overwriting StartUpMode (DUT as Server)</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCRUNM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-RVCRUNM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCRUNM-1.2]Cluster attributes with DUT as Server</t>
+          <t>[TC-RVCRUNM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCRUNM-2.1]Change to Mode functionality with DUT as Server</t>
+          <t>[TC-RVCRUNM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.1]On Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.1] On Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.2]Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.2] Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -5978,12 +5978,12 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.3]On Mode and Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCCLEANM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-RVCCLEANM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCCLEANM-1.2]Cluster attributes with DUT as Server</t>
+          <t>[TC-RVCCLEANM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -6053,12 +6053,12 @@
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCCLEANM-2.1]Change to Mode functionality with DUT as Server</t>
+          <t>[TC-RVCCLEANM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
@@ -6078,12 +6078,12 @@
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.1]On Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.1] On Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -6103,12 +6103,12 @@
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.2]Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.2] Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.3]On Mode and Startup Mode functionality with DUT as Server </t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>[TC-DESC-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DESC-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>[TC-DESC-2.1]Descriptor Cluster Attributes with DUT as Server</t>
+          <t>[TC-DESC-2.1] Descriptor Cluster Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>[TC-DESC-2.2]Descriptor Cluster Duplicate Condition with DUT as Server</t>
+          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Diagnostics </t>
+          <t>General Diagnostics</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DGGEN-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Diagnostics </t>
+          <t>General Diagnostics</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.1]Attributes [DUT as Server]</t>
+          <t>[TC-DGGEN-2.1] Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -6278,12 +6278,12 @@
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Diagnostics </t>
+          <t>General Diagnostics</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.2]Event Functionality [DUT as Server]</t>
+          <t>[TC-DGGEN-2.2] Event Functionality [DUT as Server]</t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Diagnostics </t>
+          <t>General Diagnostics</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.3]Command Received [DUT as Server]</t>
+          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
@@ -6328,12 +6328,12 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Commissioning </t>
+          <t>General Commissioning</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-CGEN-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
@@ -6353,12 +6353,12 @@
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Commissioning </t>
+          <t>General Commissioning</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.1]Breadcrumb, BasicCommissioningInfo, RegulatoryConfig, LocationCapability and SupportsConcurrentConnection attributes [DUT as Server]</t>
+          <t>[TC-CGEN-2.1] Breadcrumb, BasicCommissioningInfo, RegulatoryConfig, LocationCapability and SupportsConcurrentConnection attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
@@ -6378,12 +6378,12 @@
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Commissioning </t>
+          <t>General Commissioning</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.2]ArmFailSafe command verification [DUT as Server]</t>
+          <t>[TC-CGEN-2.2] ArmFailSafe command verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -6403,12 +6403,12 @@
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Commissioning </t>
+          <t>General Commissioning</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.4]Verification For CommissioningError on response message [DUT as Server]</t>
+          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
@@ -6428,12 +6428,12 @@
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Label </t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-ULABEL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
@@ -6453,12 +6453,12 @@
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Label </t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.1]User label cluster read verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.1] User label cluster read verification [DUT-server]</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Label </t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.2]User Label cluster write verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.2] User Label cluster write verification [DUT-server]</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
@@ -6503,12 +6503,12 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Label </t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.3]User Label cluster constraint_error verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.3] User Label cluster constraint_error verification [DUT-server]</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Label </t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.4]User Label cluster empty entry verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
@@ -6553,12 +6553,12 @@
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fixed Label </t>
+          <t>Fixed Label</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-FLABEL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fixed Label </t>
+          <t>Fixed Label</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-2.1]Fixed Label cluster [DUT-server]</t>
+          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localization Configuration </t>
+          <t>Localization Configuration</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>[TC-LCFG-1.1]Global Attributes [DUT-Server]</t>
+          <t>[TC-LCFG-1.1] Global Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -6628,12 +6628,12 @@
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localization Configuration </t>
+          <t>Localization Configuration</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>[TC-LCFG-2.1]Localization Configuration Cluster Attributes[DUT-Server]</t>
+          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit Localization </t>
+          <t>Unit Localization</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-1.2]Global Attributes [DUT as Server]</t>
+          <t>[TC-LUNIT-1.2] Global Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit Localization </t>
+          <t>Unit Localization</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-3.1]Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
@@ -6703,12 +6703,12 @@
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Format Localization </t>
+          <t>Time Format Localization</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>[TC-LTIME-1.2]Global Attributes [DUT as Server]</t>
+          <t>[TC-LTIME-1.2] Global Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Format Localization </t>
+          <t>Time Format Localization</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>[TC-LTIME-3.1]Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-DRLK-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.1]Attributes check [DUT - Server]</t>
+          <t>[TC-DRLK-2.1] Attributes check [DUT - Server]</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.2]Verification for Door lock command[DUT-Server]</t>
+          <t>[TC-DRLK-2.2] Verification for Door lock command[DUT-Server]</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.3]Verification for Unlock Door command [DUT-Server]</t>
+          <t>[TC-DRLK-2.3] Verification for Unlock Door command [DUT-Server]</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.4]Verification for Unlock with Timeout command [DUT-Server]</t>
+          <t>[TC-DRLK-2.4] Verification for Unlock with Timeout command [DUT-Server]</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.5]Verification for the following Commands - Set Week Day Schedule, Get Week Day Schedule , Get Week Day Schedule Response, Clear Week Day Schedule [DUT-Server]</t>
+          <t>[TC-DRLK-2.5] Verification for the following Commands - Set Week Day Schedule, Get Week Day Schedule , Get Week Day Schedule Response, Clear Week Day Schedule [DUT-Server]</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.6]Verification for the following Commands - Set Holiday Schedule, Get Holiday Schedule, Get Holiday Schedule Response , Clear Holiday Schedule [DUT-Server]</t>
+          <t>[TC-DRLK-2.6] Verification for the following Commands - Set Holiday Schedule, Get Holiday Schedule, Get Holiday Schedule Response , Clear Holiday Schedule [DUT-Server]</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.7]Verification for the following Commands - Set Year Schedule, Get Year Schedule, Get Year Day Schedule Response and  Clear Year Day Schedule[DUT-Server]</t>
+          <t>[TC-DRLK-2.7] Verification for the following Commands - Set Year Schedule, Get Year Schedule, Get Year Day Schedule Response and  Clear Year Day Schedule[DUT-Server]</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.8]Verification for the following Commands - Set User, Get User, Get User Response,  Clear User [DUT-Server]</t>
+          <t>[TC-DRLK-2.8] Verification for the following Commands - Set User, Get User, Get User Response,  Clear User [DUT-Server]</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.9]Verification for the following Commands - Set Credential , Set Credential Response, Get Credential Status,  Get Credential Status Response, Clear Credential [DUT-Server]</t>
+          <t>[TC-DRLK-2.9] Verification for the following Commands - Set Credential , Set Credential Response, Get Credential Status,  Get Credential Status Response, Clear Credential [DUT-Server]</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.10]Verification for the Door Lock Events [DUT-Server]</t>
+          <t>[TC-DRLK-2.10] Verification for the Door Lock Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.11]Verification for multiple credential types [DUT-Server]</t>
+          <t>[TC-DRLK-2.11] Verification for multiple credential types [DUT-Server]</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.12]Verification for Unbolt Door command [DUT-Server]</t>
+          <t>[TC-DRLK-2.12] Verification for Unbolt Door command [DUT-Server]</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-3.2]Commands [DUT - Client]</t>
+          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
@@ -7103,12 +7103,12 @@
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binding </t>
+          <t>Binding</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-BIND-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binding </t>
+          <t>Binding</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.1]Binding Cluster Attributes-Node [DUT-Controller]</t>
+          <t>[TC-BIND-2.1] Binding Cluster Attributes-Node [DUT-Controller]</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binding </t>
+          <t>Binding</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.2]Binding Cluster Attributes-DUT handles its Groups settings [DUT-Controller]</t>
+          <t>[TC-BIND-2.2] Binding Cluster Attributes-DUT handles its Groups settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binding </t>
+          <t>Binding</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.3]Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
+          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-G-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -7228,12 +7228,12 @@
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.1]Attributes [DUT-Server]</t>
+          <t>[TC-G-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -7253,12 +7253,12 @@
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.2]Commands - AddGroup, ViewGroup, RemoveGroup, RemoveAllGroups [DUT-Server]</t>
+          <t>[TC-G-2.2] Commands - AddGroup, ViewGroup, RemoveGroup, RemoveAllGroups [DUT-Server]</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.3]Commands - GetGroupMembership, AddGroupIfIdentifying [DUT-Server]</t>
+          <t>[TC-G-2.3] Commands - GetGroupMembership, AddGroupIfIdentifying [DUT-Server]</t>
         </is>
       </c>
       <c r="D274" s="3" t="inlineStr">
@@ -7303,12 +7303,12 @@
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.4]Commands - AddGroup Command with same GroupID on Multiple Endpoint [DUT-Server]</t>
+          <t>[TC-G-2.4] Commands - AddGroup Command with same GroupID on Multiple Endpoint [DUT-Server]</t>
         </is>
       </c>
       <c r="D275" s="3" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-3.2]Commands [DUT-Client]</t>
+          <t>[TC-G-3.2] Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D276" s="3" t="inlineStr">
@@ -7353,12 +7353,12 @@
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-S-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D277" s="3" t="inlineStr">
@@ -7378,12 +7378,12 @@
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.1]Attributes with DUT as Server</t>
+          <t>[TC-S-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D278" s="3" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.2]Primary functionality with DUT as Server</t>
+          <t>[TC-S-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
@@ -7428,12 +7428,12 @@
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.3]Secondary functionality with DUT as Server</t>
+          <t>[TC-S-2.3] Secondary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D280" s="3" t="inlineStr">
@@ -7453,12 +7453,12 @@
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.4]Recall scene with transition time functionality with DUT as Server</t>
+          <t>[TC-S-2.4] Recall scene with transition time functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D281" s="3" t="inlineStr">
@@ -7478,12 +7478,12 @@
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.5]RemainingCapacity functionality with DUT as Server</t>
+          <t>[TC-S-2.5] RemainingCapacity functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D282" s="3" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.6]RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
+          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
         </is>
       </c>
       <c r="D283" s="3" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="C284" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-ACL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D284" s="3" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="C285" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.1]Simple attributes</t>
+          <t>[TC-ACL-2.1] Simple attributes</t>
         </is>
       </c>
       <c r="D285" s="3" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.2]Cluster endpoint</t>
+          <t>[TC-ACL-2.2] Cluster endpoint</t>
         </is>
       </c>
       <c r="D286" s="3" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="C287" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.3]Extension attribute</t>
+          <t>[TC-ACL-2.3] Extension attribute</t>
         </is>
       </c>
       <c r="D287" s="3" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="C288" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.4]ACL attribute</t>
+          <t>[TC-ACL-2.4] ACL attribute</t>
         </is>
       </c>
       <c r="D288" s="3" t="inlineStr">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="C289" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.5]AccessControlExtensionChanged event</t>
+          <t>[TC-ACL-2.5] AccessControlExtensionChanged event</t>
         </is>
       </c>
       <c r="D289" s="3" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="C290" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.6]AccessControlEntryChanged event</t>
+          <t>[TC-ACL-2.6] AccessControlEntryChanged event</t>
         </is>
       </c>
       <c r="D290" s="3" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="C291" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.7]Extension multi-fabric</t>
+          <t>[TC-ACL-2.7] Extension multi-fabric</t>
         </is>
       </c>
       <c r="D291" s="3" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C292" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.8]ACL multi-fabric</t>
+          <t>[TC-ACL-2.8] ACL multi-fabric</t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.9]Cluster access</t>
+          <t>[TC-ACL-2.9] Cluster access</t>
         </is>
       </c>
       <c r="D293" s="3" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.10]Persistence</t>
+          <t>[TC-ACL-2.10] Persistence</t>
         </is>
       </c>
       <c r="D294" s="3" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-BRBINFO-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D295" s="3" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-2.1]Attributes [DUT-Server]</t>
+          <t>[TC-BRBINFO-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D296" s="3" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C297" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-2.2]Events [DUT-Server]</t>
+          <t>[TC-BRBINFO-2.2] Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D297" s="3" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1]Appearance Attribute DUT as Server</t>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="D298" s="3" t="inlineStr">
@@ -7903,12 +7903,12 @@
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-TIMESYNC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D299" s="3" t="inlineStr">
@@ -7928,12 +7928,12 @@
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D300" s="3" t="inlineStr">
@@ -7953,12 +7953,12 @@
       </c>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C301" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.2]SetUTCTime command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.2] SetUTCTime command with DUT as Server</t>
         </is>
       </c>
       <c r="D301" s="3" t="inlineStr">
@@ -7978,12 +7978,12 @@
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.3]SetTrustedTimeSource command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.3] SetTrustedTimeSource command with DUT as Server</t>
         </is>
       </c>
       <c r="D302" s="3" t="inlineStr">
@@ -8003,12 +8003,12 @@
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.4]SetTimeZone command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.4] SetTimeZone command with DUT as Server</t>
         </is>
       </c>
       <c r="D303" s="3" t="inlineStr">
@@ -8028,12 +8028,12 @@
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.5]SetDSTOffset command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.5] SetDSTOffset command with DUT as Server</t>
         </is>
       </c>
       <c r="D304" s="3" t="inlineStr">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.6]SetDefaultNTP command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.6] SetDefaultNTP command with DUT as Server</t>
         </is>
       </c>
       <c r="D305" s="3" t="inlineStr">
@@ -8078,12 +8078,12 @@
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.7]LocalTime calculation for time zone with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.7] LocalTime calculation for time zone with DUT as Server</t>
         </is>
       </c>
       <c r="D306" s="3" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.8]LocalTime calculation for DST offset with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.8] LocalTime calculation for DST offset with DUT as Server</t>
         </is>
       </c>
       <c r="D307" s="3" t="inlineStr">
@@ -8128,12 +8128,12 @@
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.9]LocalTime calculation for time zone with DST offset with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.9] LocalTime calculation for time zone with DST offset with DUT as Server</t>
         </is>
       </c>
       <c r="D308" s="3" t="inlineStr">
@@ -8153,12 +8153,12 @@
       </c>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C309" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.10]DSTTableEmpty event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.10] DSTTableEmpty event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D309" s="3" t="inlineStr">
@@ -8178,12 +8178,12 @@
       </c>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.11]DSTStatus event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.11] DSTStatus event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D310" s="3" t="inlineStr">
@@ -8203,12 +8203,12 @@
       </c>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C311" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.12]TimeZoneStatus event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.12] TimeZoneStatus event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D311" s="3" t="inlineStr">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.13]MissingTrustedTimeSource event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.13] MissingTrustedTimeSource event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D312" s="3" t="inlineStr">
@@ -8253,12 +8253,12 @@
       </c>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-3.1]Endpoint composition with DUT as Server</t>
+          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
         </is>
       </c>
       <c r="D313" s="3" t="inlineStr">
@@ -8278,12 +8278,12 @@
       </c>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Monoxide Concentration Measurement </t>
+          <t>Carbon Monoxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-CMOCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D314" s="3" t="inlineStr">
@@ -8303,12 +8303,12 @@
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Monoxide Concentration Measurement </t>
+          <t>Carbon Monoxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
@@ -8328,12 +8328,12 @@
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Dioxide Concentration Measurement </t>
+          <t>Carbon Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-CDOCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
@@ -8353,12 +8353,12 @@
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Dioxide Concentration Measurement </t>
+          <t>Carbon Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
@@ -8378,12 +8378,12 @@
       </c>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nitrogen Dioxide Concentration Measurement </t>
+          <t>Nitrogen Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-NDOCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D318" s="3" t="inlineStr">
@@ -8403,12 +8403,12 @@
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nitrogen Dioxide Concentration Measurement </t>
+          <t>Nitrogen Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D319" s="3" t="inlineStr">
@@ -8428,12 +8428,12 @@
       </c>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozone Concentration Measurement </t>
+          <t>Ozone Concentration Measurement</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-OZCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D320" s="3" t="inlineStr">
@@ -8453,12 +8453,12 @@
       </c>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozone Concentration Measurement </t>
+          <t>Ozone Concentration Measurement</t>
         </is>
       </c>
       <c r="C321" s="3" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D321" s="3" t="inlineStr">
@@ -8478,12 +8478,12 @@
       </c>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM2.5 Concentration Measurement </t>
+          <t>PM2.5 Concentration Measurement</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-PMICONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D322" s="3" t="inlineStr">
@@ -8503,12 +8503,12 @@
       </c>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM2.5 Concentration Measurement </t>
+          <t>PM2.5 Concentration Measurement</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D323" s="3" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formaldehyde Concentration Measurement </t>
+          <t>Formaldehyde Concentration Measurement</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D324" s="3" t="inlineStr">
@@ -8553,12 +8553,12 @@
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formaldehyde Concentration Measurement </t>
+          <t>Formaldehyde Concentration Measurement</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D325" s="3" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM1 Concentration Measurement </t>
+          <t>PM1 Concentration Measurement</t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D326" s="3" t="inlineStr">
@@ -8603,12 +8603,12 @@
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM1 Concentration Measurement </t>
+          <t>PM1 Concentration Measurement</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D327" s="3" t="inlineStr">
@@ -8628,12 +8628,12 @@
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM10 Concentration Measurement </t>
+          <t>PM10 Concentration Measurement</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D328" s="3" t="inlineStr">
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM10 Concentration Measurement </t>
+          <t>PM10 Concentration Measurement</t>
         </is>
       </c>
       <c r="C329" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D329" s="3" t="inlineStr">
@@ -8678,12 +8678,12 @@
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total Volatile Organic Compounds Concentration Measurement </t>
+          <t>Total Volatile Organic Compounds Concentration Measurement</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D330" s="3" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total Volatile Organic Compounds Concentration Measurement </t>
+          <t>Total Volatile Organic Compounds Concentration Measurement</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D331" s="3" t="inlineStr">
@@ -8728,12 +8728,12 @@
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radon Concentration Measurement </t>
+          <t>Radon Concentration Measurement</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-RNCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D332" s="3" t="inlineStr">
@@ -8753,12 +8753,12 @@
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radon Concentration Measurement </t>
+          <t>Radon Concentration Measurement</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-2.1]Attributes with DUT as Server</t>
+          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D333" s="3" t="inlineStr">
@@ -8778,12 +8778,12 @@
       </c>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C334" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-TCTL-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D334" s="3" t="inlineStr">
@@ -8803,12 +8803,12 @@
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.1]Attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D335" s="3" t="inlineStr">
@@ -8828,12 +8828,12 @@
       </c>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.2]Optional Temperature number attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.2] Optional Temperature number attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D336" s="3" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.3]Optional temperature level attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.3] Optional temperature level attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D337" s="3" t="inlineStr">
@@ -8878,12 +8878,12 @@
       </c>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.2]Optional temperature number functionality with DUT as Server</t>
+          <t>[TC-TCTL-3.2] Optional temperature number functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D338" s="3" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.3]Optional temperature level functionality with DUT as Server</t>
+          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D339" s="3" t="inlineStr">
@@ -8928,12 +8928,12 @@
       </c>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-LWM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D340" s="3" t="inlineStr">
@@ -8953,12 +8953,12 @@
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-1.2]Cluster attributes with DUT as Server</t>
+          <t>[TC-LWM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D341" s="3" t="inlineStr">
@@ -8978,12 +8978,12 @@
       </c>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-2.1]Change to Mode functionality with DUT as Server</t>
+          <t>[TC-LWM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D342" s="3" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C343" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.1]On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D343" s="3" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="B344" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C344" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.2]Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D344" s="3" t="inlineStr">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C345" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.3]On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D345" s="3" t="inlineStr">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Washer Controls </t>
+          <t>Washer Controls</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-1.1]Global attributes with server as DUT</t>
+          <t>[TC-WASHERCTRL-1.1] Global attributes with server as DUT</t>
         </is>
       </c>
       <c r="D346" s="3" t="inlineStr">
@@ -9103,12 +9103,12 @@
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Washer Controls </t>
+          <t>Washer Controls</t>
         </is>
       </c>
       <c r="C347" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.1]Optional Spin attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.1] Optional Spin attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D347" s="3" t="inlineStr">
@@ -9128,12 +9128,12 @@
       </c>
       <c r="B348" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Washer Controls </t>
+          <t>Washer Controls</t>
         </is>
       </c>
       <c r="C348" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.2]Optional rinse attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D348" s="3" t="inlineStr">
@@ -9153,12 +9153,12 @@
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-FAN-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D349" s="3" t="inlineStr">
@@ -9178,12 +9178,12 @@
       </c>
       <c r="B350" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C350" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.1]Mandatory Attributes with DUT as Server</t>
+          <t>[TC-FAN-2.1] Mandatory Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D350" s="3" t="inlineStr">
@@ -9203,12 +9203,12 @@
       </c>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.2]Optional speed attributes with DUT as Server</t>
+          <t>[TC-FAN-2.2] Optional speed attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D351" s="3" t="inlineStr">
@@ -9228,12 +9228,12 @@
       </c>
       <c r="B352" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.3]Optional rock attributes with DUT as Server</t>
+          <t>[TC-FAN-2.3] Optional rock attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D352" s="3" t="inlineStr">
@@ -9253,12 +9253,12 @@
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.4]Optional wind attributes with DUT as Server</t>
+          <t>[TC-FAN-2.4] Optional wind attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D353" s="3" t="inlineStr">
@@ -9278,12 +9278,12 @@
       </c>
       <c r="B354" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.5]Optional direction attributes with DUT as Server</t>
+          <t>[TC-FAN-2.5] Optional direction attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D354" s="3" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.1]Mandatory functionality with DUT as Server</t>
+          <t>[TC-FAN-3.1] Mandatory functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D355" s="3" t="inlineStr">
@@ -9328,12 +9328,12 @@
       </c>
       <c r="B356" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.2]Optional speed functionality with DUT as Server</t>
+          <t>[TC-FAN-3.2] Optional speed functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D356" s="3" t="inlineStr">
@@ -9353,12 +9353,12 @@
       </c>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.3]Optional rock functionality with DUT as Server</t>
+          <t>[TC-FAN-3.3] Optional rock functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D357" s="3" t="inlineStr">
@@ -9378,12 +9378,12 @@
       </c>
       <c r="B358" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C358" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.4]Optional wind functionality with DUT as Server</t>
+          <t>[TC-FAN-3.4] Optional wind functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D358" s="3" t="inlineStr">
@@ -9403,12 +9403,12 @@
       </c>
       <c r="B359" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.5]Optional step functionality with DUT as Server</t>
+          <t>[TC-FAN-3.5] Optional step functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D359" s="3" t="inlineStr">
@@ -9428,12 +9428,12 @@
       </c>
       <c r="B360" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C360" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.6]Optional direction functionality with DUT as Server</t>
+          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D360" s="3" t="inlineStr">
@@ -9453,12 +9453,12 @@
       </c>
       <c r="B361" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C361" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-DISHM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D361" s="3" t="inlineStr">
@@ -9478,12 +9478,12 @@
       </c>
       <c r="B362" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C362" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-1.2]Cluster attributes with DUT as Server</t>
+          <t>[TC-DISHM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D362" s="3" t="inlineStr">
@@ -9503,12 +9503,12 @@
       </c>
       <c r="B363" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C363" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-2.1]Change to Mode functionality with DUT as Server</t>
+          <t>[TC-DISHM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D363" s="3" t="inlineStr">
@@ -9528,12 +9528,12 @@
       </c>
       <c r="B364" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.1]On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D364" s="3" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="B365" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.2]Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D365" s="3" t="inlineStr">
@@ -9578,12 +9578,12 @@
       </c>
       <c r="B366" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C366" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.3]On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D366" s="3" t="inlineStr">
@@ -9603,12 +9603,12 @@
       </c>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-DISHALM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D367" s="3" t="inlineStr">
@@ -9628,12 +9628,12 @@
       </c>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-2.1]Attributes with DUT as Server</t>
+          <t>[TC-DISHALM-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D368" s="3" t="inlineStr">
@@ -9653,12 +9653,12 @@
       </c>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.1]Inflow alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.1] Inflow alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr">
@@ -9678,12 +9678,12 @@
       </c>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.2]Drain alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.2] Drain alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="B371" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.3]Door alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.3] Door alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D371" s="3" t="inlineStr">
@@ -9728,12 +9728,12 @@
       </c>
       <c r="B372" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.4]Temperature Low alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.4] Temperature Low alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D372" s="3" t="inlineStr">
@@ -9753,12 +9753,12 @@
       </c>
       <c r="B373" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.5]Temperature High alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.5] Temperature High alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D373" s="3" t="inlineStr">
@@ -9778,12 +9778,12 @@
       </c>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C374" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.6]Water Level alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D374" s="3" t="inlineStr">
@@ -9803,12 +9803,12 @@
       </c>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational State </t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D375" s="3" t="inlineStr">
@@ -9828,12 +9828,12 @@
       </c>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational State </t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.1]Attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D376" s="3" t="inlineStr">
@@ -9853,12 +9853,12 @@
       </c>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational State </t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.2]Start and Stop commands with DUT as Server</t>
+          <t>[TC-OPSTATE-2.2] Start and Stop commands with DUT as Server</t>
         </is>
       </c>
       <c r="D377" s="3" t="inlineStr">
@@ -9878,12 +9878,12 @@
       </c>
       <c r="B378" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational State </t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.3]Pause and Resume commands with DUT as Server</t>
+          <t>[TC-OPSTATE-2.3] Pause and Resume commands with DUT as Server</t>
         </is>
       </c>
       <c r="D378" s="3" t="inlineStr">
@@ -9903,12 +9903,12 @@
       </c>
       <c r="B379" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational State </t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.4]Mandatory Events with DUT as Server</t>
+          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
         </is>
       </c>
       <c r="D379" s="3" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B380" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Air Quality </t>
+          <t>Air Quality</t>
         </is>
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-AIRQUAL-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D380" s="3" t="inlineStr">
@@ -9953,12 +9953,12 @@
       </c>
       <c r="B381" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Air Quality </t>
+          <t>Air Quality</t>
         </is>
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-2.1]Attributes with DUT as Server</t>
+          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D381" s="3" t="inlineStr">
@@ -9978,12 +9978,12 @@
       </c>
       <c r="B382" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEPA Filter Monitoring </t>
+          <t>HEPA Filter Monitoring</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-HEPAFREMON-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D382" s="3" t="inlineStr">
@@ -10003,12 +10003,12 @@
       </c>
       <c r="B383" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEPA Filter Monitoring </t>
+          <t>HEPA Filter Monitoring</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-2.1]Attributes with DUT as Server</t>
+          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D383" s="3" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="B384" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activated Carbon Filter Monitoring </t>
+          <t>Activated Carbon Filter Monitoring</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-ACFREMON-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D384" s="3" t="inlineStr">
@@ -10053,12 +10053,12 @@
       </c>
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activated Carbon Filter Monitoring </t>
+          <t>Activated Carbon Filter Monitoring</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-2.1]Attributes with DUT as Server</t>
+          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D385" s="3" t="inlineStr">
@@ -10078,12 +10078,12 @@
       </c>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD Management </t>
+          <t>ICD Management</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-ICDM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D386" s="3" t="inlineStr">
@@ -10103,12 +10103,12 @@
       </c>
       <c r="B387" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD Management </t>
+          <t>ICD Management</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.1]Attributes with DUT as Server</t>
+          <t>[TC-ICDM-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D387" s="3" t="inlineStr">
@@ -10128,12 +10128,12 @@
       </c>
       <c r="B388" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD Management </t>
+          <t>ICD Management</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.2]Primary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-ICDM-2.2] Primary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D388" s="3" t="inlineStr">
@@ -10153,12 +10153,12 @@
       </c>
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD Management </t>
+          <t>ICD Management</t>
         </is>
       </c>
       <c r="C389" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.3]Secondary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D389" s="3" t="inlineStr">
@@ -10178,12 +10178,12 @@
       </c>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-TCCM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D390" s="3" t="inlineStr">
@@ -10203,12 +10203,12 @@
       </c>
       <c r="B391" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-1.2]Cluster attributes with DUT as Server</t>
+          <t>[TC-TCCM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D391" s="3" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-2.1]Change to Mode functionality with DUT as Server</t>
+          <t>[TC-TCCM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D392" s="3" t="inlineStr">
@@ -10253,12 +10253,12 @@
       </c>
       <c r="B393" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.1]On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D393" s="3" t="inlineStr">
@@ -10278,12 +10278,12 @@
       </c>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.2]Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D394" s="3" t="inlineStr">
@@ -10303,12 +10303,12 @@
       </c>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.3]On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D395" s="3" t="inlineStr">
@@ -10328,12 +10328,12 @@
       </c>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator Alarm </t>
+          <t>Refrigerator Alarm</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-REFALM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D396" s="3" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator Alarm </t>
+          <t>Refrigerator Alarm</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.1]Attributes with DUT as Server</t>
+          <t>[TC-REFALM-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D397" s="3" t="inlineStr">
@@ -10378,12 +10378,12 @@
       </c>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator Alarm </t>
+          <t>Refrigerator Alarm</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.2]Primary functionality with DUT as Server</t>
+          <t>[TC-REFALM-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D398" s="3" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator Alarm </t>
+          <t>Refrigerator Alarm</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.3]Local suppression of the door alarm with DUT as Server</t>
+          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D399" s="3" t="inlineStr">
@@ -10428,12 +10428,12 @@
       </c>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Operational State </t>
+          <t>RVC Operational State</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-1.1]Global attributes [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-1.1] Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D400" s="3" t="inlineStr">
@@ -10453,12 +10453,12 @@
       </c>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Operational State </t>
+          <t>RVC Operational State</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.1]Attribute verification [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-2.1] Attribute verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D401" s="3" t="inlineStr">
@@ -10478,12 +10478,12 @@
       </c>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Operational State </t>
+          <t>RVC Operational State</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.2]Start and Stop commands [DUT as Server] - REMOVED</t>
+          <t>[TC-RVCOPSTATE-2.2] Start and Stop commands [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D402" s="3" t="inlineStr">
@@ -10503,12 +10503,12 @@
       </c>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Operational State </t>
+          <t>RVC Operational State</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.3]Pause and Resume commands [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
         </is>
       </c>
       <c r="D403" s="3" t="inlineStr">
@@ -10528,12 +10528,12 @@
       </c>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-1.1]Global attributes with DUT as Server</t>
+          <t>[TC-SMOKECO-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D404" s="3" t="inlineStr">
@@ -10553,12 +10553,12 @@
       </c>
       <c r="B405" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.1]Attributes with DUT as Server</t>
+          <t>[TC-SMOKECO-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D405" s="3" t="inlineStr">
@@ -10578,12 +10578,12 @@
       </c>
       <c r="B406" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.2]Primary Functionality - Smoke Alarm with DUT as Server</t>
+          <t>[TC-SMOKECO-2.2] Primary Functionality - Smoke Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D406" s="3" t="inlineStr">
@@ -10603,12 +10603,12 @@
       </c>
       <c r="B407" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C407" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.3]Primary Functionality - CO Alarm with DUT as Server</t>
+          <t>[TC-SMOKECO-2.3] Primary Functionality - CO Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D407" s="3" t="inlineStr">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.4]Secondary Functionality - Mandatory with DUT as Server</t>
+          <t>[TC-SMOKECO-2.4] Secondary Functionality - Mandatory with DUT as Server</t>
         </is>
       </c>
       <c r="D408" s="3" t="inlineStr">
@@ -10653,12 +10653,12 @@
       </c>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.5]Secondary Functionality - Optional with DUT as Server</t>
+          <t>[TC-SMOKECO-2.5] Secondary Functionality - Optional with DUT as Server</t>
         </is>
       </c>
       <c r="D409" s="3" t="inlineStr">
@@ -10678,12 +10678,12 @@
       </c>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C410" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.6]ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
+          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
         </is>
       </c>
       <c r="D410" s="3" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.1]QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D411" s="3" t="inlineStr">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="C412" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.2]Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D412" s="3" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="C413" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.3]NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D413" s="3" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="C414" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.4]Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D414" s="3" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="C415" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.5]NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D415" s="3" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="C416" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.6]QR Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D416" s="3" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.7]Setup Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D417" s="3" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="C418" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.8]QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D418" s="3" t="inlineStr">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C419" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.9]Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D419" s="3" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="C420" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.10]NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D420" s="3" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="C421" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.11]Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D421" s="3" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="C422" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.12]Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D422" s="3" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="C423" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.13]Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D423" s="3" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.14]Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D424" s="3" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.15]Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
+          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D425" s="3" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.1]Announcement by Device Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D426" s="3" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.2]Discovery by Commissioner Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D427" s="3" t="inlineStr">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.1]Commissioning Flow - Concurrent [DUT - Commissionee]</t>
+          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D428" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.2]Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D429" s="3" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.3]User Directed Commissioning [DUT - Commissionee]</t>
+          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D430" s="3" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.4]User Directed Commissioning [DUT - Commissioner]</t>
+          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D431" s="3" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.5]Commissioning Flow - Concurrent [DUT - Commissioner]</t>
+          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D432" s="3" t="inlineStr">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.6]Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D433" s="3" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.7]Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D434" s="3" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.8]Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D435" s="3" t="inlineStr">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.9]Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D436" s="3" t="inlineStr">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.10]Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
+          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D437" s="3" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="C438" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.11]Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D438" s="3" t="inlineStr">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="C439" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.12]Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D439" s="3" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="C440" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.13]Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D440" s="3" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.14]Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D441" s="3" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.15]Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D442" s="3" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.16]Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D443" s="3" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.17]Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D444" s="3" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="C445" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.18]Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
+          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D445" s="3" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="C446" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.19]Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
+          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D446" s="3" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.20]Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D447" s="3" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="C448" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.21]Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D448" s="3" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="C449" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D449" s="3" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.1]Attributes [DUT-Server]</t>
+          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D450" s="3" t="inlineStr">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.2]Events [DUT-Server]</t>
+          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D451" s="3" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-3.1]Appearance Attribute DUT as Server</t>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="D452" s="3" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C453" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-1.2]Global Attributes with DUT as Server</t>
+          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D453" s="3" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="C454" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.1]Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D454" s="3" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="C455" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.2]Attribute-CurrentFabricIndex validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D455" s="3" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.4]UpdateNOC-Error Condition [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
         </is>
       </c>
       <c r="D456" s="3" t="inlineStr">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.5]NOC Check for UpdateNOC [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
         </is>
       </c>
       <c r="D457" s="3" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.6]Last Fabric removal validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D458" s="3" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.7]Add Second Fabric over CASE [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
         </is>
       </c>
       <c r="D459" s="3" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.3]Attribute-NOCs, Commands [DUT-Client]</t>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D460" s="3" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-1.3]Global Attributes with DUT as Server</t>
+          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D461" s="3" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.2][Thread] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D462" s="3" t="inlineStr">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.3][Ethernet] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D463" s="3" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.4][Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D464" s="3" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.5][Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D465" s="3" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.6][Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D466" s="3" t="inlineStr">
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.9][Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D467" s="3" t="inlineStr">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.10][Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D468" s="3" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.11][Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D469" s="3" t="inlineStr">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.12][Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D470" s="3" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.13][Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D471" s="3" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.14][Thread] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D472" s="3" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.15][Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D473" s="3" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.16][Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D474" s="3" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="C475" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.22][Thread] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D475" s="3" t="inlineStr">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.20][Wi-Fi] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D476" s="3" t="inlineStr">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.21][Thread] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D477" s="3" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.1]MRP Max Message Size - REMOVED</t>
+          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
         </is>
       </c>
       <c r="D478" s="3" t="inlineStr">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.2]MRP Message Flows - REMOVED</t>
+          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
         </is>
       </c>
       <c r="D479" s="3" t="inlineStr">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.3]MRP Retransmissions - REMOVED</t>
+          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
         </is>
       </c>
       <c r="D480" s="3" t="inlineStr">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.4]MRP message counter and duplicate messaging - REMOVED</t>
+          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
         </is>
       </c>
       <c r="D481" s="3" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.1]Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D482" s="3" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.2]Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D483" s="3" t="inlineStr">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.3]PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
+          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D484" s="3" t="inlineStr">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.4]PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
+          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D485" s="3" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="C486" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.1]Session Establishment - REMOVED</t>
+          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
         </is>
       </c>
       <c r="D486" s="3" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C487" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.2]CASE Session Resumption [DUT_Responder]</t>
+          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
         </is>
       </c>
       <c r="D487" s="3" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.3]CASE Session Resumption [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D488" s="3" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.4]CASE Error Handling [DUT_Responder] - REMOVED</t>
+          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
         </is>
       </c>
       <c r="D489" s="3" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.5]CASE Error Handling [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D490" s="3" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.6]CASE Resource validation</t>
+          <t>[TC-SC-3.6] CASE Resource validation</t>
         </is>
       </c>
       <c r="D491" s="3" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.1]Commissionable Node Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D492" s="3" t="inlineStr">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.2]Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D493" s="3" t="inlineStr">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="C494" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.3]Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D494" s="3" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="C495" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.4]Discovery [DUT as Controller]</t>
+          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
         </is>
       </c>
       <c r="D495" s="3" t="inlineStr">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="C496" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.5]Discovery [DUT as Commissionee][Thread] - REMOVED</t>
+          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
         </is>
       </c>
       <c r="D496" s="3" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.6]Commissioner Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D497" s="3" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="C498" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.7]Commissioner Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D498" s="3" t="inlineStr">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.8]Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
+          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D499" s="3" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="C500" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.9]Operational Discovery - RIO support [DUT as Commissionee]</t>
+          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D500" s="3" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="C501" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.10]Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D501" s="3" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-1.1]Global Attributes with DUT as Server</t>
+          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D502" s="3" t="inlineStr">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.1]Attributes [DUT-Server]</t>
+          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D503" s="3" t="inlineStr">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C504" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.2]Primary functionality with DUT as Server</t>
+          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D504" s="3" t="inlineStr">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="C505" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.1]Adding member to a group - TH as Admin and DUT as Group Member</t>
+          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
         </is>
       </c>
       <c r="D505" s="3" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="C506" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.2]Receiving a group message - TH to DUT</t>
+          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
         </is>
       </c>
       <c r="D506" s="3" t="inlineStr">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.3]Sending a group message - DUT to TH</t>
+          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
         </is>
       </c>
       <c r="D507" s="3" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-5.4]Verification for KeySetReadResponse Command for CacheAndSync</t>
+          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
         </is>
       </c>
       <c r="D508" s="3" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-6.1]Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
         </is>
       </c>
       <c r="D509" s="3" t="inlineStr">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.1]The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
+          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D510" s="3" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.2]Device Attestation Request Validation [DUT - Commissionee]</t>
+          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D511" s="3" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.3]Device Attestation Request Validation [DUT - Commissioner]</t>
+          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D512" s="3" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.4]Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D513" s="3" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.5]NOCSR Procedure Validation [DUT - Commissionee]</t>
+          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D514" s="3" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.6]NOCSR Procedure Validation [DUT - Commissioner]</t>
+          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D515" s="3" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.7]Validate CertificateChainRequest [DUT-Commissionee]</t>
+          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
         </is>
       </c>
       <c r="D516" s="3" t="inlineStr">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.8]Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D517" s="3" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.1]Invoke Request Action from DUT to TH - [DUT as Client]</t>
+          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
         </is>
       </c>
       <c r="D518" s="3" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.2]Invoke Response Action from DUT to TH - [DUT as Server]</t>
+          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
         </is>
       </c>
       <c r="D519" s="3" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.1]Read Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D520" s="3" t="inlineStr">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.2]Report Data Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D521" s="3" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.1]Write Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D522" s="3" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.2]Write Response Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D523" s="3" t="inlineStr">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.1]SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
+          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
         </is>
       </c>
       <c r="D524" s="3" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.2]Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D525" s="3" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.3]Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D526" s="3" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.4]Persistent Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D527" s="3" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="C528" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.1]Timed Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D528" s="3" t="inlineStr">
@@ -13658,7 +13658,7 @@
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.2]Status Response from DUT in response to a Timed Request Action from TH.</t>
+          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
         </is>
       </c>
       <c r="D529" s="3" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="C530" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.1]Events Read Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D530" s="3" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="C531" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.2]Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D531" s="3" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="C532" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.3]Events Read Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D532" s="3" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="C533" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.4]Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D533" s="3" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="C534" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-7.1]Multi Fabric Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D534" s="3" t="inlineStr">
@@ -13808,7 +13808,7 @@
       </c>
       <c r="C535" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-8.1]Fabric scoped Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D535" s="3" t="inlineStr">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="C536" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-9.1]CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
+          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D536" s="3" t="inlineStr">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="C537" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-10.1]Cluster requirements - Global attributes [DUT as Server]</t>
+          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D537" s="3" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C538" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-11.1]Data types - attribute strings [DUT as Server] - data model</t>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
         </is>
       </c>
       <c r="D538" s="3" t="inlineStr">
@@ -13903,12 +13903,12 @@
       </c>
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.1]Administrator Behavior using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D539" s="3" t="inlineStr">
@@ -13928,12 +13928,12 @@
       </c>
       <c r="B540" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C540" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.2]Administrator Behavior using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D540" s="3" t="inlineStr">
@@ -13953,12 +13953,12 @@
       </c>
       <c r="B541" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C541" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.3]Node Behavior using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D541" s="3" t="inlineStr">
@@ -13978,12 +13978,12 @@
       </c>
       <c r="B542" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C542" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.4]Node Behavior using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D542" s="3" t="inlineStr">
@@ -14003,12 +14003,12 @@
       </c>
       <c r="B543" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C543" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.5]Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D543" s="3" t="inlineStr">
@@ -14028,12 +14028,12 @@
       </c>
       <c r="B544" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C544" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.6]Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D544" s="3" t="inlineStr">
@@ -14053,12 +14053,12 @@
       </c>
       <c r="B545" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C545" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.7]Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D545" s="3" t="inlineStr">
@@ -14078,12 +14078,12 @@
       </c>
       <c r="B546" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C546" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.8]Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D546" s="3" t="inlineStr">
@@ -14103,12 +14103,12 @@
       </c>
       <c r="B547" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C547" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.9]Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D547" s="3" t="inlineStr">
@@ -14128,12 +14128,12 @@
       </c>
       <c r="B548" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C548" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.10]Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D548" s="3" t="inlineStr">
@@ -14153,12 +14153,12 @@
       </c>
       <c r="B549" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.11]Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D549" s="3" t="inlineStr">
@@ -14178,12 +14178,12 @@
       </c>
       <c r="B550" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C550" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.12]Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D550" s="3" t="inlineStr">
@@ -14203,12 +14203,12 @@
       </c>
       <c r="B551" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C551" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.13]Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D551" s="3" t="inlineStr">
@@ -14228,12 +14228,12 @@
       </c>
       <c r="B552" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C552" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.14]Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D552" s="3" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="B553" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C553" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.15]Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D553" s="3" t="inlineStr">
@@ -14278,12 +14278,12 @@
       </c>
       <c r="B554" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C554" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.16]Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D554" s="3" t="inlineStr">
@@ -14303,12 +14303,12 @@
       </c>
       <c r="B555" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.17]Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D555" s="3" t="inlineStr">
@@ -14328,12 +14328,12 @@
       </c>
       <c r="B556" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C556" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.18]Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D556" s="3" t="inlineStr">
@@ -14353,12 +14353,12 @@
       </c>
       <c r="B557" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.19]max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D557" s="3" t="inlineStr">
@@ -14378,12 +14378,12 @@
       </c>
       <c r="B558" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C558" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.20]max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D558" s="3" t="inlineStr">
@@ -14403,12 +14403,12 @@
       </c>
       <c r="B559" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.21]Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D559" s="3" t="inlineStr">
@@ -14428,12 +14428,12 @@
       </c>
       <c r="B560" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C560" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.22]Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D560" s="3" t="inlineStr">
@@ -14453,12 +14453,12 @@
       </c>
       <c r="B561" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C561" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.23]Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D561" s="3" t="inlineStr">
@@ -14478,12 +14478,12 @@
       </c>
       <c r="B562" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C562" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.24]Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D562" s="3" t="inlineStr">
@@ -14503,12 +14503,12 @@
       </c>
       <c r="B563" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C563" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.25]Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D563" s="3" t="inlineStr">
@@ -14528,12 +14528,12 @@
       </c>
       <c r="B564" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C564" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.26]Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D564" s="3" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="C565" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-1]Basics of bridging (DUT server)</t>
+          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
         </is>
       </c>
       <c r="D565" s="3" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="C566" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-2]Changing the set of bridged devices (DUT server)</t>
+          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
         </is>
       </c>
       <c r="D566" s="3" t="inlineStr">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="C567" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-3]Changing name and state of a bridged device (DUT server)</t>
+          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
         </is>
       </c>
       <c r="D567" s="3" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="C568" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-4]DUT client handling of bridges (DUT client)</t>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
         </is>
       </c>
       <c r="D568" s="3" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="C569" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.1]Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D569" s="3" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="C570" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.2]Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D570" s="3" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="C571" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.3]Response to Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D571" s="3" t="inlineStr">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C572" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.4]Response to Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D572" s="3" t="inlineStr">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="C573" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.5]Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D573" s="3" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="C574" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.6]Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D574" s="3" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="C575" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.1]Synchronous File Sending</t>
+          <t>[TC-BDX-2.1] Synchronous File Sending</t>
         </is>
       </c>
       <c r="D575" s="3" t="inlineStr">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="C576" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.2]Synchronous File Receiving</t>
+          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
         </is>
       </c>
       <c r="D576" s="3" t="inlineStr">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="C577" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.3]Restart Synchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D577" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="C578" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.4]Asynchronous File Sending - REMOVED</t>
+          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
         </is>
       </c>
       <c r="D578" s="3" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C579" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.5]Asynchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D579" s="3" t="inlineStr">
@@ -14933,7 +14933,7 @@
       </c>
       <c r="C580" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-1.1]Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
+          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
         </is>
       </c>
       <c r="D580" s="3" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.1]QueryImage Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D581" s="3" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="C582" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.2]Handling Different QueryImageResponse Scenarios on Requestor</t>
+          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D582" s="3" t="inlineStr">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.3]Transfer of Software Update Images between DUT and TH/OTA-P</t>
+          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
         </is>
       </c>
       <c r="D583" s="3" t="inlineStr">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="C584" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.4]ApplyUpdateRequest Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D584" s="3" t="inlineStr">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.5]Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
+          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D585" s="3" t="inlineStr">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="C586" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.6]NotifyUpdateApplied Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D586" s="3" t="inlineStr">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.7]Verifying Events on OTA-R(DUT)</t>
+          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D587" s="3" t="inlineStr">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="C588" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.8]OTA Functionality in Multi Fabric Scenario</t>
+          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
         </is>
       </c>
       <c r="D588" s="3" t="inlineStr">
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.1]QueryImageResponse from DUT to OTA-R</t>
+          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
         </is>
       </c>
       <c r="D589" s="3" t="inlineStr">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="C590" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.2]Handling Different QueryImageResponse Scenarios on Provider</t>
+          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D590" s="3" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.3]Transfer of Software Update Images between DUT and OTA-R</t>
+          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
         </is>
       </c>
       <c r="D591" s="3" t="inlineStr">
@@ -15233,7 +15233,7 @@
       </c>
       <c r="C592" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.4]Handling Different ApplyUpdateResponse Scenarios on Provider</t>
+          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D592" s="3" t="inlineStr">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.1]Verifying Cluster Attributes on OTA-R(DUT)</t>
+          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D593" s="3" t="inlineStr">
@@ -15283,7 +15283,7 @@
       </c>
       <c r="C594" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.2]Verifying Cluster Attributes from Admin(DUT)</t>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
         </is>
       </c>
       <c r="D594" s="3" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.1]Privileges</t>
+          <t>[TC-ACE-1.1] Privileges</t>
         </is>
       </c>
       <c r="D595" s="3" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="C596" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.2]Subscriptions</t>
+          <t>[TC-ACE-1.2] Subscriptions</t>
         </is>
       </c>
       <c r="D596" s="3" t="inlineStr">
@@ -15358,7 +15358,7 @@
       </c>
       <c r="C597" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.3]Subjects</t>
+          <t>[TC-ACE-1.3] Subjects</t>
         </is>
       </c>
       <c r="D597" s="3" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="C598" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.4]Targets</t>
+          <t>[TC-ACE-1.4] Targets</t>
         </is>
       </c>
       <c r="D598" s="3" t="inlineStr">
@@ -15408,7 +15408,7 @@
       </c>
       <c r="C599" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.5]Multi-fabric</t>
+          <t>[TC-ACE-1.5] Multi-fabric</t>
         </is>
       </c>
       <c r="D599" s="3" t="inlineStr">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="C600" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.6]Group auth mode</t>
+          <t>[TC-ACE-1.6] Group auth mode</t>
         </is>
       </c>
       <c r="D600" s="3" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="C601" s="3" t="inlineStr">
         <is>
-          <t>[TC-RR-1.1]Minimal Resource Requirements for Matter Node</t>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
         </is>
       </c>
       <c r="D601" s="3" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="C602" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.1]Device composition - Root Node [DUT as Server]</t>
+          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
         </is>
       </c>
       <c r="D602" s="3" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="C603" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.2]Device composition - Topology [DUT as Server]</t>
+          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
         </is>
       </c>
       <c r="D603" s="3" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="C604" s="3" t="inlineStr">
         <is>
-          <t>[TC-DT-1.1]Base Device Type [DUT as Server]</t>
+          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
         </is>
       </c>
       <c r="D604" s="3" t="inlineStr">
@@ -15596,7 +15596,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">On/Off </t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -15616,14 +15616,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Measurement </t>
+          <t>Temperature Measurement</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -15643,14 +15643,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relative Humidity Measurement </t>
+          <t>Relative Humidity Measurement</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -15670,14 +15670,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat User Configuration </t>
+          <t>Thermostat User Configuration</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -15697,14 +15697,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pump Configuration and Control </t>
+          <t>Pump Configuration and Control</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -15724,14 +15724,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Media </t>
+          <t>Media</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -15751,14 +15751,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Level Control </t>
+          <t>Level Control</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -15778,14 +15778,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color Control </t>
+          <t>Color Control</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -15805,14 +15805,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Occupancy Sensing </t>
+          <t>Occupancy Sensing</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -15832,14 +15832,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flow Measurement </t>
+          <t>Flow Measurement</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -15859,14 +15859,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pressure Measurement </t>
+          <t>Pressure Measurement</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -15886,14 +15886,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Window Covering </t>
+          <t>Window Covering</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -15913,14 +15913,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thermostat </t>
+          <t>Thermostat</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -15940,14 +15940,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Software Diagnostics </t>
+          <t>Software Diagnostics</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -15967,14 +15967,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ethernet Network Diagnostics </t>
+          <t>Ethernet Network Diagnostics</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -15994,14 +15994,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thread Network Diagnostics </t>
+          <t>Thread Network Diagnostics</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -16021,14 +16021,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wi-Fi Network Diagnostics </t>
+          <t>Wi-Fi Network Diagnostics</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -16048,14 +16048,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostics Logs </t>
+          <t>Diagnostics Logs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -16075,14 +16075,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identify </t>
+          <t>Identify</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -16102,14 +16102,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source </t>
+          <t>Power Source</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Power Source Configuration </t>
+          <t>Power Source Configuration</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -16156,14 +16156,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boolean State </t>
+          <t>Boolean State</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -16183,14 +16183,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Illuminance Measurement </t>
+          <t>Illuminance Measurement</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -16210,14 +16210,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Switch </t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -16237,14 +16237,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actions </t>
+          <t>Actions</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -16264,14 +16264,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode Select </t>
+          <t>Mode Select</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -16291,14 +16291,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Run Mode </t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -16318,14 +16318,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Clean Mode </t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -16345,24 +16345,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Descriptor Cluster TestPlan</t>
+          <t>General Diagnostics</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
+          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TC-DESC-2.2</t>
+          <t>TC-DGGEN-2.3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -16372,24 +16372,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Diagnostics </t>
+          <t>General Commissioning</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
+          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TC-DGGEN-2.3</t>
+          <t>TC-CGEN-2.4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -16399,24 +16399,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Commissioning </t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
+          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TC-CGEN-2.4</t>
+          <t>TC-ULABEL-2.4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -16426,24 +16426,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">User Label </t>
+          <t>Fixed Label</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
+          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TC-ULABEL-2.4</t>
+          <t>TC-FLABEL-2.1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -16453,24 +16453,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fixed Label </t>
+          <t>Localization Configuration</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
+          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TC-FLABEL-2.1</t>
+          <t>TC-LCFG-2.1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -16480,24 +16480,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localization Configuration </t>
+          <t>Unit Localization</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
+          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TC-LCFG-2.1</t>
+          <t>TC-LUNIT-3.1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -16507,24 +16507,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit Localization </t>
+          <t>Time Format Localization</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TC-LUNIT-3.1</t>
+          <t>TC-LTIME-3.1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -16534,24 +16534,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Format Localization </t>
+          <t>Binding</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TC-LTIME-3.1</t>
+          <t>TC-BIND-2.3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -16561,24 +16561,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
+          <t>[TC-G-3.2] Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TC-DRLK-3.2</t>
+          <t>TC-G-3.2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -16588,24 +16588,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binding </t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
+          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TC-BIND-2.3</t>
+          <t>TC-S-2.6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -16615,24 +16615,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groups </t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[TC-G-3.2] Commands [DUT-Client]</t>
+          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TC-G-3.2</t>
+          <t>TC-TIMESYNC-3.1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -16642,24 +16642,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scenes </t>
+          <t>Carbon Monoxide Concentration Measurement</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
+          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TC-S-2.6</t>
+          <t>TC-CMOCONC-2.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -16669,24 +16669,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Carbon Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.10] Persistence</t>
+          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TC-ACL-2.10</t>
+          <t>TC-CDOCONC-2.1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -16696,24 +16696,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information Test Plan</t>
+          <t>Nitrogen Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-3.1</t>
+          <t>TC-NDOCONC-2.1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -16723,24 +16723,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time Synchronization </t>
+          <t>Ozone Concentration Measurement</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
+          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-3.1</t>
+          <t>TC-OZCONC-2.1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -16750,24 +16750,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Monoxide Concentration Measurement </t>
+          <t>PM2.5 Concentration Measurement</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TC-CMOCONC-2.1</t>
+          <t>TC-PMICONC-2.1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -16777,24 +16777,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbon Dioxide Concentration Measurement </t>
+          <t>Formaldehyde Concentration Measurement</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TC-CDOCONC-2.1</t>
+          <t>TC-FLDCONC-2.1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -16804,24 +16804,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nitrogen Dioxide Concentration Measurement </t>
+          <t>PM1 Concentration Measurement</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TC-NDOCONC-2.1</t>
+          <t>TC-PMHCONC-2.1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -16831,24 +16831,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozone Concentration Measurement </t>
+          <t>PM10 Concentration Measurement</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TC-OZCONC-2.1</t>
+          <t>TC-PMKCONC-2.1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -16858,24 +16858,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM2.5 Concentration Measurement </t>
+          <t>Total Volatile Organic Compounds Concentration Measurement</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TC-PMICONC-2.1</t>
+          <t>TC-TVOCCONC-2.1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -16885,24 +16885,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formaldehyde Concentration Measurement </t>
+          <t>Radon Concentration Measurement</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TC-FLDCONC-2.1</t>
+          <t>TC-RNCONC-2.1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -16912,24 +16912,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM1 Concentration Measurement </t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TC-PMHCONC-2.1</t>
+          <t>TC-TCTL-3.3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -16939,24 +16939,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM10 Concentration Measurement </t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TC-PMKCONC-2.1</t>
+          <t>TC-LWM-3.3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -16966,24 +16966,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total Volatile Organic Compounds Concentration Measurement </t>
+          <t>Washer Controls</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TC-TVOCCONC-2.1</t>
+          <t>TC-WASHERCTRL-2.2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -16993,24 +16993,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radon Concentration Measurement </t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TC-RNCONC-2.1</t>
+          <t>TC-FAN-3.6</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -17020,24 +17020,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temperature Control </t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
+          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TC-TCTL-3.3</t>
+          <t>TC-DISHM-3.3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -17047,24 +17047,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laundry Washer Mode </t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TC-LWM-3.3</t>
+          <t>TC-DISHALM-3.6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -17074,24 +17074,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Washer Controls </t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TC-WASHERCTRL-2.2</t>
+          <t>TC-OPSTATE-2.4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -17101,24 +17101,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fan Control </t>
+          <t>Air Quality</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
+          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TC-FAN-3.6</t>
+          <t>TC-AIRQUAL-2.1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -17128,24 +17128,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Mode </t>
+          <t>HEPA Filter Monitoring</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TC-DISHM-3.3</t>
+          <t>TC-HEPAFREMON-2.1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -17155,24 +17155,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dishwasher Alarm </t>
+          <t>Activated Carbon Filter Monitoring</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
+          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.6</t>
+          <t>TC-ACFREMON-2.1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -17182,24 +17182,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational State </t>
+          <t>ICD Management</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
+          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TC-OPSTATE-2.4</t>
+          <t>TC-ICDM-2.3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -17209,24 +17209,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Air Quality </t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TC-AIRQUAL-2.1</t>
+          <t>TC-TCCM-3.3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -17236,24 +17236,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEPA Filter Monitoring </t>
+          <t>Refrigerator Alarm</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
+          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TC-HEPAFREMON-2.1</t>
+          <t>TC-REFALM-2.3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -17263,24 +17263,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activated Carbon Filter Monitoring </t>
+          <t>RVC Operational State</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
+          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TC-ACFREMON-2.1</t>
+          <t>TC-RVCOPSTATE-2.3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -17290,24 +17290,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD Management </t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TC-ICDM-2.3</t>
+          <t>TC-SMOKECO-2.6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -17317,51 +17317,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator and Temperature Controlled Cabinet Mode </t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TC-TCCM-3.3</t>
+          <t>TC-CADMIN-1.26</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Removed</t>
+          <t>Added</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Refrigerator Alarm </t>
+          <t>Descriptor Cluster TestPlan</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
+          <t>[TC-DESC-2.2]Descriptor Cluster Duplicate Condition with DUT as Server</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TC-REFALM-2.3</t>
+          <t>TC-DESC-2.2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -17378,17 +17378,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">RVC Operational State </t>
+          <t>Door lock Test Plan</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
+          <t>[TC-DRLK-3.2]Commands [DUT - Client]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TC-RVCOPSTATE-2.3</t>
+          <t>TC-DRLK-3.2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -17405,17 +17405,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smoke CO Alarm </t>
+          <t>Access Control cluster</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
+          <t>[TC-ACL-2.10]Persistence</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.6</t>
+          <t>TC-ACL-2.10</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -17432,22 +17432,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Bridged Device Basic Information Test Plan</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+          <t>[TC-BRBINFO-3.1]Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TC-DD-3.21</t>
+          <t>TC-BRBINFO-3.1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -17459,17 +17459,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Device Discovery Test Plan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-DD-3.21]Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TC-BINFO-3.1</t>
+          <t>TC-DD-3.21</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -17486,17 +17486,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Basic Information Test Plan</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+          <t>[TC-BINFO-3.1]Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.3</t>
+          <t>TC-BINFO-3.1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -17513,17 +17513,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Node Operational Credentials Test Plan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-OPCREDS-3.3]Attribute-NOCs, Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TC-CNET-4.21</t>
+          <t>TC-OPCREDS-3.3</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -17540,17 +17540,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Network Commissioning Test Plan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+          <t>[TC-CNET-4.21][Thread] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TC-SC-4.10</t>
+          <t>TC-CNET-4.21</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -17567,17 +17567,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel Test Plan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+          <t>[TC-SC-4.10]Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TC-SC-6.1</t>
+          <t>TC-SC-4.10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -17594,17 +17594,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+          <t>[TC-SC-6.1]Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TC-DA-1.8</t>
+          <t>TC-SC-6.1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -17621,17 +17621,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Device Attestation Test Plan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+          <t>[TC-DA-1.8]Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TC-IDM-11.1</t>
+          <t>TC-DA-1.8</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -17648,17 +17648,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administrator Commissioning </t>
+          <t>Interaction Data Model Test Plan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+          <t>[TC-IDM-11.1]Data types - attribute strings [DUT as Server] - data model</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.26</t>
+          <t>TC-IDM-11.1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -17680,7 +17680,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+          <t>[TC-BR-4]DUT client handling of bridges (DUT client)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -17707,7 +17707,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.5]Asynchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+          <t>[TC-SU-4.2]Verifying Cluster Attributes from Admin(DUT)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
+          <t>[TC-ACE-1.6]Group auth mode</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+          <t>[TC-RR-1.1]Minimal Resource Requirements for Matter Node</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+          <t>[TC-SM-1.2]Device composition - Topology [DUT as Server]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17842,7 +17842,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
+          <t>[TC-DT-1.1]Base Device Type [DUT as Server]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>Descriptor Cluster TestPlan</t>
+          <t>Descriptor</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>Descriptor Cluster TestPlan</t>
+          <t>Descriptor</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Descriptor Cluster TestPlan</t>
+          <t>Descriptor</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>Door lock Test Plan</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information Test Plan</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information Test Plan</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information Test Plan</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="C297" s="3" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information Test Plan</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B411" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B412" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C412" s="3" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="B413" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C413" s="3" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B414" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="B418" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C418" s="3" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="B419" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="B420" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C420" s="3" t="inlineStr">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="B421" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C421" s="3" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="B430" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="B436" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C438" s="3" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C445" s="3" t="inlineStr">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery Test Plan</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C448" s="3" t="inlineStr">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Basic Information</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Basic Information</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Basic Information</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="B452" s="3" t="inlineStr">
         <is>
-          <t>Basic Information Test Plan</t>
+          <t>Basic Information</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="B454" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="B460" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials Test Plan</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="B462" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B464" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B466" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B468" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="B470" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="B472" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B474" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B476" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning Test Plan</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="B482" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="B486" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C486" s="3" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C487" s="3" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="B488" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B489" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="B490" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B491" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="B492" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="B494" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C494" s="3" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C495" s="3" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="B496" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C496" s="3" t="inlineStr">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr">
@@ -12878,7 +12878,7 @@
       </c>
       <c r="B498" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C498" s="3" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B500" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C500" s="3" t="inlineStr">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel Test Plan</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C501" s="3" t="inlineStr">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="B510" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="B514" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B516" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation Test Plan</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="B518" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="B520" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="B521" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C521" s="3" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="B522" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B524" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr">
@@ -13553,7 +13553,7 @@
       </c>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C525" s="3" t="inlineStr">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="B526" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B527" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C527" s="3" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="B528" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C528" s="3" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="B530" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C530" s="3" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C531" s="3" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="B532" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C532" s="3" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="B533" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C533" s="3" t="inlineStr">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B534" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C534" s="3" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B535" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C535" s="3" t="inlineStr">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="B536" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C536" s="3" t="inlineStr">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="B537" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C537" s="3" t="inlineStr">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="B538" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model Test Plan</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C538" s="3" t="inlineStr">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="C565" s="3" t="inlineStr">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="B566" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="C566" s="3" t="inlineStr">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="B567" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="C567" s="3" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B568" s="3" t="inlineStr">
         <is>
-          <t>Bridge Test Plan</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="C568" s="3" t="inlineStr">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="B569" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C569" s="3" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="B570" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C570" s="3" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B571" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C571" s="3" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B572" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C572" s="3" t="inlineStr">
@@ -14753,7 +14753,7 @@
       </c>
       <c r="B573" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C573" s="3" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="B574" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C574" s="3" t="inlineStr">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="B575" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C575" s="3" t="inlineStr">
@@ -14828,7 +14828,7 @@
       </c>
       <c r="B576" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C576" s="3" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="B577" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C577" s="3" t="inlineStr">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="B578" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C578" s="3" t="inlineStr">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C579" s="3" t="inlineStr">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="B580" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C580" s="3" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="B581" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C581" s="3" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="B582" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C582" s="3" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B583" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C583" s="3" t="inlineStr">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="B584" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C584" s="3" t="inlineStr">
@@ -15053,7 +15053,7 @@
       </c>
       <c r="B585" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C585" s="3" t="inlineStr">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="B586" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C586" s="3" t="inlineStr">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="B587" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C587" s="3" t="inlineStr">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="B588" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C588" s="3" t="inlineStr">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="B589" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C589" s="3" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="B590" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C590" s="3" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="B591" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C591" s="3" t="inlineStr">
@@ -15228,7 +15228,7 @@
       </c>
       <c r="B592" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C592" s="3" t="inlineStr">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="B593" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C593" s="3" t="inlineStr">
@@ -15278,7 +15278,7 @@
       </c>
       <c r="B594" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update Test Plan</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C594" s="3" t="inlineStr">
@@ -15303,7 +15303,7 @@
       </c>
       <c r="B595" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C595" s="3" t="inlineStr">
@@ -15328,7 +15328,7 @@
       </c>
       <c r="B596" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C596" s="3" t="inlineStr">
@@ -15353,7 +15353,7 @@
       </c>
       <c r="B597" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C597" s="3" t="inlineStr">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="B598" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C598" s="3" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="B599" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C599" s="3" t="inlineStr">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B600" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement Test Plan</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C600" s="3" t="inlineStr">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B601" s="3" t="inlineStr">
         <is>
-          <t>Minimal Resource Requirements Test Plan</t>
+          <t>Minimal Resource Requirements</t>
         </is>
       </c>
       <c r="C601" s="3" t="inlineStr">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B602" s="3" t="inlineStr">
         <is>
-          <t>System Model Test Plan</t>
+          <t>System Model</t>
         </is>
       </c>
       <c r="C602" s="3" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B603" s="3" t="inlineStr">
         <is>
-          <t>System Model Test Plan</t>
+          <t>System Model</t>
         </is>
       </c>
       <c r="C603" s="3" t="inlineStr">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="B604" s="3" t="inlineStr">
         <is>
-          <t>Device Types Test Plan</t>
+          <t>Device Types</t>
         </is>
       </c>
       <c r="C604" s="3" t="inlineStr">
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15596,17 +15596,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>On/Off</t>
+          <t>Descriptor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[TC-OO-3.2] Functionality with client as DUT</t>
+          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TC-OO-3.2</t>
+          <t>TC-DESC-2.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -15623,17 +15623,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Temperature Measurement</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[TC-TMP-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TC-TMP-2.2</t>
+          <t>TC-DRLK-3.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -15650,17 +15650,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Relative Humidity Measurement</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[TC-RH-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TC-RH-2.2</t>
+          <t>TC-BRBINFO-3.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -15677,22 +15677,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thermostat User Configuration</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[TC-TSUIC-2.2] Primary functionality with server as DUT</t>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TC-TSUIC-2.2</t>
+          <t>TC-DD-3.21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -15704,22 +15704,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pump Configuration and Control</t>
+          <t>Basic Information</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[TC-PCC-2.4] Life Time Counters with Server as DUT</t>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TC-PCC-2.4</t>
+          <t>TC-BINFO-3.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -15731,22 +15731,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[TC-ALOGIN-12.2] Account Login Verification (DUT as Client)</t>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TC-ALOGIN-12.2</t>
+          <t>TC-OPCREDS-3.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -15758,22 +15758,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Level Control</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[TC-LVL-7.1] Verification of MoveToClosestFrequency command (DUT as Server)</t>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TC-LVL-7.1</t>
+          <t>TC-CNET-4.21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -15785,22 +15785,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Color Control</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[TC-CC-9.4] ColorLoopSet Validation with client as DUT</t>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TC-CC-9.4</t>
+          <t>TC-SC-4.10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -15812,22 +15812,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Occupancy Sensing</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[TC-OCC-3.1] Primary functionality with server as DUT</t>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TC-OCC-3.1</t>
+          <t>TC-DA-1.8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -15839,22 +15839,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Flow Measurement</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[TC-FLW-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TC-FLW-2.2</t>
+          <t>TC-IDM-11.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -15866,22 +15866,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pressure Measurement</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[TC-PRS-2.2] Primary Functionality with Server as DUT</t>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TC-PRS-2.2</t>
+          <t>TC-BR-4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -15893,22 +15893,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Window Covering</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[TC-WNCV-7.1] GoToPercentage Commands Verification [DUT as Client]</t>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TC-WNCV-7.1</t>
+          <t>TC-BDX-2.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -15920,22 +15920,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thermostat</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-3.2] Functionality with client as DUT</t>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TC-TSTAT-3.2</t>
+          <t>TC-SU-4.2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -15947,22 +15947,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Software Diagnostics</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[TC-DGSW-3.2] Commands Generated [DUT as Client]</t>
+          <t>[TC-ACE-1.6] Group auth mode</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TC-DGSW-3.2</t>
+          <t>TC-ACE-1.6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -15974,22 +15974,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ethernet Network Diagnostics</t>
+          <t>Minimal Resource Requirements</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[TC-DGETH-3.2] Command Generated DUT as Client]</t>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TC-DGETH-3.2</t>
+          <t>TC-RR-1.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -16001,22 +16001,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thread Network Diagnostics</t>
+          <t>System Model</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[TC-DGTHREAD-3.4] ResetCounts Command[DUT-Client]</t>
+          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TC-DGTHREAD-3.4</t>
+          <t>TC-SM-1.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -16028,1836 +16028,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wi-Fi Network Diagnostics</t>
+          <t>Device Types</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[TC-DGWIFI-3.2] Command Generated [DUT as Client]</t>
+          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TC-DGWIFI-3.2</t>
+          <t>TC-DT-1.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>App Test Case</t>
+          <t>Core Test Case</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Diagnostics Logs</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[TC-DLOG-3.1] Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TC-DLOG-3.1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Identify</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[TC-I-3.2] Functionality with Client as DUT</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>TC-I-3.2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Power Source</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[TC-PS-3.1] Endpoint composition and EndpointList</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>TC-PS-3.1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Power Source Configuration</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[TC-PSCFG-2.2] Primary functionality with server as DUT</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TC-PSCFG-2.2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Boolean State</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[TC-BOOL-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TC-BOOL-2.2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Illuminance Measurement</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[TC-ILL-2.2] Primary Functionality with Server as DUT</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TC-ILL-2.2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Switch</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[TC-SWTCH-3.2] Primary functionality with client as DUT</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>TC-SWTCH-3.2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Actions</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[TC-ACT-3.2] Functionality with client as DUT</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>TC-ACT-3.2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mode Select</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[TC-MOD-3.4] OnMode Overwriting StartUpMode (DUT as Server)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>TC-MOD-3.4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>RVC Run Mode</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>TC-RVCRUNM-3.3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>RVC Clean Mode</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>TC-RVCCLEANM-3.3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>General Diagnostics</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>TC-DGGEN-2.3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>General Commissioning</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>TC-CGEN-2.4</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>User Label</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>TC-ULABEL-2.4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fixed Label</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>TC-FLABEL-2.1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Localization Configuration</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>TC-LCFG-2.1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Unit Localization</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TC-LUNIT-3.1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Time Format Localization</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>TC-LTIME-3.1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Binding</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>TC-BIND-2.3</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Groups</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>[TC-G-3.2] Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>TC-G-3.2</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Scenes</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>TC-S-2.6</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Time Synchronization</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>TC-TIMESYNC-3.1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Carbon Monoxide Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>TC-CMOCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Carbon Dioxide Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>TC-CDOCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Nitrogen Dioxide Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>TC-NDOCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Ozone Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>TC-OZCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>PM2.5 Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TC-PMICONC-2.1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Formaldehyde Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>TC-FLDCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PM1 Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>TC-PMHCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>PM10 Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>TC-PMKCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Total Volatile Organic Compounds Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>TC-TVOCCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Radon Concentration Measurement</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>TC-RNCONC-2.1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Temperature Control</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>TC-TCTL-3.3</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Laundry Washer Mode</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>TC-LWM-3.3</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Washer Controls</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>TC-WASHERCTRL-2.2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Fan Control</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>TC-FAN-3.6</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Dishwasher Mode</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>TC-DISHM-3.3</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Dishwasher Alarm</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>TC-DISHALM-3.6</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Operational State</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>TC-OPSTATE-2.4</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Air Quality</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>TC-AIRQUAL-2.1</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>HEPA Filter Monitoring</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>TC-HEPAFREMON-2.1</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Activated Carbon Filter Monitoring</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>TC-ACFREMON-2.1</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ICD Management</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>TC-ICDM-2.3</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>TC-TCCM-3.3</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Refrigerator Alarm</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>TC-REFALM-2.3</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>RVC Operational State</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>TC-RVCOPSTATE-2.3</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Smoke CO Alarm</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>TC-SMOKECO-2.6</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.26</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Descriptor Cluster TestPlan</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>[TC-DESC-2.2]Descriptor Cluster Duplicate Condition with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>TC-DESC-2.2</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Door lock Test Plan</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>[TC-DRLK-3.2]Commands [DUT - Client]</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>TC-DRLK-3.2</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Access Control cluster</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>[TC-ACL-2.10]Persistence</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>TC-ACL-2.10</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Bridged Device Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>[TC-BRBINFO-3.1]Appearance Attribute DUT as Server</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>TC-BRBINFO-3.1</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Device Discovery Test Plan</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.21]Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>TC-DD-3.21</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Basic Information Test Plan</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-3.1]Appearance Attribute DUT as Server</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>TC-BINFO-3.1</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials Test Plan</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.3]Attribute-NOCs, Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.3</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Network Commissioning Test Plan</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.21][Thread] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.21</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Secure Channel Test Plan</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.10]Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>TC-SC-4.10</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>[TC-SC-6.1]Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>TC-SC-6.1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Device Attestation Test Plan</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.8]Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>TC-DA-1.8</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Interaction Data Model Test Plan</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>[TC-IDM-11.1]Data types - attribute strings [DUT as Server] - data model</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>TC-IDM-11.1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Bridge Test Plan</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>[TC-BR-4]DUT client handling of bridges (DUT client)</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>TC-BR-4</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol Test Plan</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.5]Asynchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.5</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>OTA Software Update Test Plan</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.2]Verifying Cluster Attributes from Admin(DUT)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>TC-SU-4.2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement Test Plan</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.6]Group auth mode</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.6</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Minimal Resource Requirements Test Plan</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>[TC-RR-1.1]Minimal Resource Requirements for Matter Node</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>TC-RR-1.1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>System Model Test Plan</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.2]Device composition - Topology [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>TC-SM-1.2</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Device Types Test Plan</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>[TC-DT-1.1]Base Device Type [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>TC-DT-1.1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Removed</t>
         </is>
       </c>
     </row>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -5933,7 +5933,7 @@
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.1] On Mode functionality with DUT as Server </t>
+          <t>[TC-RVCRUNM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.2] Startup Mode functionality with DUT as Server </t>
+          <t>[TC-RVCRUNM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+          <t>[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.1] On Mode functionality with DUT as Server </t>
+          <t>[TC-RVCCLEANM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.2] Startup Mode functionality with DUT as Server </t>
+          <t>[TC-RVCCLEANM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+          <t>[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C285" s="3" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C287" s="3" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C289" s="3" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C291" s="3" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>Access Control cluster</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D298" s="3" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.1] Inflow alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.1] Inflow alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.2] Drain alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.2] Drain alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.4] Temperature Low alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.4] Temperature Low alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D372" s="3" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.5] Temperature High alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.5] Temperature High alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D373" s="3" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="C374" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D374" s="3" t="inlineStr">
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15596,17 +15596,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Descriptor</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
+          <t>[TC-ACL-2.10] Persistence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TC-DESC-2.2</t>
+          <t>TC-ACL-2.10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -15623,17 +15623,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Door lock</t>
+          <t>RVC Run Mode</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
+          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TC-DRLK-3.2</t>
+          <t>TC-RVCRUNM-3.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -15643,24 +15643,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information</t>
+          <t>RVC Clean Mode</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-3.1</t>
+          <t>TC-RVCCLEANM-3.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -15670,385 +15670,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Device Discovery</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TC-DD-3.21</t>
+          <t>TC-BRBINFO-3.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Basic Information</t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TC-BINFO-3.1</t>
+          <t>TC-DISHALM-3.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.21</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TC-SC-4.10</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TC-DA-1.8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TC-IDM-11.1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bridge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TC-BR-4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TC-SU-4.2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.6</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Minimal Resource Requirements</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TC-RR-1.1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>System Model</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TC-SM-1.2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Device Types</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>TC-DT-1.1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15596,17 +15596,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.10] Persistence</t>
+          <t>[TC-OO-3.2] Functionality with client as DUT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TC-ACL-2.10</t>
+          <t>TC-OO-3.2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -15616,24 +15616,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RVC Run Mode</t>
+          <t>Temperature Measurement</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+          <t>[TC-TMP-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TC-RVCRUNM-3.3</t>
+          <t>TC-TMP-2.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -15650,17 +15650,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RVC Clean Mode</t>
+          <t>Relative Humidity Measurement</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server </t>
+          <t>[TC-RH-2.2] Primary Functionality with Server as DUT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TC-RVCCLEANM-3.3</t>
+          <t>TC-RH-2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -15677,17 +15677,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information</t>
+          <t>Thermostat User Configuration</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-TSUIC-2.2] Primary functionality with server as DUT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-3.1</t>
+          <t>TC-TSUIC-2.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -15704,25 +15704,2158 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Pump Configuration and Control</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[TC-PCC-2.4] Life Time Counters with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TC-PCC-2.4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[TC-ALOGIN-12.2] Account Login Verification (DUT as Client)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TC-ALOGIN-12.2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Level Control</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[TC-LVL-7.1] Verification of MoveToClosestFrequency command (DUT as Server)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TC-LVL-7.1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Color Control</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[TC-CC-9.4] ColorLoopSet Validation with client as DUT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TC-CC-9.4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Occupancy Sensing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[TC-OCC-3.1] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TC-OCC-3.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Flow Measurement</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[TC-FLW-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TC-FLW-2.2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pressure Measurement</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[TC-PRS-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TC-PRS-2.2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Window Covering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[TC-WNCV-7.1] GoToPercentage Commands Verification [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TC-WNCV-7.1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Thermostat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[TC-TSTAT-3.2] Functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TC-TSTAT-3.2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Software Diagnostics</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[TC-DGSW-3.2] Commands Generated [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TC-DGSW-3.2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ethernet Network Diagnostics</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[TC-DGETH-3.2] Command Generated DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TC-DGETH-3.2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Thread Network Diagnostics</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[TC-DGTHREAD-3.4] ResetCounts Command[DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TC-DGTHREAD-3.4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Wi-Fi Network Diagnostics</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[TC-DGWIFI-3.2] Command Generated [DUT as Client]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TC-DGWIFI-3.2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Diagnostics Logs</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[TC-DLOG-3.1] Diagnostic Logs Cluster Commands Checks[DUT-Client] - REMOVED</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TC-DLOG-3.1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Identify</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[TC-I-3.2] Functionality with Client as DUT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TC-I-3.2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Power Source</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[TC-PS-3.1] Endpoint composition and EndpointList</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TC-PS-3.1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Power Source Configuration</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[TC-PSCFG-2.2] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TC-PSCFG-2.2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Boolean State</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[TC-BOOL-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TC-BOOL-2.2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Illuminance Measurement</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[TC-ILL-2.2] Primary Functionality with Server as DUT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TC-ILL-2.2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[TC-SWTCH-3.2] Primary functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TC-SWTCH-3.2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[TC-ACT-3.2] Functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TC-ACT-3.2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mode Select</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[TC-MOD-3.4] OnMode Overwriting StartUpMode (DUT as Server)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TC-MOD-3.4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RVC Run Mode</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[TC-RVCRUNM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TC-RVCRUNM-3.3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RVC Clean Mode</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[TC-RVCCLEANM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>TC-RVCCLEANM-3.3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[TC-DESC-2.2] Descriptor Cluster Duplicate Condition with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TC-DESC-2.2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>General Diagnostics</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[TC-DGGEN-2.3] Command Received [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TC-DGGEN-2.3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>General Commissioning</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>TC-CGEN-2.4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>User Label</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TC-ULABEL-2.4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fixed Label</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TC-FLABEL-2.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Localization Configuration</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TC-LCFG-2.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Unit Localization</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>TC-LUNIT-3.1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Time Format Localization</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TC-LTIME-3.1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Door lock</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TC-DRLK-3.2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Binding</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TC-BIND-2.3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Groups</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[TC-G-3.2] Commands [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>TC-G-3.2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Scenes</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TC-S-2.6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Access Control</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[TC-ACL-2.10] Persistence</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>TC-ACL-2.10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bridged Device Basic Information</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TC-BRBINFO-3.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Time Synchronization</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>TC-TIMESYNC-3.1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Carbon Monoxide Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TC-CMOCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Carbon Dioxide Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>TC-CDOCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nitrogen Dioxide Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>TC-NDOCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ozone Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TC-OZCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PM2.5 Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TC-PMICONC-2.1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Formaldehyde Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TC-FLDCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PM1 Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TC-PMHCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PM10 Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TC-PMKCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Total Volatile Organic Compounds Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TC-TVOCCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Radon Concentration Measurement</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TC-RNCONC-2.1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Temperature Control</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TC-TCTL-3.3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Laundry Washer Mode</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TC-LWM-3.3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Washer Controls</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TC-WASHERCTRL-2.2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fan Control</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TC-FAN-3.6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Dishwasher Mode</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TC-DISHM-3.3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Dishwasher Alarm</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>TC-DISHALM-3.6</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Operational State</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TC-OPSTATE-2.4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Air Quality</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TC-AIRQUAL-2.1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HEPA Filter Monitoring</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TC-HEPAFREMON-2.1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Activated Carbon Filter Monitoring</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TC-ACFREMON-2.1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ICD Management</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TC-ICDM-2.3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TC-TCCM-3.3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Refrigerator Alarm</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TC-REFALM-2.3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RVC Operational State</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TC-RVCOPSTATE-2.3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Smoke CO Alarm</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TC-SMOKECO-2.6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Device Discovery</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>TC-DD-3.21</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TC-BINFO-3.1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Node Operational Credentials</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TC-OPCREDS-3.3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Network Commissioning</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TC-CNET-4.21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Secure Channel</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TC-SC-4.10</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Group Communication</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TC-SC-6.1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Device Attestation</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>TC-DA-1.8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Interaction Data Model</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TC-IDM-11.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Administrator Commissioning</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>TC-CADMIN-1.26</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Bridge</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TC-BR-4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bulk Data Exchange Protocol</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>TC-BDX-2.5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>OTA Software Update</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>TC-SU-4.2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.6] Group auth mode</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.6</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Minimal Resource Requirements</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TC-RR-1.1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>System Model</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TC-SM-1.2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Device Types</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TC-DT-1.1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15606,13 +15606,185 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No change</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[TC-OO-2.3] Secondary functionality with server as DUT</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[TC-OO-1.1] Global Attributes with DUT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TC-OO-1.1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Access Control Enforcement</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[TC-ACE-1.5] Multi-fabric</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TC-ACE-1.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[TC-APBSC-1.10] Global attributes - Application Basic Cluster (DUT as Server)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TC-APBSC-1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[TC-OO-2.3] Secondary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TC-OO-2.3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[TC-OO-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TC-OO-1.1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15606,185 +15606,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[TC-OO-2.3] Secondary functionality with server as DUT</t>
-        </is>
-      </c>
+          <t>No change</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[TC-OO-1.1] Global Attributes with DUT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TC-OO-1.1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.5] Multi-fabric</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[TC-APBSC-1.10] Global attributes - Application Basic Cluster (DUT as Server)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TC-APBSC-1.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[TC-OO-2.3] Secondary functionality with server as DUT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TC-OO-2.3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[TC-OO-1.1] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TC-OO-1.1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15604,15 +15604,15 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No change</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15630,6 +15630,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15662,6 +15662,134 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[TC-OO-2.4] Startup functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TC-OO-2.4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thermostat User Configuration</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[TC-TSUIC-1.1] Global attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TC-TSUIC-1.1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[TC-APBSC-1.10] Global attributes - Application Basic Cluster (DUT as Server)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TC-APBSC-1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thermostat User Configuration</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[TC-TSUIC-1.1] Global attributes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TC-TSUIC-1.1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15790,6 +15790,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15822,6 +15822,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15854,6 +15854,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15886,6 +15886,38 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15918,6 +15918,38 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15950,6 +15950,198 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[TC-OO-2.2] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TC-OO-2.2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Color Control</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[TC-CC-1.1] Global attributes with server as DUT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TC-CC-1.1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Color Control</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[TC-CC-4.5] Saturation functionality with client as DUT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TC-CC-4.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Window Covering</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[TC-WNCV-3.3] StopMotion command &amp; OperationalStatus attribute Verification [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TC-WNCV-3.3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Color Control</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[TC-CC-1.1] Global attributes with server as DUT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TC-Cd-1.1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Window Covering</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[TC-WNCV-3.3] StopMotion command &amp; OperationalStatus attribute Verification [DUT as Server</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TC-WNCV-3.3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E604"/>
+  <dimension ref="A1:E410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10697,4856 +10697,6 @@
         </is>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>410</v>
-      </c>
-      <c r="B411" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C411" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D411" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.1</t>
-        </is>
-      </c>
-      <c r="E411" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>411</v>
-      </c>
-      <c r="B412" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C412" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D412" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.2</t>
-        </is>
-      </c>
-      <c r="E412" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
-        <v>412</v>
-      </c>
-      <c r="B413" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C413" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D413" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.3</t>
-        </is>
-      </c>
-      <c r="E413" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
-        <v>413</v>
-      </c>
-      <c r="B414" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C414" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D414" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.4</t>
-        </is>
-      </c>
-      <c r="E414" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
-        <v>414</v>
-      </c>
-      <c r="B415" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C415" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D415" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.5</t>
-        </is>
-      </c>
-      <c r="E415" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
-        <v>415</v>
-      </c>
-      <c r="B416" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C416" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D416" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.6</t>
-        </is>
-      </c>
-      <c r="E416" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
-        <v>416</v>
-      </c>
-      <c r="B417" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C417" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D417" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.7</t>
-        </is>
-      </c>
-      <c r="E417" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
-        <v>417</v>
-      </c>
-      <c r="B418" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C418" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D418" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.8</t>
-        </is>
-      </c>
-      <c r="E418" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
-        <v>418</v>
-      </c>
-      <c r="B419" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C419" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D419" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.9</t>
-        </is>
-      </c>
-      <c r="E419" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
-        <v>419</v>
-      </c>
-      <c r="B420" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C420" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D420" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.10</t>
-        </is>
-      </c>
-      <c r="E420" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
-        <v>420</v>
-      </c>
-      <c r="B421" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C421" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D421" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.11</t>
-        </is>
-      </c>
-      <c r="E421" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
-        <v>421</v>
-      </c>
-      <c r="B422" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C422" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D422" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.12</t>
-        </is>
-      </c>
-      <c r="E422" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
-        <v>422</v>
-      </c>
-      <c r="B423" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C423" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D423" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.13</t>
-        </is>
-      </c>
-      <c r="E423" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
-        <v>423</v>
-      </c>
-      <c r="B424" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C424" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D424" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.14</t>
-        </is>
-      </c>
-      <c r="E424" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
-        <v>424</v>
-      </c>
-      <c r="B425" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C425" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D425" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-1.15</t>
-        </is>
-      </c>
-      <c r="E425" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
-        <v>425</v>
-      </c>
-      <c r="B426" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C426" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D426" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-2.1</t>
-        </is>
-      </c>
-      <c r="E426" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
-        <v>426</v>
-      </c>
-      <c r="B427" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C427" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D427" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-2.2</t>
-        </is>
-      </c>
-      <c r="E427" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
-        <v>427</v>
-      </c>
-      <c r="B428" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C428" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D428" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.1</t>
-        </is>
-      </c>
-      <c r="E428" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
-        <v>428</v>
-      </c>
-      <c r="B429" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C429" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D429" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.2</t>
-        </is>
-      </c>
-      <c r="E429" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
-        <v>429</v>
-      </c>
-      <c r="B430" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C430" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D430" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.3</t>
-        </is>
-      </c>
-      <c r="E430" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
-        <v>430</v>
-      </c>
-      <c r="B431" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C431" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D431" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.4</t>
-        </is>
-      </c>
-      <c r="E431" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
-        <v>431</v>
-      </c>
-      <c r="B432" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C432" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D432" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.5</t>
-        </is>
-      </c>
-      <c r="E432" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
-        <v>432</v>
-      </c>
-      <c r="B433" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C433" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D433" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.6</t>
-        </is>
-      </c>
-      <c r="E433" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
-        <v>433</v>
-      </c>
-      <c r="B434" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C434" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D434" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.7</t>
-        </is>
-      </c>
-      <c r="E434" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>434</v>
-      </c>
-      <c r="B435" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C435" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D435" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.8</t>
-        </is>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
-        <v>435</v>
-      </c>
-      <c r="B436" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C436" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D436" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.9</t>
-        </is>
-      </c>
-      <c r="E436" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
-        <v>436</v>
-      </c>
-      <c r="B437" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C437" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D437" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.10</t>
-        </is>
-      </c>
-      <c r="E437" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
-        <v>437</v>
-      </c>
-      <c r="B438" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C438" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D438" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.11</t>
-        </is>
-      </c>
-      <c r="E438" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
-        <v>438</v>
-      </c>
-      <c r="B439" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C439" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D439" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.12</t>
-        </is>
-      </c>
-      <c r="E439" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
-        <v>439</v>
-      </c>
-      <c r="B440" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C440" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D440" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.13</t>
-        </is>
-      </c>
-      <c r="E440" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
-        <v>440</v>
-      </c>
-      <c r="B441" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C441" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D441" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.14</t>
-        </is>
-      </c>
-      <c r="E441" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="B442" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C442" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D442" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.15</t>
-        </is>
-      </c>
-      <c r="E442" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
-        <v>442</v>
-      </c>
-      <c r="B443" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C443" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D443" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.16</t>
-        </is>
-      </c>
-      <c r="E443" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
-        <v>443</v>
-      </c>
-      <c r="B444" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C444" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D444" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.17</t>
-        </is>
-      </c>
-      <c r="E444" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
-        <v>444</v>
-      </c>
-      <c r="B445" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C445" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D445" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.18</t>
-        </is>
-      </c>
-      <c r="E445" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
-        <v>445</v>
-      </c>
-      <c r="B446" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C446" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D446" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.19</t>
-        </is>
-      </c>
-      <c r="E446" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
-        <v>446</v>
-      </c>
-      <c r="B447" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C447" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D447" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.20</t>
-        </is>
-      </c>
-      <c r="E447" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
-        <v>447</v>
-      </c>
-      <c r="B448" s="3" t="inlineStr">
-        <is>
-          <t>Device Discovery</t>
-        </is>
-      </c>
-      <c r="C448" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D448" s="3" t="inlineStr">
-        <is>
-          <t>TC-DD-3.21</t>
-        </is>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
-        <v>448</v>
-      </c>
-      <c r="B449" s="3" t="inlineStr">
-        <is>
-          <t>Basic Information</t>
-        </is>
-      </c>
-      <c r="C449" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D449" s="3" t="inlineStr">
-        <is>
-          <t>TC-BINFO-1.1</t>
-        </is>
-      </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
-        <v>449</v>
-      </c>
-      <c r="B450" s="3" t="inlineStr">
-        <is>
-          <t>Basic Information</t>
-        </is>
-      </c>
-      <c r="C450" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D450" s="3" t="inlineStr">
-        <is>
-          <t>TC-BINFO-2.1</t>
-        </is>
-      </c>
-      <c r="E450" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="B451" s="3" t="inlineStr">
-        <is>
-          <t>Basic Information</t>
-        </is>
-      </c>
-      <c r="C451" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D451" s="3" t="inlineStr">
-        <is>
-          <t>TC-BINFO-2.2</t>
-        </is>
-      </c>
-      <c r="E451" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
-        <v>451</v>
-      </c>
-      <c r="B452" s="3" t="inlineStr">
-        <is>
-          <t>Basic Information</t>
-        </is>
-      </c>
-      <c r="C452" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
-        </is>
-      </c>
-      <c r="D452" s="3" t="inlineStr">
-        <is>
-          <t>TC-BINFO-3.1</t>
-        </is>
-      </c>
-      <c r="E452" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
-        <v>452</v>
-      </c>
-      <c r="B453" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C453" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D453" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-1.2</t>
-        </is>
-      </c>
-      <c r="E453" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
-        <v>453</v>
-      </c>
-      <c r="B454" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C454" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D454" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.1</t>
-        </is>
-      </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
-        <v>454</v>
-      </c>
-      <c r="B455" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C455" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D455" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.2</t>
-        </is>
-      </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
-        <v>455</v>
-      </c>
-      <c r="B456" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C456" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D456" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.4</t>
-        </is>
-      </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
-        <v>456</v>
-      </c>
-      <c r="B457" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C457" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D457" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.5</t>
-        </is>
-      </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
-        <v>457</v>
-      </c>
-      <c r="B458" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C458" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D458" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.6</t>
-        </is>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
-        <v>458</v>
-      </c>
-      <c r="B459" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C459" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D459" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.7</t>
-        </is>
-      </c>
-      <c r="E459" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
-        <v>459</v>
-      </c>
-      <c r="B460" s="3" t="inlineStr">
-        <is>
-          <t>Node Operational Credentials</t>
-        </is>
-      </c>
-      <c r="C460" s="3" t="inlineStr">
-        <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D460" s="3" t="inlineStr">
-        <is>
-          <t>TC-OPCREDS-3.3</t>
-        </is>
-      </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
-        <v>460</v>
-      </c>
-      <c r="B461" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C461" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D461" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-1.3</t>
-        </is>
-      </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
-        <v>461</v>
-      </c>
-      <c r="B462" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C462" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D462" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.2</t>
-        </is>
-      </c>
-      <c r="E462" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>462</v>
-      </c>
-      <c r="B463" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C463" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D463" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.3</t>
-        </is>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
-        <v>463</v>
-      </c>
-      <c r="B464" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C464" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D464" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.4</t>
-        </is>
-      </c>
-      <c r="E464" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
-        <v>464</v>
-      </c>
-      <c r="B465" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C465" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D465" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.5</t>
-        </is>
-      </c>
-      <c r="E465" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
-        <v>465</v>
-      </c>
-      <c r="B466" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C466" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D466" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.6</t>
-        </is>
-      </c>
-      <c r="E466" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
-        <v>466</v>
-      </c>
-      <c r="B467" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C467" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D467" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.9</t>
-        </is>
-      </c>
-      <c r="E467" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
-        <v>467</v>
-      </c>
-      <c r="B468" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C468" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D468" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.10</t>
-        </is>
-      </c>
-      <c r="E468" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
-        <v>468</v>
-      </c>
-      <c r="B469" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C469" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D469" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.11</t>
-        </is>
-      </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
-        <v>469</v>
-      </c>
-      <c r="B470" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C470" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D470" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.12</t>
-        </is>
-      </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
-        <v>470</v>
-      </c>
-      <c r="B471" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C471" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D471" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.13</t>
-        </is>
-      </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="B472" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C472" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D472" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.14</t>
-        </is>
-      </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
-        <v>472</v>
-      </c>
-      <c r="B473" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C473" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D473" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.15</t>
-        </is>
-      </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
-        <v>473</v>
-      </c>
-      <c r="B474" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C474" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D474" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.16</t>
-        </is>
-      </c>
-      <c r="E474" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
-        <v>474</v>
-      </c>
-      <c r="B475" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C475" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D475" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.22</t>
-        </is>
-      </c>
-      <c r="E475" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
-        <v>475</v>
-      </c>
-      <c r="B476" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C476" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D476" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.20</t>
-        </is>
-      </c>
-      <c r="E476" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
-        <v>476</v>
-      </c>
-      <c r="B477" s="3" t="inlineStr">
-        <is>
-          <t>Network Commissioning</t>
-        </is>
-      </c>
-      <c r="C477" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D477" s="3" t="inlineStr">
-        <is>
-          <t>TC-CNET-4.21</t>
-        </is>
-      </c>
-      <c r="E477" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
-        <v>477</v>
-      </c>
-      <c r="B478" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C478" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
-        </is>
-      </c>
-      <c r="D478" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-1.1</t>
-        </is>
-      </c>
-      <c r="E478" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
-        <v>478</v>
-      </c>
-      <c r="B479" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C479" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
-        </is>
-      </c>
-      <c r="D479" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-1.2</t>
-        </is>
-      </c>
-      <c r="E479" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
-        <v>479</v>
-      </c>
-      <c r="B480" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C480" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
-        </is>
-      </c>
-      <c r="D480" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-1.3</t>
-        </is>
-      </c>
-      <c r="E480" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
-        <v>480</v>
-      </c>
-      <c r="B481" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C481" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
-        </is>
-      </c>
-      <c r="D481" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-1.4</t>
-        </is>
-      </c>
-      <c r="E481" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
-        <v>481</v>
-      </c>
-      <c r="B482" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C482" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
-        </is>
-      </c>
-      <c r="D482" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-2.1</t>
-        </is>
-      </c>
-      <c r="E482" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
-        <v>482</v>
-      </c>
-      <c r="B483" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C483" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
-        </is>
-      </c>
-      <c r="D483" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-2.2</t>
-        </is>
-      </c>
-      <c r="E483" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
-        <v>483</v>
-      </c>
-      <c r="B484" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C484" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D484" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-2.3</t>
-        </is>
-      </c>
-      <c r="E484" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
-        <v>484</v>
-      </c>
-      <c r="B485" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C485" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D485" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-2.4</t>
-        </is>
-      </c>
-      <c r="E485" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
-        <v>485</v>
-      </c>
-      <c r="B486" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C486" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
-        </is>
-      </c>
-      <c r="D486" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-3.1</t>
-        </is>
-      </c>
-      <c r="E486" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
-        <v>486</v>
-      </c>
-      <c r="B487" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C487" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
-        </is>
-      </c>
-      <c r="D487" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-3.2</t>
-        </is>
-      </c>
-      <c r="E487" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
-        <v>487</v>
-      </c>
-      <c r="B488" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C488" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D488" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-3.3</t>
-        </is>
-      </c>
-      <c r="E488" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
-        <v>488</v>
-      </c>
-      <c r="B489" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C489" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D489" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-3.4</t>
-        </is>
-      </c>
-      <c r="E489" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
-        <v>489</v>
-      </c>
-      <c r="B490" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C490" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D490" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-3.5</t>
-        </is>
-      </c>
-      <c r="E490" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
-        <v>490</v>
-      </c>
-      <c r="B491" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C491" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-3.6] CASE Resource validation</t>
-        </is>
-      </c>
-      <c r="D491" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-3.6</t>
-        </is>
-      </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
-        <v>491</v>
-      </c>
-      <c r="B492" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C492" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D492" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.1</t>
-        </is>
-      </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
-        <v>492</v>
-      </c>
-      <c r="B493" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C493" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
-        </is>
-      </c>
-      <c r="D493" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.2</t>
-        </is>
-      </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
-        <v>493</v>
-      </c>
-      <c r="B494" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C494" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D494" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.3</t>
-        </is>
-      </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
-        <v>494</v>
-      </c>
-      <c r="B495" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C495" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
-        </is>
-      </c>
-      <c r="D495" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.4</t>
-        </is>
-      </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
-        <v>495</v>
-      </c>
-      <c r="B496" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C496" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D496" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.5</t>
-        </is>
-      </c>
-      <c r="E496" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="B497" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C497" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
-        </is>
-      </c>
-      <c r="D497" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.6</t>
-        </is>
-      </c>
-      <c r="E497" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
-        <v>497</v>
-      </c>
-      <c r="B498" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C498" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D498" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.7</t>
-        </is>
-      </c>
-      <c r="E498" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
-        <v>498</v>
-      </c>
-      <c r="B499" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C499" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
-        </is>
-      </c>
-      <c r="D499" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.8</t>
-        </is>
-      </c>
-      <c r="E499" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="2" t="n">
-        <v>499</v>
-      </c>
-      <c r="B500" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C500" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D500" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.9</t>
-        </is>
-      </c>
-      <c r="E500" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="B501" s="3" t="inlineStr">
-        <is>
-          <t>Secure Channel</t>
-        </is>
-      </c>
-      <c r="C501" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
-        </is>
-      </c>
-      <c r="D501" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-4.10</t>
-        </is>
-      </c>
-      <c r="E501" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="2" t="n">
-        <v>501</v>
-      </c>
-      <c r="B502" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C502" s="3" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D502" s="3" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-1.1</t>
-        </is>
-      </c>
-      <c r="E502" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="2" t="n">
-        <v>502</v>
-      </c>
-      <c r="B503" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C503" s="3" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
-        </is>
-      </c>
-      <c r="D503" s="3" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-2.1</t>
-        </is>
-      </c>
-      <c r="E503" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="2" t="n">
-        <v>503</v>
-      </c>
-      <c r="B504" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C504" s="3" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
-        </is>
-      </c>
-      <c r="D504" s="3" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-2.2</t>
-        </is>
-      </c>
-      <c r="E504" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="2" t="n">
-        <v>504</v>
-      </c>
-      <c r="B505" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C505" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
-        </is>
-      </c>
-      <c r="D505" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-5.1</t>
-        </is>
-      </c>
-      <c r="E505" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="B506" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C506" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
-        </is>
-      </c>
-      <c r="D506" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-5.2</t>
-        </is>
-      </c>
-      <c r="E506" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="2" t="n">
-        <v>506</v>
-      </c>
-      <c r="B507" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C507" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
-        </is>
-      </c>
-      <c r="D507" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-5.3</t>
-        </is>
-      </c>
-      <c r="E507" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="2" t="n">
-        <v>507</v>
-      </c>
-      <c r="B508" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C508" s="3" t="inlineStr">
-        <is>
-          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
-        </is>
-      </c>
-      <c r="D508" s="3" t="inlineStr">
-        <is>
-          <t>TC-GRPKEY-5.4</t>
-        </is>
-      </c>
-      <c r="E508" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="2" t="n">
-        <v>508</v>
-      </c>
-      <c r="B509" s="3" t="inlineStr">
-        <is>
-          <t>Group Communication</t>
-        </is>
-      </c>
-      <c r="C509" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
-        </is>
-      </c>
-      <c r="D509" s="3" t="inlineStr">
-        <is>
-          <t>TC-SC-6.1</t>
-        </is>
-      </c>
-      <c r="E509" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="2" t="n">
-        <v>509</v>
-      </c>
-      <c r="B510" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C510" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D510" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.1</t>
-        </is>
-      </c>
-      <c r="E510" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="2" t="n">
-        <v>510</v>
-      </c>
-      <c r="B511" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C511" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D511" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.2</t>
-        </is>
-      </c>
-      <c r="E511" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="2" t="n">
-        <v>511</v>
-      </c>
-      <c r="B512" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C512" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D512" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.3</t>
-        </is>
-      </c>
-      <c r="E512" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="2" t="n">
-        <v>512</v>
-      </c>
-      <c r="B513" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C513" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="D513" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.4</t>
-        </is>
-      </c>
-      <c r="E513" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="2" t="n">
-        <v>513</v>
-      </c>
-      <c r="B514" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C514" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D514" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.5</t>
-        </is>
-      </c>
-      <c r="E514" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="2" t="n">
-        <v>514</v>
-      </c>
-      <c r="B515" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C515" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D515" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.6</t>
-        </is>
-      </c>
-      <c r="E515" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="2" t="n">
-        <v>515</v>
-      </c>
-      <c r="B516" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C516" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
-        </is>
-      </c>
-      <c r="D516" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.7</t>
-        </is>
-      </c>
-      <c r="E516" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="B517" s="3" t="inlineStr">
-        <is>
-          <t>Device Attestation</t>
-        </is>
-      </c>
-      <c r="C517" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
-        </is>
-      </c>
-      <c r="D517" s="3" t="inlineStr">
-        <is>
-          <t>TC-DA-1.8</t>
-        </is>
-      </c>
-      <c r="E517" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="2" t="n">
-        <v>517</v>
-      </c>
-      <c r="B518" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C518" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D518" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-1.1</t>
-        </is>
-      </c>
-      <c r="E518" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="2" t="n">
-        <v>518</v>
-      </c>
-      <c r="B519" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C519" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D519" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-1.2</t>
-        </is>
-      </c>
-      <c r="E519" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="2" t="n">
-        <v>519</v>
-      </c>
-      <c r="B520" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C520" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D520" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-2.1</t>
-        </is>
-      </c>
-      <c r="E520" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="2" t="n">
-        <v>520</v>
-      </c>
-      <c r="B521" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C521" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D521" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-2.2</t>
-        </is>
-      </c>
-      <c r="E521" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="2" t="n">
-        <v>521</v>
-      </c>
-      <c r="B522" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C522" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D522" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-3.1</t>
-        </is>
-      </c>
-      <c r="E522" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="2" t="n">
-        <v>522</v>
-      </c>
-      <c r="B523" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C523" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D523" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-3.2</t>
-        </is>
-      </c>
-      <c r="E523" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="2" t="n">
-        <v>523</v>
-      </c>
-      <c r="B524" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C524" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D524" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.1</t>
-        </is>
-      </c>
-      <c r="E524" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="2" t="n">
-        <v>524</v>
-      </c>
-      <c r="B525" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C525" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D525" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.2</t>
-        </is>
-      </c>
-      <c r="E525" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="2" t="n">
-        <v>525</v>
-      </c>
-      <c r="B526" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C526" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D526" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.3</t>
-        </is>
-      </c>
-      <c r="E526" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="B527" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C527" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D527" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-4.4</t>
-        </is>
-      </c>
-      <c r="E527" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="2" t="n">
-        <v>527</v>
-      </c>
-      <c r="B528" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C528" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D528" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-5.1</t>
-        </is>
-      </c>
-      <c r="E528" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="2" t="n">
-        <v>528</v>
-      </c>
-      <c r="B529" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C529" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
-        </is>
-      </c>
-      <c r="D529" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-5.2</t>
-        </is>
-      </c>
-      <c r="E529" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="2" t="n">
-        <v>529</v>
-      </c>
-      <c r="B530" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C530" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D530" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.1</t>
-        </is>
-      </c>
-      <c r="E530" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="2" t="n">
-        <v>530</v>
-      </c>
-      <c r="B531" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C531" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D531" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.2</t>
-        </is>
-      </c>
-      <c r="E531" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="2" t="n">
-        <v>531</v>
-      </c>
-      <c r="B532" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C532" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D532" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.3</t>
-        </is>
-      </c>
-      <c r="E532" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="2" t="n">
-        <v>532</v>
-      </c>
-      <c r="B533" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C533" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
-        </is>
-      </c>
-      <c r="D533" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-6.4</t>
-        </is>
-      </c>
-      <c r="E533" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="2" t="n">
-        <v>533</v>
-      </c>
-      <c r="B534" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C534" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D534" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-7.1</t>
-        </is>
-      </c>
-      <c r="E534" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="B535" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C535" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D535" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-8.1</t>
-        </is>
-      </c>
-      <c r="E535" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="2" t="n">
-        <v>535</v>
-      </c>
-      <c r="B536" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C536" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
-        </is>
-      </c>
-      <c r="D536" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-9.1</t>
-        </is>
-      </c>
-      <c r="E536" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="2" t="n">
-        <v>536</v>
-      </c>
-      <c r="B537" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C537" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D537" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-10.1</t>
-        </is>
-      </c>
-      <c r="E537" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="2" t="n">
-        <v>537</v>
-      </c>
-      <c r="B538" s="3" t="inlineStr">
-        <is>
-          <t>Interaction Data Model</t>
-        </is>
-      </c>
-      <c r="C538" s="3" t="inlineStr">
-        <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
-        </is>
-      </c>
-      <c r="D538" s="3" t="inlineStr">
-        <is>
-          <t>TC-IDM-11.1</t>
-        </is>
-      </c>
-      <c r="E538" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="2" t="n">
-        <v>538</v>
-      </c>
-      <c r="B539" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C539" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D539" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.1</t>
-        </is>
-      </c>
-      <c r="E539" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="B540" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C540" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D540" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.2</t>
-        </is>
-      </c>
-      <c r="E540" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="2" t="n">
-        <v>540</v>
-      </c>
-      <c r="B541" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C541" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D541" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.3</t>
-        </is>
-      </c>
-      <c r="E541" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="2" t="n">
-        <v>541</v>
-      </c>
-      <c r="B542" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C542" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D542" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.4</t>
-        </is>
-      </c>
-      <c r="E542" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="2" t="n">
-        <v>542</v>
-      </c>
-      <c r="B543" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C543" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D543" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.5</t>
-        </is>
-      </c>
-      <c r="E543" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="B544" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C544" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D544" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.6</t>
-        </is>
-      </c>
-      <c r="E544" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="2" t="n">
-        <v>544</v>
-      </c>
-      <c r="B545" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C545" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D545" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.7</t>
-        </is>
-      </c>
-      <c r="E545" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="2" t="n">
-        <v>545</v>
-      </c>
-      <c r="B546" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C546" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D546" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.8</t>
-        </is>
-      </c>
-      <c r="E546" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="2" t="n">
-        <v>546</v>
-      </c>
-      <c r="B547" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C547" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D547" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.9</t>
-        </is>
-      </c>
-      <c r="E547" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="2" t="n">
-        <v>547</v>
-      </c>
-      <c r="B548" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C548" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D548" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.10</t>
-        </is>
-      </c>
-      <c r="E548" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="2" t="n">
-        <v>548</v>
-      </c>
-      <c r="B549" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C549" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D549" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.11</t>
-        </is>
-      </c>
-      <c r="E549" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="2" t="n">
-        <v>549</v>
-      </c>
-      <c r="B550" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C550" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D550" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.12</t>
-        </is>
-      </c>
-      <c r="E550" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="B551" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C551" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D551" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.13</t>
-        </is>
-      </c>
-      <c r="E551" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="2" t="n">
-        <v>551</v>
-      </c>
-      <c r="B552" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C552" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D552" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.14</t>
-        </is>
-      </c>
-      <c r="E552" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="2" t="n">
-        <v>552</v>
-      </c>
-      <c r="B553" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C553" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D553" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.15</t>
-        </is>
-      </c>
-      <c r="E553" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="2" t="n">
-        <v>553</v>
-      </c>
-      <c r="B554" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C554" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D554" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.16</t>
-        </is>
-      </c>
-      <c r="E554" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="2" t="n">
-        <v>554</v>
-      </c>
-      <c r="B555" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C555" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D555" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.17</t>
-        </is>
-      </c>
-      <c r="E555" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="2" t="n">
-        <v>555</v>
-      </c>
-      <c r="B556" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C556" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
-        </is>
-      </c>
-      <c r="D556" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.18</t>
-        </is>
-      </c>
-      <c r="E556" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="2" t="n">
-        <v>556</v>
-      </c>
-      <c r="B557" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C557" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D557" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.19</t>
-        </is>
-      </c>
-      <c r="E557" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="2" t="n">
-        <v>557</v>
-      </c>
-      <c r="B558" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C558" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D558" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.20</t>
-        </is>
-      </c>
-      <c r="E558" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="2" t="n">
-        <v>558</v>
-      </c>
-      <c r="B559" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C559" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D559" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.21</t>
-        </is>
-      </c>
-      <c r="E559" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="2" t="n">
-        <v>559</v>
-      </c>
-      <c r="B560" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C560" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D560" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.22</t>
-        </is>
-      </c>
-      <c r="E560" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="2" t="n">
-        <v>560</v>
-      </c>
-      <c r="B561" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C561" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D561" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.23</t>
-        </is>
-      </c>
-      <c r="E561" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="2" t="n">
-        <v>561</v>
-      </c>
-      <c r="B562" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C562" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D562" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.24</t>
-        </is>
-      </c>
-      <c r="E562" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="2" t="n">
-        <v>562</v>
-      </c>
-      <c r="B563" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C563" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D563" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.25</t>
-        </is>
-      </c>
-      <c r="E563" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="2" t="n">
-        <v>563</v>
-      </c>
-      <c r="B564" s="3" t="inlineStr">
-        <is>
-          <t>Administrator Commissioning</t>
-        </is>
-      </c>
-      <c r="C564" s="3" t="inlineStr">
-        <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
-        </is>
-      </c>
-      <c r="D564" s="3" t="inlineStr">
-        <is>
-          <t>TC-CADMIN-1.26</t>
-        </is>
-      </c>
-      <c r="E564" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="2" t="n">
-        <v>564</v>
-      </c>
-      <c r="B565" s="3" t="inlineStr">
-        <is>
-          <t>Bridge</t>
-        </is>
-      </c>
-      <c r="C565" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
-        </is>
-      </c>
-      <c r="D565" s="3" t="inlineStr">
-        <is>
-          <t>TC-BR-1</t>
-        </is>
-      </c>
-      <c r="E565" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="2" t="n">
-        <v>565</v>
-      </c>
-      <c r="B566" s="3" t="inlineStr">
-        <is>
-          <t>Bridge</t>
-        </is>
-      </c>
-      <c r="C566" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
-        </is>
-      </c>
-      <c r="D566" s="3" t="inlineStr">
-        <is>
-          <t>TC-BR-2</t>
-        </is>
-      </c>
-      <c r="E566" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="2" t="n">
-        <v>566</v>
-      </c>
-      <c r="B567" s="3" t="inlineStr">
-        <is>
-          <t>Bridge</t>
-        </is>
-      </c>
-      <c r="C567" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
-        </is>
-      </c>
-      <c r="D567" s="3" t="inlineStr">
-        <is>
-          <t>TC-BR-3</t>
-        </is>
-      </c>
-      <c r="E567" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="2" t="n">
-        <v>567</v>
-      </c>
-      <c r="B568" s="3" t="inlineStr">
-        <is>
-          <t>Bridge</t>
-        </is>
-      </c>
-      <c r="C568" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
-        </is>
-      </c>
-      <c r="D568" s="3" t="inlineStr">
-        <is>
-          <t>TC-BR-4</t>
-        </is>
-      </c>
-      <c r="E568" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="2" t="n">
-        <v>568</v>
-      </c>
-      <c r="B569" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C569" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
-        </is>
-      </c>
-      <c r="D569" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.1</t>
-        </is>
-      </c>
-      <c r="E569" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="2" t="n">
-        <v>569</v>
-      </c>
-      <c r="B570" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C570" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
-        </is>
-      </c>
-      <c r="D570" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.2</t>
-        </is>
-      </c>
-      <c r="E570" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="2" t="n">
-        <v>570</v>
-      </c>
-      <c r="B571" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C571" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
-        </is>
-      </c>
-      <c r="D571" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.3</t>
-        </is>
-      </c>
-      <c r="E571" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="B572" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C572" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
-        </is>
-      </c>
-      <c r="D572" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.4</t>
-        </is>
-      </c>
-      <c r="E572" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="2" t="n">
-        <v>572</v>
-      </c>
-      <c r="B573" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C573" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
-        </is>
-      </c>
-      <c r="D573" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.5</t>
-        </is>
-      </c>
-      <c r="E573" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="B574" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C574" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
-        </is>
-      </c>
-      <c r="D574" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-1.6</t>
-        </is>
-      </c>
-      <c r="E574" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="2" t="n">
-        <v>574</v>
-      </c>
-      <c r="B575" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C575" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.1] Synchronous File Sending</t>
-        </is>
-      </c>
-      <c r="D575" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.1</t>
-        </is>
-      </c>
-      <c r="E575" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="B576" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C576" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
-        </is>
-      </c>
-      <c r="D576" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.2</t>
-        </is>
-      </c>
-      <c r="E576" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="2" t="n">
-        <v>576</v>
-      </c>
-      <c r="B577" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C577" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="D577" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.3</t>
-        </is>
-      </c>
-      <c r="E577" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="2" t="n">
-        <v>577</v>
-      </c>
-      <c r="B578" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C578" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
-        </is>
-      </c>
-      <c r="D578" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.4</t>
-        </is>
-      </c>
-      <c r="E578" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="2" t="n">
-        <v>578</v>
-      </c>
-      <c r="B579" s="3" t="inlineStr">
-        <is>
-          <t>Bulk Data Exchange Protocol</t>
-        </is>
-      </c>
-      <c r="C579" s="3" t="inlineStr">
-        <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
-        </is>
-      </c>
-      <c r="D579" s="3" t="inlineStr">
-        <is>
-          <t>TC-BDX-2.5</t>
-        </is>
-      </c>
-      <c r="E579" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="2" t="n">
-        <v>579</v>
-      </c>
-      <c r="B580" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C580" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
-        </is>
-      </c>
-      <c r="D580" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-1.1</t>
-        </is>
-      </c>
-      <c r="E580" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="2" t="n">
-        <v>580</v>
-      </c>
-      <c r="B581" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C581" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
-        </is>
-      </c>
-      <c r="D581" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.1</t>
-        </is>
-      </c>
-      <c r="E581" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="2" t="n">
-        <v>581</v>
-      </c>
-      <c r="B582" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C582" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
-        </is>
-      </c>
-      <c r="D582" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.2</t>
-        </is>
-      </c>
-      <c r="E582" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="2" t="n">
-        <v>582</v>
-      </c>
-      <c r="B583" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C583" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
-        </is>
-      </c>
-      <c r="D583" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.3</t>
-        </is>
-      </c>
-      <c r="E583" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="2" t="n">
-        <v>583</v>
-      </c>
-      <c r="B584" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C584" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
-        </is>
-      </c>
-      <c r="D584" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.4</t>
-        </is>
-      </c>
-      <c r="E584" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="2" t="n">
-        <v>584</v>
-      </c>
-      <c r="B585" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C585" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
-        </is>
-      </c>
-      <c r="D585" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.5</t>
-        </is>
-      </c>
-      <c r="E585" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="2" t="n">
-        <v>585</v>
-      </c>
-      <c r="B586" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C586" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
-        </is>
-      </c>
-      <c r="D586" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.6</t>
-        </is>
-      </c>
-      <c r="E586" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="B587" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C587" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
-        </is>
-      </c>
-      <c r="D587" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.7</t>
-        </is>
-      </c>
-      <c r="E587" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="2" t="n">
-        <v>587</v>
-      </c>
-      <c r="B588" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C588" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
-        </is>
-      </c>
-      <c r="D588" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-2.8</t>
-        </is>
-      </c>
-      <c r="E588" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="B589" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C589" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
-        </is>
-      </c>
-      <c r="D589" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-3.1</t>
-        </is>
-      </c>
-      <c r="E589" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="2" t="n">
-        <v>589</v>
-      </c>
-      <c r="B590" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C590" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
-        </is>
-      </c>
-      <c r="D590" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-3.2</t>
-        </is>
-      </c>
-      <c r="E590" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="B591" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C591" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
-        </is>
-      </c>
-      <c r="D591" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-3.3</t>
-        </is>
-      </c>
-      <c r="E591" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="2" t="n">
-        <v>591</v>
-      </c>
-      <c r="B592" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C592" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
-        </is>
-      </c>
-      <c r="D592" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-3.4</t>
-        </is>
-      </c>
-      <c r="E592" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="2" t="n">
-        <v>592</v>
-      </c>
-      <c r="B593" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C593" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
-        </is>
-      </c>
-      <c r="D593" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-4.1</t>
-        </is>
-      </c>
-      <c r="E593" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="2" t="n">
-        <v>593</v>
-      </c>
-      <c r="B594" s="3" t="inlineStr">
-        <is>
-          <t>OTA Software Update</t>
-        </is>
-      </c>
-      <c r="C594" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
-        </is>
-      </c>
-      <c r="D594" s="3" t="inlineStr">
-        <is>
-          <t>TC-SU-4.2</t>
-        </is>
-      </c>
-      <c r="E594" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="2" t="n">
-        <v>594</v>
-      </c>
-      <c r="B595" s="3" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C595" s="3" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.1] Privileges</t>
-        </is>
-      </c>
-      <c r="D595" s="3" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.1</t>
-        </is>
-      </c>
-      <c r="E595" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="B596" s="3" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C596" s="3" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.2] Subscriptions</t>
-        </is>
-      </c>
-      <c r="D596" s="3" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.2</t>
-        </is>
-      </c>
-      <c r="E596" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="2" t="n">
-        <v>596</v>
-      </c>
-      <c r="B597" s="3" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C597" s="3" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.3] Subjects</t>
-        </is>
-      </c>
-      <c r="D597" s="3" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.3</t>
-        </is>
-      </c>
-      <c r="E597" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="2" t="n">
-        <v>597</v>
-      </c>
-      <c r="B598" s="3" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C598" s="3" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.4] Targets</t>
-        </is>
-      </c>
-      <c r="D598" s="3" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.4</t>
-        </is>
-      </c>
-      <c r="E598" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="2" t="n">
-        <v>598</v>
-      </c>
-      <c r="B599" s="3" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C599" s="3" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.5] Multi-fabric</t>
-        </is>
-      </c>
-      <c r="D599" s="3" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.5</t>
-        </is>
-      </c>
-      <c r="E599" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="B600" s="3" t="inlineStr">
-        <is>
-          <t>Access Control Enforcement</t>
-        </is>
-      </c>
-      <c r="C600" s="3" t="inlineStr">
-        <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
-        </is>
-      </c>
-      <c r="D600" s="3" t="inlineStr">
-        <is>
-          <t>TC-ACE-1.6</t>
-        </is>
-      </c>
-      <c r="E600" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="B601" s="3" t="inlineStr">
-        <is>
-          <t>Minimal Resource Requirements</t>
-        </is>
-      </c>
-      <c r="C601" s="3" t="inlineStr">
-        <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
-        </is>
-      </c>
-      <c r="D601" s="3" t="inlineStr">
-        <is>
-          <t>TC-RR-1.1</t>
-        </is>
-      </c>
-      <c r="E601" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="2" t="n">
-        <v>601</v>
-      </c>
-      <c r="B602" s="3" t="inlineStr">
-        <is>
-          <t>System Model</t>
-        </is>
-      </c>
-      <c r="C602" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D602" s="3" t="inlineStr">
-        <is>
-          <t>TC-SM-1.1</t>
-        </is>
-      </c>
-      <c r="E602" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="2" t="n">
-        <v>602</v>
-      </c>
-      <c r="B603" s="3" t="inlineStr">
-        <is>
-          <t>System Model</t>
-        </is>
-      </c>
-      <c r="C603" s="3" t="inlineStr">
-        <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D603" s="3" t="inlineStr">
-        <is>
-          <t>TC-SM-1.2</t>
-        </is>
-      </c>
-      <c r="E603" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="2" t="n">
-        <v>603</v>
-      </c>
-      <c r="B604" s="3" t="inlineStr">
-        <is>
-          <t>Device Types</t>
-        </is>
-      </c>
-      <c r="C604" s="3" t="inlineStr">
-        <is>
-          <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
-        </is>
-      </c>
-      <c r="D604" s="3" t="inlineStr">
-        <is>
-          <t>TC-DT-1.1</t>
-        </is>
-      </c>
-      <c r="E604" s="2" t="inlineStr">
-        <is>
-          <t>Core Test Case</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15558,7 +10708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16142,6 +11292,38 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-10-05 16:27:53</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15558,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F622"/>
+  <dimension ref="A1:F623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35470,6 +35470,22 @@
         </is>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2023-10-05 16:57:19</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F635"/>
+  <dimension ref="A1:F636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15569,9 +15569,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -35495,7 +35495,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" t="inlineStr">
+      <c r="A624" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35515,19 +35515,19 @@
           <t>TC-PS-1.1</t>
         </is>
       </c>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F624" t="inlineStr">
+      <c r="E624" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F624" s="4" t="inlineStr">
         <is>
           <t>ADDED</t>
         </is>
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="inlineStr">
+      <c r="A625" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35547,19 +35547,19 @@
           <t>TC-SWTCH-1.1</t>
         </is>
       </c>
-      <c r="E625" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F625" t="inlineStr">
+      <c r="E625" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F625" s="4" t="inlineStr">
         <is>
           <t>ADDED</t>
         </is>
       </c>
     </row>
     <row r="626">
-      <c r="A626" t="inlineStr">
+      <c r="A626" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35579,19 +35579,19 @@
           <t>TC-ACT-1.1</t>
         </is>
       </c>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F626" t="inlineStr">
+      <c r="E626" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F626" s="4" t="inlineStr">
         <is>
           <t>ADDED</t>
         </is>
       </c>
     </row>
     <row r="627">
-      <c r="A627" t="inlineStr">
+      <c r="A627" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35611,19 +35611,19 @@
           <t>TC-LUNIT-1.2</t>
         </is>
       </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
+      <c r="E627" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F627" s="4" t="inlineStr">
         <is>
           <t>ADDED</t>
         </is>
       </c>
     </row>
     <row r="628">
-      <c r="A628" t="inlineStr">
+      <c r="A628" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35643,19 +35643,19 @@
           <t>TC-LTIME-1.2</t>
         </is>
       </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
+      <c r="E628" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F628" s="4" t="inlineStr">
         <is>
           <t>ADDED</t>
         </is>
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="inlineStr">
+      <c r="A629" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35675,19 +35675,19 @@
           <t>TC-WASHERCTRL-1.1</t>
         </is>
       </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
+      <c r="E629" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F629" s="4" t="inlineStr">
         <is>
           <t>ADDED</t>
         </is>
       </c>
     </row>
     <row r="630">
-      <c r="A630" t="inlineStr">
+      <c r="A630" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35707,19 +35707,19 @@
           <t>TC-PS-1.1</t>
         </is>
       </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
+      <c r="E630" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F630" s="4" t="inlineStr">
         <is>
           <t>REMOVED</t>
         </is>
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr">
+      <c r="A631" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35739,19 +35739,19 @@
           <t>TC-SWTCH-1.1</t>
         </is>
       </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
+      <c r="E631" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F631" s="4" t="inlineStr">
         <is>
           <t>REMOVED</t>
         </is>
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr">
+      <c r="A632" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35771,19 +35771,19 @@
           <t>TC-ACT-1.1</t>
         </is>
       </c>
-      <c r="E632" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F632" t="inlineStr">
+      <c r="E632" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F632" s="4" t="inlineStr">
         <is>
           <t>REMOVED</t>
         </is>
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr">
+      <c r="A633" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35803,19 +35803,19 @@
           <t>TC-LUNIT-1.2</t>
         </is>
       </c>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F633" t="inlineStr">
+      <c r="E633" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F633" s="4" t="inlineStr">
         <is>
           <t>REMOVED</t>
         </is>
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr">
+      <c r="A634" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35835,19 +35835,19 @@
           <t>TC-LTIME-1.2</t>
         </is>
       </c>
-      <c r="E634" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F634" t="inlineStr">
+      <c r="E634" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F634" s="4" t="inlineStr">
         <is>
           <t>REMOVED</t>
         </is>
       </c>
     </row>
     <row r="635">
-      <c r="A635" t="inlineStr">
+      <c r="A635" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 10:23:12</t>
         </is>
@@ -35867,14 +35867,46 @@
           <t>TC-WASHERCTRL-1.1</t>
         </is>
       </c>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>App Test Case</t>
-        </is>
-      </c>
-      <c r="F635" t="inlineStr">
+      <c r="E635" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F635" s="4" t="inlineStr">
         <is>
           <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2023-10-06 12:45:16</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
         </is>
       </c>
     </row>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F636"/>
+  <dimension ref="A1:F637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35879,7 +35879,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" t="inlineStr">
+      <c r="A636" s="4" t="inlineStr">
         <is>
           <t>2023-10-06 12:45:16</t>
         </is>
@@ -35899,12 +35899,44 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E636" t="inlineStr">
+      <c r="E636" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F636" t="inlineStr">
+      <c r="F636" s="4" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 13:19:59</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E637" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F637" s="4" t="inlineStr">
         <is>
           <t>NO CHANGE</t>
         </is>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F637"/>
+  <dimension ref="A1:F638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15569,7 +15569,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="80" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
@@ -35942,6 +35942,38 @@
         </is>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:09:50</t>
+        </is>
+      </c>
+      <c r="B638" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C638" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D638" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E638" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F638" s="4" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F638"/>
+  <dimension ref="A1:F639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35974,6 +35974,38 @@
         </is>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:15:46</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>[TC-OO-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>TC-OO-1.1</t>
+        </is>
+      </c>
+      <c r="E639" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F639" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F639"/>
+  <dimension ref="A1:F642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36006,6 +36006,102 @@
         </is>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:20:35</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>[TC-OO-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>TC-OO-1.1</t>
+        </is>
+      </c>
+      <c r="E640" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F640" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:20:35</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>[TC-OO-2.1] Attributes with server as DUT</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>TC-OO-2.1</t>
+        </is>
+      </c>
+      <c r="E641" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F641" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:20:35</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>[TC-OO-2.2] Primary functionality with server as DUT</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>TC-OO-2.2</t>
+        </is>
+      </c>
+      <c r="E642" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F642" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F642"/>
+  <dimension ref="A1:F643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36102,6 +36102,38 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:28:35</t>
+        </is>
+      </c>
+      <c r="B643" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C643" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D643" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E643" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F643" s="4" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F644"/>
+  <dimension ref="A1:F645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36169,6 +36169,38 @@
         </is>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-06 15:56:29</t>
+        </is>
+      </c>
+      <c r="B645" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C645" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D645" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E645" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F645" s="3" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F645"/>
+  <dimension ref="A1:F646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36201,6 +36201,38 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:01:57</t>
+        </is>
+      </c>
+      <c r="B646" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C646" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D646" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E646" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F646" s="3" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F647"/>
+  <dimension ref="A1:F648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36265,6 +36265,38 @@
         </is>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-06 16:38:31</t>
+        </is>
+      </c>
+      <c r="B648" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C648" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D648" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E648" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F648" s="2" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F648"/>
+  <dimension ref="A1:F649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36297,6 +36297,38 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-09 12:05:02</t>
+        </is>
+      </c>
+      <c r="B649" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C649" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E649" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F649" s="2" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F649"/>
+  <dimension ref="A1:F650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36329,6 +36329,38 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-12 05:16:57</t>
+        </is>
+      </c>
+      <c r="B650" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C650" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D650" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E650" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F650" s="2" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -15561,7 +15561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F650"/>
+  <dimension ref="A1:F651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36361,6 +36361,38 @@
         </is>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="2" t="inlineStr">
+        <is>
+          <t>2023-10-17 06:52:37</t>
+        </is>
+      </c>
+      <c r="B651" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C651" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D651" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E651" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F651" s="2" t="inlineStr">
+        <is>
+          <t>NO CHANGE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Docs/TC_Summary.xlsx
+++ b/Docs/TC_Summary.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E604"/>
+  <dimension ref="A1:E605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>[TC-TSTAT-1.1] Global attributes with server as DUT</t>
+          <t>[TC-TSTAT-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t>[TC-I-1.1] Global Attributes with Server as DUT</t>
+          <t>[TC-I-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D182" s="3" t="inlineStr">
@@ -6331,17 +6331,17 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>General Commissioning</t>
+          <t>General Diagnostics</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-DGGEN-3.1] Matter Specification 1.2 errata [DUT as Server]</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>TC-CGEN-1.1</t>
+          <t>TC-DGGEN-3.1</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr">
@@ -6361,12 +6361,12 @@
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.1] Breadcrumb, BasicCommissioningInfo, RegulatoryConfig, LocationCapability and SupportsConcurrentConnection attributes [DUT as Server]</t>
+          <t>[TC-CGEN-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
         <is>
-          <t>TC-CGEN-2.1</t>
+          <t>TC-CGEN-1.1</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr">
@@ -6386,12 +6386,12 @@
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.2] ArmFailSafe command verification [DUT as Server]</t>
+          <t>[TC-CGEN-2.1] Breadcrumb, BasicCommissioningInfo, RegulatoryConfig, LocationCapability and SupportsConcurrentConnection attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
         <is>
-          <t>TC-CGEN-2.2</t>
+          <t>TC-CGEN-2.1</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -6411,12 +6411,12 @@
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
+          <t>[TC-CGEN-2.2] ArmFailSafe command verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>TC-CGEN-2.4</t>
+          <t>TC-CGEN-2.2</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -6431,17 +6431,17 @@
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>User Label</t>
+          <t>General Commissioning</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-CGEN-2.4] Verification For CommissioningError on response message [DUT as Server]</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>TC-ULABEL-1.1</t>
+          <t>TC-CGEN-2.4</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
@@ -6461,12 +6461,12 @@
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.1] User label cluster read verification [DUT-server]</t>
+          <t>[TC-ULABEL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
         <is>
-          <t>TC-ULABEL-2.1</t>
+          <t>TC-ULABEL-1.1</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.2] User Label cluster write verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.1] User label cluster read verification [DUT-server]</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>TC-ULABEL-2.2</t>
+          <t>TC-ULABEL-2.1</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.3] User Label cluster constraint_error verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.2] User Label cluster write verification [DUT-server]</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t>TC-ULABEL-2.3</t>
+          <t>TC-ULABEL-2.2</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
+          <t>[TC-ULABEL-2.3] User Label cluster constraint_error verification [DUT-server]</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>TC-ULABEL-2.4</t>
+          <t>TC-ULABEL-2.3</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -6556,17 +6556,17 @@
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>Fixed Label</t>
+          <t>User Label</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-ULABEL-2.4] User Label cluster empty entry verification [DUT-server]</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t>TC-FLABEL-1.1</t>
+          <t>TC-ULABEL-2.4</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
+          <t>[TC-FLABEL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>TC-FLABEL-2.1</t>
+          <t>TC-FLABEL-1.1</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr">
@@ -6606,17 +6606,17 @@
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>Localization Configuration</t>
+          <t>Fixed Label</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>[TC-LCFG-1.1] Global Attributes [DUT-Server]</t>
+          <t>[TC-FLABEL-2.1] Fixed Label cluster [DUT-server]</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>TC-LCFG-1.1</t>
+          <t>TC-FLABEL-2.1</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr">
@@ -6636,12 +6636,12 @@
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
+          <t>[TC-LCFG-1.1] Global Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>TC-LCFG-2.1</t>
+          <t>TC-LCFG-1.1</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr">
@@ -6656,17 +6656,17 @@
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>Unit Localization</t>
+          <t>Localization Configuration</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-1.2] Global Attributes with DUT as Server</t>
+          <t>[TC-LCFG-2.1] Localization Configuration Cluster Attributes[DUT-Server]</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
         <is>
-          <t>TC-LUNIT-1.2</t>
+          <t>TC-LCFG-2.1</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr">
@@ -6686,12 +6686,12 @@
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LUNIT-1.2] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>TC-LUNIT-3.1</t>
+          <t>TC-LUNIT-1.2</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr">
@@ -6706,17 +6706,17 @@
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>Time Format Localization</t>
+          <t>Unit Localization</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>[TC-LTIME-1.2] Global Attributes with DUT as Server</t>
+          <t>[TC-LUNIT-3.1] Read and Write Unit Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>TC-LTIME-1.2</t>
+          <t>TC-LUNIT-3.1</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
+          <t>[TC-LTIME-1.2] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>TC-LTIME-3.1</t>
+          <t>TC-LTIME-1.2</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr">
@@ -6756,17 +6756,17 @@
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>Door lock</t>
+          <t>Time Format Localization</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-LTIME-3.1] Read and Write Time Format Localization Cluster Attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-1.1</t>
+          <t>TC-LTIME-3.1</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.1] Attributes check [DUT - Server]</t>
+          <t>[TC-DRLK-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.1</t>
+          <t>TC-DRLK-1.1</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.2] Verification for Door lock command[DUT-Server]</t>
+          <t>[TC-DRLK-2.1] Attributes check [DUT - Server]</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.2</t>
+          <t>TC-DRLK-2.1</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.3] Verification for Unlock Door command [DUT-Server]</t>
+          <t>[TC-DRLK-2.2] Verification for Door lock command[DUT-Server]</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.3</t>
+          <t>TC-DRLK-2.2</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.4] Verification for Unlock with Timeout command [DUT-Server]</t>
+          <t>[TC-DRLK-2.3] Verification for Unlock Door command [DUT-Server]</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.4</t>
+          <t>TC-DRLK-2.3</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr">
@@ -6886,12 +6886,12 @@
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.5] Verification for the following Commands - Set Week Day Schedule, Get Week Day Schedule , Get Week Day Schedule Response, Clear Week Day Schedule [DUT-Server]</t>
+          <t>[TC-DRLK-2.4] Verification for Unlock with Timeout command [DUT-Server]</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.5</t>
+          <t>TC-DRLK-2.4</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr">
@@ -6911,12 +6911,12 @@
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.6] Verification for the following Commands - Set Holiday Schedule, Get Holiday Schedule, Get Holiday Schedule Response , Clear Holiday Schedule [DUT-Server]</t>
+          <t>[TC-DRLK-2.5] Verification for the following Commands - Set Week Day Schedule, Get Week Day Schedule , Get Week Day Schedule Response, Clear Week Day Schedule [DUT-Server]</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.6</t>
+          <t>TC-DRLK-2.5</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.7] Verification for the following Commands - Set Year Schedule, Get Year Schedule, Get Year Day Schedule Response and  Clear Year Day Schedule[DUT-Server]</t>
+          <t>[TC-DRLK-2.6] Verification for the following Commands - Set Holiday Schedule, Get Holiday Schedule, Get Holiday Schedule Response , Clear Holiday Schedule [DUT-Server]</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.7</t>
+          <t>TC-DRLK-2.6</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.8] Verification for the following Commands - Set User, Get User, Get User Response,  Clear User [DUT-Server]</t>
+          <t>[TC-DRLK-2.7] Verification for the following Commands - Set Year Schedule, Get Year Schedule, Get Year Day Schedule Response and  Clear Year Day Schedule[DUT-Server]</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.8</t>
+          <t>TC-DRLK-2.7</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
@@ -6986,12 +6986,12 @@
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.9] Verification for the following Commands - Set Credential , Set Credential Response, Get Credential Status,  Get Credential Status Response, Clear Credential [DUT-Server]</t>
+          <t>[TC-DRLK-2.8] Verification for the following Commands - Set User, Get User, Get User Response,  Clear User [DUT-Server]</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.9</t>
+          <t>TC-DRLK-2.8</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -7011,12 +7011,12 @@
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.10] Verification for the Door Lock Events [DUT-Server]</t>
+          <t>[TC-DRLK-2.9] Verification for the following Commands - Set Credential , Set Credential Response, Get Credential Status,  Get Credential Status Response, Clear Credential [DUT-Server]</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.10</t>
+          <t>TC-DRLK-2.9</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.11] Verification for multiple credential types [DUT-Server]</t>
+          <t>[TC-DRLK-2.10] Verification for the Door Lock Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.11</t>
+          <t>TC-DRLK-2.10</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr">
@@ -7061,12 +7061,12 @@
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-2.12] Verification for Unbolt Door command [DUT-Server]</t>
+          <t>[TC-DRLK-2.11] Verification for multiple credential types [DUT-Server]</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-2.12</t>
+          <t>TC-DRLK-2.11</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr">
@@ -7086,12 +7086,12 @@
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
+          <t>[TC-DRLK-2.12] Verification for Unbolt Door command [DUT-Server]</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
         <is>
-          <t>TC-DRLK-3.2</t>
+          <t>TC-DRLK-2.12</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
@@ -7106,17 +7106,17 @@
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>Binding</t>
+          <t>Door lock</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DRLK-3.2] Commands [DUT - Client]</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
         <is>
-          <t>TC-BIND-1.1</t>
+          <t>TC-DRLK-3.2</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.1] Binding Cluster Attributes-Node [DUT-Controller]</t>
+          <t>[TC-BIND-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
         <is>
-          <t>TC-BIND-2.1</t>
+          <t>TC-BIND-1.1</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.2] Binding Cluster Attributes-DUT handles its Groups settings [DUT-Controller]</t>
+          <t>[TC-BIND-2.1] Binding Cluster Attributes-Node [DUT-Controller]</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
         <is>
-          <t>TC-BIND-2.2</t>
+          <t>TC-BIND-2.1</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr">
@@ -7186,12 +7186,12 @@
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
+          <t>[TC-BIND-2.2] Binding Cluster Attributes-DUT handles its Groups settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t>TC-BIND-2.3</t>
+          <t>TC-BIND-2.2</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr">
@@ -7206,17 +7206,17 @@
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>Groups</t>
+          <t>Binding</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-BIND-2.3] Binding Cluster Attributes-TH1 enables DUT to handle its Group settings [DUT-Controller]</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
         <is>
-          <t>TC-G-1.1</t>
+          <t>TC-BIND-2.3</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr">
@@ -7236,12 +7236,12 @@
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-G-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t>TC-G-2.1</t>
+          <t>TC-G-1.1</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr">
@@ -7261,12 +7261,12 @@
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.2] Commands - AddGroup, ViewGroup, RemoveGroup, RemoveAllGroups [DUT-Server]</t>
+          <t>[TC-G-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
         <is>
-          <t>TC-G-2.2</t>
+          <t>TC-G-2.1</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr">
@@ -7286,12 +7286,12 @@
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.3] Commands - GetGroupMembership, AddGroupIfIdentifying [DUT-Server]</t>
+          <t>[TC-G-2.2] Commands - AddGroup, ViewGroup, RemoveGroup, RemoveAllGroups [DUT-Server]</t>
         </is>
       </c>
       <c r="D274" s="3" t="inlineStr">
         <is>
-          <t>TC-G-2.3</t>
+          <t>TC-G-2.2</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-2.4] Commands - AddGroup Command with same GroupID on Multiple Endpoint [DUT-Server]</t>
+          <t>[TC-G-2.3] Commands - GetGroupMembership, AddGroupIfIdentifying [DUT-Server]</t>
         </is>
       </c>
       <c r="D275" s="3" t="inlineStr">
         <is>
-          <t>TC-G-2.4</t>
+          <t>TC-G-2.3</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>[TC-G-3.2] Commands [DUT-Client]</t>
+          <t>[TC-G-2.4] Commands - AddGroup Command with same GroupID on Multiple Endpoint [DUT-Server]</t>
         </is>
       </c>
       <c r="D276" s="3" t="inlineStr">
         <is>
-          <t>TC-G-3.2</t>
+          <t>TC-G-2.4</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr">
@@ -7356,17 +7356,17 @@
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>Scenes</t>
+          <t>Groups</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-G-3.2] Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D277" s="3" t="inlineStr">
         <is>
-          <t>TC-S-1.1</t>
+          <t>TC-G-3.2</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr">
@@ -7386,12 +7386,12 @@
       </c>
       <c r="C278" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.1] Attributes with DUT as Server</t>
+          <t>[TC-S-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D278" s="3" t="inlineStr">
         <is>
-          <t>TC-S-2.1</t>
+          <t>TC-S-1.1</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr">
@@ -7411,12 +7411,12 @@
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-S-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
         <is>
-          <t>TC-S-2.2</t>
+          <t>TC-S-2.1</t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.3] Secondary functionality with DUT as Server</t>
+          <t>[TC-S-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D280" s="3" t="inlineStr">
         <is>
-          <t>TC-S-2.3</t>
+          <t>TC-S-2.2</t>
         </is>
       </c>
       <c r="E280" s="2" t="inlineStr">
@@ -7461,12 +7461,12 @@
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.4] Recall scene with transition time functionality with DUT as Server</t>
+          <t>[TC-S-2.3] Secondary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D281" s="3" t="inlineStr">
         <is>
-          <t>TC-S-2.4</t>
+          <t>TC-S-2.3</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr">
@@ -7486,12 +7486,12 @@
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.5] RemainingCapacity functionality with DUT as Server</t>
+          <t>[TC-S-2.4] Recall scene with transition time functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D282" s="3" t="inlineStr">
         <is>
-          <t>TC-S-2.5</t>
+          <t>TC-S-2.4</t>
         </is>
       </c>
       <c r="E282" s="2" t="inlineStr">
@@ -7511,12 +7511,12 @@
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
+          <t>[TC-S-2.5] RemainingCapacity functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D283" s="3" t="inlineStr">
         <is>
-          <t>TC-S-2.6</t>
+          <t>TC-S-2.5</t>
         </is>
       </c>
       <c r="E283" s="2" t="inlineStr">
@@ -7531,17 +7531,17 @@
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Scenes</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-S-2.6] RemainingCapacity functionality with DUT as Server - Multi-Fabric</t>
         </is>
       </c>
       <c r="D284" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-1.1</t>
+          <t>TC-S-2.6</t>
         </is>
       </c>
       <c r="E284" s="2" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="C285" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.1] Simple attributes</t>
+          <t>[TC-ACL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D285" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.1</t>
+          <t>TC-ACL-1.1</t>
         </is>
       </c>
       <c r="E285" s="2" t="inlineStr">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.2] Cluster endpoint</t>
+          <t>[TC-ACL-2.1] Simple attributes</t>
         </is>
       </c>
       <c r="D286" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.2</t>
+          <t>TC-ACL-2.1</t>
         </is>
       </c>
       <c r="E286" s="2" t="inlineStr">
@@ -7611,12 +7611,12 @@
       </c>
       <c r="C287" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.3] Extension attribute</t>
+          <t>[TC-ACL-2.2] Cluster endpoint</t>
         </is>
       </c>
       <c r="D287" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.3</t>
+          <t>TC-ACL-2.2</t>
         </is>
       </c>
       <c r="E287" s="2" t="inlineStr">
@@ -7636,12 +7636,12 @@
       </c>
       <c r="C288" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.4] ACL attribute</t>
+          <t>[TC-ACL-2.3] Extension attribute</t>
         </is>
       </c>
       <c r="D288" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.4</t>
+          <t>TC-ACL-2.3</t>
         </is>
       </c>
       <c r="E288" s="2" t="inlineStr">
@@ -7661,12 +7661,12 @@
       </c>
       <c r="C289" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.5] AccessControlExtensionChanged event</t>
+          <t>[TC-ACL-2.4] ACL attribute</t>
         </is>
       </c>
       <c r="D289" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.5</t>
+          <t>TC-ACL-2.4</t>
         </is>
       </c>
       <c r="E289" s="2" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="C290" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.6] AccessControlEntryChanged event</t>
+          <t>[TC-ACL-2.5] AccessControlExtensionChanged event</t>
         </is>
       </c>
       <c r="D290" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.6</t>
+          <t>TC-ACL-2.5</t>
         </is>
       </c>
       <c r="E290" s="2" t="inlineStr">
@@ -7711,12 +7711,12 @@
       </c>
       <c r="C291" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.7] Extension multi-fabric</t>
+          <t>[TC-ACL-2.6] AccessControlEntryChanged event</t>
         </is>
       </c>
       <c r="D291" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.7</t>
+          <t>TC-ACL-2.6</t>
         </is>
       </c>
       <c r="E291" s="2" t="inlineStr">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="C292" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.8] ACL multi-fabric</t>
+          <t>[TC-ACL-2.7] Extension multi-fabric</t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.8</t>
+          <t>TC-ACL-2.7</t>
         </is>
       </c>
       <c r="E292" s="2" t="inlineStr">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.9] Cluster access</t>
+          <t>[TC-ACL-2.8] ACL multi-fabric</t>
         </is>
       </c>
       <c r="D293" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.9</t>
+          <t>TC-ACL-2.8</t>
         </is>
       </c>
       <c r="E293" s="2" t="inlineStr">
@@ -7786,12 +7786,12 @@
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACL-2.10] Persistence</t>
+          <t>[TC-ACL-2.9] Cluster access</t>
         </is>
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
-          <t>TC-ACL-2.10</t>
+          <t>TC-ACL-2.9</t>
         </is>
       </c>
       <c r="E294" s="2" t="inlineStr">
@@ -7806,17 +7806,17 @@
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>Bridged Device Basic Information</t>
+          <t>Access Control</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-ACL-2.10] Persistence</t>
         </is>
       </c>
       <c r="D295" s="3" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-1.1</t>
+          <t>TC-ACL-2.10</t>
         </is>
       </c>
       <c r="E295" s="2" t="inlineStr">
@@ -7836,12 +7836,12 @@
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-BRBINFO-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-2.1</t>
+          <t>TC-BRBINFO-1.1</t>
         </is>
       </c>
       <c r="E296" s="2" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="C297" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-2.2] Events [DUT-Server]</t>
+          <t>[TC-BRBINFO-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D297" s="3" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-2.2</t>
+          <t>TC-BRBINFO-2.1</t>
         </is>
       </c>
       <c r="E297" s="2" t="inlineStr">
@@ -7886,12 +7886,12 @@
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server - REMOVED</t>
+          <t>[TC-BRBINFO-2.2] Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D298" s="3" t="inlineStr">
         <is>
-          <t>TC-BRBINFO-3.1</t>
+          <t>TC-BRBINFO-2.2</t>
         </is>
       </c>
       <c r="E298" s="2" t="inlineStr">
@@ -7906,17 +7906,17 @@
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>Time Synchronization</t>
+          <t>Bridged Device Basic Information</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-BRBINFO-3.1] Appearance Attribute DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D299" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-1.1</t>
+          <t>TC-BRBINFO-3.1</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="C300" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TIMESYNC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D300" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.1</t>
+          <t>TC-TIMESYNC-1.1</t>
         </is>
       </c>
       <c r="E300" s="2" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="C301" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.2] SetUTCTime command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D301" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.2</t>
+          <t>TC-TIMESYNC-2.1</t>
         </is>
       </c>
       <c r="E301" s="2" t="inlineStr">
@@ -7986,12 +7986,12 @@
       </c>
       <c r="C302" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.3] SetTrustedTimeSource command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.2] SetUTCTime command with DUT as Server</t>
         </is>
       </c>
       <c r="D302" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.3</t>
+          <t>TC-TIMESYNC-2.2</t>
         </is>
       </c>
       <c r="E302" s="2" t="inlineStr">
@@ -8011,12 +8011,12 @@
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.4] SetTimeZone command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.3] SetTrustedTimeSource command with DUT as Server</t>
         </is>
       </c>
       <c r="D303" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.4</t>
+          <t>TC-TIMESYNC-2.3</t>
         </is>
       </c>
       <c r="E303" s="2" t="inlineStr">
@@ -8036,12 +8036,12 @@
       </c>
       <c r="C304" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.5] SetDSTOffset command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.4] SetTimeZone command with DUT as Server</t>
         </is>
       </c>
       <c r="D304" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.5</t>
+          <t>TC-TIMESYNC-2.4</t>
         </is>
       </c>
       <c r="E304" s="2" t="inlineStr">
@@ -8061,12 +8061,12 @@
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.6] SetDefaultNTP command with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.5] SetDSTOffset command with DUT as Server</t>
         </is>
       </c>
       <c r="D305" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.6</t>
+          <t>TC-TIMESYNC-2.5</t>
         </is>
       </c>
       <c r="E305" s="2" t="inlineStr">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.7] LocalTime calculation for time zone with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.6] SetDefaultNTP command with DUT as Server</t>
         </is>
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.7</t>
+          <t>TC-TIMESYNC-2.6</t>
         </is>
       </c>
       <c r="E306" s="2" t="inlineStr">
@@ -8111,12 +8111,12 @@
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.8] LocalTime calculation for DST offset with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.7] LocalTime calculation for time zone with DUT as Server</t>
         </is>
       </c>
       <c r="D307" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.8</t>
+          <t>TC-TIMESYNC-2.7</t>
         </is>
       </c>
       <c r="E307" s="2" t="inlineStr">
@@ -8136,12 +8136,12 @@
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.9] LocalTime calculation for time zone with DST offset with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.8] LocalTime calculation for DST offset with DUT as Server</t>
         </is>
       </c>
       <c r="D308" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.9</t>
+          <t>TC-TIMESYNC-2.8</t>
         </is>
       </c>
       <c r="E308" s="2" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="C309" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.10] DSTTableEmpty event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.9] LocalTime calculation for time zone with DST offset with DUT as Server</t>
         </is>
       </c>
       <c r="D309" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.10</t>
+          <t>TC-TIMESYNC-2.9</t>
         </is>
       </c>
       <c r="E309" s="2" t="inlineStr">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.11] DSTStatus event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.10] DSTTableEmpty event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D310" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.11</t>
+          <t>TC-TIMESYNC-2.10</t>
         </is>
       </c>
       <c r="E310" s="2" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="C311" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.12] TimeZoneStatus event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.11] DSTStatus event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D311" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.12</t>
+          <t>TC-TIMESYNC-2.11</t>
         </is>
       </c>
       <c r="E311" s="2" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="C312" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-2.13] MissingTrustedTimeSource event generation with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.12] TimeZoneStatus event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D312" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-2.13</t>
+          <t>TC-TIMESYNC-2.12</t>
         </is>
       </c>
       <c r="E312" s="2" t="inlineStr">
@@ -8261,12 +8261,12 @@
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
+          <t>[TC-TIMESYNC-2.13] MissingTrustedTimeSource event generation with DUT as Server</t>
         </is>
       </c>
       <c r="D313" s="3" t="inlineStr">
         <is>
-          <t>TC-TIMESYNC-3.1</t>
+          <t>TC-TIMESYNC-2.13</t>
         </is>
       </c>
       <c r="E313" s="2" t="inlineStr">
@@ -8281,17 +8281,17 @@
       </c>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>Carbon Monoxide Concentration Measurement</t>
+          <t>Time Synchronization</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TIMESYNC-3.1] Endpoint composition with DUT as Server</t>
         </is>
       </c>
       <c r="D314" s="3" t="inlineStr">
         <is>
-          <t>TC-CMOCONC-1.1</t>
+          <t>TC-TIMESYNC-3.1</t>
         </is>
       </c>
       <c r="E314" s="2" t="inlineStr">
@@ -8311,12 +8311,12 @@
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-CMOCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
         <is>
-          <t>TC-CMOCONC-2.1</t>
+          <t>TC-CMOCONC-1.1</t>
         </is>
       </c>
       <c r="E315" s="2" t="inlineStr">
@@ -8331,17 +8331,17 @@
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>Carbon Dioxide Concentration Measurement</t>
+          <t>Carbon Monoxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-CMOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
         <is>
-          <t>TC-CDOCONC-1.1</t>
+          <t>TC-CMOCONC-2.1</t>
         </is>
       </c>
       <c r="E316" s="2" t="inlineStr">
@@ -8361,12 +8361,12 @@
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-CDOCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
         <is>
-          <t>TC-CDOCONC-2.1</t>
+          <t>TC-CDOCONC-1.1</t>
         </is>
       </c>
       <c r="E317" s="2" t="inlineStr">
@@ -8381,17 +8381,17 @@
       </c>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t>Nitrogen Dioxide Concentration Measurement</t>
+          <t>Carbon Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-CDOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D318" s="3" t="inlineStr">
         <is>
-          <t>TC-NDOCONC-1.1</t>
+          <t>TC-CDOCONC-2.1</t>
         </is>
       </c>
       <c r="E318" s="2" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-NDOCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D319" s="3" t="inlineStr">
         <is>
-          <t>TC-NDOCONC-2.1</t>
+          <t>TC-NDOCONC-1.1</t>
         </is>
       </c>
       <c r="E319" s="2" t="inlineStr">
@@ -8431,17 +8431,17 @@
       </c>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>Ozone Concentration Measurement</t>
+          <t>Nitrogen Dioxide Concentration Measurement</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-NDOCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D320" s="3" t="inlineStr">
         <is>
-          <t>TC-OZCONC-1.1</t>
+          <t>TC-NDOCONC-2.1</t>
         </is>
       </c>
       <c r="E320" s="2" t="inlineStr">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="C321" s="3" t="inlineStr">
         <is>
-          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-OZCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D321" s="3" t="inlineStr">
         <is>
-          <t>TC-OZCONC-2.1</t>
+          <t>TC-OZCONC-1.1</t>
         </is>
       </c>
       <c r="E321" s="2" t="inlineStr">
@@ -8481,17 +8481,17 @@
       </c>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t>PM2.5 Concentration Measurement</t>
+          <t>Ozone Concentration Measurement</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-OZCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D322" s="3" t="inlineStr">
         <is>
-          <t>TC-PMICONC-1.1</t>
+          <t>TC-OZCONC-2.1</t>
         </is>
       </c>
       <c r="E322" s="2" t="inlineStr">
@@ -8511,12 +8511,12 @@
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMICONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D323" s="3" t="inlineStr">
         <is>
-          <t>TC-PMICONC-2.1</t>
+          <t>TC-PMICONC-1.1</t>
         </is>
       </c>
       <c r="E323" s="2" t="inlineStr">
@@ -8531,17 +8531,17 @@
       </c>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>Formaldehyde Concentration Measurement</t>
+          <t>PM2.5 Concentration Measurement</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-PMICONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D324" s="3" t="inlineStr">
         <is>
-          <t>TC-FLDCONC-1.1</t>
+          <t>TC-PMICONC-2.1</t>
         </is>
       </c>
       <c r="E324" s="2" t="inlineStr">
@@ -8561,12 +8561,12 @@
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D325" s="3" t="inlineStr">
         <is>
-          <t>TC-FLDCONC-2.1</t>
+          <t>TC-FLDCONC-1.1</t>
         </is>
       </c>
       <c r="E325" s="2" t="inlineStr">
@@ -8581,17 +8581,17 @@
       </c>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>PM1 Concentration Measurement</t>
+          <t>Formaldehyde Concentration Measurement</t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-FLDCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D326" s="3" t="inlineStr">
         <is>
-          <t>TC-PMHCONC-1.1</t>
+          <t>TC-FLDCONC-2.1</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D327" s="3" t="inlineStr">
         <is>
-          <t>TC-PMHCONC-2.1</t>
+          <t>TC-PMHCONC-1.1</t>
         </is>
       </c>
       <c r="E327" s="2" t="inlineStr">
@@ -8631,17 +8631,17 @@
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>PM10 Concentration Measurement</t>
+          <t>PM1 Concentration Measurement</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-PMHCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D328" s="3" t="inlineStr">
         <is>
-          <t>TC-PMKCONC-1.1</t>
+          <t>TC-PMHCONC-2.1</t>
         </is>
       </c>
       <c r="E328" s="2" t="inlineStr">
@@ -8661,12 +8661,12 @@
       </c>
       <c r="C329" s="3" t="inlineStr">
         <is>
-          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D329" s="3" t="inlineStr">
         <is>
-          <t>TC-PMKCONC-2.1</t>
+          <t>TC-PMKCONC-1.1</t>
         </is>
       </c>
       <c r="E329" s="2" t="inlineStr">
@@ -8681,17 +8681,17 @@
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>Total Volatile Organic Compounds Concentration Measurement</t>
+          <t>PM10 Concentration Measurement</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-PMKCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D330" s="3" t="inlineStr">
         <is>
-          <t>TC-TVOCCONC-1.1</t>
+          <t>TC-PMKCONC-2.1</t>
         </is>
       </c>
       <c r="E330" s="2" t="inlineStr">
@@ -8711,12 +8711,12 @@
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D331" s="3" t="inlineStr">
         <is>
-          <t>TC-TVOCCONC-2.1</t>
+          <t>TC-TVOCCONC-1.1</t>
         </is>
       </c>
       <c r="E331" s="2" t="inlineStr">
@@ -8731,17 +8731,17 @@
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>Radon Concentration Measurement</t>
+          <t>Total Volatile Organic Compounds Concentration Measurement</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TVOCCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D332" s="3" t="inlineStr">
         <is>
-          <t>TC-RNCONC-1.1</t>
+          <t>TC-TVOCCONC-2.1</t>
         </is>
       </c>
       <c r="E332" s="2" t="inlineStr">
@@ -8761,12 +8761,12 @@
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
+          <t>[TC-RNCONC-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D333" s="3" t="inlineStr">
         <is>
-          <t>TC-RNCONC-2.1</t>
+          <t>TC-RNCONC-1.1</t>
         </is>
       </c>
       <c r="E333" s="2" t="inlineStr">
@@ -8781,17 +8781,17 @@
       </c>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>Temperature Control</t>
+          <t>Radon Concentration Measurement</t>
         </is>
       </c>
       <c r="C334" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-RNCONC-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D334" s="3" t="inlineStr">
         <is>
-          <t>TC-TCTL-1.1</t>
+          <t>TC-RNCONC-2.1</t>
         </is>
       </c>
       <c r="E334" s="2" t="inlineStr">
@@ -8811,12 +8811,12 @@
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.1] Attributes with DUT as Server</t>
+          <t>[TC-TCTL-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D335" s="3" t="inlineStr">
         <is>
-          <t>TC-TCTL-2.1</t>
+          <t>TC-TCTL-1.1</t>
         </is>
       </c>
       <c r="E335" s="2" t="inlineStr">
@@ -8836,12 +8836,12 @@
       </c>
       <c r="C336" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.2] Optional Temperature number attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D336" s="3" t="inlineStr">
         <is>
-          <t>TC-TCTL-2.2</t>
+          <t>TC-TCTL-2.1</t>
         </is>
       </c>
       <c r="E336" s="2" t="inlineStr">
@@ -8861,12 +8861,12 @@
       </c>
       <c r="C337" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-2.3] Optional temperature level attributes with DUT as Server</t>
+          <t>[TC-TCTL-2.2] Optional Temperature number attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D337" s="3" t="inlineStr">
         <is>
-          <t>TC-TCTL-2.3</t>
+          <t>TC-TCTL-2.2</t>
         </is>
       </c>
       <c r="E337" s="2" t="inlineStr">
@@ -8886,12 +8886,12 @@
       </c>
       <c r="C338" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.2] Optional temperature number functionality with DUT as Server</t>
+          <t>[TC-TCTL-2.3] Optional temperature level attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D338" s="3" t="inlineStr">
         <is>
-          <t>TC-TCTL-3.2</t>
+          <t>TC-TCTL-2.3</t>
         </is>
       </c>
       <c r="E338" s="2" t="inlineStr">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="C339" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
+          <t>[TC-TCTL-3.2] Optional temperature number functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D339" s="3" t="inlineStr">
         <is>
-          <t>TC-TCTL-3.3</t>
+          <t>TC-TCTL-3.2</t>
         </is>
       </c>
       <c r="E339" s="2" t="inlineStr">
@@ -8931,17 +8931,17 @@
       </c>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>Laundry Washer Mode</t>
+          <t>Temperature Control</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TCTL-3.3] Optional temperature level functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D340" s="3" t="inlineStr">
         <is>
-          <t>TC-LWM-1.1</t>
+          <t>TC-TCTL-3.3</t>
         </is>
       </c>
       <c r="E340" s="2" t="inlineStr">
@@ -8961,12 +8961,12 @@
       </c>
       <c r="C341" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-LWM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D341" s="3" t="inlineStr">
         <is>
-          <t>TC-LWM-1.2</t>
+          <t>TC-LWM-1.1</t>
         </is>
       </c>
       <c r="E341" s="2" t="inlineStr">
@@ -8986,12 +8986,12 @@
       </c>
       <c r="C342" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-LWM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D342" s="3" t="inlineStr">
         <is>
-          <t>TC-LWM-2.1</t>
+          <t>TC-LWM-1.2</t>
         </is>
       </c>
       <c r="E342" s="2" t="inlineStr">
@@ -9011,12 +9011,12 @@
       </c>
       <c r="C343" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D343" s="3" t="inlineStr">
         <is>
-          <t>TC-LWM-3.1</t>
+          <t>TC-LWM-2.1</t>
         </is>
       </c>
       <c r="E343" s="2" t="inlineStr">
@@ -9036,12 +9036,12 @@
       </c>
       <c r="C344" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D344" s="3" t="inlineStr">
         <is>
-          <t>TC-LWM-3.2</t>
+          <t>TC-LWM-3.1</t>
         </is>
       </c>
       <c r="E344" s="2" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="C345" s="3" t="inlineStr">
         <is>
-          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-LWM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D345" s="3" t="inlineStr">
         <is>
-          <t>TC-LWM-3.3</t>
+          <t>TC-LWM-3.2</t>
         </is>
       </c>
       <c r="E345" s="2" t="inlineStr">
@@ -9081,17 +9081,17 @@
       </c>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t>Washer Controls</t>
+          <t>Laundry Washer Mode</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-LWM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D346" s="3" t="inlineStr">
         <is>
-          <t>TC-WASHERCTRL-1.1</t>
+          <t>TC-LWM-3.3</t>
         </is>
       </c>
       <c r="E346" s="2" t="inlineStr">
@@ -9111,12 +9111,12 @@
       </c>
       <c r="C347" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.1] Optional Spin attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D347" s="3" t="inlineStr">
         <is>
-          <t>TC-WASHERCTRL-2.1</t>
+          <t>TC-WASHERCTRL-1.1</t>
         </is>
       </c>
       <c r="E347" s="2" t="inlineStr">
@@ -9136,12 +9136,12 @@
       </c>
       <c r="C348" s="3" t="inlineStr">
         <is>
-          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.1] Optional Spin attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D348" s="3" t="inlineStr">
         <is>
-          <t>TC-WASHERCTRL-2.2</t>
+          <t>TC-WASHERCTRL-2.1</t>
         </is>
       </c>
       <c r="E348" s="2" t="inlineStr">
@@ -9156,17 +9156,17 @@
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>Fan Control</t>
+          <t>Washer Controls</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-WASHERCTRL-2.2] Optional rinse attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D349" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-1.1</t>
+          <t>TC-WASHERCTRL-2.2</t>
         </is>
       </c>
       <c r="E349" s="2" t="inlineStr">
@@ -9186,12 +9186,12 @@
       </c>
       <c r="C350" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.1] Mandatory Attributes with DUT as Server</t>
+          <t>[TC-FAN-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D350" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-2.1</t>
+          <t>TC-FAN-1.1</t>
         </is>
       </c>
       <c r="E350" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="C351" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.2] Optional speed attributes with DUT as Server</t>
+          <t>[TC-FAN-2.1] Mandatory Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D351" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-2.2</t>
+          <t>TC-FAN-2.1</t>
         </is>
       </c>
       <c r="E351" s="2" t="inlineStr">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="C352" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.3] Optional rock attributes with DUT as Server</t>
+          <t>[TC-FAN-2.2] Optional speed attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D352" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-2.3</t>
+          <t>TC-FAN-2.2</t>
         </is>
       </c>
       <c r="E352" s="2" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="C353" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.4] Optional wind attributes with DUT as Server</t>
+          <t>[TC-FAN-2.3] Optional rock attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D353" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-2.4</t>
+          <t>TC-FAN-2.3</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr">
@@ -9286,12 +9286,12 @@
       </c>
       <c r="C354" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-2.5] Optional direction attributes with DUT as Server</t>
+          <t>[TC-FAN-2.4] Optional wind attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D354" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-2.5</t>
+          <t>TC-FAN-2.4</t>
         </is>
       </c>
       <c r="E354" s="2" t="inlineStr">
@@ -9311,12 +9311,12 @@
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.1] Mandatory functionality with DUT as Server</t>
+          <t>[TC-FAN-2.5] Optional direction attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D355" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-3.1</t>
+          <t>TC-FAN-2.5</t>
         </is>
       </c>
       <c r="E355" s="2" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.2] Optional speed functionality with DUT as Server</t>
+          <t>[TC-FAN-3.1] Mandatory functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D356" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-3.2</t>
+          <t>TC-FAN-3.1</t>
         </is>
       </c>
       <c r="E356" s="2" t="inlineStr">
@@ -9361,12 +9361,12 @@
       </c>
       <c r="C357" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.3] Optional rock functionality with DUT as Server</t>
+          <t>[TC-FAN-3.2] Optional speed functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D357" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-3.3</t>
+          <t>TC-FAN-3.2</t>
         </is>
       </c>
       <c r="E357" s="2" t="inlineStr">
@@ -9386,12 +9386,12 @@
       </c>
       <c r="C358" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.4] Optional wind functionality with DUT as Server</t>
+          <t>[TC-FAN-3.3] Optional rock functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D358" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-3.4</t>
+          <t>TC-FAN-3.3</t>
         </is>
       </c>
       <c r="E358" s="2" t="inlineStr">
@@ -9411,12 +9411,12 @@
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.5] Optional step functionality with DUT as Server</t>
+          <t>[TC-FAN-3.4] Optional wind functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D359" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-3.5</t>
+          <t>TC-FAN-3.4</t>
         </is>
       </c>
       <c r="E359" s="2" t="inlineStr">
@@ -9436,12 +9436,12 @@
       </c>
       <c r="C360" s="3" t="inlineStr">
         <is>
-          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
+          <t>[TC-FAN-3.5] Optional step functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D360" s="3" t="inlineStr">
         <is>
-          <t>TC-FAN-3.6</t>
+          <t>TC-FAN-3.5</t>
         </is>
       </c>
       <c r="E360" s="2" t="inlineStr">
@@ -9456,17 +9456,17 @@
       </c>
       <c r="B361" s="3" t="inlineStr">
         <is>
-          <t>Dishwasher Mode</t>
+          <t>Fan Control</t>
         </is>
       </c>
       <c r="C361" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-FAN-3.6] Optional direction functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D361" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHM-1.1</t>
+          <t>TC-FAN-3.6</t>
         </is>
       </c>
       <c r="E361" s="2" t="inlineStr">
@@ -9486,12 +9486,12 @@
       </c>
       <c r="C362" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-DISHM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D362" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHM-1.2</t>
+          <t>TC-DISHM-1.1</t>
         </is>
       </c>
       <c r="E362" s="2" t="inlineStr">
@@ -9511,12 +9511,12 @@
       </c>
       <c r="C363" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-DISHM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D363" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHM-2.1</t>
+          <t>TC-DISHM-1.2</t>
         </is>
       </c>
       <c r="E363" s="2" t="inlineStr">
@@ -9536,12 +9536,12 @@
       </c>
       <c r="C364" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D364" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHM-3.1</t>
+          <t>TC-DISHM-2.1</t>
         </is>
       </c>
       <c r="E364" s="2" t="inlineStr">
@@ -9561,12 +9561,12 @@
       </c>
       <c r="C365" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D365" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHM-3.2</t>
+          <t>TC-DISHM-3.1</t>
         </is>
       </c>
       <c r="E365" s="2" t="inlineStr">
@@ -9586,12 +9586,12 @@
       </c>
       <c r="C366" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D366" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHM-3.3</t>
+          <t>TC-DISHM-3.2</t>
         </is>
       </c>
       <c r="E366" s="2" t="inlineStr">
@@ -9606,17 +9606,17 @@
       </c>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>Dishwasher Alarm</t>
+          <t>Dishwasher Mode</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-DISHM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D367" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-1.1</t>
+          <t>TC-DISHM-3.3</t>
         </is>
       </c>
       <c r="E367" s="2" t="inlineStr">
@@ -9636,12 +9636,12 @@
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-2.1] Attributes with DUT as Server</t>
+          <t>[TC-DISHALM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D368" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-2.1</t>
+          <t>TC-DISHALM-1.1</t>
         </is>
       </c>
       <c r="E368" s="2" t="inlineStr">
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.1] Inflow alarm functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHALM-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.1</t>
+          <t>TC-DISHALM-2.1</t>
         </is>
       </c>
       <c r="E369" s="2" t="inlineStr">
@@ -9686,12 +9686,12 @@
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.2] Drain alarm functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHALM-3.1] Inflow alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.2</t>
+          <t>TC-DISHALM-3.1</t>
         </is>
       </c>
       <c r="E370" s="2" t="inlineStr">
@@ -9711,12 +9711,12 @@
       </c>
       <c r="C371" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.3] Door alarm functionality with DUT as Server</t>
+          <t>[TC-DISHALM-3.2] Drain alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D371" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.3</t>
+          <t>TC-DISHALM-3.2</t>
         </is>
       </c>
       <c r="E371" s="2" t="inlineStr">
@@ -9736,12 +9736,12 @@
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.4] Temperature Low alarm functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHALM-3.3] Door alarm functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D372" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.4</t>
+          <t>TC-DISHALM-3.3</t>
         </is>
       </c>
       <c r="E372" s="2" t="inlineStr">
@@ -9761,12 +9761,12 @@
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.5] Temperature High alarm functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHALM-3.4] Temperature Low alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D373" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.5</t>
+          <t>TC-DISHALM-3.4</t>
         </is>
       </c>
       <c r="E373" s="2" t="inlineStr">
@@ -9786,12 +9786,12 @@
       </c>
       <c r="C374" s="3" t="inlineStr">
         <is>
-          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server - REMOVED</t>
+          <t>[TC-DISHALM-3.5] Temperature High alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D374" s="3" t="inlineStr">
         <is>
-          <t>TC-DISHALM-3.6</t>
+          <t>TC-DISHALM-3.5</t>
         </is>
       </c>
       <c r="E374" s="2" t="inlineStr">
@@ -9806,17 +9806,17 @@
       </c>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>Operational State</t>
+          <t>Dishwasher Alarm</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DISHALM-3.6] Water Level alarm functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D375" s="3" t="inlineStr">
         <is>
-          <t>TC-OPSTATE-1.1</t>
+          <t>TC-DISHALM-3.6</t>
         </is>
       </c>
       <c r="E375" s="2" t="inlineStr">
@@ -9836,12 +9836,12 @@
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.1] Attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D376" s="3" t="inlineStr">
         <is>
-          <t>TC-OPSTATE-2.1</t>
+          <t>TC-OPSTATE-1.1</t>
         </is>
       </c>
       <c r="E376" s="2" t="inlineStr">
@@ -9861,12 +9861,12 @@
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.2] Start and Stop commands with DUT as Server</t>
+          <t>[TC-OPSTATE-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D377" s="3" t="inlineStr">
         <is>
-          <t>TC-OPSTATE-2.2</t>
+          <t>TC-OPSTATE-2.1</t>
         </is>
       </c>
       <c r="E377" s="2" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.3] Pause and Resume commands with DUT as Server</t>
+          <t>[TC-OPSTATE-2.2] Start and Stop commands with DUT as Server</t>
         </is>
       </c>
       <c r="D378" s="3" t="inlineStr">
         <is>
-          <t>TC-OPSTATE-2.3</t>
+          <t>TC-OPSTATE-2.2</t>
         </is>
       </c>
       <c r="E378" s="2" t="inlineStr">
@@ -9911,12 +9911,12 @@
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
+          <t>[TC-OPSTATE-2.3] Pause and Resume commands with DUT as Server</t>
         </is>
       </c>
       <c r="D379" s="3" t="inlineStr">
         <is>
-          <t>TC-OPSTATE-2.4</t>
+          <t>TC-OPSTATE-2.3</t>
         </is>
       </c>
       <c r="E379" s="2" t="inlineStr">
@@ -9931,17 +9931,17 @@
       </c>
       <c r="B380" s="3" t="inlineStr">
         <is>
-          <t>Air Quality</t>
+          <t>Operational State</t>
         </is>
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-OPSTATE-2.4] Mandatory Events with DUT as Server</t>
         </is>
       </c>
       <c r="D380" s="3" t="inlineStr">
         <is>
-          <t>TC-AIRQUAL-1.1</t>
+          <t>TC-OPSTATE-2.4</t>
         </is>
       </c>
       <c r="E380" s="2" t="inlineStr">
@@ -9961,12 +9961,12 @@
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
+          <t>[TC-AIRQUAL-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D381" s="3" t="inlineStr">
         <is>
-          <t>TC-AIRQUAL-2.1</t>
+          <t>TC-AIRQUAL-1.1</t>
         </is>
       </c>
       <c r="E381" s="2" t="inlineStr">
@@ -9981,17 +9981,17 @@
       </c>
       <c r="B382" s="3" t="inlineStr">
         <is>
-          <t>HEPA Filter Monitoring</t>
+          <t>Air Quality</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-AIRQUAL-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D382" s="3" t="inlineStr">
         <is>
-          <t>TC-HEPAFREMON-1.1</t>
+          <t>TC-AIRQUAL-2.1</t>
         </is>
       </c>
       <c r="E382" s="2" t="inlineStr">
@@ -10011,12 +10011,12 @@
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
+          <t>[TC-HEPAFREMON-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D383" s="3" t="inlineStr">
         <is>
-          <t>TC-HEPAFREMON-2.1</t>
+          <t>TC-HEPAFREMON-1.1</t>
         </is>
       </c>
       <c r="E383" s="2" t="inlineStr">
@@ -10031,17 +10031,17 @@
       </c>
       <c r="B384" s="3" t="inlineStr">
         <is>
-          <t>Activated Carbon Filter Monitoring</t>
+          <t>HEPA Filter Monitoring</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-HEPAFREMON-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D384" s="3" t="inlineStr">
         <is>
-          <t>TC-ACFREMON-1.1</t>
+          <t>TC-HEPAFREMON-2.1</t>
         </is>
       </c>
       <c r="E384" s="2" t="inlineStr">
@@ -10061,12 +10061,12 @@
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
+          <t>[TC-ACFREMON-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D385" s="3" t="inlineStr">
         <is>
-          <t>TC-ACFREMON-2.1</t>
+          <t>TC-ACFREMON-1.1</t>
         </is>
       </c>
       <c r="E385" s="2" t="inlineStr">
@@ -10081,17 +10081,17 @@
       </c>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>ICD Management</t>
+          <t>Activated Carbon Filter Monitoring</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-ACFREMON-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D386" s="3" t="inlineStr">
         <is>
-          <t>TC-ICDM-1.1</t>
+          <t>TC-ACFREMON-2.1</t>
         </is>
       </c>
       <c r="E386" s="2" t="inlineStr">
@@ -10111,12 +10111,12 @@
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.1] Attributes with DUT as Server</t>
+          <t>[TC-ICDM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D387" s="3" t="inlineStr">
         <is>
-          <t>TC-ICDM-2.1</t>
+          <t>TC-ICDM-1.1</t>
         </is>
       </c>
       <c r="E387" s="2" t="inlineStr">
@@ -10136,12 +10136,12 @@
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.2] Primary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-ICDM-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D388" s="3" t="inlineStr">
         <is>
-          <t>TC-ICDM-2.2</t>
+          <t>TC-ICDM-2.1</t>
         </is>
       </c>
       <c r="E388" s="2" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="C389" s="3" t="inlineStr">
         <is>
-          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
+          <t>[TC-ICDM-2.2] Primary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D389" s="3" t="inlineStr">
         <is>
-          <t>TC-ICDM-2.3</t>
+          <t>TC-ICDM-2.2</t>
         </is>
       </c>
       <c r="E389" s="2" t="inlineStr">
@@ -10181,17 +10181,17 @@
       </c>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
+          <t>ICD Management</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-ICDM-2.3] Secondary functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D390" s="3" t="inlineStr">
         <is>
-          <t>TC-TCCM-1.1</t>
+          <t>TC-ICDM-2.3</t>
         </is>
       </c>
       <c r="E390" s="2" t="inlineStr">
@@ -10211,12 +10211,12 @@
       </c>
       <c r="C391" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-1.2] Cluster attributes with DUT as Server</t>
+          <t>[TC-TCCM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D391" s="3" t="inlineStr">
         <is>
-          <t>TC-TCCM-1.2</t>
+          <t>TC-TCCM-1.1</t>
         </is>
       </c>
       <c r="E391" s="2" t="inlineStr">
@@ -10236,12 +10236,12 @@
       </c>
       <c r="C392" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-2.1] Change to Mode functionality with DUT as Server</t>
+          <t>[TC-TCCM-1.2] Cluster attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D392" s="3" t="inlineStr">
         <is>
-          <t>TC-TCCM-2.1</t>
+          <t>TC-TCCM-1.2</t>
         </is>
       </c>
       <c r="E392" s="2" t="inlineStr">
@@ -10261,12 +10261,12 @@
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-2.1] Change to Mode functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D393" s="3" t="inlineStr">
         <is>
-          <t>TC-TCCM-3.1</t>
+          <t>TC-TCCM-2.1</t>
         </is>
       </c>
       <c r="E393" s="2" t="inlineStr">
@@ -10286,12 +10286,12 @@
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.1] On Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D394" s="3" t="inlineStr">
         <is>
-          <t>TC-TCCM-3.2</t>
+          <t>TC-TCCM-3.1</t>
         </is>
       </c>
       <c r="E394" s="2" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
+          <t>[TC-TCCM-3.2] Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D395" s="3" t="inlineStr">
         <is>
-          <t>TC-TCCM-3.3</t>
+          <t>TC-TCCM-3.2</t>
         </is>
       </c>
       <c r="E395" s="2" t="inlineStr">
@@ -10331,17 +10331,17 @@
       </c>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>Refrigerator Alarm</t>
+          <t>Refrigerator and Temperature Controlled Cabinet Mode</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-TCCM-3.3] On Mode and Startup Mode functionality with DUT as Server - REMOVED</t>
         </is>
       </c>
       <c r="D396" s="3" t="inlineStr">
         <is>
-          <t>TC-REFALM-1.1</t>
+          <t>TC-TCCM-3.3</t>
         </is>
       </c>
       <c r="E396" s="2" t="inlineStr">
@@ -10361,12 +10361,12 @@
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.1] Attributes with DUT as Server</t>
+          <t>[TC-REFALM-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D397" s="3" t="inlineStr">
         <is>
-          <t>TC-REFALM-2.1</t>
+          <t>TC-REFALM-1.1</t>
         </is>
       </c>
       <c r="E397" s="2" t="inlineStr">
@@ -10386,12 +10386,12 @@
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-REFALM-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D398" s="3" t="inlineStr">
         <is>
-          <t>TC-REFALM-2.2</t>
+          <t>TC-REFALM-2.1</t>
         </is>
       </c>
       <c r="E398" s="2" t="inlineStr">
@@ -10411,12 +10411,12 @@
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
+          <t>[TC-REFALM-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D399" s="3" t="inlineStr">
         <is>
-          <t>TC-REFALM-2.3</t>
+          <t>TC-REFALM-2.2</t>
         </is>
       </c>
       <c r="E399" s="2" t="inlineStr">
@@ -10431,17 +10431,17 @@
       </c>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>RVC Operational State</t>
+          <t>Refrigerator Alarm</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-1.1] Global attributes [DUT as Server]</t>
+          <t>[TC-REFALM-2.3] Local suppression of the door alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D400" s="3" t="inlineStr">
         <is>
-          <t>TC-RVCOPSTATE-1.1</t>
+          <t>TC-REFALM-2.3</t>
         </is>
       </c>
       <c r="E400" s="2" t="inlineStr">
@@ -10461,12 +10461,12 @@
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.1] Attribute verification [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-1.1] Global attributes [DUT as Server]</t>
         </is>
       </c>
       <c r="D401" s="3" t="inlineStr">
         <is>
-          <t>TC-RVCOPSTATE-2.1</t>
+          <t>TC-RVCOPSTATE-1.1</t>
         </is>
       </c>
       <c r="E401" s="2" t="inlineStr">
@@ -10486,12 +10486,12 @@
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.2] Start and Stop commands [DUT as Server] - REMOVED</t>
+          <t>[TC-RVCOPSTATE-2.1] Attribute verification [DUT as Server]</t>
         </is>
       </c>
       <c r="D402" s="3" t="inlineStr">
         <is>
-          <t>TC-RVCOPSTATE-2.2</t>
+          <t>TC-RVCOPSTATE-2.1</t>
         </is>
       </c>
       <c r="E402" s="2" t="inlineStr">
@@ -10511,12 +10511,12 @@
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
+          <t>[TC-RVCOPSTATE-2.2] Start and Stop commands [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D403" s="3" t="inlineStr">
         <is>
-          <t>TC-RVCOPSTATE-2.3</t>
+          <t>TC-RVCOPSTATE-2.2</t>
         </is>
       </c>
       <c r="E403" s="2" t="inlineStr">
@@ -10531,17 +10531,17 @@
       </c>
       <c r="B404" s="3" t="inlineStr">
         <is>
-          <t>Smoke CO Alarm</t>
+          <t>RVC Operational State</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-1.1] Global attributes with DUT as Server</t>
+          <t>[TC-RVCOPSTATE-2.3] Pause and Resume commands [DUT as Server]</t>
         </is>
       </c>
       <c r="D404" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-1.1</t>
+          <t>TC-RVCOPSTATE-2.3</t>
         </is>
       </c>
       <c r="E404" s="2" t="inlineStr">
@@ -10561,12 +10561,12 @@
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.1] Attributes with DUT as Server</t>
+          <t>[TC-SMOKECO-1.1] Global attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D405" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.1</t>
+          <t>TC-SMOKECO-1.1</t>
         </is>
       </c>
       <c r="E405" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="C406" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.2] Primary Functionality - Smoke Alarm with DUT as Server</t>
+          <t>[TC-SMOKECO-2.1] Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D406" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.2</t>
+          <t>TC-SMOKECO-2.1</t>
         </is>
       </c>
       <c r="E406" s="2" t="inlineStr">
@@ -10611,12 +10611,12 @@
       </c>
       <c r="C407" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.3] Primary Functionality - CO Alarm with DUT as Server</t>
+          <t>[TC-SMOKECO-2.2] Primary Functionality - Smoke Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D407" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.3</t>
+          <t>TC-SMOKECO-2.2</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="C408" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.4] Secondary Functionality - Mandatory with DUT as Server</t>
+          <t>[TC-SMOKECO-2.3] Primary Functionality - CO Alarm with DUT as Server</t>
         </is>
       </c>
       <c r="D408" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.4</t>
+          <t>TC-SMOKECO-2.3</t>
         </is>
       </c>
       <c r="E408" s="2" t="inlineStr">
@@ -10661,12 +10661,12 @@
       </c>
       <c r="C409" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.5] Secondary Functionality - Optional with DUT as Server</t>
+          <t>[TC-SMOKECO-2.4] Secondary Functionality - Mandatory with DUT as Server</t>
         </is>
       </c>
       <c r="D409" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.5</t>
+          <t>TC-SMOKECO-2.4</t>
         </is>
       </c>
       <c r="E409" s="2" t="inlineStr">
@@ -10686,12 +10686,12 @@
       </c>
       <c r="C410" s="3" t="inlineStr">
         <is>
-          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
+          <t>[TC-SMOKECO-2.5] Secondary Functionality - Optional with DUT as Server</t>
         </is>
       </c>
       <c r="D410" s="3" t="inlineStr">
         <is>
-          <t>TC-SMOKECO-2.6</t>
+          <t>TC-SMOKECO-2.5</t>
         </is>
       </c>
       <c r="E410" s="2" t="inlineStr">
@@ -10706,22 +10706,22 @@
       </c>
       <c r="B411" s="3" t="inlineStr">
         <is>
-          <t>Device Discovery</t>
+          <t>Smoke CO Alarm</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-SMOKECO-2.6] ExpressedState Attribute - Multiple Alarms with DUT as Server</t>
         </is>
       </c>
       <c r="D411" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.1</t>
+          <t>TC-SMOKECO-2.6</t>
         </is>
       </c>
       <c r="E411" s="2" t="inlineStr">
         <is>
-          <t>Core Test Case</t>
+          <t>App Test Case</t>
         </is>
       </c>
     </row>
@@ -10736,12 +10736,12 @@
       </c>
       <c r="C412" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.1] QR Code Onboarding Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D412" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.2</t>
+          <t>TC-DD-1.1</t>
         </is>
       </c>
       <c r="E412" s="2" t="inlineStr">
@@ -10761,12 +10761,12 @@
       </c>
       <c r="C413" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.2] Manual Pairing Code Payload Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D413" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.3</t>
+          <t>TC-DD-1.2</t>
         </is>
       </c>
       <c r="E413" s="2" t="inlineStr">
@@ -10786,12 +10786,12 @@
       </c>
       <c r="C414" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.3] NFC Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D414" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.4</t>
+          <t>TC-DD-1.3</t>
         </is>
       </c>
       <c r="E414" s="2" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="C415" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-1.4] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D415" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.5</t>
+          <t>TC-DD-1.4</t>
         </is>
       </c>
       <c r="E415" s="2" t="inlineStr">
@@ -10836,12 +10836,12 @@
       </c>
       <c r="C416" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-DD-1.5] NFC Rules of Advertisement and Onboarding [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D416" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.6</t>
+          <t>TC-DD-1.5</t>
         </is>
       </c>
       <c r="E416" s="2" t="inlineStr">
@@ -10861,12 +10861,12 @@
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
+          <t>[TC-DD-1.6] QR Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D417" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.7</t>
+          <t>TC-DD-1.6</t>
         </is>
       </c>
       <c r="E417" s="2" t="inlineStr">
@@ -10886,12 +10886,12 @@
       </c>
       <c r="C418" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.7] Setup Code Format and Label [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D418" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.8</t>
+          <t>TC-DD-1.7</t>
         </is>
       </c>
       <c r="E418" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="C419" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-1.8] QR Code Onboarding Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D419" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.9</t>
+          <t>TC-DD-1.8</t>
         </is>
       </c>
       <c r="E419" s="2" t="inlineStr">
@@ -10936,12 +10936,12 @@
       </c>
       <c r="C420" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.9] Manual Pairing Code Payload Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D420" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.10</t>
+          <t>TC-DD-1.9</t>
         </is>
       </c>
       <c r="E420" s="2" t="inlineStr">
@@ -10961,12 +10961,12 @@
       </c>
       <c r="C421" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-1.10] NFC Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D421" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.11</t>
+          <t>TC-DD-1.10</t>
         </is>
       </c>
       <c r="E421" s="2" t="inlineStr">
@@ -10986,12 +10986,12 @@
       </c>
       <c r="C422" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.11] Concatenation - QR Code Onboarding Payload Verification [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D422" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.12</t>
+          <t>TC-DD-1.11</t>
         </is>
       </c>
       <c r="E422" s="2" t="inlineStr">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="C423" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.12] Onboarding Payload Verification - Custom Flow = 0 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D423" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.13</t>
+          <t>TC-DD-1.12</t>
         </is>
       </c>
       <c r="E423" s="2" t="inlineStr">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-1.13] Onboarding Payload Verification - Custom Flow = 1 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D424" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.14</t>
+          <t>TC-DD-1.13</t>
         </is>
       </c>
       <c r="E424" s="2" t="inlineStr">
@@ -11061,12 +11061,12 @@
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
+          <t>[TC-DD-1.14] Onboarding Payload Verification - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D425" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-1.15</t>
+          <t>TC-DD-1.14</t>
         </is>
       </c>
       <c r="E425" s="2" t="inlineStr">
@@ -11086,12 +11086,12 @@
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
+          <t>[TC-DD-1.15] Onboarding Payload Verification - Unique Discriminator and Passcode Values [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D426" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-2.1</t>
+          <t>TC-DD-1.15</t>
         </is>
       </c>
       <c r="E426" s="2" t="inlineStr">
@@ -11111,12 +11111,12 @@
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
+          <t>[TC-DD-2.1] Announcement by Device Verification [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D427" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-2.2</t>
+          <t>TC-DD-2.1</t>
         </is>
       </c>
       <c r="E427" s="2" t="inlineStr">
@@ -11136,12 +11136,12 @@
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
+          <t>[TC-DD-2.2] Discovery by Commissioner Verification [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D428" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.1</t>
+          <t>TC-DD-2.2</t>
         </is>
       </c>
       <c r="E428" s="2" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
+          <t>[TC-DD-3.1] Commissioning Flow - Concurrent [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D429" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.2</t>
+          <t>TC-DD-3.1</t>
         </is>
       </c>
       <c r="E429" s="2" t="inlineStr">
@@ -11186,12 +11186,12 @@
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
+          <t>[TC-DD-3.2] Commissioning Flow - Non-concurrent [DUT - Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D430" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.3</t>
+          <t>TC-DD-3.2</t>
         </is>
       </c>
       <c r="E430" s="2" t="inlineStr">
@@ -11211,12 +11211,12 @@
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
+          <t>[TC-DD-3.3] User Directed Commissioning [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D431" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.4</t>
+          <t>TC-DD-3.3</t>
         </is>
       </c>
       <c r="E431" s="2" t="inlineStr">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
+          <t>[TC-DD-3.4] User Directed Commissioning [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D432" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.5</t>
+          <t>TC-DD-3.4</t>
         </is>
       </c>
       <c r="E432" s="2" t="inlineStr">
@@ -11261,12 +11261,12 @@
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.5] Commissioning Flow - Concurrent [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D433" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.6</t>
+          <t>TC-DD-3.5</t>
         </is>
       </c>
       <c r="E433" s="2" t="inlineStr">
@@ -11286,12 +11286,12 @@
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.6] Commissioning Flow - Non-concurrent [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D434" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.7</t>
+          <t>TC-DD-3.6</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr">
@@ -11311,12 +11311,12 @@
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
+          <t>[TC-DD-3.7] Commissioning Flow - Concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D435" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.8</t>
+          <t>TC-DD-3.7</t>
         </is>
       </c>
       <c r="E435" s="2" t="inlineStr">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
+          <t>[TC-DD-3.8] Commissioning Flow - Non-concurrent - Negative Scenario [DUT - Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D436" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.9</t>
+          <t>TC-DD-3.8</t>
         </is>
       </c>
       <c r="E436" s="2" t="inlineStr">
@@ -11361,12 +11361,12 @@
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
+          <t>[TC-DD-3.9] Commissioning Flow - Custom Flow = 2 [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D437" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.10</t>
+          <t>TC-DD-3.9</t>
         </is>
       </c>
       <c r="E437" s="2" t="inlineStr">
@@ -11386,12 +11386,12 @@
       </c>
       <c r="C438" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.10] Commissioning Flow - Custom Flow = 2 [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D438" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.11</t>
+          <t>TC-DD-3.10</t>
         </is>
       </c>
       <c r="E438" s="2" t="inlineStr">
@@ -11411,12 +11411,12 @@
       </c>
       <c r="C439" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.11] Commissioning Flow = 0 (Standard Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D439" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.12</t>
+          <t>TC-DD-3.11</t>
         </is>
       </c>
       <c r="E439" s="2" t="inlineStr">
@@ -11436,12 +11436,12 @@
       </c>
       <c r="C440" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.12] Commissioning Flow = 1 (User-Intent Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D440" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.13</t>
+          <t>TC-DD-3.12</t>
         </is>
       </c>
       <c r="E440" s="2" t="inlineStr">
@@ -11461,12 +11461,12 @@
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.13] Commissioning Flow = 2 (Custom Flow) - QR Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D441" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.14</t>
+          <t>TC-DD-3.13</t>
         </is>
       </c>
       <c r="E441" s="2" t="inlineStr">
@@ -11486,12 +11486,12 @@
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
+          <t>[TC-DD-3.14] Commissioning Flow - QR Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D442" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.15</t>
+          <t>TC-DD-3.14</t>
         </is>
       </c>
       <c r="E442" s="2" t="inlineStr">
@@ -11511,12 +11511,12 @@
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.15] Commissioning Flow - Manual Pairing Code [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D443" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.16</t>
+          <t>TC-DD-3.15</t>
         </is>
       </c>
       <c r="E443" s="2" t="inlineStr">
@@ -11536,12 +11536,12 @@
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
+          <t>[TC-DD-3.16] Commissioning Flow - 11-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D444" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.17</t>
+          <t>TC-DD-3.16</t>
         </is>
       </c>
       <c r="E444" s="2" t="inlineStr">
@@ -11561,12 +11561,12 @@
       </c>
       <c r="C445" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
+          <t>[TC-DD-3.17] Commissioning Flow - 21-digit Manual Pairing Code - Negative Scenario [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D445" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.18</t>
+          <t>TC-DD-3.17</t>
         </is>
       </c>
       <c r="E445" s="2" t="inlineStr">
@@ -11586,12 +11586,12 @@
       </c>
       <c r="C446" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
+          <t>[TC-DD-3.18] Commissioning Flow - Commissioning Multiple Devices [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D446" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.19</t>
+          <t>TC-DD-3.18</t>
         </is>
       </c>
       <c r="E446" s="2" t="inlineStr">
@@ -11611,12 +11611,12 @@
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.19] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D447" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.20</t>
+          <t>TC-DD-3.19</t>
         </is>
       </c>
       <c r="E447" s="2" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="C448" s="3" t="inlineStr">
         <is>
-          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
+          <t>[TC-DD-3.20] Commissioning Flow - Commission, Unpair and Re-commission Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D448" s="3" t="inlineStr">
         <is>
-          <t>TC-DD-3.21</t>
+          <t>TC-DD-3.20</t>
         </is>
       </c>
       <c r="E448" s="2" t="inlineStr">
@@ -11656,17 +11656,17 @@
       </c>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>Basic Information</t>
+          <t>Device Discovery</t>
         </is>
       </c>
       <c r="C449" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-DD-3.21] Commissioning Flow - Commission Multiple-Endpoint Device [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D449" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-1.1</t>
+          <t>TC-DD-3.21</t>
         </is>
       </c>
       <c r="E449" s="2" t="inlineStr">
@@ -11686,12 +11686,12 @@
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-BINFO-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D450" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-2.1</t>
+          <t>TC-BINFO-1.1</t>
         </is>
       </c>
       <c r="E450" s="2" t="inlineStr">
@@ -11711,12 +11711,12 @@
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
+          <t>[TC-BINFO-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D451" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-2.2</t>
+          <t>TC-BINFO-2.1</t>
         </is>
       </c>
       <c r="E451" s="2" t="inlineStr">
@@ -11736,12 +11736,12 @@
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
+          <t>[TC-BINFO-2.2] Events [DUT-Server]</t>
         </is>
       </c>
       <c r="D452" s="3" t="inlineStr">
         <is>
-          <t>TC-BINFO-3.1</t>
+          <t>TC-BINFO-2.2</t>
         </is>
       </c>
       <c r="E452" s="2" t="inlineStr">
@@ -11756,17 +11756,17 @@
       </c>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>Node Operational Credentials</t>
+          <t>Basic Information</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
+          <t>[TC-BINFO-3.1] Appearance Attribute DUT as Server</t>
         </is>
       </c>
       <c r="D453" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-1.2</t>
+          <t>TC-BINFO-3.1</t>
         </is>
       </c>
       <c r="E453" s="2" t="inlineStr">
@@ -11786,12 +11786,12 @@
       </c>
       <c r="C454" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-1.2] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D454" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.1</t>
+          <t>TC-OPCREDS-1.2</t>
         </is>
       </c>
       <c r="E454" s="2" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="C455" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.1] Attribute-NOCs, TrustedRootCertificates list validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D455" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.2</t>
+          <t>TC-OPCREDS-3.1</t>
         </is>
       </c>
       <c r="E455" s="2" t="inlineStr">
@@ -11836,12 +11836,12 @@
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.2] Attribute-CurrentFabricIndex validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D456" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.4</t>
+          <t>TC-OPCREDS-3.2</t>
         </is>
       </c>
       <c r="E456" s="2" t="inlineStr">
@@ -11861,12 +11861,12 @@
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.4] UpdateNOC-Error Condition [DUT-Server]</t>
         </is>
       </c>
       <c r="D457" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.5</t>
+          <t>TC-OPCREDS-3.4</t>
         </is>
       </c>
       <c r="E457" s="2" t="inlineStr">
@@ -11886,12 +11886,12 @@
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.5] NOC Check for UpdateNOC [DUT-Server]</t>
         </is>
       </c>
       <c r="D458" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.6</t>
+          <t>TC-OPCREDS-3.5</t>
         </is>
       </c>
       <c r="E458" s="2" t="inlineStr">
@@ -11911,12 +11911,12 @@
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
+          <t>[TC-OPCREDS-3.6] Last Fabric removal validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D459" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.7</t>
+          <t>TC-OPCREDS-3.6</t>
         </is>
       </c>
       <c r="E459" s="2" t="inlineStr">
@@ -11936,12 +11936,12 @@
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
+          <t>[TC-OPCREDS-3.7] Add Second Fabric over CASE [DUT-Server]</t>
         </is>
       </c>
       <c r="D460" s="3" t="inlineStr">
         <is>
-          <t>TC-OPCREDS-3.3</t>
+          <t>TC-OPCREDS-3.7</t>
         </is>
       </c>
       <c r="E460" s="2" t="inlineStr">
@@ -11956,17 +11956,17 @@
       </c>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>Network Commissioning</t>
+          <t>Node Operational Credentials</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
+          <t>[TC-OPCREDS-3.3] Attribute-NOCs, Commands [DUT-Client]</t>
         </is>
       </c>
       <c r="D461" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-1.3</t>
+          <t>TC-OPCREDS-3.3</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr">
@@ -11986,12 +11986,12 @@
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-CNET-1.3] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D462" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.2</t>
+          <t>TC-CNET-1.3</t>
         </is>
       </c>
       <c r="E462" s="2" t="inlineStr">
@@ -12011,12 +12011,12 @@
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
+          <t>[TC-CNET-4.2] [Thread] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D463" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.3</t>
+          <t>TC-CNET-4.2</t>
         </is>
       </c>
       <c r="E463" s="2" t="inlineStr">
@@ -12036,12 +12036,12 @@
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.3] [Ethernet] Verification for attributes check [DUT-Server]</t>
         </is>
       </c>
       <c r="D464" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.4</t>
+          <t>TC-CNET-4.3</t>
         </is>
       </c>
       <c r="E464" s="2" t="inlineStr">
@@ -12061,12 +12061,12 @@
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-CNET-4.4] [Wi-Fi] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D465" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.5</t>
+          <t>TC-CNET-4.4</t>
         </is>
       </c>
       <c r="E465" s="2" t="inlineStr">
@@ -12086,12 +12086,12 @@
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
+          <t>[TC-CNET-4.5] [Wi-Fi] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D466" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.6</t>
+          <t>TC-CNET-4.5</t>
         </is>
       </c>
       <c r="E466" s="2" t="inlineStr">
@@ -12111,12 +12111,12 @@
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.6] [Thread] FAILSAFE_REQUIRED message Validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D467" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.9</t>
+          <t>TC-CNET-4.6</t>
         </is>
       </c>
       <c r="E467" s="2" t="inlineStr">
@@ -12136,12 +12136,12 @@
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.9] [Wi-Fi] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D468" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.10</t>
+          <t>TC-CNET-4.9</t>
         </is>
       </c>
       <c r="E468" s="2" t="inlineStr">
@@ -12161,12 +12161,12 @@
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.10] [Thread] Verification for RemoveNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D469" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.11</t>
+          <t>TC-CNET-4.10</t>
         </is>
       </c>
       <c r="E469" s="2" t="inlineStr">
@@ -12186,12 +12186,12 @@
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
+          <t>[TC-CNET-4.11] [Wi-Fi] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D470" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.12</t>
+          <t>TC-CNET-4.11</t>
         </is>
       </c>
       <c r="E470" s="2" t="inlineStr">
@@ -12211,12 +12211,12 @@
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.12] [Thread] Verification for ConnectNetwork Command [DUT-Server]</t>
         </is>
       </c>
       <c r="D471" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.13</t>
+          <t>TC-CNET-4.12</t>
         </is>
       </c>
       <c r="E471" s="2" t="inlineStr">
@@ -12236,12 +12236,12 @@
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
+          <t>[TC-CNET-4.13] [Wi-Fi] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D472" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.14</t>
+          <t>TC-CNET-4.13</t>
         </is>
       </c>
       <c r="E472" s="2" t="inlineStr">
@@ -12261,12 +12261,12 @@
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.14] [Thread] Verification for ReorderNetwork command [DUT-Server]</t>
         </is>
       </c>
       <c r="D473" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.15</t>
+          <t>TC-CNET-4.14</t>
         </is>
       </c>
       <c r="E473" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
+          <t>[TC-CNET-4.15] [Wi-Fi] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D474" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.16</t>
+          <t>TC-CNET-4.15</t>
         </is>
       </c>
       <c r="E474" s="2" t="inlineStr">
@@ -12311,12 +12311,12 @@
       </c>
       <c r="C475" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
+          <t>[TC-CNET-4.16] [Thread] NetworkIDNotFound returned in LastNetworkingStatus field validation [DUT-Server]</t>
         </is>
       </c>
       <c r="D475" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.22</t>
+          <t>TC-CNET-4.16</t>
         </is>
       </c>
       <c r="E475" s="2" t="inlineStr">
@@ -12336,12 +12336,12 @@
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.22] [Thread] Verification for ScanNetworks command [DUT-Server]</t>
         </is>
       </c>
       <c r="D476" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.20</t>
+          <t>TC-CNET-4.22</t>
         </is>
       </c>
       <c r="E476" s="2" t="inlineStr">
@@ -12361,12 +12361,12 @@
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
+          <t>[TC-CNET-4.20] [Wi-Fi] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D477" s="3" t="inlineStr">
         <is>
-          <t>TC-CNET-4.21</t>
+          <t>TC-CNET-4.20</t>
         </is>
       </c>
       <c r="E477" s="2" t="inlineStr">
@@ -12381,17 +12381,17 @@
       </c>
       <c r="B478" s="3" t="inlineStr">
         <is>
-          <t>Secure Channel</t>
+          <t>Network Commissioning</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
+          <t>[TC-CNET-4.21] [Thread] Verification for commands check  [DUT-Client]</t>
         </is>
       </c>
       <c r="D478" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.1</t>
+          <t>TC-CNET-4.21</t>
         </is>
       </c>
       <c r="E478" s="2" t="inlineStr">
@@ -12411,12 +12411,12 @@
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
+          <t>[TC-SC-1.1] MRP Max Message Size - REMOVED</t>
         </is>
       </c>
       <c r="D479" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.2</t>
+          <t>TC-SC-1.1</t>
         </is>
       </c>
       <c r="E479" s="2" t="inlineStr">
@@ -12436,12 +12436,12 @@
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
+          <t>[TC-SC-1.2] MRP Message Flows - REMOVED</t>
         </is>
       </c>
       <c r="D480" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.3</t>
+          <t>TC-SC-1.2</t>
         </is>
       </c>
       <c r="E480" s="2" t="inlineStr">
@@ -12461,12 +12461,12 @@
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
+          <t>[TC-SC-1.3] MRP Retransmissions - REMOVED</t>
         </is>
       </c>
       <c r="D481" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-1.4</t>
+          <t>TC-SC-1.3</t>
         </is>
       </c>
       <c r="E481" s="2" t="inlineStr">
@@ -12486,12 +12486,12 @@
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-SC-1.4] MRP message counter and duplicate messaging - REMOVED</t>
         </is>
       </c>
       <c r="D482" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.1</t>
+          <t>TC-SC-1.4</t>
         </is>
       </c>
       <c r="E482" s="2" t="inlineStr">
@@ -12511,12 +12511,12 @@
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
+          <t>[TC-SC-2.1] Session Establishment - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D483" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.2</t>
+          <t>TC-SC-2.1</t>
         </is>
       </c>
       <c r="E483" s="2" t="inlineStr">
@@ -12536,12 +12536,12 @@
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
+          <t>[TC-SC-2.2] Bidirectional Communication - Passcode Authenticated Session Establishment (PASE) - REMOVED</t>
         </is>
       </c>
       <c r="D484" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.3</t>
+          <t>TC-SC-2.2</t>
         </is>
       </c>
       <c r="E484" s="2" t="inlineStr">
@@ -12561,12 +12561,12 @@
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
+          <t>[TC-SC-2.3] PASE Error Handling [DUT_Responder/Commissionee] - REMOVED</t>
         </is>
       </c>
       <c r="D485" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-2.4</t>
+          <t>TC-SC-2.3</t>
         </is>
       </c>
       <c r="E485" s="2" t="inlineStr">
@@ -12586,12 +12586,12 @@
       </c>
       <c r="C486" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
+          <t>[TC-SC-2.4] PASE Error Handling [DUT_Initiator/Commissioner] - REMOVED</t>
         </is>
       </c>
       <c r="D486" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.1</t>
+          <t>TC-SC-2.4</t>
         </is>
       </c>
       <c r="E486" s="2" t="inlineStr">
@@ -12611,12 +12611,12 @@
       </c>
       <c r="C487" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
+          <t>[TC-SC-3.1] Session Establishment - REMOVED</t>
         </is>
       </c>
       <c r="D487" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.2</t>
+          <t>TC-SC-3.1</t>
         </is>
       </c>
       <c r="E487" s="2" t="inlineStr">
@@ -12636,12 +12636,12 @@
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-3.2] CASE Session Resumption [DUT_Responder]</t>
         </is>
       </c>
       <c r="D488" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.3</t>
+          <t>TC-SC-3.2</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr">
@@ -12661,12 +12661,12 @@
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
+          <t>[TC-SC-3.3] CASE Session Resumption [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D489" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.4</t>
+          <t>TC-SC-3.3</t>
         </is>
       </c>
       <c r="E489" s="2" t="inlineStr">
@@ -12686,12 +12686,12 @@
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
+          <t>[TC-SC-3.4] CASE Error Handling [DUT_Responder] - REMOVED</t>
         </is>
       </c>
       <c r="D490" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.5</t>
+          <t>TC-SC-3.4</t>
         </is>
       </c>
       <c r="E490" s="2" t="inlineStr">
@@ -12711,12 +12711,12 @@
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-3.6] CASE Resource validation</t>
+          <t>[TC-SC-3.5] CASE Error Handling [DUT_Initiator] - REMOVED</t>
         </is>
       </c>
       <c r="D491" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-3.6</t>
+          <t>TC-SC-3.5</t>
         </is>
       </c>
       <c r="E491" s="2" t="inlineStr">
@@ -12736,12 +12736,12 @@
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-3.6] CASE Resource validation</t>
         </is>
       </c>
       <c r="D492" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.1</t>
+          <t>TC-SC-3.6</t>
         </is>
       </c>
       <c r="E492" s="2" t="inlineStr">
@@ -12761,12 +12761,12 @@
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-4.1] Commissionable Node Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D493" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.2</t>
+          <t>TC-SC-4.1</t>
         </is>
       </c>
       <c r="E493" s="2" t="inlineStr">
@@ -12786,12 +12786,12 @@
       </c>
       <c r="C494" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.2] Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D494" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.3</t>
+          <t>TC-SC-4.2</t>
         </is>
       </c>
       <c r="E494" s="2" t="inlineStr">
@@ -12811,12 +12811,12 @@
       </c>
       <c r="C495" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
+          <t>[TC-SC-4.3] Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D495" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.4</t>
+          <t>TC-SC-4.3</t>
         </is>
       </c>
       <c r="E495" s="2" t="inlineStr">
@@ -12836,12 +12836,12 @@
       </c>
       <c r="C496" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
+          <t>[TC-SC-4.4] Discovery [DUT as Controller]</t>
         </is>
       </c>
       <c r="D496" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.5</t>
+          <t>TC-SC-4.4</t>
         </is>
       </c>
       <c r="E496" s="2" t="inlineStr">
@@ -12861,12 +12861,12 @@
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
+          <t>[TC-SC-4.5] Discovery [DUT as Commissionee][Thread] - REMOVED</t>
         </is>
       </c>
       <c r="D497" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.6</t>
+          <t>TC-SC-4.5</t>
         </is>
       </c>
       <c r="E497" s="2" t="inlineStr">
@@ -12886,12 +12886,12 @@
       </c>
       <c r="C498" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
+          <t>[TC-SC-4.6] Commissioner Discovery [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D498" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.7</t>
+          <t>TC-SC-4.6</t>
         </is>
       </c>
       <c r="E498" s="2" t="inlineStr">
@@ -12911,12 +12911,12 @@
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
+          <t>[TC-SC-4.7] Commissioner Discovery [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D499" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.8</t>
+          <t>TC-SC-4.7</t>
         </is>
       </c>
       <c r="E499" s="2" t="inlineStr">
@@ -12936,12 +12936,12 @@
       </c>
       <c r="C500" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
+          <t>[TC-SC-4.8] Compressed Fabric ID remains the same for Nodes commissioned to the same fabric [DUT as Commissioner]</t>
         </is>
       </c>
       <c r="D500" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.9</t>
+          <t>TC-SC-4.8</t>
         </is>
       </c>
       <c r="E500" s="2" t="inlineStr">
@@ -12961,12 +12961,12 @@
       </c>
       <c r="C501" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
+          <t>[TC-SC-4.9] Operational Discovery - RIO support [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D501" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-4.10</t>
+          <t>TC-SC-4.9</t>
         </is>
       </c>
       <c r="E501" s="2" t="inlineStr">
@@ -12981,17 +12981,17 @@
       </c>
       <c r="B502" s="3" t="inlineStr">
         <is>
-          <t>Group Communication</t>
+          <t>Secure Channel</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
+          <t>[TC-SC-4.10] Operational Discovery - SIT ICD Node [DUT as Commissionee]</t>
         </is>
       </c>
       <c r="D502" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-1.1</t>
+          <t>TC-SC-4.10</t>
         </is>
       </c>
       <c r="E502" s="2" t="inlineStr">
@@ -13011,12 +13011,12 @@
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
+          <t>[TC-GRPKEY-1.1] Global Attributes with DUT as Server</t>
         </is>
       </c>
       <c r="D503" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-2.1</t>
+          <t>TC-GRPKEY-1.1</t>
         </is>
       </c>
       <c r="E503" s="2" t="inlineStr">
@@ -13036,12 +13036,12 @@
       </c>
       <c r="C504" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
+          <t>[TC-GRPKEY-2.1] Attributes [DUT-Server]</t>
         </is>
       </c>
       <c r="D504" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-2.2</t>
+          <t>TC-GRPKEY-2.1</t>
         </is>
       </c>
       <c r="E504" s="2" t="inlineStr">
@@ -13061,12 +13061,12 @@
       </c>
       <c r="C505" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
+          <t>[TC-GRPKEY-2.2] Primary functionality with DUT as Server</t>
         </is>
       </c>
       <c r="D505" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-5.1</t>
+          <t>TC-GRPKEY-2.2</t>
         </is>
       </c>
       <c r="E505" s="2" t="inlineStr">
@@ -13086,12 +13086,12 @@
       </c>
       <c r="C506" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
+          <t>[TC-SC-5.1] Adding member to a group - TH as Admin and DUT as Group Member</t>
         </is>
       </c>
       <c r="D506" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-5.2</t>
+          <t>TC-SC-5.1</t>
         </is>
       </c>
       <c r="E506" s="2" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
+          <t>[TC-SC-5.2] Receiving a group message - TH to DUT</t>
         </is>
       </c>
       <c r="D507" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-5.3</t>
+          <t>TC-SC-5.2</t>
         </is>
       </c>
       <c r="E507" s="2" t="inlineStr">
@@ -13136,12 +13136,12 @@
       </c>
       <c r="C508" s="3" t="inlineStr">
         <is>
-          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
+          <t>[TC-SC-5.3] Sending a group message - DUT to TH</t>
         </is>
       </c>
       <c r="D508" s="3" t="inlineStr">
         <is>
-          <t>TC-GRPKEY-5.4</t>
+          <t>TC-SC-5.3</t>
         </is>
       </c>
       <c r="E508" s="2" t="inlineStr">
@@ -13161,12 +13161,12 @@
       </c>
       <c r="C509" s="3" t="inlineStr">
         <is>
-          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
+          <t>[TC-GRPKEY-5.4] Verification for KeySetReadResponse Command for CacheAndSync</t>
         </is>
       </c>
       <c r="D509" s="3" t="inlineStr">
         <is>
-          <t>TC-SC-6.1</t>
+          <t>TC-GRPKEY-5.4</t>
         </is>
       </c>
       <c r="E509" s="2" t="inlineStr">
@@ -13181,17 +13181,17 @@
       </c>
       <c r="B510" s="3" t="inlineStr">
         <is>
-          <t>Device Attestation</t>
+          <t>Group Communication</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
+          <t>[TC-SC-6.1] Adding member to a group - DUT as Admin and TH as Group Member [DUT-Client]</t>
         </is>
       </c>
       <c r="D510" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.1</t>
+          <t>TC-SC-6.1</t>
         </is>
       </c>
       <c r="E510" s="2" t="inlineStr">
@@ -13211,12 +13211,12 @@
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
+          <t>[TC-DA-1.1] The NOC SHALL be wiped on Factory Reset [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D511" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.2</t>
+          <t>TC-DA-1.1</t>
         </is>
       </c>
       <c r="E511" s="2" t="inlineStr">
@@ -13236,12 +13236,12 @@
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
+          <t>[TC-DA-1.2] Device Attestation Request Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D512" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.3</t>
+          <t>TC-DA-1.2</t>
         </is>
       </c>
       <c r="E512" s="2" t="inlineStr">
@@ -13261,12 +13261,12 @@
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.3] Device Attestation Request Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D513" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.4</t>
+          <t>TC-DA-1.3</t>
         </is>
       </c>
       <c r="E513" s="2" t="inlineStr">
@@ -13286,12 +13286,12 @@
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
+          <t>[TC-DA-1.4] Device Attestation Request Validation-Error Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D514" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.5</t>
+          <t>TC-DA-1.4</t>
         </is>
       </c>
       <c r="E514" s="2" t="inlineStr">
@@ -13311,12 +13311,12 @@
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
+          <t>[TC-DA-1.5] NOCSR Procedure Validation [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D515" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.6</t>
+          <t>TC-DA-1.5</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr">
@@ -13336,12 +13336,12 @@
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
+          <t>[TC-DA-1.6] NOCSR Procedure Validation [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D516" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.7</t>
+          <t>TC-DA-1.6</t>
         </is>
       </c>
       <c r="E516" s="2" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
+          <t>[TC-DA-1.7] Validate CertificateChainRequest [DUT-Commissionee]</t>
         </is>
       </c>
       <c r="D517" s="3" t="inlineStr">
         <is>
-          <t>TC-DA-1.8</t>
+          <t>TC-DA-1.7</t>
         </is>
       </c>
       <c r="E517" s="2" t="inlineStr">
@@ -13381,17 +13381,17 @@
       </c>
       <c r="B518" s="3" t="inlineStr">
         <is>
-          <t>Interaction Data Model</t>
+          <t>Device Attestation</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
+          <t>[TC-DA-1.8] Device Attestation Request Validation-Success Scenario [DUT-Commissioner]</t>
         </is>
       </c>
       <c r="D518" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-1.1</t>
+          <t>TC-DA-1.8</t>
         </is>
       </c>
       <c r="E518" s="2" t="inlineStr">
@@ -13411,12 +13411,12 @@
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
+          <t>[TC-IDM-1.1] Invoke Request Action from DUT to TH - [DUT as Client]</t>
         </is>
       </c>
       <c r="D519" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-1.2</t>
+          <t>TC-IDM-1.1</t>
         </is>
       </c>
       <c r="E519" s="2" t="inlineStr">
@@ -13436,12 +13436,12 @@
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-1.2] Invoke Response Action from DUT to TH - [DUT as Server]</t>
         </is>
       </c>
       <c r="D520" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-2.1</t>
+          <t>TC-IDM-1.2</t>
         </is>
       </c>
       <c r="E520" s="2" t="inlineStr">
@@ -13461,12 +13461,12 @@
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-IDM-2.1] Read Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D521" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-2.2</t>
+          <t>TC-IDM-2.1</t>
         </is>
       </c>
       <c r="E521" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-2.2] Report Data Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D522" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-3.1</t>
+          <t>TC-IDM-2.2</t>
         </is>
       </c>
       <c r="E522" s="2" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
+          <t>[TC-IDM-3.1] Write Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D523" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-3.2</t>
+          <t>TC-IDM-3.1</t>
         </is>
       </c>
       <c r="E523" s="2" t="inlineStr">
@@ -13536,12 +13536,12 @@
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
+          <t>[TC-IDM-3.2] Write Response Action from DUT to TH. [DUT as Server]</t>
         </is>
       </c>
       <c r="D524" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.1</t>
+          <t>TC-IDM-3.2</t>
         </is>
       </c>
       <c r="E524" s="2" t="inlineStr">
@@ -13561,12 +13561,12 @@
       </c>
       <c r="C525" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.1] SubscriptionRequestMessage from DUT test cases. [DUT as Client]</t>
         </is>
       </c>
       <c r="D525" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.2</t>
+          <t>TC-IDM-4.1</t>
         </is>
       </c>
       <c r="E525" s="2" t="inlineStr">
@@ -13586,12 +13586,12 @@
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.2] Subscription Response Messages from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D526" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.3</t>
+          <t>TC-IDM-4.2</t>
         </is>
       </c>
       <c r="E526" s="2" t="inlineStr">
@@ -13611,12 +13611,12 @@
       </c>
       <c r="C527" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-4.3] Report Data Messages post Subscription Activation from DUT Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D527" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-4.4</t>
+          <t>TC-IDM-4.3</t>
         </is>
       </c>
       <c r="E527" s="2" t="inlineStr">
@@ -13636,12 +13636,12 @@
       </c>
       <c r="C528" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-4.4] Persistent Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D528" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-5.1</t>
+          <t>TC-IDM-4.4</t>
         </is>
       </c>
       <c r="E528" s="2" t="inlineStr">
@@ -13661,12 +13661,12 @@
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
+          <t>[TC-IDM-5.1] Timed Request Action from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D529" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-5.2</t>
+          <t>TC-IDM-5.1</t>
         </is>
       </c>
       <c r="E529" s="2" t="inlineStr">
@@ -13686,12 +13686,12 @@
       </c>
       <c r="C530" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-5.2] Status Response from DUT in response to a Timed Request Action from TH.</t>
         </is>
       </c>
       <c r="D530" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.1</t>
+          <t>TC-IDM-5.2</t>
         </is>
       </c>
       <c r="E530" s="2" t="inlineStr">
@@ -13711,12 +13711,12 @@
       </c>
       <c r="C531" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
+          <t>[TC-IDM-6.1] Events Read Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D531" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.2</t>
+          <t>TC-IDM-6.1</t>
         </is>
       </c>
       <c r="E531" s="2" t="inlineStr">
@@ -13736,12 +13736,12 @@
       </c>
       <c r="C532" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-6.2] Events Subscribe Interaction from TH to DUT. [DUT as Server]</t>
         </is>
       </c>
       <c r="D532" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.3</t>
+          <t>TC-IDM-6.2</t>
         </is>
       </c>
       <c r="E532" s="2" t="inlineStr">
@@ -13761,12 +13761,12 @@
       </c>
       <c r="C533" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
+          <t>[TC-IDM-6.3] Events Read Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D533" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-6.4</t>
+          <t>TC-IDM-6.3</t>
         </is>
       </c>
       <c r="E533" s="2" t="inlineStr">
@@ -13786,12 +13786,12 @@
       </c>
       <c r="C534" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-6.4] Events Subscribe Interaction from DUT to TH. [DUT as Client]</t>
         </is>
       </c>
       <c r="D534" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-7.1</t>
+          <t>TC-IDM-6.4</t>
         </is>
       </c>
       <c r="E534" s="2" t="inlineStr">
@@ -13811,12 +13811,12 @@
       </c>
       <c r="C535" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
+          <t>[TC-IDM-7.1] Multi Fabric Subscription Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D535" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-8.1</t>
+          <t>TC-IDM-7.1</t>
         </is>
       </c>
       <c r="E535" s="2" t="inlineStr">
@@ -13836,12 +13836,12 @@
       </c>
       <c r="C536" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
+          <t>[TC-IDM-8.1] Fabric scoped Test Cases. [DUT as Server]</t>
         </is>
       </c>
       <c r="D536" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-9.1</t>
+          <t>TC-IDM-8.1</t>
         </is>
       </c>
       <c r="E536" s="2" t="inlineStr">
@@ -13861,12 +13861,12 @@
       </c>
       <c r="C537" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
+          <t>[TC-IDM-9.1] CONSTRAINT_ERROR status response test cases [DUT as Server] - REMOVED</t>
         </is>
       </c>
       <c r="D537" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-10.1</t>
+          <t>TC-IDM-9.1</t>
         </is>
       </c>
       <c r="E537" s="2" t="inlineStr">
@@ -13886,12 +13886,12 @@
       </c>
       <c r="C538" s="3" t="inlineStr">
         <is>
-          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
+          <t>[TC-IDM-10.1] Cluster requirements - Cluster ID and Global attribute conformance checks [DUT as Server]</t>
         </is>
       </c>
       <c r="D538" s="3" t="inlineStr">
         <is>
-          <t>TC-IDM-11.1</t>
+          <t>TC-IDM-10.1</t>
         </is>
       </c>
       <c r="E538" s="2" t="inlineStr">
@@ -13906,17 +13906,17 @@
       </c>
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t>Administrator Commissioning</t>
+          <t>Interaction Data Model</t>
         </is>
       </c>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
+          <t>[TC-IDM-11.1] Data types - attribute strings [DUT as Server] - data model</t>
         </is>
       </c>
       <c r="D539" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.1</t>
+          <t>TC-IDM-11.1</t>
         </is>
       </c>
       <c r="E539" s="2" t="inlineStr">
@@ -13936,12 +13936,12 @@
       </c>
       <c r="C540" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.1] Administrator Behavior using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D540" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.2</t>
+          <t>TC-CADMIN-1.1</t>
         </is>
       </c>
       <c r="E540" s="2" t="inlineStr">
@@ -13961,12 +13961,12 @@
       </c>
       <c r="C541" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.2] Administrator Behavior using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D541" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.3</t>
+          <t>TC-CADMIN-1.2</t>
         </is>
       </c>
       <c r="E541" s="2" t="inlineStr">
@@ -13986,12 +13986,12 @@
       </c>
       <c r="C542" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.3] Node Behavior using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D542" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.4</t>
+          <t>TC-CADMIN-1.3</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr">
@@ -14011,12 +14011,12 @@
       </c>
       <c r="C543" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.4] Node Behavior using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D543" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.5</t>
+          <t>TC-CADMIN-1.4</t>
         </is>
       </c>
       <c r="E543" s="2" t="inlineStr">
@@ -14036,12 +14036,12 @@
       </c>
       <c r="C544" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.5] Commissioning window handling timeout and revocation using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D544" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.6</t>
+          <t>TC-CADMIN-1.5</t>
         </is>
       </c>
       <c r="E544" s="2" t="inlineStr">
@@ -14061,12 +14061,12 @@
       </c>
       <c r="C545" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.6] Commissioning window handling timeout and revocation using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D545" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.7</t>
+          <t>TC-CADMIN-1.6</t>
         </is>
       </c>
       <c r="E545" s="2" t="inlineStr">
@@ -14086,12 +14086,12 @@
       </c>
       <c r="C546" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.7] Commissioning window handling timeout and revocation using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D546" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.8</t>
+          <t>TC-CADMIN-1.7</t>
         </is>
       </c>
       <c r="E546" s="2" t="inlineStr">
@@ -14111,12 +14111,12 @@
       </c>
       <c r="C547" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.8] Commissioning window handling timeout and revocation using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D547" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.9</t>
+          <t>TC-CADMIN-1.8</t>
         </is>
       </c>
       <c r="E547" s="2" t="inlineStr">
@@ -14136,12 +14136,12 @@
       </c>
       <c r="C548" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.9] Device exit commissioning mode after 20 failed commission attempts [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D548" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.10</t>
+          <t>TC-CADMIN-1.9</t>
         </is>
       </c>
       <c r="E548" s="2" t="inlineStr">
@@ -14161,12 +14161,12 @@
       </c>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.10] Device exit commissioning mode after 20 failed commission attempts [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D549" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.11</t>
+          <t>TC-CADMIN-1.10</t>
         </is>
       </c>
       <c r="E549" s="2" t="inlineStr">
@@ -14186,12 +14186,12 @@
       </c>
       <c r="C550" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.11] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D550" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.12</t>
+          <t>TC-CADMIN-1.11</t>
         </is>
       </c>
       <c r="E550" s="2" t="inlineStr">
@@ -14211,12 +14211,12 @@
       </c>
       <c r="C551" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.12] Open commissioning window on DUT twice using ECM then BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D551" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.13</t>
+          <t>TC-CADMIN-1.12</t>
         </is>
       </c>
       <c r="E551" s="2" t="inlineStr">
@@ -14236,12 +14236,12 @@
       </c>
       <c r="C552" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.13] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D552" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.14</t>
+          <t>TC-CADMIN-1.13</t>
         </is>
       </c>
       <c r="E552" s="2" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="C553" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.14] Open commissioning window twice on DUT using BCM then ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D553" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.15</t>
+          <t>TC-CADMIN-1.14</t>
         </is>
       </c>
       <c r="E553" s="2" t="inlineStr">
@@ -14286,12 +14286,12 @@
       </c>
       <c r="C554" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.15] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D554" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.16</t>
+          <t>TC-CADMIN-1.15</t>
         </is>
       </c>
       <c r="E554" s="2" t="inlineStr">
@@ -14311,12 +14311,12 @@
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.16] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D555" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.17</t>
+          <t>TC-CADMIN-1.16</t>
         </is>
       </c>
       <c r="E555" s="2" t="inlineStr">
@@ -14336,12 +14336,12 @@
       </c>
       <c r="C556" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
+          <t>[TC-CADMIN-1.17] Removing Fabrics from DUT and Fabric index enumeration using ECM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D556" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.18</t>
+          <t>TC-CADMIN-1.17</t>
         </is>
       </c>
       <c r="E556" s="2" t="inlineStr">
@@ -14361,12 +14361,12 @@
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.18] Removing Fabrics from DUT and Fabric index enumeration using BCM [DUT - Commissioner]</t>
         </is>
       </c>
       <c r="D557" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.19</t>
+          <t>TC-CADMIN-1.18</t>
         </is>
       </c>
       <c r="E557" s="2" t="inlineStr">
@@ -14386,12 +14386,12 @@
       </c>
       <c r="C558" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.19] max number of Commissioned Fabrics and SupportedFabrics rollover using ECM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D558" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.20</t>
+          <t>TC-CADMIN-1.19</t>
         </is>
       </c>
       <c r="E558" s="2" t="inlineStr">
@@ -14411,12 +14411,12 @@
       </c>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.20] max number of Commissioned Fabrics and SupportedFabrics rollover using BCM [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D559" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.21</t>
+          <t>TC-CADMIN-1.20</t>
         </is>
       </c>
       <c r="E559" s="2" t="inlineStr">
@@ -14436,12 +14436,12 @@
       </c>
       <c r="C560" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.21] Open commissioning window - durations max and max+1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D560" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.22</t>
+          <t>TC-CADMIN-1.21</t>
         </is>
       </c>
       <c r="E560" s="2" t="inlineStr">
@@ -14461,12 +14461,12 @@
       </c>
       <c r="C561" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.22] Open commissioning window - durations max and max+1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D561" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.23</t>
+          <t>TC-CADMIN-1.22</t>
         </is>
       </c>
       <c r="E561" s="2" t="inlineStr">
@@ -14486,12 +14486,12 @@
       </c>
       <c r="C562" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.23] Open commissioning window - durations min and min-1 [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D562" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.24</t>
+          <t>TC-CADMIN-1.23</t>
         </is>
       </c>
       <c r="E562" s="2" t="inlineStr">
@@ -14511,12 +14511,12 @@
       </c>
       <c r="C563" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.24] Open commissioning window - durations min and min-1 [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D563" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.25</t>
+          <t>TC-CADMIN-1.24</t>
         </is>
       </c>
       <c r="E563" s="2" t="inlineStr">
@@ -14536,12 +14536,12 @@
       </c>
       <c r="C564" s="3" t="inlineStr">
         <is>
-          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
+          <t>[TC-CADMIN-1.25] Subscription to the attributes - verify subscription response [ECM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D564" s="3" t="inlineStr">
         <is>
-          <t>TC-CADMIN-1.26</t>
+          <t>TC-CADMIN-1.25</t>
         </is>
       </c>
       <c r="E564" s="2" t="inlineStr">
@@ -14556,17 +14556,17 @@
       </c>
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t>Bridge</t>
+          <t>Administrator Commissioning</t>
         </is>
       </c>
       <c r="C565" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
+          <t>[TC-CADMIN-1.26] Subscription to the attributes - verify subscription response [BCM] [DUT - Commissionee]</t>
         </is>
       </c>
       <c r="D565" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-1</t>
+          <t>TC-CADMIN-1.26</t>
         </is>
       </c>
       <c r="E565" s="2" t="inlineStr">
@@ -14586,12 +14586,12 @@
       </c>
       <c r="C566" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
+          <t>[TC-BR-1] Basics of bridging (DUT server)</t>
         </is>
       </c>
       <c r="D566" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-2</t>
+          <t>TC-BR-1</t>
         </is>
       </c>
       <c r="E566" s="2" t="inlineStr">
@@ -14611,12 +14611,12 @@
       </c>
       <c r="C567" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
+          <t>[TC-BR-2] Changing the set of bridged devices (DUT server)</t>
         </is>
       </c>
       <c r="D567" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-3</t>
+          <t>TC-BR-2</t>
         </is>
       </c>
       <c r="E567" s="2" t="inlineStr">
@@ -14636,12 +14636,12 @@
       </c>
       <c r="C568" s="3" t="inlineStr">
         <is>
-          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
+          <t>[TC-BR-3] Changing name and state of a bridged device (DUT server)</t>
         </is>
       </c>
       <c r="D568" s="3" t="inlineStr">
         <is>
-          <t>TC-BR-4</t>
+          <t>TC-BR-3</t>
         </is>
       </c>
       <c r="E568" s="2" t="inlineStr">
@@ -14656,17 +14656,17 @@
       </c>
       <c r="B569" s="3" t="inlineStr">
         <is>
-          <t>Bulk Data Exchange Protocol</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="C569" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-BR-4] DUT client handling of bridges (DUT client)</t>
         </is>
       </c>
       <c r="D569" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.1</t>
+          <t>TC-BR-4</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr">
@@ -14686,12 +14686,12 @@
       </c>
       <c r="C570" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BDX-1.1] Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D570" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.2</t>
+          <t>TC-BDX-1.1</t>
         </is>
       </c>
       <c r="E570" s="2" t="inlineStr">
@@ -14711,12 +14711,12 @@
       </c>
       <c r="C571" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
+          <t>[TC-BDX-1.2] Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D571" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.3</t>
+          <t>TC-BDX-1.2</t>
         </is>
       </c>
       <c r="E571" s="2" t="inlineStr">
@@ -14736,12 +14736,12 @@
       </c>
       <c r="C572" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
+          <t>[TC-BDX-1.3] Response to Sender Initiated BDX Transfer Session - REMOVED</t>
         </is>
       </c>
       <c r="D572" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.4</t>
+          <t>TC-BDX-1.3</t>
         </is>
       </c>
       <c r="E572" s="2" t="inlineStr">
@@ -14761,12 +14761,12 @@
       </c>
       <c r="C573" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BDX-1.4] Response to Receiver Initiated BDX Transfer Session</t>
         </is>
       </c>
       <c r="D573" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.5</t>
+          <t>TC-BDX-1.4</t>
         </is>
       </c>
       <c r="E573" s="2" t="inlineStr">
@@ -14786,12 +14786,12 @@
       </c>
       <c r="C574" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
+          <t>[TC-BDX-1.5] Response to Sender Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D574" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-1.6</t>
+          <t>TC-BDX-1.5</t>
         </is>
       </c>
       <c r="E574" s="2" t="inlineStr">
@@ -14811,12 +14811,12 @@
       </c>
       <c r="C575" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.1] Synchronous File Sending</t>
+          <t>[TC-BDX-1.6] Response to Receiver Initiated BDX Transfer Session - Negative Scenario - REMOVED</t>
         </is>
       </c>
       <c r="D575" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.1</t>
+          <t>TC-BDX-1.6</t>
         </is>
       </c>
       <c r="E575" s="2" t="inlineStr">
@@ -14836,12 +14836,12 @@
       </c>
       <c r="C576" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
+          <t>[TC-BDX-2.1] Synchronous File Sending</t>
         </is>
       </c>
       <c r="D576" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.2</t>
+          <t>TC-BDX-2.1</t>
         </is>
       </c>
       <c r="E576" s="2" t="inlineStr">
@@ -14861,12 +14861,12 @@
       </c>
       <c r="C577" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.2] Synchronous File Receiving</t>
         </is>
       </c>
       <c r="D577" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.3</t>
+          <t>TC-BDX-2.2</t>
         </is>
       </c>
       <c r="E577" s="2" t="inlineStr">
@@ -14886,12 +14886,12 @@
       </c>
       <c r="C578" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
+          <t>[TC-BDX-2.3] Restart Synchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D578" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.4</t>
+          <t>TC-BDX-2.3</t>
         </is>
       </c>
       <c r="E578" s="2" t="inlineStr">
@@ -14911,12 +14911,12 @@
       </c>
       <c r="C579" s="3" t="inlineStr">
         <is>
-          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
+          <t>[TC-BDX-2.4] Asynchronous File Sending - REMOVED</t>
         </is>
       </c>
       <c r="D579" s="3" t="inlineStr">
         <is>
-          <t>TC-BDX-2.5</t>
+          <t>TC-BDX-2.4</t>
         </is>
       </c>
       <c r="E579" s="2" t="inlineStr">
@@ -14931,17 +14931,17 @@
       </c>
       <c r="B580" s="3" t="inlineStr">
         <is>
-          <t>OTA Software Update</t>
+          <t>Bulk Data Exchange Protocol</t>
         </is>
       </c>
       <c r="C580" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
+          <t>[TC-BDX-2.5] Asynchronous File Receiving - REMOVED</t>
         </is>
       </c>
       <c r="D580" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-1.1</t>
+          <t>TC-BDX-2.5</t>
         </is>
       </c>
       <c r="E580" s="2" t="inlineStr">
@@ -14961,12 +14961,12 @@
       </c>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
+          <t>[TC-SU-1.1] Invoke AnnounceOTAProvider from Admin(DUT) to OTA-R</t>
         </is>
       </c>
       <c r="D581" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.1</t>
+          <t>TC-SU-1.1</t>
         </is>
       </c>
       <c r="E581" s="2" t="inlineStr">
@@ -14986,12 +14986,12 @@
       </c>
       <c r="C582" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
+          <t>[TC-SU-2.1] QueryImage Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D582" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.2</t>
+          <t>TC-SU-2.1</t>
         </is>
       </c>
       <c r="E582" s="2" t="inlineStr">
@@ -15011,12 +15011,12 @@
       </c>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
+          <t>[TC-SU-2.2] Handling Different QueryImageResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D583" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.3</t>
+          <t>TC-SU-2.2</t>
         </is>
       </c>
       <c r="E583" s="2" t="inlineStr">
@@ -15036,12 +15036,12 @@
       </c>
       <c r="C584" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.3] Transfer of Software Update Images between DUT and TH/OTA-P</t>
         </is>
       </c>
       <c r="D584" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.4</t>
+          <t>TC-SU-2.3</t>
         </is>
       </c>
       <c r="E584" s="2" t="inlineStr">
@@ -15061,12 +15061,12 @@
       </c>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
+          <t>[TC-SU-2.4] ApplyUpdateRequest Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D585" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.5</t>
+          <t>TC-SU-2.4</t>
         </is>
       </c>
       <c r="E585" s="2" t="inlineStr">
@@ -15086,12 +15086,12 @@
       </c>
       <c r="C586" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
+          <t>[TC-SU-2.5] Handling Different ApplyUpdateResponse Scenarios on Requestor</t>
         </is>
       </c>
       <c r="D586" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.6</t>
+          <t>TC-SU-2.5</t>
         </is>
       </c>
       <c r="E586" s="2" t="inlineStr">
@@ -15111,12 +15111,12 @@
       </c>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
+          <t>[TC-SU-2.6] NotifyUpdateApplied Command from DUT to OTA-P</t>
         </is>
       </c>
       <c r="D587" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.7</t>
+          <t>TC-SU-2.6</t>
         </is>
       </c>
       <c r="E587" s="2" t="inlineStr">
@@ -15136,12 +15136,12 @@
       </c>
       <c r="C588" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
+          <t>[TC-SU-2.7] Verifying Events on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D588" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-2.8</t>
+          <t>TC-SU-2.7</t>
         </is>
       </c>
       <c r="E588" s="2" t="inlineStr">
@@ -15161,12 +15161,12 @@
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
+          <t>[TC-SU-2.8] OTA Functionality in Multi Fabric Scenario</t>
         </is>
       </c>
       <c r="D589" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.1</t>
+          <t>TC-SU-2.8</t>
         </is>
       </c>
       <c r="E589" s="2" t="inlineStr">
@@ -15186,12 +15186,12 @@
       </c>
       <c r="C590" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
+          <t>[TC-SU-3.1] QueryImageResponse from DUT to OTA-R</t>
         </is>
       </c>
       <c r="D590" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.2</t>
+          <t>TC-SU-3.1</t>
         </is>
       </c>
       <c r="E590" s="2" t="inlineStr">
@@ -15211,12 +15211,12 @@
       </c>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
+          <t>[TC-SU-3.2] Handling Different QueryImageResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D591" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.3</t>
+          <t>TC-SU-3.2</t>
         </is>
       </c>
       <c r="E591" s="2" t="inlineStr">
@@ -15236,12 +15236,12 @@
       </c>
       <c r="C592" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
+          <t>[TC-SU-3.3] Transfer of Software Update Images between DUT and OTA-R</t>
         </is>
       </c>
       <c r="D592" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-3.4</t>
+          <t>TC-SU-3.3</t>
         </is>
       </c>
       <c r="E592" s="2" t="inlineStr">
@@ -15261,12 +15261,12 @@
       </c>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
+          <t>[TC-SU-3.4] Handling Different ApplyUpdateResponse Scenarios on Provider</t>
         </is>
       </c>
       <c r="D593" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-4.1</t>
+          <t>TC-SU-3.4</t>
         </is>
       </c>
       <c r="E593" s="2" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="C594" s="3" t="inlineStr">
         <is>
-          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
+          <t>[TC-SU-4.1] Verifying Cluster Attributes on OTA-R(DUT)</t>
         </is>
       </c>
       <c r="D594" s="3" t="inlineStr">
         <is>
-          <t>TC-SU-4.2</t>
+          <t>TC-SU-4.1</t>
         </is>
       </c>
       <c r="E594" s="2" t="inlineStr">
@@ -15306,17 +15306,17 @@
       </c>
       <c r="B595" s="3" t="inlineStr">
         <is>
-          <t>Access Control Enforcement</t>
+          <t>OTA Software Update</t>
         </is>
       </c>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.1] Privileges</t>
+          <t>[TC-SU-4.2] Verifying Cluster Attributes from Admin(DUT)</t>
         </is>
       </c>
       <c r="D595" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.1</t>
+          <t>TC-SU-4.2</t>
         </is>
       </c>
       <c r="E595" s="2" t="inlineStr">
@@ -15336,12 +15336,12 @@
       </c>
       <c r="C596" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.2] Subscriptions</t>
+          <t>[TC-ACE-1.1] Privileges</t>
         </is>
       </c>
       <c r="D596" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.2</t>
+          <t>TC-ACE-1.1</t>
         </is>
       </c>
       <c r="E596" s="2" t="inlineStr">
@@ -15361,12 +15361,12 @@
       </c>
       <c r="C597" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.3] Subjects</t>
+          <t>[TC-ACE-1.2] Subscriptions</t>
         </is>
       </c>
       <c r="D597" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.3</t>
+          <t>TC-ACE-1.2</t>
         </is>
       </c>
       <c r="E597" s="2" t="inlineStr">
@@ -15386,12 +15386,12 @@
       </c>
       <c r="C598" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.4] Targets</t>
+          <t>[TC-ACE-1.3] Subjects</t>
         </is>
       </c>
       <c r="D598" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.4</t>
+          <t>TC-ACE-1.3</t>
         </is>
       </c>
       <c r="E598" s="2" t="inlineStr">
@@ -15411,12 +15411,12 @@
       </c>
       <c r="C599" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.5] Multi-fabric</t>
+          <t>[TC-ACE-1.4] Targets</t>
         </is>
       </c>
       <c r="D599" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.5</t>
+          <t>TC-ACE-1.4</t>
         </is>
       </c>
       <c r="E599" s="2" t="inlineStr">
@@ -15436,12 +15436,12 @@
       </c>
       <c r="C600" s="3" t="inlineStr">
         <is>
-          <t>[TC-ACE-1.6] Group auth mode</t>
+          <t>[TC-ACE-1.5] Multi-fabric</t>
         </is>
       </c>
       <c r="D600" s="3" t="inlineStr">
         <is>
-          <t>TC-ACE-1.6</t>
+          <t>TC-ACE-1.5</t>
         </is>
       </c>
       <c r="E600" s="2" t="inlineStr">
@@ -15456,17 +15456,17 @@
       </c>
       <c r="B601" s="3" t="inlineStr">
         <is>
-          <t>Minimal Resource Requirements</t>
+          <t>Access Control Enforcement</t>
         </is>
       </c>
       <c r="C601" s="3" t="inlineStr">
         <is>
-          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
+          <t>[TC-ACE-1.6] Group auth mode</t>
         </is>
       </c>
       <c r="D601" s="3" t="inlineStr">
         <is>
-          <t>TC-RR-1.1</t>
+          <t>TC-ACE-1.6</t>
         </is>
       </c>
       <c r="E601" s="2" t="inlineStr">
@@ -15481,17 +15481,17 @@
       </c>
       <c r="B602" s="3" t="inlineStr">
         <is>
-          <t>System Model</t>
+          <t>Minimal Resource Requirements</t>
         </is>
       </c>
       <c r="C602" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
+          <t>[TC-RR-1.1] Minimal Resource Requirements for Matter Node</t>
         </is>
       </c>
       <c r="D602" s="3" t="inlineStr">
         <is>
-          <t>TC-SM-1.1</t>
+          <t>TC-RR-1.1</t>
         </is>
       </c>
       <c r="E602" s="2" t="inlineStr">
@@ -15511,12 +15511,12 @@
       </c>
       <c r="C603" s="3" t="inlineStr">
         <is>
-          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+          <t>[TC-SM-1.1] Device composition - Root Node [DUT as Server]</t>
         </is>
       </c>
       <c r="D603" s="3" t="inlineStr">
         <is>
-          <t>TC-SM-1.2</t>
+          <t>TC-SM-1.1</t>
         </is>
       </c>
       <c r="E603" s="2" t="inlineStr">
@@ -15531,20 +15531,45 @@
       </c>
       <c r="B604" s="3" t="inlineStr">
         <is>
+          <t>System Model</t>
+        </is>
+      </c>
+      <c r="C604" s="3" t="inlineStr">
+        <is>
+          <t>[TC-SM-1.2] Device composition - Topology [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D604" s="3" t="inlineStr">
+        <is>
+          <t>TC-SM-1.2</t>
+        </is>
+      </c>
+      <c r="E604" s="2" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" s="3" t="inlineStr">
+        <is>
           <t>Device Types</t>
         </is>
       </c>
-      <c r="C604" s="3" t="inlineStr">
+      <c r="C605" s="3" t="inlineStr">
         <is>
           <t>[TC-DT-1.1] Base Device Type [DUT as Server]</t>
         </is>
       </c>
-      <c r="D604" s="3" t="inlineStr">
+      <c r="D605" s="3" t="inlineStr">
         <is>
           <t>TC-DT-1.1</t>
         </is>
       </c>
-      <c r="E604" s="2" t="inlineStr">
+      <c r="E605" s="2" t="inlineStr">
         <is>
           <t>Core Test Case</t>
         </is>
@@ -15561,7 +15586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F651"/>
+  <dimension ref="A1:F658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36393,6 +36418,230 @@
         </is>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Thermostat</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>[TC-TSTAT-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>TC-TSTAT-1.1</t>
+        </is>
+      </c>
+      <c r="E652" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F652" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Identify</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>[TC-I-1.1] Global Attributes with DUT as Server</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>TC-I-1.1</t>
+        </is>
+      </c>
+      <c r="E653" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F653" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>General Diagnostics</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>[TC-DGGEN-3.1] Matter Specification 1.2 errata [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>TC-DGGEN-3.1</t>
+        </is>
+      </c>
+      <c r="E654" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F654" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Interaction Data Model</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>[TC-IDM-10.1] Cluster requirements - Cluster ID and Global attribute conformance checks [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>TC-IDM-10.1</t>
+        </is>
+      </c>
+      <c r="E655" s="4" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="F655" s="4" t="inlineStr">
+        <is>
+          <t>ADDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Thermostat</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>[TC-TSTAT-1.1] Global attributes with server as DUT</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>TC-TSTAT-1.1</t>
+        </is>
+      </c>
+      <c r="E656" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F656" s="4" t="inlineStr">
+        <is>
+          <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Identify</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>[TC-I-1.1] Global Attributes with Server as DUT</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>TC-I-1.1</t>
+        </is>
+      </c>
+      <c r="E657" s="4" t="inlineStr">
+        <is>
+          <t>App Test Case</t>
+        </is>
+      </c>
+      <c r="F657" s="4" t="inlineStr">
+        <is>
+          <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-31 15:22:08</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Interaction Data Model</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>[TC-IDM-10.1] Cluster requirements - Global attributes [DUT as Server]</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>TC-IDM-10.1</t>
+        </is>
+      </c>
+      <c r="E658" s="4" t="inlineStr">
+        <is>
+          <t>Core Test Case</t>
+        </is>
+      </c>
+      <c r="F658" s="4" t="inlineStr">
+        <is>
+          <t>REMOVED</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
